--- a/templates/PDS.xlsx
+++ b/templates/PDS.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CHRMIS\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096AA6B9-439B-40AB-890C-A29ADCA5B47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B2150C-6667-43E8-A0D2-3A89991F3D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C1" sheetId="1" r:id="rId1"/>
@@ -2598,7 +2598,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="775">
+  <cellXfs count="777">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -3178,18 +3178,6 @@
     <xf numFmtId="49" fontId="10" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3460,6 +3448,55 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="49" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="49" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -3468,26 +3505,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="49" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="49" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -3500,300 +3517,337 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="48" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="45" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="2" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="2" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="33" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="50" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="32" fillId="5" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="50" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3810,6 +3864,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3845,299 +3913,316 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="32" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="33" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="2" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="2" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="32" fillId="5" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="3" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="48" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="45" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4148,29 +4233,42 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="30" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4200,146 +4298,131 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="6" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="6" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="3" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4350,9 +4433,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="66" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4360,18 +4440,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="41" fillId="2" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4381,6 +4449,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4402,18 +4473,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -4446,95 +4505,439 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="6" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="6" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="73" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4551,24 +4954,9 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -4587,405 +4975,23 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="73" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6125,8 +6131,8 @@
   </sheetPr>
   <dimension ref="A1:S264"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32:F32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51:K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6151,20 +6157,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="408"/>
-      <c r="B1" s="409"/>
-      <c r="C1" s="409"/>
-      <c r="D1" s="409"/>
-      <c r="E1" s="409"/>
-      <c r="F1" s="409"/>
-      <c r="G1" s="409"/>
-      <c r="H1" s="409"/>
-      <c r="I1" s="409"/>
-      <c r="J1" s="409"/>
-      <c r="K1" s="409"/>
-      <c r="L1" s="409"/>
-      <c r="M1" s="409"/>
-      <c r="N1" s="410"/>
+      <c r="A1" s="349"/>
+      <c r="B1" s="350"/>
+      <c r="C1" s="350"/>
+      <c r="D1" s="350"/>
+      <c r="E1" s="350"/>
+      <c r="F1" s="350"/>
+      <c r="G1" s="350"/>
+      <c r="H1" s="350"/>
+      <c r="I1" s="350"/>
+      <c r="J1" s="350"/>
+      <c r="K1" s="350"/>
+      <c r="L1" s="350"/>
+      <c r="M1" s="350"/>
+      <c r="N1" s="351"/>
     </row>
     <row r="2" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="143"/>
@@ -6194,58 +6200,58 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="411" t="s">
+      <c r="A3" s="352" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="412"/>
-      <c r="C3" s="412"/>
-      <c r="D3" s="412"/>
-      <c r="E3" s="412"/>
-      <c r="F3" s="412"/>
-      <c r="G3" s="412"/>
-      <c r="H3" s="412"/>
-      <c r="I3" s="412"/>
-      <c r="J3" s="412"/>
-      <c r="K3" s="412"/>
-      <c r="L3" s="412"/>
-      <c r="M3" s="412"/>
-      <c r="N3" s="413"/>
+      <c r="B3" s="353"/>
+      <c r="C3" s="353"/>
+      <c r="D3" s="353"/>
+      <c r="E3" s="353"/>
+      <c r="F3" s="353"/>
+      <c r="G3" s="353"/>
+      <c r="H3" s="353"/>
+      <c r="I3" s="353"/>
+      <c r="J3" s="353"/>
+      <c r="K3" s="353"/>
+      <c r="L3" s="353"/>
+      <c r="M3" s="353"/>
+      <c r="N3" s="354"/>
     </row>
     <row r="4" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="379" t="s">
+      <c r="A4" s="391" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="380"/>
-      <c r="C4" s="380"/>
-      <c r="D4" s="380"/>
-      <c r="E4" s="380"/>
-      <c r="F4" s="380"/>
-      <c r="G4" s="380"/>
-      <c r="H4" s="380"/>
-      <c r="I4" s="380"/>
-      <c r="J4" s="380"/>
-      <c r="K4" s="380"/>
-      <c r="L4" s="380"/>
-      <c r="M4" s="380"/>
-      <c r="N4" s="381"/>
+      <c r="B4" s="392"/>
+      <c r="C4" s="392"/>
+      <c r="D4" s="392"/>
+      <c r="E4" s="392"/>
+      <c r="F4" s="392"/>
+      <c r="G4" s="392"/>
+      <c r="H4" s="392"/>
+      <c r="I4" s="392"/>
+      <c r="J4" s="392"/>
+      <c r="K4" s="392"/>
+      <c r="L4" s="392"/>
+      <c r="M4" s="392"/>
+      <c r="N4" s="393"/>
     </row>
     <row r="5" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="382" t="s">
+      <c r="A5" s="398" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="383"/>
-      <c r="C5" s="383"/>
-      <c r="D5" s="383"/>
-      <c r="E5" s="383"/>
-      <c r="F5" s="383"/>
-      <c r="G5" s="383"/>
-      <c r="H5" s="383"/>
-      <c r="I5" s="383"/>
-      <c r="J5" s="383"/>
-      <c r="K5" s="383"/>
-      <c r="L5" s="383"/>
-      <c r="M5" s="383"/>
-      <c r="N5" s="384"/>
+      <c r="B5" s="399"/>
+      <c r="C5" s="399"/>
+      <c r="D5" s="399"/>
+      <c r="E5" s="399"/>
+      <c r="F5" s="399"/>
+      <c r="G5" s="399"/>
+      <c r="H5" s="399"/>
+      <c r="I5" s="399"/>
+      <c r="J5" s="399"/>
+      <c r="K5" s="399"/>
+      <c r="L5" s="399"/>
+      <c r="M5" s="399"/>
+      <c r="N5" s="400"/>
     </row>
     <row r="6" spans="1:18" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="173"/>
@@ -6282,65 +6288,65 @@
       <c r="N8" s="140"/>
     </row>
     <row r="9" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="414" t="s">
+      <c r="A9" s="355" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="415"/>
-      <c r="C9" s="415"/>
-      <c r="D9" s="415"/>
-      <c r="E9" s="415"/>
-      <c r="F9" s="415"/>
-      <c r="G9" s="415"/>
-      <c r="H9" s="415"/>
-      <c r="I9" s="415"/>
-      <c r="J9" s="415"/>
-      <c r="K9" s="415"/>
-      <c r="L9" s="415"/>
-      <c r="M9" s="415"/>
-      <c r="N9" s="416"/>
+      <c r="B9" s="356"/>
+      <c r="C9" s="356"/>
+      <c r="D9" s="356"/>
+      <c r="E9" s="356"/>
+      <c r="F9" s="356"/>
+      <c r="G9" s="356"/>
+      <c r="H9" s="356"/>
+      <c r="I9" s="356"/>
+      <c r="J9" s="356"/>
+      <c r="K9" s="356"/>
+      <c r="L9" s="356"/>
+      <c r="M9" s="356"/>
+      <c r="N9" s="357"/>
     </row>
     <row r="10" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="148" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="431" t="s">
+      <c r="B10" s="374" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="344"/>
-      <c r="D10" s="425"/>
-      <c r="E10" s="425"/>
-      <c r="F10" s="425"/>
-      <c r="G10" s="425"/>
-      <c r="H10" s="425"/>
-      <c r="I10" s="425"/>
-      <c r="J10" s="425"/>
-      <c r="K10" s="425"/>
-      <c r="L10" s="425"/>
-      <c r="M10" s="425"/>
-      <c r="N10" s="426"/>
+      <c r="C10" s="375"/>
+      <c r="D10" s="366"/>
+      <c r="E10" s="366"/>
+      <c r="F10" s="366"/>
+      <c r="G10" s="366"/>
+      <c r="H10" s="366"/>
+      <c r="I10" s="366"/>
+      <c r="J10" s="366"/>
+      <c r="K10" s="366"/>
+      <c r="L10" s="366"/>
+      <c r="M10" s="366"/>
+      <c r="N10" s="367"/>
       <c r="P10" s="83"/>
     </row>
     <row r="11" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="432" t="s">
+      <c r="B11" s="376" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="433"/>
-      <c r="D11" s="356"/>
-      <c r="E11" s="357"/>
-      <c r="F11" s="357"/>
-      <c r="G11" s="357"/>
-      <c r="H11" s="357"/>
-      <c r="I11" s="357"/>
-      <c r="J11" s="357"/>
-      <c r="K11" s="358"/>
-      <c r="L11" s="345" t="s">
+      <c r="C11" s="377"/>
+      <c r="D11" s="438"/>
+      <c r="E11" s="439"/>
+      <c r="F11" s="439"/>
+      <c r="G11" s="439"/>
+      <c r="H11" s="439"/>
+      <c r="I11" s="439"/>
+      <c r="J11" s="439"/>
+      <c r="K11" s="440"/>
+      <c r="L11" s="432" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="346"/>
-      <c r="N11" s="347"/>
+      <c r="M11" s="433"/>
+      <c r="N11" s="434"/>
       <c r="P11" s="76" t="s">
         <v>14</v>
       </c>
@@ -6350,21 +6356,21 @@
     </row>
     <row r="12" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="149"/>
-      <c r="B12" s="434" t="s">
+      <c r="B12" s="378" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="435"/>
-      <c r="D12" s="359"/>
-      <c r="E12" s="360"/>
-      <c r="F12" s="360"/>
-      <c r="G12" s="360"/>
-      <c r="H12" s="360"/>
-      <c r="I12" s="360"/>
-      <c r="J12" s="360"/>
-      <c r="K12" s="360"/>
-      <c r="L12" s="361"/>
-      <c r="M12" s="361"/>
-      <c r="N12" s="362"/>
+      <c r="C12" s="379"/>
+      <c r="D12" s="441"/>
+      <c r="E12" s="442"/>
+      <c r="F12" s="442"/>
+      <c r="G12" s="442"/>
+      <c r="H12" s="442"/>
+      <c r="I12" s="442"/>
+      <c r="J12" s="442"/>
+      <c r="K12" s="442"/>
+      <c r="L12" s="443"/>
+      <c r="M12" s="443"/>
+      <c r="N12" s="444"/>
       <c r="P12" s="76" t="s">
         <v>17</v>
       </c>
@@ -6373,26 +6379,26 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="208" t="s">
+      <c r="A13" s="204" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="343" t="s">
+      <c r="B13" s="481" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="344"/>
-      <c r="D13" s="348"/>
-      <c r="E13" s="348"/>
-      <c r="F13" s="349"/>
+      <c r="C13" s="375"/>
+      <c r="D13" s="435"/>
+      <c r="E13" s="435"/>
+      <c r="F13" s="436"/>
       <c r="G13" s="89" t="s">
         <v>21</v>
       </c>
       <c r="H13" s="129"/>
-      <c r="I13" s="255"/>
-      <c r="J13" s="317"/>
-      <c r="K13" s="318"/>
-      <c r="L13" s="318"/>
-      <c r="M13" s="318"/>
-      <c r="N13" s="319"/>
+      <c r="I13" s="251"/>
+      <c r="J13" s="461"/>
+      <c r="K13" s="462"/>
+      <c r="L13" s="462"/>
+      <c r="M13" s="462"/>
+      <c r="N13" s="463"/>
       <c r="P13" s="76" t="s">
         <v>22</v>
       </c>
@@ -6402,19 +6408,19 @@
     </row>
     <row r="14" spans="1:18" ht="3.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="148"/>
-      <c r="B14" s="202"/>
-      <c r="C14" s="202"/>
-      <c r="D14" s="203"/>
-      <c r="E14" s="207"/>
-      <c r="F14" s="207"/>
+      <c r="B14" s="198"/>
+      <c r="C14" s="198"/>
+      <c r="D14" s="199"/>
+      <c r="E14" s="203"/>
+      <c r="F14" s="203"/>
       <c r="G14" s="134"/>
       <c r="H14" s="139"/>
       <c r="I14" s="139"/>
-      <c r="J14" s="204"/>
-      <c r="K14" s="205"/>
-      <c r="L14" s="205"/>
-      <c r="M14" s="205"/>
-      <c r="N14" s="206"/>
+      <c r="J14" s="200"/>
+      <c r="K14" s="201"/>
+      <c r="L14" s="201"/>
+      <c r="M14" s="201"/>
+      <c r="N14" s="202"/>
       <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6425,21 +6431,21 @@
         <v>25</v>
       </c>
       <c r="C15" s="84"/>
-      <c r="D15" s="338"/>
-      <c r="E15" s="338"/>
-      <c r="F15" s="339"/>
-      <c r="G15" s="315" t="s">
+      <c r="D15" s="476"/>
+      <c r="E15" s="476"/>
+      <c r="F15" s="477"/>
+      <c r="G15" s="459" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="316"/>
-      <c r="I15" s="316"/>
+      <c r="H15" s="460"/>
+      <c r="I15" s="460"/>
       <c r="J15" s="130"/>
       <c r="K15" s="131"/>
-      <c r="L15" s="320" t="s">
+      <c r="L15" s="464" t="s">
         <v>27</v>
       </c>
-      <c r="M15" s="320"/>
-      <c r="N15" s="321"/>
+      <c r="M15" s="464"/>
+      <c r="N15" s="465"/>
       <c r="P15" s="76" t="s">
         <v>28</v>
       </c>
@@ -6451,23 +6457,23 @@
       <c r="A16" s="151" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="230" t="s">
+      <c r="B16" s="226" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="85"/>
-      <c r="D16" s="427"/>
-      <c r="E16" s="324"/>
-      <c r="F16" s="428"/>
-      <c r="G16" s="340" t="s">
+      <c r="D16" s="368"/>
+      <c r="E16" s="369"/>
+      <c r="F16" s="370"/>
+      <c r="G16" s="478" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="341"/>
-      <c r="I16" s="342"/>
-      <c r="J16" s="331"/>
-      <c r="K16" s="332"/>
-      <c r="L16" s="332"/>
-      <c r="M16" s="332"/>
-      <c r="N16" s="333"/>
+      <c r="H16" s="479"/>
+      <c r="I16" s="480"/>
+      <c r="J16" s="472"/>
+      <c r="K16" s="473"/>
+      <c r="L16" s="473"/>
+      <c r="M16" s="473"/>
+      <c r="N16" s="474"/>
       <c r="P16" s="76" t="s">
         <v>34</v>
       </c>
@@ -6476,49 +6482,49 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="363">
+      <c r="A17" s="445">
         <v>6</v>
       </c>
-      <c r="B17" s="369" t="s">
+      <c r="B17" s="450" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="370"/>
-      <c r="D17" s="368"/>
-      <c r="E17" s="368"/>
-      <c r="F17" s="368"/>
+      <c r="C17" s="451"/>
+      <c r="D17" s="373"/>
+      <c r="E17" s="373"/>
+      <c r="F17" s="373"/>
       <c r="G17" s="90" t="s">
         <v>38</v>
       </c>
       <c r="H17" s="91"/>
-      <c r="I17" s="334"/>
-      <c r="J17" s="322"/>
-      <c r="K17" s="322"/>
-      <c r="L17" s="322"/>
-      <c r="M17" s="322"/>
-      <c r="N17" s="323"/>
+      <c r="I17" s="429"/>
+      <c r="J17" s="430"/>
+      <c r="K17" s="430"/>
+      <c r="L17" s="430"/>
+      <c r="M17" s="430"/>
+      <c r="N17" s="431"/>
       <c r="Q17" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="364"/>
-      <c r="B18" s="371"/>
-      <c r="C18" s="372"/>
-      <c r="D18" s="350"/>
-      <c r="E18" s="350"/>
-      <c r="F18" s="350"/>
+      <c r="A18" s="446"/>
+      <c r="B18" s="452"/>
+      <c r="C18" s="453"/>
+      <c r="D18" s="437"/>
+      <c r="E18" s="437"/>
+      <c r="F18" s="437"/>
       <c r="G18" s="136"/>
       <c r="H18" s="92"/>
-      <c r="I18" s="303" t="s">
+      <c r="I18" s="475" t="s">
         <v>40</v>
       </c>
-      <c r="J18" s="304"/>
-      <c r="K18" s="304"/>
-      <c r="L18" s="304" t="s">
+      <c r="J18" s="401"/>
+      <c r="K18" s="401"/>
+      <c r="L18" s="401" t="s">
         <v>41</v>
       </c>
-      <c r="M18" s="304"/>
-      <c r="N18" s="305"/>
+      <c r="M18" s="401"/>
+      <c r="N18" s="402"/>
       <c r="Q18" s="3" t="s">
         <v>42</v>
       </c>
@@ -6527,105 +6533,105 @@
       <c r="A19" s="152"/>
       <c r="B19" s="191"/>
       <c r="C19" s="141"/>
-      <c r="D19" s="325"/>
-      <c r="E19" s="326"/>
-      <c r="F19" s="327"/>
+      <c r="D19" s="466"/>
+      <c r="E19" s="467"/>
+      <c r="F19" s="468"/>
       <c r="G19" s="136"/>
       <c r="H19" s="92"/>
-      <c r="I19" s="385"/>
-      <c r="J19" s="386"/>
-      <c r="K19" s="386"/>
-      <c r="L19" s="389"/>
-      <c r="M19" s="386"/>
-      <c r="N19" s="390"/>
+      <c r="I19" s="403"/>
+      <c r="J19" s="404"/>
+      <c r="K19" s="404"/>
+      <c r="L19" s="407"/>
+      <c r="M19" s="404"/>
+      <c r="N19" s="408"/>
       <c r="Q19" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="364"/>
+      <c r="A20" s="446"/>
       <c r="B20" s="191"/>
       <c r="C20" s="124"/>
-      <c r="D20" s="325"/>
-      <c r="E20" s="326"/>
-      <c r="F20" s="327"/>
+      <c r="D20" s="466"/>
+      <c r="E20" s="467"/>
+      <c r="F20" s="468"/>
       <c r="G20" s="134"/>
       <c r="H20" s="139"/>
-      <c r="I20" s="387"/>
-      <c r="J20" s="388"/>
-      <c r="K20" s="388"/>
-      <c r="L20" s="388"/>
-      <c r="M20" s="388"/>
-      <c r="N20" s="391"/>
+      <c r="I20" s="405"/>
+      <c r="J20" s="406"/>
+      <c r="K20" s="406"/>
+      <c r="L20" s="406"/>
+      <c r="M20" s="406"/>
+      <c r="N20" s="409"/>
       <c r="Q20" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="365"/>
+      <c r="A21" s="447"/>
       <c r="B21" s="192"/>
       <c r="C21" s="122"/>
-      <c r="D21" s="328"/>
-      <c r="E21" s="329"/>
-      <c r="F21" s="330"/>
+      <c r="D21" s="469"/>
+      <c r="E21" s="470"/>
+      <c r="F21" s="471"/>
       <c r="G21" s="134"/>
       <c r="H21" s="139"/>
-      <c r="I21" s="392" t="s">
+      <c r="I21" s="410" t="s">
         <v>45</v>
       </c>
-      <c r="J21" s="393"/>
-      <c r="K21" s="393"/>
-      <c r="L21" s="405" t="s">
+      <c r="J21" s="411"/>
+      <c r="K21" s="411"/>
+      <c r="L21" s="426" t="s">
         <v>46</v>
       </c>
-      <c r="M21" s="406"/>
-      <c r="N21" s="407"/>
+      <c r="M21" s="427"/>
+      <c r="N21" s="428"/>
       <c r="Q21" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="366" t="s">
+      <c r="A22" s="448" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="314" t="s">
+      <c r="B22" s="394" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="311"/>
-      <c r="D22" s="350"/>
-      <c r="E22" s="350"/>
-      <c r="F22" s="350"/>
+      <c r="C22" s="395"/>
+      <c r="D22" s="437"/>
+      <c r="E22" s="437"/>
+      <c r="F22" s="437"/>
       <c r="G22" s="134"/>
       <c r="H22" s="139"/>
-      <c r="I22" s="334"/>
-      <c r="J22" s="322"/>
-      <c r="K22" s="322"/>
-      <c r="L22" s="322"/>
-      <c r="M22" s="322"/>
-      <c r="N22" s="323"/>
+      <c r="I22" s="429"/>
+      <c r="J22" s="430"/>
+      <c r="K22" s="430"/>
+      <c r="L22" s="430"/>
+      <c r="M22" s="430"/>
+      <c r="N22" s="431"/>
       <c r="Q22" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="367"/>
-      <c r="B23" s="312"/>
-      <c r="C23" s="313"/>
-      <c r="D23" s="351"/>
-      <c r="E23" s="351"/>
-      <c r="F23" s="351"/>
+      <c r="A23" s="449"/>
+      <c r="B23" s="396"/>
+      <c r="C23" s="397"/>
+      <c r="D23" s="414"/>
+      <c r="E23" s="414"/>
+      <c r="F23" s="414"/>
       <c r="G23" s="134"/>
       <c r="H23" s="139"/>
-      <c r="I23" s="375" t="s">
+      <c r="I23" s="456" t="s">
         <v>51</v>
       </c>
-      <c r="J23" s="376"/>
-      <c r="K23" s="376"/>
-      <c r="L23" s="373" t="s">
+      <c r="J23" s="457"/>
+      <c r="K23" s="457"/>
+      <c r="L23" s="454" t="s">
         <v>52</v>
       </c>
-      <c r="M23" s="373"/>
-      <c r="N23" s="374"/>
+      <c r="M23" s="454"/>
+      <c r="N23" s="455"/>
       <c r="Q23" s="3" t="s">
         <v>53</v>
       </c>
@@ -6634,163 +6640,163 @@
       <c r="A24" s="148" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="354" t="s">
+      <c r="B24" s="332" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="355"/>
-      <c r="D24" s="324"/>
-      <c r="E24" s="324"/>
-      <c r="F24" s="324"/>
-      <c r="G24" s="436" t="s">
+      <c r="C24" s="333"/>
+      <c r="D24" s="369"/>
+      <c r="E24" s="369"/>
+      <c r="F24" s="369"/>
+      <c r="G24" s="380" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="437"/>
-      <c r="I24" s="335"/>
-      <c r="J24" s="336"/>
-      <c r="K24" s="336"/>
-      <c r="L24" s="336"/>
-      <c r="M24" s="336"/>
-      <c r="N24" s="337"/>
+      <c r="H24" s="342"/>
+      <c r="I24" s="385"/>
+      <c r="J24" s="386"/>
+      <c r="K24" s="386"/>
+      <c r="L24" s="386"/>
+      <c r="M24" s="386"/>
+      <c r="N24" s="387"/>
       <c r="Q24" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="352" t="s">
+      <c r="A25" s="412" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="314" t="s">
+      <c r="B25" s="394" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="311"/>
-      <c r="D25" s="368"/>
-      <c r="E25" s="368"/>
-      <c r="F25" s="368"/>
+      <c r="C25" s="395"/>
+      <c r="D25" s="373"/>
+      <c r="E25" s="373"/>
+      <c r="F25" s="373"/>
       <c r="G25" s="97" t="s">
         <v>60</v>
       </c>
       <c r="H25" s="86"/>
-      <c r="I25" s="295"/>
-      <c r="J25" s="296"/>
-      <c r="K25" s="296"/>
-      <c r="L25" s="296"/>
-      <c r="M25" s="296"/>
-      <c r="N25" s="440"/>
+      <c r="I25" s="388"/>
+      <c r="J25" s="383"/>
+      <c r="K25" s="383"/>
+      <c r="L25" s="383"/>
+      <c r="M25" s="383"/>
+      <c r="N25" s="384"/>
       <c r="Q25" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="353"/>
-      <c r="B26" s="312"/>
-      <c r="C26" s="313"/>
-      <c r="D26" s="351"/>
-      <c r="E26" s="351"/>
-      <c r="F26" s="351"/>
+      <c r="A26" s="413"/>
+      <c r="B26" s="396"/>
+      <c r="C26" s="397"/>
+      <c r="D26" s="414"/>
+      <c r="E26" s="414"/>
+      <c r="F26" s="414"/>
       <c r="G26" s="134"/>
       <c r="H26" s="139"/>
-      <c r="I26" s="303" t="s">
+      <c r="I26" s="475" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="304"/>
-      <c r="K26" s="304"/>
-      <c r="L26" s="304" t="s">
+      <c r="J26" s="401"/>
+      <c r="K26" s="401"/>
+      <c r="L26" s="401" t="s">
         <v>41</v>
       </c>
-      <c r="M26" s="304"/>
-      <c r="N26" s="305"/>
+      <c r="M26" s="401"/>
+      <c r="N26" s="402"/>
       <c r="Q26" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="352" t="s">
+      <c r="A27" s="412" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="310" t="s">
+      <c r="B27" s="458" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="311"/>
-      <c r="D27" s="294"/>
-      <c r="E27" s="294"/>
-      <c r="F27" s="294"/>
+      <c r="C27" s="395"/>
+      <c r="D27" s="415"/>
+      <c r="E27" s="415"/>
+      <c r="F27" s="415"/>
       <c r="G27" s="136"/>
       <c r="H27" s="92"/>
-      <c r="I27" s="295"/>
-      <c r="J27" s="296"/>
-      <c r="K27" s="296"/>
-      <c r="L27" s="296"/>
-      <c r="M27" s="296"/>
-      <c r="N27" s="440"/>
+      <c r="I27" s="388"/>
+      <c r="J27" s="383"/>
+      <c r="K27" s="383"/>
+      <c r="L27" s="383"/>
+      <c r="M27" s="383"/>
+      <c r="N27" s="384"/>
       <c r="Q27" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="353"/>
-      <c r="B28" s="312"/>
-      <c r="C28" s="313"/>
-      <c r="D28" s="394"/>
-      <c r="E28" s="394"/>
-      <c r="F28" s="394"/>
+      <c r="A28" s="413"/>
+      <c r="B28" s="396"/>
+      <c r="C28" s="397"/>
+      <c r="D28" s="416"/>
+      <c r="E28" s="416"/>
+      <c r="F28" s="416"/>
       <c r="G28" s="136"/>
       <c r="H28" s="92"/>
-      <c r="I28" s="306" t="s">
+      <c r="I28" s="488" t="s">
         <v>45</v>
       </c>
-      <c r="J28" s="307"/>
-      <c r="K28" s="307"/>
-      <c r="L28" s="308" t="s">
+      <c r="J28" s="489"/>
+      <c r="K28" s="489"/>
+      <c r="L28" s="490" t="s">
         <v>46</v>
       </c>
-      <c r="M28" s="307"/>
-      <c r="N28" s="309"/>
+      <c r="M28" s="489"/>
+      <c r="N28" s="491"/>
       <c r="Q28" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="352" t="s">
+      <c r="A29" s="412" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="314" t="s">
+      <c r="B29" s="394" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="311"/>
-      <c r="D29" s="395"/>
-      <c r="E29" s="294"/>
-      <c r="F29" s="396"/>
+      <c r="C29" s="395"/>
+      <c r="D29" s="417"/>
+      <c r="E29" s="415"/>
+      <c r="F29" s="418"/>
       <c r="G29" s="136"/>
       <c r="H29" s="142"/>
-      <c r="I29" s="300"/>
-      <c r="J29" s="301"/>
-      <c r="K29" s="301"/>
-      <c r="L29" s="301"/>
-      <c r="M29" s="301"/>
-      <c r="N29" s="302"/>
+      <c r="I29" s="485"/>
+      <c r="J29" s="486"/>
+      <c r="K29" s="486"/>
+      <c r="L29" s="486"/>
+      <c r="M29" s="486"/>
+      <c r="N29" s="487"/>
       <c r="Q29" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="353"/>
-      <c r="B30" s="312"/>
-      <c r="C30" s="313"/>
-      <c r="D30" s="397"/>
-      <c r="E30" s="394"/>
-      <c r="F30" s="398"/>
+      <c r="A30" s="413"/>
+      <c r="B30" s="396"/>
+      <c r="C30" s="397"/>
+      <c r="D30" s="419"/>
+      <c r="E30" s="416"/>
+      <c r="F30" s="420"/>
       <c r="G30" s="136"/>
       <c r="H30" s="142"/>
-      <c r="I30" s="438" t="s">
+      <c r="I30" s="381" t="s">
         <v>51</v>
       </c>
-      <c r="J30" s="438"/>
-      <c r="K30" s="438"/>
-      <c r="L30" s="438" t="s">
+      <c r="J30" s="381"/>
+      <c r="K30" s="381"/>
+      <c r="L30" s="381" t="s">
         <v>52</v>
       </c>
-      <c r="M30" s="438"/>
-      <c r="N30" s="439"/>
+      <c r="M30" s="381"/>
+      <c r="N30" s="382"/>
       <c r="Q30" s="3" t="s">
         <v>70</v>
       </c>
@@ -6803,19 +6809,19 @@
         <v>72</v>
       </c>
       <c r="C31" s="85"/>
-      <c r="D31" s="294"/>
-      <c r="E31" s="294"/>
-      <c r="F31" s="294"/>
-      <c r="G31" s="436" t="s">
+      <c r="D31" s="415"/>
+      <c r="E31" s="415"/>
+      <c r="F31" s="415"/>
+      <c r="G31" s="380" t="s">
         <v>56</v>
       </c>
-      <c r="H31" s="437"/>
-      <c r="I31" s="297"/>
-      <c r="J31" s="298"/>
-      <c r="K31" s="298"/>
-      <c r="L31" s="298"/>
-      <c r="M31" s="298"/>
-      <c r="N31" s="299"/>
+      <c r="H31" s="342"/>
+      <c r="I31" s="482"/>
+      <c r="J31" s="483"/>
+      <c r="K31" s="483"/>
+      <c r="L31" s="483"/>
+      <c r="M31" s="483"/>
+      <c r="N31" s="484"/>
       <c r="Q31" s="3" t="s">
         <v>73</v>
       </c>
@@ -6824,46 +6830,46 @@
       <c r="A32" s="148" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="230" t="s">
+      <c r="B32" s="226" t="s">
         <v>75</v>
       </c>
       <c r="C32" s="85"/>
-      <c r="D32" s="294"/>
-      <c r="E32" s="294"/>
-      <c r="F32" s="294"/>
+      <c r="D32" s="415"/>
+      <c r="E32" s="415"/>
+      <c r="F32" s="415"/>
       <c r="G32" s="133" t="s">
         <v>76</v>
       </c>
       <c r="H32" s="137"/>
-      <c r="I32" s="335"/>
-      <c r="J32" s="336"/>
-      <c r="K32" s="336"/>
-      <c r="L32" s="336"/>
-      <c r="M32" s="336"/>
-      <c r="N32" s="337"/>
+      <c r="I32" s="385"/>
+      <c r="J32" s="386"/>
+      <c r="K32" s="386"/>
+      <c r="L32" s="386"/>
+      <c r="M32" s="386"/>
+      <c r="N32" s="387"/>
       <c r="Q32" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="377" t="s">
+      <c r="A33" s="389" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="354"/>
-      <c r="C33" s="355"/>
-      <c r="D33" s="378"/>
-      <c r="E33" s="378"/>
-      <c r="F33" s="378"/>
+      <c r="B33" s="332"/>
+      <c r="C33" s="333"/>
+      <c r="D33" s="390"/>
+      <c r="E33" s="390"/>
+      <c r="F33" s="390"/>
       <c r="G33" s="178" t="s">
         <v>79</v>
       </c>
       <c r="H33" s="135"/>
-      <c r="I33" s="335"/>
-      <c r="J33" s="336"/>
-      <c r="K33" s="336"/>
-      <c r="L33" s="336"/>
-      <c r="M33" s="336"/>
-      <c r="N33" s="337"/>
+      <c r="I33" s="385"/>
+      <c r="J33" s="386"/>
+      <c r="K33" s="386"/>
+      <c r="L33" s="386"/>
+      <c r="M33" s="386"/>
+      <c r="N33" s="387"/>
       <c r="Q33" s="3" t="s">
         <v>80</v>
       </c>
@@ -6874,19 +6880,19 @@
       </c>
       <c r="B34" s="193"/>
       <c r="C34" s="138"/>
-      <c r="D34" s="368"/>
-      <c r="E34" s="368"/>
-      <c r="F34" s="368"/>
+      <c r="D34" s="373"/>
+      <c r="E34" s="373"/>
+      <c r="F34" s="373"/>
       <c r="G34" s="97" t="s">
         <v>82</v>
       </c>
       <c r="H34" s="86"/>
-      <c r="I34" s="401"/>
-      <c r="J34" s="402"/>
-      <c r="K34" s="402"/>
-      <c r="L34" s="402"/>
-      <c r="M34" s="402"/>
-      <c r="N34" s="403"/>
+      <c r="I34" s="423"/>
+      <c r="J34" s="424"/>
+      <c r="K34" s="424"/>
+      <c r="L34" s="424"/>
+      <c r="M34" s="424"/>
+      <c r="N34" s="425"/>
       <c r="Q34" s="3" t="s">
         <v>83</v>
       </c>
@@ -6920,21 +6926,21 @@
         <v>87</v>
       </c>
       <c r="C36" s="197"/>
-      <c r="D36" s="288"/>
-      <c r="E36" s="289"/>
-      <c r="F36" s="289"/>
-      <c r="G36" s="289"/>
-      <c r="H36" s="290"/>
-      <c r="I36" s="399" t="s">
+      <c r="D36" s="492"/>
+      <c r="E36" s="493"/>
+      <c r="F36" s="493"/>
+      <c r="G36" s="493"/>
+      <c r="H36" s="494"/>
+      <c r="I36" s="421" t="s">
         <v>88</v>
       </c>
-      <c r="J36" s="399"/>
-      <c r="K36" s="399"/>
-      <c r="L36" s="400"/>
-      <c r="M36" s="419" t="s">
+      <c r="J36" s="421"/>
+      <c r="K36" s="421"/>
+      <c r="L36" s="422"/>
+      <c r="M36" s="360" t="s">
         <v>89</v>
       </c>
-      <c r="N36" s="420"/>
+      <c r="N36" s="361"/>
       <c r="Q36" s="3" t="s">
         <v>90</v>
       </c>
@@ -6945,19 +6951,19 @@
         <v>91</v>
       </c>
       <c r="C37" s="142"/>
-      <c r="D37" s="291"/>
-      <c r="E37" s="292"/>
-      <c r="F37" s="293"/>
-      <c r="G37" s="404" t="s">
+      <c r="D37" s="296"/>
+      <c r="E37" s="297"/>
+      <c r="F37" s="298"/>
+      <c r="G37" s="312" t="s">
         <v>92</v>
       </c>
-      <c r="H37" s="404"/>
-      <c r="I37" s="284"/>
-      <c r="J37" s="284"/>
-      <c r="K37" s="284"/>
-      <c r="L37" s="285"/>
-      <c r="M37" s="286"/>
-      <c r="N37" s="287"/>
+      <c r="H37" s="312"/>
+      <c r="I37" s="294"/>
+      <c r="J37" s="294"/>
+      <c r="K37" s="294"/>
+      <c r="L37" s="295"/>
+      <c r="M37" s="292"/>
+      <c r="N37" s="293"/>
       <c r="Q37" s="3" t="s">
         <v>93</v>
       </c>
@@ -6968,17 +6974,17 @@
         <v>94</v>
       </c>
       <c r="C38" s="188"/>
-      <c r="D38" s="291"/>
-      <c r="E38" s="292"/>
-      <c r="F38" s="293"/>
-      <c r="G38" s="291"/>
-      <c r="H38" s="293"/>
-      <c r="I38" s="284"/>
-      <c r="J38" s="284"/>
-      <c r="K38" s="284"/>
-      <c r="L38" s="285"/>
-      <c r="M38" s="286"/>
-      <c r="N38" s="287"/>
+      <c r="D38" s="296"/>
+      <c r="E38" s="297"/>
+      <c r="F38" s="298"/>
+      <c r="G38" s="296"/>
+      <c r="H38" s="298"/>
+      <c r="I38" s="294"/>
+      <c r="J38" s="294"/>
+      <c r="K38" s="294"/>
+      <c r="L38" s="295"/>
+      <c r="M38" s="292"/>
+      <c r="N38" s="293"/>
       <c r="Q38" s="3" t="s">
         <v>95</v>
       </c>
@@ -6989,17 +6995,17 @@
         <v>96</v>
       </c>
       <c r="C39" s="85"/>
-      <c r="D39" s="291"/>
-      <c r="E39" s="292"/>
-      <c r="F39" s="292"/>
-      <c r="G39" s="292"/>
-      <c r="H39" s="293"/>
-      <c r="I39" s="284"/>
-      <c r="J39" s="284"/>
-      <c r="K39" s="284"/>
-      <c r="L39" s="285"/>
-      <c r="M39" s="286"/>
-      <c r="N39" s="287"/>
+      <c r="D39" s="296"/>
+      <c r="E39" s="297"/>
+      <c r="F39" s="297"/>
+      <c r="G39" s="297"/>
+      <c r="H39" s="298"/>
+      <c r="I39" s="294"/>
+      <c r="J39" s="294"/>
+      <c r="K39" s="294"/>
+      <c r="L39" s="295"/>
+      <c r="M39" s="292"/>
+      <c r="N39" s="293"/>
       <c r="Q39" s="3" t="s">
         <v>97</v>
       </c>
@@ -7010,17 +7016,17 @@
         <v>98</v>
       </c>
       <c r="C40" s="85"/>
-      <c r="D40" s="291"/>
-      <c r="E40" s="292"/>
-      <c r="F40" s="292"/>
-      <c r="G40" s="292"/>
-      <c r="H40" s="293"/>
-      <c r="I40" s="284"/>
-      <c r="J40" s="284"/>
-      <c r="K40" s="284"/>
-      <c r="L40" s="285"/>
-      <c r="M40" s="286"/>
-      <c r="N40" s="287"/>
+      <c r="D40" s="296"/>
+      <c r="E40" s="297"/>
+      <c r="F40" s="297"/>
+      <c r="G40" s="297"/>
+      <c r="H40" s="298"/>
+      <c r="I40" s="294"/>
+      <c r="J40" s="294"/>
+      <c r="K40" s="294"/>
+      <c r="L40" s="295"/>
+      <c r="M40" s="292"/>
+      <c r="N40" s="293"/>
       <c r="Q40" s="3" t="s">
         <v>99</v>
       </c>
@@ -7031,17 +7037,17 @@
         <v>100</v>
       </c>
       <c r="C41" s="85"/>
-      <c r="D41" s="291"/>
-      <c r="E41" s="292"/>
-      <c r="F41" s="292"/>
-      <c r="G41" s="292"/>
-      <c r="H41" s="293"/>
-      <c r="I41" s="284"/>
-      <c r="J41" s="284"/>
-      <c r="K41" s="284"/>
-      <c r="L41" s="285"/>
-      <c r="M41" s="286"/>
-      <c r="N41" s="287"/>
+      <c r="D41" s="296"/>
+      <c r="E41" s="297"/>
+      <c r="F41" s="297"/>
+      <c r="G41" s="297"/>
+      <c r="H41" s="298"/>
+      <c r="I41" s="294"/>
+      <c r="J41" s="294"/>
+      <c r="K41" s="294"/>
+      <c r="L41" s="295"/>
+      <c r="M41" s="292"/>
+      <c r="N41" s="293"/>
       <c r="Q41" s="3" t="s">
         <v>101</v>
       </c>
@@ -7052,17 +7058,17 @@
         <v>102</v>
       </c>
       <c r="C42" s="123"/>
-      <c r="D42" s="291"/>
-      <c r="E42" s="292"/>
-      <c r="F42" s="292"/>
-      <c r="G42" s="292"/>
-      <c r="H42" s="293"/>
-      <c r="I42" s="284"/>
-      <c r="J42" s="284"/>
-      <c r="K42" s="284"/>
-      <c r="L42" s="285"/>
-      <c r="M42" s="286"/>
-      <c r="N42" s="287"/>
+      <c r="D42" s="296"/>
+      <c r="E42" s="297"/>
+      <c r="F42" s="297"/>
+      <c r="G42" s="297"/>
+      <c r="H42" s="298"/>
+      <c r="I42" s="294"/>
+      <c r="J42" s="294"/>
+      <c r="K42" s="294"/>
+      <c r="L42" s="295"/>
+      <c r="M42" s="292"/>
+      <c r="N42" s="293"/>
       <c r="Q42" s="3" t="s">
         <v>103</v>
       </c>
@@ -7075,17 +7081,17 @@
         <v>105</v>
       </c>
       <c r="C43" s="91"/>
-      <c r="D43" s="291"/>
-      <c r="E43" s="292"/>
-      <c r="F43" s="292"/>
-      <c r="G43" s="292"/>
-      <c r="H43" s="293"/>
-      <c r="I43" s="284"/>
-      <c r="J43" s="284"/>
-      <c r="K43" s="284"/>
-      <c r="L43" s="285"/>
-      <c r="M43" s="286"/>
-      <c r="N43" s="287"/>
+      <c r="D43" s="296"/>
+      <c r="E43" s="297"/>
+      <c r="F43" s="297"/>
+      <c r="G43" s="297"/>
+      <c r="H43" s="298"/>
+      <c r="I43" s="294"/>
+      <c r="J43" s="294"/>
+      <c r="K43" s="294"/>
+      <c r="L43" s="295"/>
+      <c r="M43" s="292"/>
+      <c r="N43" s="293"/>
       <c r="Q43" s="3" t="s">
         <v>106</v>
       </c>
@@ -7096,19 +7102,19 @@
         <v>12</v>
       </c>
       <c r="C44" s="139"/>
-      <c r="D44" s="291"/>
-      <c r="E44" s="292"/>
-      <c r="F44" s="293"/>
-      <c r="G44" s="404" t="s">
+      <c r="D44" s="296"/>
+      <c r="E44" s="297"/>
+      <c r="F44" s="298"/>
+      <c r="G44" s="312" t="s">
         <v>107</v>
       </c>
-      <c r="H44" s="404"/>
-      <c r="I44" s="284"/>
-      <c r="J44" s="284"/>
-      <c r="K44" s="284"/>
-      <c r="L44" s="285"/>
-      <c r="M44" s="286"/>
-      <c r="N44" s="287"/>
+      <c r="H44" s="312"/>
+      <c r="I44" s="294"/>
+      <c r="J44" s="294"/>
+      <c r="K44" s="294"/>
+      <c r="L44" s="295"/>
+      <c r="M44" s="292"/>
+      <c r="N44" s="293"/>
       <c r="Q44" s="3" t="s">
         <v>108</v>
       </c>
@@ -7119,17 +7125,17 @@
         <v>16</v>
       </c>
       <c r="C45" s="181"/>
-      <c r="D45" s="291"/>
-      <c r="E45" s="292"/>
-      <c r="F45" s="293"/>
-      <c r="G45" s="292"/>
-      <c r="H45" s="293"/>
-      <c r="I45" s="284"/>
-      <c r="J45" s="284"/>
-      <c r="K45" s="284"/>
-      <c r="L45" s="285"/>
-      <c r="M45" s="286"/>
-      <c r="N45" s="287"/>
+      <c r="D45" s="296"/>
+      <c r="E45" s="297"/>
+      <c r="F45" s="298"/>
+      <c r="G45" s="297"/>
+      <c r="H45" s="298"/>
+      <c r="I45" s="294"/>
+      <c r="J45" s="294"/>
+      <c r="K45" s="294"/>
+      <c r="L45" s="295"/>
+      <c r="M45" s="292"/>
+      <c r="N45" s="293"/>
       <c r="Q45" s="3" t="s">
         <v>109</v>
       </c>
@@ -7142,17 +7148,17 @@
         <v>111</v>
       </c>
       <c r="C46" s="91"/>
-      <c r="D46" s="473"/>
-      <c r="E46" s="354"/>
-      <c r="F46" s="354"/>
-      <c r="G46" s="354"/>
-      <c r="H46" s="355"/>
-      <c r="I46" s="284"/>
-      <c r="J46" s="284"/>
-      <c r="K46" s="284"/>
-      <c r="L46" s="285"/>
-      <c r="M46" s="286"/>
-      <c r="N46" s="287"/>
+      <c r="D46" s="331"/>
+      <c r="E46" s="332"/>
+      <c r="F46" s="332"/>
+      <c r="G46" s="332"/>
+      <c r="H46" s="333"/>
+      <c r="I46" s="294"/>
+      <c r="J46" s="294"/>
+      <c r="K46" s="294"/>
+      <c r="L46" s="295"/>
+      <c r="M46" s="292"/>
+      <c r="N46" s="293"/>
       <c r="Q46" s="3" t="s">
         <v>112</v>
       </c>
@@ -7163,17 +7169,17 @@
         <v>10</v>
       </c>
       <c r="C47" s="139"/>
-      <c r="D47" s="491"/>
-      <c r="E47" s="492"/>
-      <c r="F47" s="492"/>
-      <c r="G47" s="492"/>
-      <c r="H47" s="493"/>
-      <c r="I47" s="284"/>
-      <c r="J47" s="284"/>
-      <c r="K47" s="284"/>
-      <c r="L47" s="285"/>
-      <c r="M47" s="286"/>
-      <c r="N47" s="287"/>
+      <c r="D47" s="309"/>
+      <c r="E47" s="310"/>
+      <c r="F47" s="310"/>
+      <c r="G47" s="310"/>
+      <c r="H47" s="311"/>
+      <c r="I47" s="294"/>
+      <c r="J47" s="294"/>
+      <c r="K47" s="294"/>
+      <c r="L47" s="295"/>
+      <c r="M47" s="292"/>
+      <c r="N47" s="293"/>
       <c r="Q47" s="3" t="s">
         <v>113</v>
       </c>
@@ -7184,17 +7190,17 @@
         <v>12</v>
       </c>
       <c r="C48" s="139"/>
-      <c r="D48" s="491"/>
-      <c r="E48" s="492"/>
-      <c r="F48" s="492"/>
-      <c r="G48" s="492"/>
-      <c r="H48" s="493"/>
-      <c r="I48" s="284"/>
-      <c r="J48" s="284"/>
-      <c r="K48" s="284"/>
-      <c r="L48" s="285"/>
-      <c r="M48" s="286"/>
-      <c r="N48" s="287"/>
+      <c r="D48" s="309"/>
+      <c r="E48" s="310"/>
+      <c r="F48" s="310"/>
+      <c r="G48" s="310"/>
+      <c r="H48" s="311"/>
+      <c r="I48" s="294"/>
+      <c r="J48" s="294"/>
+      <c r="K48" s="294"/>
+      <c r="L48" s="295"/>
+      <c r="M48" s="292"/>
+      <c r="N48" s="293"/>
       <c r="Q48" s="3" t="s">
         <v>114</v>
       </c>
@@ -7205,19 +7211,19 @@
         <v>16</v>
       </c>
       <c r="C49" s="183"/>
-      <c r="D49" s="466"/>
-      <c r="E49" s="467"/>
-      <c r="F49" s="467"/>
-      <c r="G49" s="467"/>
-      <c r="H49" s="468"/>
-      <c r="I49" s="464" t="s">
+      <c r="D49" s="324"/>
+      <c r="E49" s="325"/>
+      <c r="F49" s="325"/>
+      <c r="G49" s="325"/>
+      <c r="H49" s="326"/>
+      <c r="I49" s="322" t="s">
         <v>115</v>
       </c>
-      <c r="J49" s="464"/>
-      <c r="K49" s="464"/>
-      <c r="L49" s="464"/>
-      <c r="M49" s="464"/>
-      <c r="N49" s="465"/>
+      <c r="J49" s="322"/>
+      <c r="K49" s="322"/>
+      <c r="L49" s="322"/>
+      <c r="M49" s="322"/>
+      <c r="N49" s="323"/>
       <c r="Q49" s="3" t="s">
         <v>116</v>
       </c>
@@ -7233,47 +7239,47 @@
       <c r="F50" s="88"/>
       <c r="G50" s="88"/>
       <c r="H50" s="88"/>
-      <c r="I50" s="429" t="s">
+      <c r="I50" s="371" t="s">
         <v>118</v>
       </c>
-      <c r="J50" s="429"/>
-      <c r="K50" s="429"/>
-      <c r="L50" s="429"/>
-      <c r="M50" s="429"/>
-      <c r="N50" s="430"/>
+      <c r="J50" s="371"/>
+      <c r="K50" s="371"/>
+      <c r="L50" s="371"/>
+      <c r="M50" s="371"/>
+      <c r="N50" s="372"/>
       <c r="Q50" s="3" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="421" t="s">
+      <c r="A51" s="362" t="s">
         <v>120</v>
       </c>
-      <c r="B51" s="444" t="s">
+      <c r="B51" s="337" t="s">
         <v>121</v>
       </c>
-      <c r="C51" s="444"/>
-      <c r="D51" s="447" t="s">
+      <c r="C51" s="337"/>
+      <c r="D51" s="313" t="s">
         <v>122</v>
       </c>
-      <c r="E51" s="448"/>
-      <c r="F51" s="449"/>
-      <c r="G51" s="447" t="s">
+      <c r="E51" s="314"/>
+      <c r="F51" s="340"/>
+      <c r="G51" s="313" t="s">
         <v>123</v>
       </c>
-      <c r="H51" s="448"/>
-      <c r="I51" s="494"/>
-      <c r="J51" s="469" t="s">
+      <c r="H51" s="314"/>
+      <c r="I51" s="315"/>
+      <c r="J51" s="327" t="s">
         <v>124</v>
       </c>
-      <c r="K51" s="470"/>
-      <c r="L51" s="489" t="s">
+      <c r="K51" s="328"/>
+      <c r="L51" s="304" t="s">
         <v>125</v>
       </c>
-      <c r="M51" s="423" t="s">
+      <c r="M51" s="364" t="s">
         <v>126</v>
       </c>
-      <c r="N51" s="417" t="s">
+      <c r="N51" s="358" t="s">
         <v>127</v>
       </c>
       <c r="Q51" s="3" t="s">
@@ -7281,43 +7287,43 @@
       </c>
     </row>
     <row r="52" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="422"/>
-      <c r="B52" s="445"/>
-      <c r="C52" s="445"/>
-      <c r="D52" s="450"/>
-      <c r="E52" s="451"/>
-      <c r="F52" s="452"/>
-      <c r="G52" s="450"/>
-      <c r="H52" s="451"/>
-      <c r="I52" s="495"/>
-      <c r="J52" s="471"/>
-      <c r="K52" s="472"/>
-      <c r="L52" s="489"/>
-      <c r="M52" s="423"/>
-      <c r="N52" s="417"/>
+      <c r="A52" s="363"/>
+      <c r="B52" s="338"/>
+      <c r="C52" s="338"/>
+      <c r="D52" s="316"/>
+      <c r="E52" s="317"/>
+      <c r="F52" s="341"/>
+      <c r="G52" s="316"/>
+      <c r="H52" s="317"/>
+      <c r="I52" s="318"/>
+      <c r="J52" s="329"/>
+      <c r="K52" s="330"/>
+      <c r="L52" s="304"/>
+      <c r="M52" s="364"/>
+      <c r="N52" s="358"/>
       <c r="Q52" s="3" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="195"/>
-      <c r="B53" s="446"/>
-      <c r="C53" s="446"/>
-      <c r="D53" s="453"/>
-      <c r="E53" s="454"/>
-      <c r="F53" s="437"/>
-      <c r="G53" s="453"/>
-      <c r="H53" s="454"/>
-      <c r="I53" s="496"/>
+      <c r="B53" s="339"/>
+      <c r="C53" s="339"/>
+      <c r="D53" s="319"/>
+      <c r="E53" s="320"/>
+      <c r="F53" s="342"/>
+      <c r="G53" s="319"/>
+      <c r="H53" s="320"/>
+      <c r="I53" s="321"/>
       <c r="J53" s="93" t="s">
         <v>130</v>
       </c>
       <c r="K53" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="L53" s="490"/>
-      <c r="M53" s="424"/>
-      <c r="N53" s="418"/>
+      <c r="L53" s="305"/>
+      <c r="M53" s="365"/>
+      <c r="N53" s="359"/>
       <c r="O53" s="95"/>
       <c r="P53" s="95"/>
       <c r="Q53" s="3" t="s">
@@ -7325,172 +7331,172 @@
       </c>
     </row>
     <row r="54" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="198"/>
-      <c r="B54" s="199" t="s">
+      <c r="A54" s="772" t="s">
         <v>133</v>
       </c>
-      <c r="C54" s="199"/>
-      <c r="D54" s="455"/>
-      <c r="E54" s="456"/>
-      <c r="F54" s="457"/>
-      <c r="G54" s="461"/>
-      <c r="H54" s="462"/>
-      <c r="I54" s="463"/>
-      <c r="J54" s="273"/>
-      <c r="K54" s="271"/>
-      <c r="L54" s="274"/>
-      <c r="M54" s="275"/>
-      <c r="N54" s="276"/>
+      <c r="B54" s="771"/>
+      <c r="C54" s="773"/>
+      <c r="D54" s="343"/>
+      <c r="E54" s="344"/>
+      <c r="F54" s="345"/>
+      <c r="G54" s="306"/>
+      <c r="H54" s="307"/>
+      <c r="I54" s="308"/>
+      <c r="J54" s="269"/>
+      <c r="K54" s="267"/>
+      <c r="L54" s="270"/>
+      <c r="M54" s="271"/>
+      <c r="N54" s="272"/>
       <c r="Q54" s="3" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="198"/>
-      <c r="B55" s="199" t="s">
+      <c r="A55" s="772" t="s">
         <v>135</v>
       </c>
-      <c r="C55" s="199"/>
-      <c r="D55" s="455"/>
-      <c r="E55" s="456"/>
-      <c r="F55" s="457"/>
-      <c r="G55" s="461"/>
-      <c r="H55" s="462"/>
-      <c r="I55" s="463"/>
-      <c r="J55" s="273"/>
-      <c r="K55" s="271"/>
-      <c r="L55" s="274"/>
-      <c r="M55" s="277"/>
-      <c r="N55" s="276"/>
+      <c r="B55" s="771"/>
+      <c r="C55" s="773"/>
+      <c r="D55" s="343"/>
+      <c r="E55" s="344"/>
+      <c r="F55" s="345"/>
+      <c r="G55" s="306"/>
+      <c r="H55" s="307"/>
+      <c r="I55" s="308"/>
+      <c r="J55" s="269"/>
+      <c r="K55" s="267"/>
+      <c r="L55" s="270"/>
+      <c r="M55" s="273"/>
+      <c r="N55" s="272"/>
       <c r="Q55" s="3" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="198"/>
-      <c r="B56" s="199" t="s">
+      <c r="A56" s="772" t="s">
         <v>137</v>
       </c>
-      <c r="C56" s="199"/>
-      <c r="D56" s="455"/>
-      <c r="E56" s="456"/>
-      <c r="F56" s="457"/>
-      <c r="G56" s="461"/>
-      <c r="H56" s="462"/>
-      <c r="I56" s="463"/>
-      <c r="J56" s="273"/>
-      <c r="K56" s="271"/>
-      <c r="L56" s="274"/>
-      <c r="M56" s="275"/>
-      <c r="N56" s="276"/>
+      <c r="B56" s="771"/>
+      <c r="C56" s="773"/>
+      <c r="D56" s="343"/>
+      <c r="E56" s="344"/>
+      <c r="F56" s="345"/>
+      <c r="G56" s="306"/>
+      <c r="H56" s="307"/>
+      <c r="I56" s="308"/>
+      <c r="J56" s="269"/>
+      <c r="K56" s="267"/>
+      <c r="L56" s="270"/>
+      <c r="M56" s="271"/>
+      <c r="N56" s="272"/>
       <c r="Q56" s="3" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="198"/>
-      <c r="B57" s="199" t="s">
+      <c r="A57" s="772" t="s">
         <v>139</v>
       </c>
-      <c r="C57" s="199"/>
-      <c r="D57" s="455"/>
-      <c r="E57" s="456"/>
-      <c r="F57" s="457"/>
-      <c r="G57" s="461"/>
-      <c r="H57" s="462"/>
-      <c r="I57" s="463"/>
-      <c r="J57" s="273"/>
-      <c r="K57" s="271"/>
-      <c r="L57" s="274"/>
-      <c r="M57" s="277"/>
-      <c r="N57" s="276"/>
+      <c r="B57" s="771"/>
+      <c r="C57" s="773"/>
+      <c r="D57" s="343"/>
+      <c r="E57" s="344"/>
+      <c r="F57" s="345"/>
+      <c r="G57" s="306"/>
+      <c r="H57" s="307"/>
+      <c r="I57" s="308"/>
+      <c r="J57" s="269"/>
+      <c r="K57" s="267"/>
+      <c r="L57" s="270"/>
+      <c r="M57" s="273"/>
+      <c r="N57" s="272"/>
       <c r="Q57" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="200"/>
-      <c r="B58" s="201" t="s">
+    <row r="58" spans="1:17" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="775" t="s">
         <v>141</v>
       </c>
-      <c r="C58" s="201"/>
-      <c r="D58" s="458"/>
-      <c r="E58" s="459"/>
-      <c r="F58" s="460"/>
-      <c r="G58" s="441"/>
-      <c r="H58" s="442"/>
-      <c r="I58" s="443"/>
-      <c r="J58" s="278"/>
-      <c r="K58" s="272"/>
-      <c r="L58" s="279"/>
-      <c r="M58" s="280"/>
-      <c r="N58" s="276"/>
+      <c r="B58" s="774"/>
+      <c r="C58" s="776"/>
+      <c r="D58" s="346"/>
+      <c r="E58" s="347"/>
+      <c r="F58" s="348"/>
+      <c r="G58" s="334"/>
+      <c r="H58" s="335"/>
+      <c r="I58" s="336"/>
+      <c r="J58" s="274"/>
+      <c r="K58" s="268"/>
+      <c r="L58" s="275"/>
+      <c r="M58" s="276"/>
+      <c r="N58" s="272"/>
       <c r="Q58" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="478" t="s">
+    <row r="59" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="286" t="s">
         <v>115</v>
       </c>
-      <c r="B59" s="479"/>
-      <c r="C59" s="479"/>
-      <c r="D59" s="479"/>
-      <c r="E59" s="479"/>
-      <c r="F59" s="479"/>
-      <c r="G59" s="479"/>
-      <c r="H59" s="479"/>
-      <c r="I59" s="479"/>
-      <c r="J59" s="479"/>
-      <c r="K59" s="479"/>
-      <c r="L59" s="479"/>
-      <c r="M59" s="479"/>
-      <c r="N59" s="480"/>
+      <c r="B59" s="287"/>
+      <c r="C59" s="287"/>
+      <c r="D59" s="287"/>
+      <c r="E59" s="287"/>
+      <c r="F59" s="287"/>
+      <c r="G59" s="287"/>
+      <c r="H59" s="287"/>
+      <c r="I59" s="287"/>
+      <c r="J59" s="287"/>
+      <c r="K59" s="287"/>
+      <c r="L59" s="287"/>
+      <c r="M59" s="287"/>
+      <c r="N59" s="288"/>
       <c r="Q59" s="3" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="475" t="s">
+      <c r="A60" s="283" t="s">
         <v>144</v>
       </c>
-      <c r="B60" s="476"/>
-      <c r="C60" s="477"/>
-      <c r="D60" s="484"/>
-      <c r="E60" s="485"/>
-      <c r="F60" s="485"/>
-      <c r="G60" s="485"/>
-      <c r="H60" s="485"/>
-      <c r="I60" s="486"/>
-      <c r="J60" s="487" t="s">
+      <c r="B60" s="284"/>
+      <c r="C60" s="285"/>
+      <c r="D60" s="299"/>
+      <c r="E60" s="300"/>
+      <c r="F60" s="300"/>
+      <c r="G60" s="300"/>
+      <c r="H60" s="300"/>
+      <c r="I60" s="301"/>
+      <c r="J60" s="302" t="s">
         <v>145</v>
       </c>
-      <c r="K60" s="488"/>
-      <c r="L60" s="481"/>
-      <c r="M60" s="482"/>
-      <c r="N60" s="483"/>
+      <c r="K60" s="303"/>
+      <c r="L60" s="289"/>
+      <c r="M60" s="290"/>
+      <c r="N60" s="291"/>
       <c r="Q60" s="3" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:17" s="128" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="474" t="s">
+      <c r="A61" s="282" t="s">
         <v>147</v>
       </c>
-      <c r="B61" s="474"/>
-      <c r="C61" s="474"/>
-      <c r="D61" s="474"/>
-      <c r="E61" s="474"/>
-      <c r="F61" s="474"/>
-      <c r="G61" s="474"/>
-      <c r="H61" s="474"/>
-      <c r="I61" s="474"/>
-      <c r="J61" s="474"/>
-      <c r="K61" s="474"/>
-      <c r="L61" s="474"/>
-      <c r="M61" s="474"/>
-      <c r="N61" s="474"/>
-      <c r="Q61" s="214" t="s">
+      <c r="B61" s="282"/>
+      <c r="C61" s="282"/>
+      <c r="D61" s="282"/>
+      <c r="E61" s="282"/>
+      <c r="F61" s="282"/>
+      <c r="G61" s="282"/>
+      <c r="H61" s="282"/>
+      <c r="I61" s="282"/>
+      <c r="J61" s="282"/>
+      <c r="K61" s="282"/>
+      <c r="L61" s="282"/>
+      <c r="M61" s="282"/>
+      <c r="N61" s="282"/>
+      <c r="Q61" s="210" t="s">
         <v>148</v>
       </c>
     </row>
@@ -8087,12 +8093,12 @@
       <c r="A93" s="96"/>
       <c r="B93" s="96"/>
       <c r="C93" s="96"/>
-      <c r="D93" s="227" t="s">
+      <c r="D93" s="223" t="s">
         <v>180</v>
       </c>
       <c r="E93" s="96"/>
       <c r="F93" s="96"/>
-      <c r="G93" s="228"/>
+      <c r="G93" s="224"/>
       <c r="H93" s="96"/>
       <c r="I93" s="96"/>
       <c r="J93" s="96"/>
@@ -11208,7 +11214,135 @@
       <c r="N264" s="96"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="152">
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I31:N31"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="B29:C30"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D19:F21"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I24:N24"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D22:F23"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="D17:F18"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="A5:N5"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="I19:K20"/>
+    <mergeCell ref="L19:N20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="D25:F26"/>
+    <mergeCell ref="D27:F28"/>
+    <mergeCell ref="D29:F30"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I33:N33"/>
+    <mergeCell ref="I34:N34"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="N51:N53"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="M51:M53"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="I50:N50"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="I32:N32"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="B51:C53"/>
+    <mergeCell ref="D51:F53"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="I49:N49"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="J51:K52"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="G56:I56"/>
     <mergeCell ref="A61:N61"/>
     <mergeCell ref="A60:C60"/>
     <mergeCell ref="A59:N59"/>
@@ -11233,129 +11367,6 @@
     <mergeCell ref="I46:L46"/>
     <mergeCell ref="I47:L47"/>
     <mergeCell ref="I48:L48"/>
-    <mergeCell ref="I49:N49"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="J51:K52"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="B51:C53"/>
-    <mergeCell ref="D51:F53"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="A9:N9"/>
-    <mergeCell ref="N51:N53"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="M51:M53"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="I50:N50"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="I32:N32"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="A4:N4"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="A5:N5"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="I19:K20"/>
-    <mergeCell ref="L19:N20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="D25:F26"/>
-    <mergeCell ref="D27:F28"/>
-    <mergeCell ref="D29:F30"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I33:N33"/>
-    <mergeCell ref="I34:N34"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D22:F23"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="D17:F18"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="B29:C30"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D19:F21"/>
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I24:N24"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I31:N31"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="D38:F38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="Q12" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -11577,7 +11588,7 @@
   </sheetPr>
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="120" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="120" workbookViewId="0">
       <selection activeCell="G7" sqref="G7:H7"/>
     </sheetView>
   </sheetViews>
@@ -11596,195 +11607,195 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="532"/>
-      <c r="B1" s="533"/>
-      <c r="C1" s="533"/>
-      <c r="D1" s="533"/>
-      <c r="E1" s="533"/>
-      <c r="F1" s="533"/>
-      <c r="G1" s="533"/>
-      <c r="H1" s="533"/>
-      <c r="I1" s="533"/>
-      <c r="J1" s="533"/>
-      <c r="K1" s="534"/>
+      <c r="A1" s="495"/>
+      <c r="B1" s="496"/>
+      <c r="C1" s="496"/>
+      <c r="D1" s="496"/>
+      <c r="E1" s="496"/>
+      <c r="F1" s="496"/>
+      <c r="G1" s="496"/>
+      <c r="H1" s="496"/>
+      <c r="I1" s="496"/>
+      <c r="J1" s="496"/>
+      <c r="K1" s="497"/>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="542" t="s">
+      <c r="A2" s="508" t="s">
         <v>305</v>
       </c>
-      <c r="B2" s="543"/>
-      <c r="C2" s="543"/>
-      <c r="D2" s="543"/>
-      <c r="E2" s="543"/>
-      <c r="F2" s="543"/>
-      <c r="G2" s="543"/>
-      <c r="H2" s="543"/>
-      <c r="I2" s="543"/>
-      <c r="J2" s="543"/>
-      <c r="K2" s="544"/>
+      <c r="B2" s="509"/>
+      <c r="C2" s="509"/>
+      <c r="D2" s="509"/>
+      <c r="E2" s="509"/>
+      <c r="F2" s="509"/>
+      <c r="G2" s="509"/>
+      <c r="H2" s="509"/>
+      <c r="I2" s="509"/>
+      <c r="J2" s="509"/>
+      <c r="K2" s="510"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="125" t="s">
         <v>306</v>
       </c>
-      <c r="B3" s="535" t="s">
+      <c r="B3" s="498" t="s">
         <v>307</v>
       </c>
-      <c r="C3" s="535"/>
-      <c r="D3" s="535"/>
-      <c r="E3" s="536"/>
-      <c r="F3" s="540" t="s">
+      <c r="C3" s="498"/>
+      <c r="D3" s="498"/>
+      <c r="E3" s="499"/>
+      <c r="F3" s="506" t="s">
         <v>308</v>
       </c>
-      <c r="G3" s="537" t="s">
+      <c r="G3" s="502" t="s">
         <v>309</v>
       </c>
-      <c r="H3" s="536"/>
-      <c r="I3" s="537" t="s">
+      <c r="H3" s="499"/>
+      <c r="I3" s="502" t="s">
         <v>310</v>
       </c>
-      <c r="J3" s="538" t="s">
+      <c r="J3" s="504" t="s">
         <v>311</v>
       </c>
-      <c r="K3" s="539"/>
+      <c r="K3" s="505"/>
     </row>
     <row r="4" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="504"/>
-      <c r="C4" s="504"/>
-      <c r="D4" s="504"/>
-      <c r="E4" s="505"/>
-      <c r="F4" s="541"/>
-      <c r="G4" s="531"/>
-      <c r="H4" s="505"/>
-      <c r="I4" s="531"/>
+      <c r="B4" s="500"/>
+      <c r="C4" s="500"/>
+      <c r="D4" s="500"/>
+      <c r="E4" s="501"/>
+      <c r="F4" s="507"/>
+      <c r="G4" s="503"/>
+      <c r="H4" s="501"/>
+      <c r="I4" s="503"/>
       <c r="J4" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="K4" s="231" t="s">
+      <c r="K4" s="227" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="525"/>
-      <c r="B5" s="499"/>
-      <c r="C5" s="499"/>
-      <c r="D5" s="499"/>
-      <c r="E5" s="499"/>
-      <c r="F5" s="773"/>
-      <c r="G5" s="524"/>
-      <c r="H5" s="524"/>
-      <c r="I5" s="225"/>
-      <c r="J5" s="281"/>
+      <c r="A5" s="514"/>
+      <c r="B5" s="515"/>
+      <c r="C5" s="515"/>
+      <c r="D5" s="515"/>
+      <c r="E5" s="515"/>
+      <c r="F5" s="280"/>
+      <c r="G5" s="511"/>
+      <c r="H5" s="511"/>
+      <c r="I5" s="221"/>
+      <c r="J5" s="277"/>
       <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="525"/>
-      <c r="B6" s="499"/>
-      <c r="C6" s="499"/>
-      <c r="D6" s="499"/>
-      <c r="E6" s="499"/>
-      <c r="F6" s="773"/>
-      <c r="G6" s="545"/>
-      <c r="H6" s="546"/>
-      <c r="I6" s="225"/>
-      <c r="J6" s="282"/>
+      <c r="A6" s="514"/>
+      <c r="B6" s="515"/>
+      <c r="C6" s="515"/>
+      <c r="D6" s="515"/>
+      <c r="E6" s="515"/>
+      <c r="F6" s="280"/>
+      <c r="G6" s="512"/>
+      <c r="H6" s="513"/>
+      <c r="I6" s="221"/>
+      <c r="J6" s="278"/>
       <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="525"/>
-      <c r="B7" s="499"/>
-      <c r="C7" s="499"/>
-      <c r="D7" s="499"/>
-      <c r="E7" s="499"/>
-      <c r="F7" s="773"/>
-      <c r="G7" s="524"/>
-      <c r="H7" s="524"/>
-      <c r="I7" s="225"/>
-      <c r="J7" s="282"/>
+      <c r="A7" s="514"/>
+      <c r="B7" s="515"/>
+      <c r="C7" s="515"/>
+      <c r="D7" s="515"/>
+      <c r="E7" s="515"/>
+      <c r="F7" s="280"/>
+      <c r="G7" s="511"/>
+      <c r="H7" s="511"/>
+      <c r="I7" s="221"/>
+      <c r="J7" s="278"/>
       <c r="K7" s="13"/>
     </row>
     <row r="8" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="525"/>
-      <c r="B8" s="499"/>
-      <c r="C8" s="499"/>
-      <c r="D8" s="499"/>
-      <c r="E8" s="499"/>
-      <c r="F8" s="773"/>
-      <c r="G8" s="524"/>
-      <c r="H8" s="524"/>
-      <c r="I8" s="225"/>
-      <c r="J8" s="282"/>
+      <c r="A8" s="514"/>
+      <c r="B8" s="515"/>
+      <c r="C8" s="515"/>
+      <c r="D8" s="515"/>
+      <c r="E8" s="515"/>
+      <c r="F8" s="280"/>
+      <c r="G8" s="511"/>
+      <c r="H8" s="511"/>
+      <c r="I8" s="221"/>
+      <c r="J8" s="278"/>
       <c r="K8" s="13"/>
     </row>
     <row r="9" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="525"/>
-      <c r="B9" s="499"/>
-      <c r="C9" s="499"/>
-      <c r="D9" s="499"/>
-      <c r="E9" s="499"/>
-      <c r="F9" s="773"/>
-      <c r="G9" s="524"/>
-      <c r="H9" s="524"/>
-      <c r="I9" s="225"/>
-      <c r="J9" s="282"/>
+      <c r="A9" s="514"/>
+      <c r="B9" s="515"/>
+      <c r="C9" s="515"/>
+      <c r="D9" s="515"/>
+      <c r="E9" s="515"/>
+      <c r="F9" s="280"/>
+      <c r="G9" s="511"/>
+      <c r="H9" s="511"/>
+      <c r="I9" s="221"/>
+      <c r="J9" s="278"/>
       <c r="K9" s="13"/>
     </row>
     <row r="10" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="525"/>
-      <c r="B10" s="499"/>
-      <c r="C10" s="499"/>
-      <c r="D10" s="499"/>
-      <c r="E10" s="499"/>
-      <c r="F10" s="773"/>
-      <c r="G10" s="524"/>
-      <c r="H10" s="524"/>
-      <c r="I10" s="225"/>
-      <c r="J10" s="282"/>
+      <c r="A10" s="514"/>
+      <c r="B10" s="515"/>
+      <c r="C10" s="515"/>
+      <c r="D10" s="515"/>
+      <c r="E10" s="515"/>
+      <c r="F10" s="280"/>
+      <c r="G10" s="511"/>
+      <c r="H10" s="511"/>
+      <c r="I10" s="221"/>
+      <c r="J10" s="278"/>
       <c r="K10" s="13"/>
     </row>
     <row r="11" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="500"/>
-      <c r="B11" s="501"/>
-      <c r="C11" s="501"/>
-      <c r="D11" s="501"/>
-      <c r="E11" s="501"/>
-      <c r="F11" s="774"/>
-      <c r="G11" s="512"/>
-      <c r="H11" s="512"/>
-      <c r="I11" s="226"/>
-      <c r="J11" s="283"/>
+      <c r="A11" s="535"/>
+      <c r="B11" s="534"/>
+      <c r="C11" s="534"/>
+      <c r="D11" s="534"/>
+      <c r="E11" s="534"/>
+      <c r="F11" s="281"/>
+      <c r="G11" s="542"/>
+      <c r="H11" s="542"/>
+      <c r="I11" s="222"/>
+      <c r="J11" s="279"/>
       <c r="K11" s="14"/>
     </row>
     <row r="12" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="506" t="s">
+      <c r="A12" s="536" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="507"/>
-      <c r="C12" s="507"/>
-      <c r="D12" s="507"/>
-      <c r="E12" s="507"/>
-      <c r="F12" s="507"/>
-      <c r="G12" s="507"/>
-      <c r="H12" s="507"/>
-      <c r="I12" s="507"/>
-      <c r="J12" s="507"/>
-      <c r="K12" s="508"/>
+      <c r="B12" s="537"/>
+      <c r="C12" s="537"/>
+      <c r="D12" s="537"/>
+      <c r="E12" s="537"/>
+      <c r="F12" s="537"/>
+      <c r="G12" s="537"/>
+      <c r="H12" s="537"/>
+      <c r="I12" s="537"/>
+      <c r="J12" s="537"/>
+      <c r="K12" s="538"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="509" t="s">
+      <c r="A13" s="539" t="s">
         <v>314</v>
       </c>
-      <c r="B13" s="510"/>
-      <c r="C13" s="510"/>
-      <c r="D13" s="510"/>
-      <c r="E13" s="510"/>
-      <c r="F13" s="510"/>
-      <c r="G13" s="510"/>
-      <c r="H13" s="510"/>
-      <c r="I13" s="510"/>
-      <c r="J13" s="510"/>
-      <c r="K13" s="511"/>
+      <c r="B13" s="540"/>
+      <c r="C13" s="540"/>
+      <c r="D13" s="540"/>
+      <c r="E13" s="540"/>
+      <c r="F13" s="540"/>
+      <c r="G13" s="540"/>
+      <c r="H13" s="540"/>
+      <c r="I13" s="540"/>
+      <c r="J13" s="540"/>
+      <c r="K13" s="541"/>
     </row>
     <row r="14" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="180" t="s">
@@ -11805,495 +11816,542 @@
       <c r="A15" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="B15" s="502" t="s">
+      <c r="B15" s="521" t="s">
         <v>317</v>
       </c>
-      <c r="C15" s="503"/>
-      <c r="D15" s="530" t="s">
+      <c r="C15" s="522"/>
+      <c r="D15" s="520" t="s">
         <v>318</v>
       </c>
-      <c r="E15" s="502"/>
-      <c r="F15" s="503"/>
-      <c r="G15" s="530" t="s">
+      <c r="E15" s="521"/>
+      <c r="F15" s="522"/>
+      <c r="G15" s="520" t="s">
         <v>319</v>
       </c>
-      <c r="H15" s="502"/>
-      <c r="I15" s="503"/>
-      <c r="J15" s="513" t="s">
+      <c r="H15" s="521"/>
+      <c r="I15" s="522"/>
+      <c r="J15" s="543" t="s">
         <v>320</v>
       </c>
-      <c r="K15" s="526" t="s">
+      <c r="K15" s="516" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
-      <c r="B16" s="504"/>
-      <c r="C16" s="505"/>
-      <c r="D16" s="530"/>
-      <c r="E16" s="502"/>
-      <c r="F16" s="503"/>
-      <c r="G16" s="530"/>
-      <c r="H16" s="502"/>
-      <c r="I16" s="503"/>
-      <c r="J16" s="513"/>
-      <c r="K16" s="526"/>
+      <c r="B16" s="500"/>
+      <c r="C16" s="501"/>
+      <c r="D16" s="520"/>
+      <c r="E16" s="521"/>
+      <c r="F16" s="522"/>
+      <c r="G16" s="520"/>
+      <c r="H16" s="521"/>
+      <c r="I16" s="522"/>
+      <c r="J16" s="543"/>
+      <c r="K16" s="516"/>
     </row>
     <row r="17" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="528" t="s">
+      <c r="A17" s="518" t="s">
         <v>130</v>
       </c>
-      <c r="B17" s="529"/>
+      <c r="B17" s="519"/>
       <c r="C17" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="D17" s="531"/>
-      <c r="E17" s="504"/>
-      <c r="F17" s="505"/>
-      <c r="G17" s="531"/>
-      <c r="H17" s="504"/>
-      <c r="I17" s="505"/>
-      <c r="J17" s="514"/>
-      <c r="K17" s="527"/>
+      <c r="D17" s="503"/>
+      <c r="E17" s="500"/>
+      <c r="F17" s="501"/>
+      <c r="G17" s="503"/>
+      <c r="H17" s="500"/>
+      <c r="I17" s="501"/>
+      <c r="J17" s="544"/>
+      <c r="K17" s="517"/>
     </row>
     <row r="18" spans="1:11" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="497"/>
-      <c r="B18" s="498"/>
+      <c r="A18" s="523"/>
+      <c r="B18" s="524"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="499"/>
-      <c r="E18" s="499"/>
-      <c r="F18" s="499"/>
-      <c r="G18" s="499"/>
-      <c r="H18" s="499"/>
-      <c r="I18" s="499"/>
+      <c r="D18" s="515"/>
+      <c r="E18" s="515"/>
+      <c r="F18" s="515"/>
+      <c r="G18" s="515"/>
+      <c r="H18" s="515"/>
+      <c r="I18" s="515"/>
       <c r="J18" s="8"/>
       <c r="K18" s="9"/>
     </row>
     <row r="19" spans="1:11" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="497"/>
-      <c r="B19" s="498"/>
+      <c r="A19" s="523"/>
+      <c r="B19" s="524"/>
       <c r="C19" s="15"/>
-      <c r="D19" s="499"/>
-      <c r="E19" s="499"/>
-      <c r="F19" s="499"/>
-      <c r="G19" s="499"/>
-      <c r="H19" s="499"/>
-      <c r="I19" s="499"/>
+      <c r="D19" s="515"/>
+      <c r="E19" s="515"/>
+      <c r="F19" s="515"/>
+      <c r="G19" s="515"/>
+      <c r="H19" s="515"/>
+      <c r="I19" s="515"/>
       <c r="J19" s="8"/>
       <c r="K19" s="9"/>
     </row>
     <row r="20" spans="1:11" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="497"/>
-      <c r="B20" s="498"/>
+      <c r="A20" s="523"/>
+      <c r="B20" s="524"/>
       <c r="C20" s="15"/>
-      <c r="D20" s="499"/>
-      <c r="E20" s="499"/>
-      <c r="F20" s="499"/>
-      <c r="G20" s="499"/>
-      <c r="H20" s="499"/>
-      <c r="I20" s="499"/>
+      <c r="D20" s="515"/>
+      <c r="E20" s="515"/>
+      <c r="F20" s="515"/>
+      <c r="G20" s="515"/>
+      <c r="H20" s="515"/>
+      <c r="I20" s="515"/>
       <c r="J20" s="8"/>
       <c r="K20" s="9"/>
     </row>
     <row r="21" spans="1:11" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="497"/>
-      <c r="B21" s="498"/>
+      <c r="A21" s="523"/>
+      <c r="B21" s="524"/>
       <c r="C21" s="15"/>
-      <c r="D21" s="499"/>
-      <c r="E21" s="499"/>
-      <c r="F21" s="499"/>
-      <c r="G21" s="499"/>
-      <c r="H21" s="499"/>
-      <c r="I21" s="499"/>
+      <c r="D21" s="515"/>
+      <c r="E21" s="515"/>
+      <c r="F21" s="515"/>
+      <c r="G21" s="515"/>
+      <c r="H21" s="515"/>
+      <c r="I21" s="515"/>
       <c r="J21" s="8"/>
       <c r="K21" s="9"/>
     </row>
     <row r="22" spans="1:11" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="497"/>
-      <c r="B22" s="498"/>
+      <c r="A22" s="523"/>
+      <c r="B22" s="524"/>
       <c r="C22" s="15"/>
-      <c r="D22" s="499"/>
-      <c r="E22" s="499"/>
-      <c r="F22" s="499"/>
-      <c r="G22" s="499"/>
-      <c r="H22" s="499"/>
-      <c r="I22" s="499"/>
+      <c r="D22" s="515"/>
+      <c r="E22" s="515"/>
+      <c r="F22" s="515"/>
+      <c r="G22" s="515"/>
+      <c r="H22" s="515"/>
+      <c r="I22" s="515"/>
       <c r="J22" s="8"/>
       <c r="K22" s="9"/>
     </row>
     <row r="23" spans="1:11" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="497"/>
-      <c r="B23" s="498"/>
+      <c r="A23" s="523"/>
+      <c r="B23" s="524"/>
       <c r="C23" s="15"/>
-      <c r="D23" s="499"/>
-      <c r="E23" s="499"/>
-      <c r="F23" s="499"/>
-      <c r="G23" s="499"/>
-      <c r="H23" s="499"/>
-      <c r="I23" s="499"/>
+      <c r="D23" s="515"/>
+      <c r="E23" s="515"/>
+      <c r="F23" s="515"/>
+      <c r="G23" s="515"/>
+      <c r="H23" s="515"/>
+      <c r="I23" s="515"/>
       <c r="J23" s="8"/>
       <c r="K23" s="9"/>
     </row>
     <row r="24" spans="1:11" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="497"/>
-      <c r="B24" s="498"/>
+      <c r="A24" s="523"/>
+      <c r="B24" s="524"/>
       <c r="C24" s="15"/>
-      <c r="D24" s="499"/>
-      <c r="E24" s="499"/>
-      <c r="F24" s="499"/>
-      <c r="G24" s="499"/>
-      <c r="H24" s="499"/>
-      <c r="I24" s="499"/>
+      <c r="D24" s="515"/>
+      <c r="E24" s="515"/>
+      <c r="F24" s="515"/>
+      <c r="G24" s="515"/>
+      <c r="H24" s="515"/>
+      <c r="I24" s="515"/>
       <c r="J24" s="8"/>
       <c r="K24" s="9"/>
     </row>
     <row r="25" spans="1:11" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="497"/>
-      <c r="B25" s="498"/>
+      <c r="A25" s="523"/>
+      <c r="B25" s="524"/>
       <c r="C25" s="15"/>
-      <c r="D25" s="499"/>
-      <c r="E25" s="499"/>
-      <c r="F25" s="499"/>
-      <c r="G25" s="499"/>
-      <c r="H25" s="499"/>
-      <c r="I25" s="499"/>
+      <c r="D25" s="515"/>
+      <c r="E25" s="515"/>
+      <c r="F25" s="515"/>
+      <c r="G25" s="515"/>
+      <c r="H25" s="515"/>
+      <c r="I25" s="515"/>
       <c r="J25" s="8"/>
       <c r="K25" s="9"/>
     </row>
     <row r="26" spans="1:11" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="497"/>
-      <c r="B26" s="498"/>
+      <c r="A26" s="523"/>
+      <c r="B26" s="524"/>
       <c r="C26" s="15"/>
-      <c r="D26" s="499"/>
-      <c r="E26" s="499"/>
-      <c r="F26" s="499"/>
-      <c r="G26" s="499"/>
-      <c r="H26" s="499"/>
-      <c r="I26" s="499"/>
+      <c r="D26" s="515"/>
+      <c r="E26" s="515"/>
+      <c r="F26" s="515"/>
+      <c r="G26" s="515"/>
+      <c r="H26" s="515"/>
+      <c r="I26" s="515"/>
       <c r="J26" s="8"/>
       <c r="K26" s="9"/>
     </row>
     <row r="27" spans="1:11" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="497"/>
-      <c r="B27" s="498"/>
+      <c r="A27" s="523"/>
+      <c r="B27" s="524"/>
       <c r="C27" s="15"/>
-      <c r="D27" s="499"/>
-      <c r="E27" s="499"/>
-      <c r="F27" s="499"/>
-      <c r="G27" s="499"/>
-      <c r="H27" s="499"/>
-      <c r="I27" s="499"/>
+      <c r="D27" s="515"/>
+      <c r="E27" s="515"/>
+      <c r="F27" s="515"/>
+      <c r="G27" s="515"/>
+      <c r="H27" s="515"/>
+      <c r="I27" s="515"/>
       <c r="J27" s="8"/>
       <c r="K27" s="9"/>
     </row>
     <row r="28" spans="1:11" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="497"/>
-      <c r="B28" s="498"/>
+      <c r="A28" s="523"/>
+      <c r="B28" s="524"/>
       <c r="C28" s="15"/>
-      <c r="D28" s="499"/>
-      <c r="E28" s="499"/>
-      <c r="F28" s="499"/>
-      <c r="G28" s="499"/>
-      <c r="H28" s="499"/>
-      <c r="I28" s="499"/>
+      <c r="D28" s="515"/>
+      <c r="E28" s="515"/>
+      <c r="F28" s="515"/>
+      <c r="G28" s="515"/>
+      <c r="H28" s="515"/>
+      <c r="I28" s="515"/>
       <c r="J28" s="8"/>
       <c r="K28" s="9"/>
     </row>
     <row r="29" spans="1:11" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="497"/>
-      <c r="B29" s="498"/>
+      <c r="A29" s="523"/>
+      <c r="B29" s="524"/>
       <c r="C29" s="15"/>
-      <c r="D29" s="499"/>
-      <c r="E29" s="499"/>
-      <c r="F29" s="499"/>
-      <c r="G29" s="499"/>
-      <c r="H29" s="499"/>
-      <c r="I29" s="499"/>
+      <c r="D29" s="515"/>
+      <c r="E29" s="515"/>
+      <c r="F29" s="515"/>
+      <c r="G29" s="515"/>
+      <c r="H29" s="515"/>
+      <c r="I29" s="515"/>
       <c r="J29" s="8"/>
       <c r="K29" s="9"/>
     </row>
     <row r="30" spans="1:11" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="497"/>
-      <c r="B30" s="498"/>
+      <c r="A30" s="523"/>
+      <c r="B30" s="524"/>
       <c r="C30" s="15"/>
-      <c r="D30" s="499"/>
-      <c r="E30" s="499"/>
-      <c r="F30" s="499"/>
-      <c r="G30" s="499"/>
-      <c r="H30" s="499"/>
-      <c r="I30" s="499"/>
+      <c r="D30" s="515"/>
+      <c r="E30" s="515"/>
+      <c r="F30" s="515"/>
+      <c r="G30" s="515"/>
+      <c r="H30" s="515"/>
+      <c r="I30" s="515"/>
       <c r="J30" s="8"/>
       <c r="K30" s="9"/>
     </row>
     <row r="31" spans="1:11" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="497"/>
-      <c r="B31" s="498"/>
+      <c r="A31" s="523"/>
+      <c r="B31" s="524"/>
       <c r="C31" s="15"/>
-      <c r="D31" s="499"/>
-      <c r="E31" s="499"/>
-      <c r="F31" s="499"/>
-      <c r="G31" s="499"/>
-      <c r="H31" s="499"/>
-      <c r="I31" s="499"/>
+      <c r="D31" s="515"/>
+      <c r="E31" s="515"/>
+      <c r="F31" s="515"/>
+      <c r="G31" s="515"/>
+      <c r="H31" s="515"/>
+      <c r="I31" s="515"/>
       <c r="J31" s="8"/>
       <c r="K31" s="9"/>
     </row>
     <row r="32" spans="1:11" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="497"/>
-      <c r="B32" s="498"/>
+      <c r="A32" s="523"/>
+      <c r="B32" s="524"/>
       <c r="C32" s="15"/>
-      <c r="D32" s="499"/>
-      <c r="E32" s="499"/>
-      <c r="F32" s="499"/>
-      <c r="G32" s="499"/>
-      <c r="H32" s="499"/>
-      <c r="I32" s="499"/>
+      <c r="D32" s="515"/>
+      <c r="E32" s="515"/>
+      <c r="F32" s="515"/>
+      <c r="G32" s="515"/>
+      <c r="H32" s="515"/>
+      <c r="I32" s="515"/>
       <c r="J32" s="8"/>
       <c r="K32" s="9"/>
     </row>
     <row r="33" spans="1:12" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="497"/>
-      <c r="B33" s="498"/>
+      <c r="A33" s="523"/>
+      <c r="B33" s="524"/>
       <c r="C33" s="15"/>
-      <c r="D33" s="499"/>
-      <c r="E33" s="499"/>
-      <c r="F33" s="499"/>
-      <c r="G33" s="499"/>
-      <c r="H33" s="499"/>
-      <c r="I33" s="499"/>
+      <c r="D33" s="515"/>
+      <c r="E33" s="515"/>
+      <c r="F33" s="515"/>
+      <c r="G33" s="515"/>
+      <c r="H33" s="515"/>
+      <c r="I33" s="515"/>
       <c r="J33" s="8"/>
       <c r="K33" s="9"/>
     </row>
     <row r="34" spans="1:12" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="497"/>
-      <c r="B34" s="498"/>
+      <c r="A34" s="523"/>
+      <c r="B34" s="524"/>
       <c r="C34" s="15"/>
-      <c r="D34" s="499"/>
-      <c r="E34" s="499"/>
-      <c r="F34" s="499"/>
-      <c r="G34" s="499"/>
-      <c r="H34" s="499"/>
-      <c r="I34" s="499"/>
+      <c r="D34" s="515"/>
+      <c r="E34" s="515"/>
+      <c r="F34" s="515"/>
+      <c r="G34" s="515"/>
+      <c r="H34" s="515"/>
+      <c r="I34" s="515"/>
       <c r="J34" s="8"/>
       <c r="K34" s="9"/>
     </row>
     <row r="35" spans="1:12" s="12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="497"/>
-      <c r="B35" s="498"/>
+      <c r="A35" s="523"/>
+      <c r="B35" s="524"/>
       <c r="C35" s="15"/>
-      <c r="D35" s="499"/>
-      <c r="E35" s="499"/>
-      <c r="F35" s="499"/>
-      <c r="G35" s="499"/>
-      <c r="H35" s="499"/>
-      <c r="I35" s="499"/>
+      <c r="D35" s="515"/>
+      <c r="E35" s="515"/>
+      <c r="F35" s="515"/>
+      <c r="G35" s="515"/>
+      <c r="H35" s="515"/>
+      <c r="I35" s="515"/>
       <c r="J35" s="8"/>
       <c r="K35" s="9"/>
     </row>
     <row r="36" spans="1:12" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="497"/>
-      <c r="B36" s="498"/>
+      <c r="A36" s="523"/>
+      <c r="B36" s="524"/>
       <c r="C36" s="15"/>
-      <c r="D36" s="499"/>
-      <c r="E36" s="499"/>
-      <c r="F36" s="499"/>
-      <c r="G36" s="499"/>
-      <c r="H36" s="499"/>
-      <c r="I36" s="499"/>
+      <c r="D36" s="515"/>
+      <c r="E36" s="515"/>
+      <c r="F36" s="515"/>
+      <c r="G36" s="515"/>
+      <c r="H36" s="515"/>
+      <c r="I36" s="515"/>
       <c r="J36" s="8"/>
       <c r="K36" s="9"/>
     </row>
     <row r="37" spans="1:12" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="497"/>
-      <c r="B37" s="498"/>
+      <c r="A37" s="523"/>
+      <c r="B37" s="524"/>
       <c r="C37" s="15"/>
-      <c r="D37" s="499"/>
-      <c r="E37" s="499"/>
-      <c r="F37" s="499"/>
-      <c r="G37" s="499"/>
-      <c r="H37" s="499"/>
-      <c r="I37" s="499"/>
+      <c r="D37" s="515"/>
+      <c r="E37" s="515"/>
+      <c r="F37" s="515"/>
+      <c r="G37" s="515"/>
+      <c r="H37" s="515"/>
+      <c r="I37" s="515"/>
       <c r="J37" s="8"/>
       <c r="K37" s="9"/>
     </row>
     <row r="38" spans="1:12" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="497"/>
-      <c r="B38" s="498"/>
+      <c r="A38" s="523"/>
+      <c r="B38" s="524"/>
       <c r="C38" s="15"/>
-      <c r="D38" s="499"/>
-      <c r="E38" s="499"/>
-      <c r="F38" s="499"/>
-      <c r="G38" s="499"/>
-      <c r="H38" s="499"/>
-      <c r="I38" s="499"/>
+      <c r="D38" s="515"/>
+      <c r="E38" s="515"/>
+      <c r="F38" s="515"/>
+      <c r="G38" s="515"/>
+      <c r="H38" s="515"/>
+      <c r="I38" s="515"/>
       <c r="J38" s="8"/>
       <c r="K38" s="9"/>
     </row>
     <row r="39" spans="1:12" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="497"/>
-      <c r="B39" s="498"/>
+      <c r="A39" s="523"/>
+      <c r="B39" s="524"/>
       <c r="C39" s="15"/>
-      <c r="D39" s="499"/>
-      <c r="E39" s="499"/>
-      <c r="F39" s="499"/>
-      <c r="G39" s="499"/>
-      <c r="H39" s="499"/>
-      <c r="I39" s="499"/>
+      <c r="D39" s="515"/>
+      <c r="E39" s="515"/>
+      <c r="F39" s="515"/>
+      <c r="G39" s="515"/>
+      <c r="H39" s="515"/>
+      <c r="I39" s="515"/>
       <c r="J39" s="8"/>
       <c r="K39" s="9"/>
     </row>
     <row r="40" spans="1:12" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="497"/>
-      <c r="B40" s="498"/>
+      <c r="A40" s="523"/>
+      <c r="B40" s="524"/>
       <c r="C40" s="15"/>
-      <c r="D40" s="499"/>
-      <c r="E40" s="499"/>
-      <c r="F40" s="499"/>
-      <c r="G40" s="499"/>
-      <c r="H40" s="499"/>
-      <c r="I40" s="499"/>
+      <c r="D40" s="515"/>
+      <c r="E40" s="515"/>
+      <c r="F40" s="515"/>
+      <c r="G40" s="515"/>
+      <c r="H40" s="515"/>
+      <c r="I40" s="515"/>
       <c r="J40" s="8"/>
       <c r="K40" s="9"/>
     </row>
     <row r="41" spans="1:12" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="497"/>
-      <c r="B41" s="498"/>
+      <c r="A41" s="523"/>
+      <c r="B41" s="524"/>
       <c r="C41" s="15"/>
-      <c r="D41" s="499"/>
-      <c r="E41" s="499"/>
-      <c r="F41" s="499"/>
-      <c r="G41" s="499"/>
-      <c r="H41" s="499"/>
-      <c r="I41" s="499"/>
+      <c r="D41" s="515"/>
+      <c r="E41" s="515"/>
+      <c r="F41" s="515"/>
+      <c r="G41" s="515"/>
+      <c r="H41" s="515"/>
+      <c r="I41" s="515"/>
       <c r="J41" s="8"/>
       <c r="K41" s="9"/>
     </row>
     <row r="42" spans="1:12" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="497"/>
-      <c r="B42" s="498"/>
+      <c r="A42" s="523"/>
+      <c r="B42" s="524"/>
       <c r="C42" s="15"/>
-      <c r="D42" s="499"/>
-      <c r="E42" s="499"/>
-      <c r="F42" s="499"/>
-      <c r="G42" s="499"/>
-      <c r="H42" s="499"/>
-      <c r="I42" s="499"/>
+      <c r="D42" s="515"/>
+      <c r="E42" s="515"/>
+      <c r="F42" s="515"/>
+      <c r="G42" s="515"/>
+      <c r="H42" s="515"/>
+      <c r="I42" s="515"/>
       <c r="J42" s="8"/>
       <c r="K42" s="9"/>
     </row>
     <row r="43" spans="1:12" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="497"/>
-      <c r="B43" s="498"/>
+      <c r="A43" s="523"/>
+      <c r="B43" s="524"/>
       <c r="C43" s="15"/>
-      <c r="D43" s="499"/>
-      <c r="E43" s="499"/>
-      <c r="F43" s="499"/>
-      <c r="G43" s="499"/>
-      <c r="H43" s="499"/>
-      <c r="I43" s="499"/>
+      <c r="D43" s="515"/>
+      <c r="E43" s="515"/>
+      <c r="F43" s="515"/>
+      <c r="G43" s="515"/>
+      <c r="H43" s="515"/>
+      <c r="I43" s="515"/>
       <c r="J43" s="8"/>
       <c r="K43" s="9"/>
     </row>
     <row r="44" spans="1:12" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="497"/>
-      <c r="B44" s="498"/>
+      <c r="A44" s="523"/>
+      <c r="B44" s="524"/>
       <c r="C44" s="15"/>
-      <c r="D44" s="499"/>
-      <c r="E44" s="499"/>
-      <c r="F44" s="499"/>
-      <c r="G44" s="499"/>
-      <c r="H44" s="499"/>
-      <c r="I44" s="499"/>
+      <c r="D44" s="515"/>
+      <c r="E44" s="515"/>
+      <c r="F44" s="515"/>
+      <c r="G44" s="515"/>
+      <c r="H44" s="515"/>
+      <c r="I44" s="515"/>
       <c r="J44" s="8"/>
       <c r="K44" s="9"/>
     </row>
     <row r="45" spans="1:12" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="518"/>
-      <c r="B45" s="519"/>
+      <c r="A45" s="528"/>
+      <c r="B45" s="529"/>
       <c r="C45" s="16"/>
-      <c r="D45" s="501"/>
-      <c r="E45" s="501"/>
-      <c r="F45" s="501"/>
-      <c r="G45" s="501"/>
-      <c r="H45" s="501"/>
-      <c r="I45" s="501"/>
+      <c r="D45" s="534"/>
+      <c r="E45" s="534"/>
+      <c r="F45" s="534"/>
+      <c r="G45" s="534"/>
+      <c r="H45" s="534"/>
+      <c r="I45" s="534"/>
       <c r="J45" s="10"/>
       <c r="K45" s="11"/>
     </row>
     <row r="46" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="520" t="s">
+      <c r="A46" s="530" t="s">
         <v>115</v>
       </c>
-      <c r="B46" s="521"/>
-      <c r="C46" s="521"/>
-      <c r="D46" s="521"/>
-      <c r="E46" s="521"/>
-      <c r="F46" s="521"/>
-      <c r="G46" s="521"/>
-      <c r="H46" s="521"/>
-      <c r="I46" s="521"/>
-      <c r="J46" s="522"/>
-      <c r="K46" s="523"/>
+      <c r="B46" s="531"/>
+      <c r="C46" s="531"/>
+      <c r="D46" s="531"/>
+      <c r="E46" s="531"/>
+      <c r="F46" s="531"/>
+      <c r="G46" s="531"/>
+      <c r="H46" s="531"/>
+      <c r="I46" s="531"/>
+      <c r="J46" s="532"/>
+      <c r="K46" s="533"/>
     </row>
     <row r="47" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="475" t="s">
+      <c r="A47" s="283" t="s">
         <v>144</v>
       </c>
-      <c r="B47" s="476"/>
-      <c r="C47" s="477"/>
-      <c r="D47" s="515"/>
-      <c r="E47" s="516"/>
-      <c r="F47" s="516"/>
-      <c r="G47" s="516"/>
-      <c r="H47" s="517"/>
-      <c r="I47" s="210" t="s">
+      <c r="B47" s="284"/>
+      <c r="C47" s="285"/>
+      <c r="D47" s="525"/>
+      <c r="E47" s="526"/>
+      <c r="F47" s="526"/>
+      <c r="G47" s="526"/>
+      <c r="H47" s="527"/>
+      <c r="I47" s="206" t="s">
         <v>145</v>
       </c>
-      <c r="J47" s="211"/>
-      <c r="K47" s="216"/>
-      <c r="L47" s="212"/>
+      <c r="J47" s="207"/>
+      <c r="K47" s="212"/>
+      <c r="L47" s="208"/>
     </row>
     <row r="48" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="474" t="s">
+      <c r="A48" s="282" t="s">
         <v>322</v>
       </c>
-      <c r="B48" s="474"/>
-      <c r="C48" s="474"/>
-      <c r="D48" s="474"/>
-      <c r="E48" s="474"/>
-      <c r="F48" s="474"/>
-      <c r="G48" s="474"/>
-      <c r="H48" s="474"/>
-      <c r="I48" s="474"/>
-      <c r="J48" s="474"/>
-      <c r="K48" s="474"/>
-      <c r="L48" s="215"/>
+      <c r="B48" s="282"/>
+      <c r="C48" s="282"/>
+      <c r="D48" s="282"/>
+      <c r="E48" s="282"/>
+      <c r="F48" s="282"/>
+      <c r="G48" s="282"/>
+      <c r="H48" s="282"/>
+      <c r="I48" s="282"/>
+      <c r="J48" s="282"/>
+      <c r="K48" s="282"/>
+      <c r="L48" s="211"/>
     </row>
   </sheetData>
   <mergeCells count="117">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="K15:K17"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D15:F17"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="G15:I17"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="J15:J17"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="G19:I19"/>
@@ -12318,76 +12376,29 @@
     <mergeCell ref="G42:I42"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="D45:F45"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A12:K12"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D15:F17"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="G15:I17"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496063" right="0" top="0.15748031496063" bottom="0" header="0" footer="0"/>
@@ -12422,564 +12433,564 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="562"/>
-      <c r="B1" s="563"/>
-      <c r="C1" s="563"/>
-      <c r="D1" s="563"/>
-      <c r="E1" s="563"/>
-      <c r="F1" s="563"/>
-      <c r="G1" s="563"/>
-      <c r="H1" s="563"/>
-      <c r="I1" s="563"/>
-      <c r="J1" s="563"/>
-      <c r="K1" s="564"/>
+      <c r="A1" s="583"/>
+      <c r="B1" s="584"/>
+      <c r="C1" s="584"/>
+      <c r="D1" s="584"/>
+      <c r="E1" s="584"/>
+      <c r="F1" s="584"/>
+      <c r="G1" s="584"/>
+      <c r="H1" s="584"/>
+      <c r="I1" s="584"/>
+      <c r="J1" s="584"/>
+      <c r="K1" s="585"/>
     </row>
     <row r="2" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="589" t="s">
+      <c r="A2" s="605" t="s">
         <v>323</v>
       </c>
-      <c r="B2" s="590"/>
-      <c r="C2" s="590"/>
-      <c r="D2" s="590"/>
-      <c r="E2" s="590"/>
-      <c r="F2" s="590"/>
-      <c r="G2" s="590"/>
-      <c r="H2" s="590"/>
-      <c r="I2" s="590"/>
-      <c r="J2" s="590"/>
-      <c r="K2" s="591"/>
+      <c r="B2" s="606"/>
+      <c r="C2" s="606"/>
+      <c r="D2" s="606"/>
+      <c r="E2" s="606"/>
+      <c r="F2" s="606"/>
+      <c r="G2" s="606"/>
+      <c r="H2" s="606"/>
+      <c r="I2" s="606"/>
+      <c r="J2" s="606"/>
+      <c r="K2" s="607"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="573" t="s">
+      <c r="A3" s="591" t="s">
         <v>324</v>
       </c>
-      <c r="B3" s="574" t="s">
+      <c r="B3" s="593" t="s">
         <v>325</v>
       </c>
-      <c r="C3" s="574"/>
-      <c r="D3" s="575"/>
-      <c r="E3" s="535" t="s">
+      <c r="C3" s="593"/>
+      <c r="D3" s="594"/>
+      <c r="E3" s="498" t="s">
         <v>326</v>
       </c>
-      <c r="F3" s="536"/>
-      <c r="G3" s="594" t="s">
+      <c r="F3" s="499"/>
+      <c r="G3" s="610" t="s">
         <v>327</v>
       </c>
-      <c r="H3" s="537" t="s">
+      <c r="H3" s="502" t="s">
         <v>328</v>
       </c>
-      <c r="I3" s="584"/>
-      <c r="J3" s="584"/>
-      <c r="K3" s="585"/>
+      <c r="I3" s="600"/>
+      <c r="J3" s="600"/>
+      <c r="K3" s="601"/>
     </row>
     <row r="4" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="561"/>
-      <c r="B4" s="576"/>
-      <c r="C4" s="576"/>
-      <c r="D4" s="577"/>
-      <c r="E4" s="504"/>
-      <c r="F4" s="505"/>
-      <c r="G4" s="595"/>
-      <c r="H4" s="586"/>
-      <c r="I4" s="565"/>
-      <c r="J4" s="565"/>
-      <c r="K4" s="587"/>
+      <c r="A4" s="592"/>
+      <c r="B4" s="595"/>
+      <c r="C4" s="595"/>
+      <c r="D4" s="596"/>
+      <c r="E4" s="500"/>
+      <c r="F4" s="501"/>
+      <c r="G4" s="611"/>
+      <c r="H4" s="602"/>
+      <c r="I4" s="586"/>
+      <c r="J4" s="586"/>
+      <c r="K4" s="603"/>
     </row>
     <row r="5" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
-      <c r="B5" s="592"/>
-      <c r="C5" s="592"/>
-      <c r="D5" s="593"/>
+      <c r="B5" s="608"/>
+      <c r="C5" s="608"/>
+      <c r="D5" s="609"/>
       <c r="E5" s="18" t="s">
         <v>130</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="G5" s="596"/>
-      <c r="H5" s="588"/>
-      <c r="I5" s="406"/>
-      <c r="J5" s="406"/>
-      <c r="K5" s="407"/>
+      <c r="G5" s="612"/>
+      <c r="H5" s="604"/>
+      <c r="I5" s="427"/>
+      <c r="J5" s="427"/>
+      <c r="K5" s="428"/>
     </row>
     <row r="6" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="581"/>
-      <c r="B6" s="582"/>
-      <c r="C6" s="582"/>
-      <c r="D6" s="583"/>
+      <c r="A6" s="545"/>
+      <c r="B6" s="546"/>
+      <c r="C6" s="546"/>
+      <c r="D6" s="547"/>
       <c r="E6" s="24"/>
       <c r="F6" s="24"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="568"/>
-      <c r="I6" s="569"/>
-      <c r="J6" s="569"/>
-      <c r="K6" s="570"/>
+      <c r="H6" s="548"/>
+      <c r="I6" s="549"/>
+      <c r="J6" s="549"/>
+      <c r="K6" s="550"/>
     </row>
     <row r="7" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="581"/>
-      <c r="B7" s="582"/>
-      <c r="C7" s="582"/>
-      <c r="D7" s="583"/>
+      <c r="A7" s="545"/>
+      <c r="B7" s="546"/>
+      <c r="C7" s="546"/>
+      <c r="D7" s="547"/>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
       <c r="G7" s="25"/>
-      <c r="H7" s="568"/>
-      <c r="I7" s="569"/>
-      <c r="J7" s="569"/>
-      <c r="K7" s="570"/>
+      <c r="H7" s="548"/>
+      <c r="I7" s="549"/>
+      <c r="J7" s="549"/>
+      <c r="K7" s="550"/>
     </row>
     <row r="8" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="581"/>
-      <c r="B8" s="582"/>
-      <c r="C8" s="582"/>
-      <c r="D8" s="583"/>
+      <c r="A8" s="545"/>
+      <c r="B8" s="546"/>
+      <c r="C8" s="546"/>
+      <c r="D8" s="547"/>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
       <c r="G8" s="25"/>
-      <c r="H8" s="568"/>
-      <c r="I8" s="569"/>
-      <c r="J8" s="569"/>
-      <c r="K8" s="570"/>
+      <c r="H8" s="548"/>
+      <c r="I8" s="549"/>
+      <c r="J8" s="549"/>
+      <c r="K8" s="550"/>
     </row>
     <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="581"/>
-      <c r="B9" s="582"/>
-      <c r="C9" s="582"/>
-      <c r="D9" s="583"/>
+      <c r="A9" s="545"/>
+      <c r="B9" s="546"/>
+      <c r="C9" s="546"/>
+      <c r="D9" s="547"/>
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="568"/>
-      <c r="I9" s="569"/>
-      <c r="J9" s="569"/>
-      <c r="K9" s="570"/>
+      <c r="H9" s="548"/>
+      <c r="I9" s="549"/>
+      <c r="J9" s="549"/>
+      <c r="K9" s="550"/>
     </row>
     <row r="10" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="581"/>
-      <c r="B10" s="582"/>
-      <c r="C10" s="582"/>
-      <c r="D10" s="583"/>
+      <c r="A10" s="545"/>
+      <c r="B10" s="546"/>
+      <c r="C10" s="546"/>
+      <c r="D10" s="547"/>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="568"/>
-      <c r="I10" s="569"/>
-      <c r="J10" s="569"/>
-      <c r="K10" s="570"/>
+      <c r="H10" s="548"/>
+      <c r="I10" s="549"/>
+      <c r="J10" s="549"/>
+      <c r="K10" s="550"/>
     </row>
     <row r="11" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="581"/>
-      <c r="B11" s="582"/>
-      <c r="C11" s="582"/>
-      <c r="D11" s="583"/>
+      <c r="A11" s="545"/>
+      <c r="B11" s="546"/>
+      <c r="C11" s="546"/>
+      <c r="D11" s="547"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="568"/>
-      <c r="I11" s="569"/>
-      <c r="J11" s="569"/>
-      <c r="K11" s="570"/>
+      <c r="H11" s="548"/>
+      <c r="I11" s="549"/>
+      <c r="J11" s="549"/>
+      <c r="K11" s="550"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="578"/>
-      <c r="B12" s="579"/>
-      <c r="C12" s="579"/>
-      <c r="D12" s="580"/>
+      <c r="A12" s="597"/>
+      <c r="B12" s="598"/>
+      <c r="C12" s="598"/>
+      <c r="D12" s="599"/>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
       <c r="G12" s="26"/>
-      <c r="H12" s="547"/>
-      <c r="I12" s="548"/>
-      <c r="J12" s="548"/>
-      <c r="K12" s="549"/>
+      <c r="H12" s="613"/>
+      <c r="I12" s="614"/>
+      <c r="J12" s="614"/>
+      <c r="K12" s="615"/>
     </row>
     <row r="13" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="506" t="s">
+      <c r="A13" s="536" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="507"/>
-      <c r="C13" s="507"/>
-      <c r="D13" s="507"/>
-      <c r="E13" s="507"/>
-      <c r="F13" s="507"/>
-      <c r="G13" s="507"/>
-      <c r="H13" s="507"/>
-      <c r="I13" s="507"/>
-      <c r="J13" s="507"/>
-      <c r="K13" s="508"/>
+      <c r="B13" s="537"/>
+      <c r="C13" s="537"/>
+      <c r="D13" s="537"/>
+      <c r="E13" s="537"/>
+      <c r="F13" s="537"/>
+      <c r="G13" s="537"/>
+      <c r="H13" s="537"/>
+      <c r="I13" s="537"/>
+      <c r="J13" s="537"/>
+      <c r="K13" s="538"/>
     </row>
     <row r="14" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="550" t="s">
+      <c r="A14" s="616" t="s">
         <v>329</v>
       </c>
-      <c r="B14" s="551"/>
-      <c r="C14" s="551"/>
-      <c r="D14" s="551"/>
-      <c r="E14" s="551"/>
-      <c r="F14" s="551"/>
-      <c r="G14" s="551"/>
-      <c r="H14" s="551"/>
-      <c r="I14" s="551"/>
-      <c r="J14" s="551"/>
-      <c r="K14" s="552"/>
+      <c r="B14" s="617"/>
+      <c r="C14" s="617"/>
+      <c r="D14" s="617"/>
+      <c r="E14" s="617"/>
+      <c r="F14" s="617"/>
+      <c r="G14" s="617"/>
+      <c r="H14" s="617"/>
+      <c r="I14" s="617"/>
+      <c r="J14" s="617"/>
+      <c r="K14" s="618"/>
     </row>
     <row r="15" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="561" t="s">
+      <c r="A15" s="592" t="s">
         <v>330</v>
       </c>
-      <c r="B15" s="502" t="s">
+      <c r="B15" s="521" t="s">
         <v>331</v>
       </c>
-      <c r="C15" s="565"/>
-      <c r="D15" s="566"/>
-      <c r="E15" s="502" t="s">
+      <c r="C15" s="586"/>
+      <c r="D15" s="587"/>
+      <c r="E15" s="521" t="s">
         <v>332</v>
       </c>
-      <c r="F15" s="503"/>
-      <c r="G15" s="556" t="s">
+      <c r="F15" s="522"/>
+      <c r="G15" s="619" t="s">
         <v>327</v>
       </c>
-      <c r="H15" s="571" t="s">
+      <c r="H15" s="589" t="s">
         <v>333</v>
       </c>
-      <c r="I15" s="530" t="s">
+      <c r="I15" s="520" t="s">
         <v>334</v>
       </c>
-      <c r="J15" s="565"/>
-      <c r="K15" s="587"/>
+      <c r="J15" s="586"/>
+      <c r="K15" s="603"/>
     </row>
     <row r="16" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="561"/>
-      <c r="B16" s="565"/>
-      <c r="C16" s="565"/>
-      <c r="D16" s="566"/>
-      <c r="E16" s="504"/>
-      <c r="F16" s="505"/>
-      <c r="G16" s="556"/>
-      <c r="H16" s="571"/>
-      <c r="I16" s="586"/>
-      <c r="J16" s="565"/>
-      <c r="K16" s="587"/>
+      <c r="A16" s="592"/>
+      <c r="B16" s="586"/>
+      <c r="C16" s="586"/>
+      <c r="D16" s="587"/>
+      <c r="E16" s="500"/>
+      <c r="F16" s="501"/>
+      <c r="G16" s="619"/>
+      <c r="H16" s="589"/>
+      <c r="I16" s="602"/>
+      <c r="J16" s="586"/>
+      <c r="K16" s="603"/>
     </row>
     <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
-      <c r="B17" s="406"/>
-      <c r="C17" s="406"/>
-      <c r="D17" s="567"/>
+      <c r="B17" s="427"/>
+      <c r="C17" s="427"/>
+      <c r="D17" s="588"/>
       <c r="E17" s="18" t="s">
         <v>130</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="G17" s="557"/>
-      <c r="H17" s="572"/>
-      <c r="I17" s="588"/>
-      <c r="J17" s="406"/>
-      <c r="K17" s="407"/>
+      <c r="G17" s="620"/>
+      <c r="H17" s="590"/>
+      <c r="I17" s="604"/>
+      <c r="J17" s="427"/>
+      <c r="K17" s="428"/>
     </row>
     <row r="18" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="553"/>
-      <c r="B18" s="554"/>
-      <c r="C18" s="554"/>
-      <c r="D18" s="555"/>
+      <c r="A18" s="561"/>
+      <c r="B18" s="562"/>
+      <c r="C18" s="562"/>
+      <c r="D18" s="563"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="21"/>
       <c r="H18" s="20"/>
-      <c r="I18" s="558"/>
-      <c r="J18" s="559"/>
-      <c r="K18" s="560"/>
+      <c r="I18" s="580"/>
+      <c r="J18" s="581"/>
+      <c r="K18" s="582"/>
     </row>
     <row r="19" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="553"/>
-      <c r="B19" s="554"/>
-      <c r="C19" s="554"/>
-      <c r="D19" s="555"/>
+      <c r="A19" s="561"/>
+      <c r="B19" s="562"/>
+      <c r="C19" s="562"/>
+      <c r="D19" s="563"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="21"/>
       <c r="H19" s="20"/>
-      <c r="I19" s="597"/>
-      <c r="J19" s="598"/>
-      <c r="K19" s="599"/>
+      <c r="I19" s="558"/>
+      <c r="J19" s="559"/>
+      <c r="K19" s="560"/>
     </row>
     <row r="20" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="553"/>
-      <c r="B20" s="554"/>
-      <c r="C20" s="554"/>
-      <c r="D20" s="555"/>
+      <c r="A20" s="561"/>
+      <c r="B20" s="562"/>
+      <c r="C20" s="562"/>
+      <c r="D20" s="563"/>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
       <c r="G20" s="21"/>
       <c r="H20" s="20"/>
-      <c r="I20" s="597"/>
-      <c r="J20" s="598"/>
-      <c r="K20" s="599"/>
+      <c r="I20" s="558"/>
+      <c r="J20" s="559"/>
+      <c r="K20" s="560"/>
     </row>
     <row r="21" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="553"/>
-      <c r="B21" s="554"/>
-      <c r="C21" s="554"/>
-      <c r="D21" s="555"/>
+      <c r="A21" s="561"/>
+      <c r="B21" s="562"/>
+      <c r="C21" s="562"/>
+      <c r="D21" s="563"/>
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
       <c r="G21" s="21"/>
       <c r="H21" s="20"/>
-      <c r="I21" s="597"/>
-      <c r="J21" s="598"/>
-      <c r="K21" s="599"/>
+      <c r="I21" s="558"/>
+      <c r="J21" s="559"/>
+      <c r="K21" s="560"/>
     </row>
     <row r="22" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="553"/>
-      <c r="B22" s="554"/>
-      <c r="C22" s="554"/>
-      <c r="D22" s="555"/>
+      <c r="A22" s="561"/>
+      <c r="B22" s="562"/>
+      <c r="C22" s="562"/>
+      <c r="D22" s="563"/>
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
       <c r="G22" s="21"/>
       <c r="H22" s="20"/>
-      <c r="I22" s="597"/>
-      <c r="J22" s="598"/>
-      <c r="K22" s="599"/>
+      <c r="I22" s="558"/>
+      <c r="J22" s="559"/>
+      <c r="K22" s="560"/>
     </row>
     <row r="23" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="553"/>
-      <c r="B23" s="554"/>
-      <c r="C23" s="554"/>
-      <c r="D23" s="555"/>
+      <c r="A23" s="561"/>
+      <c r="B23" s="562"/>
+      <c r="C23" s="562"/>
+      <c r="D23" s="563"/>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
       <c r="G23" s="21"/>
       <c r="H23" s="20"/>
-      <c r="I23" s="597"/>
-      <c r="J23" s="598"/>
-      <c r="K23" s="599"/>
+      <c r="I23" s="558"/>
+      <c r="J23" s="559"/>
+      <c r="K23" s="560"/>
     </row>
     <row r="24" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="553"/>
-      <c r="B24" s="554"/>
-      <c r="C24" s="554"/>
-      <c r="D24" s="555"/>
+      <c r="A24" s="561"/>
+      <c r="B24" s="562"/>
+      <c r="C24" s="562"/>
+      <c r="D24" s="563"/>
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
       <c r="G24" s="21"/>
       <c r="H24" s="20"/>
-      <c r="I24" s="597"/>
-      <c r="J24" s="598"/>
-      <c r="K24" s="599"/>
+      <c r="I24" s="558"/>
+      <c r="J24" s="559"/>
+      <c r="K24" s="560"/>
     </row>
     <row r="25" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="553"/>
-      <c r="B25" s="554"/>
-      <c r="C25" s="554"/>
-      <c r="D25" s="555"/>
+      <c r="A25" s="561"/>
+      <c r="B25" s="562"/>
+      <c r="C25" s="562"/>
+      <c r="D25" s="563"/>
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
       <c r="G25" s="21"/>
       <c r="H25" s="20"/>
-      <c r="I25" s="597"/>
-      <c r="J25" s="598"/>
-      <c r="K25" s="599"/>
+      <c r="I25" s="558"/>
+      <c r="J25" s="559"/>
+      <c r="K25" s="560"/>
     </row>
     <row r="26" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="553"/>
-      <c r="B26" s="554"/>
-      <c r="C26" s="554"/>
-      <c r="D26" s="555"/>
+      <c r="A26" s="561"/>
+      <c r="B26" s="562"/>
+      <c r="C26" s="562"/>
+      <c r="D26" s="563"/>
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
       <c r="G26" s="21"/>
       <c r="H26" s="20"/>
-      <c r="I26" s="558"/>
-      <c r="J26" s="559"/>
-      <c r="K26" s="560"/>
+      <c r="I26" s="580"/>
+      <c r="J26" s="581"/>
+      <c r="K26" s="582"/>
     </row>
     <row r="27" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="553"/>
-      <c r="B27" s="554"/>
-      <c r="C27" s="554"/>
-      <c r="D27" s="555"/>
+      <c r="A27" s="561"/>
+      <c r="B27" s="562"/>
+      <c r="C27" s="562"/>
+      <c r="D27" s="563"/>
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
       <c r="G27" s="21"/>
       <c r="H27" s="20"/>
-      <c r="I27" s="558"/>
-      <c r="J27" s="559"/>
-      <c r="K27" s="560"/>
+      <c r="I27" s="580"/>
+      <c r="J27" s="581"/>
+      <c r="K27" s="582"/>
     </row>
     <row r="28" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="553"/>
-      <c r="B28" s="554"/>
-      <c r="C28" s="554"/>
-      <c r="D28" s="555"/>
+      <c r="A28" s="561"/>
+      <c r="B28" s="562"/>
+      <c r="C28" s="562"/>
+      <c r="D28" s="563"/>
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
       <c r="G28" s="21"/>
       <c r="H28" s="20"/>
-      <c r="I28" s="558"/>
-      <c r="J28" s="559"/>
-      <c r="K28" s="560"/>
+      <c r="I28" s="580"/>
+      <c r="J28" s="581"/>
+      <c r="K28" s="582"/>
     </row>
     <row r="29" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="553"/>
-      <c r="B29" s="554"/>
-      <c r="C29" s="554"/>
-      <c r="D29" s="555"/>
+      <c r="A29" s="561"/>
+      <c r="B29" s="562"/>
+      <c r="C29" s="562"/>
+      <c r="D29" s="563"/>
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
       <c r="G29" s="21"/>
       <c r="H29" s="20"/>
-      <c r="I29" s="597"/>
-      <c r="J29" s="598"/>
-      <c r="K29" s="599"/>
+      <c r="I29" s="558"/>
+      <c r="J29" s="559"/>
+      <c r="K29" s="560"/>
     </row>
     <row r="30" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="553"/>
-      <c r="B30" s="554"/>
-      <c r="C30" s="554"/>
-      <c r="D30" s="555"/>
+      <c r="A30" s="561"/>
+      <c r="B30" s="562"/>
+      <c r="C30" s="562"/>
+      <c r="D30" s="563"/>
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
       <c r="G30" s="21"/>
       <c r="H30" s="20"/>
-      <c r="I30" s="597"/>
-      <c r="J30" s="598"/>
-      <c r="K30" s="599"/>
+      <c r="I30" s="558"/>
+      <c r="J30" s="559"/>
+      <c r="K30" s="560"/>
     </row>
     <row r="31" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="553"/>
-      <c r="B31" s="554"/>
-      <c r="C31" s="554"/>
-      <c r="D31" s="555"/>
+      <c r="A31" s="561"/>
+      <c r="B31" s="562"/>
+      <c r="C31" s="562"/>
+      <c r="D31" s="563"/>
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
       <c r="G31" s="21"/>
       <c r="H31" s="20"/>
-      <c r="I31" s="597"/>
-      <c r="J31" s="598"/>
-      <c r="K31" s="599"/>
+      <c r="I31" s="558"/>
+      <c r="J31" s="559"/>
+      <c r="K31" s="560"/>
     </row>
     <row r="32" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="553"/>
-      <c r="B32" s="554"/>
-      <c r="C32" s="554"/>
-      <c r="D32" s="555"/>
+      <c r="A32" s="561"/>
+      <c r="B32" s="562"/>
+      <c r="C32" s="562"/>
+      <c r="D32" s="563"/>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
       <c r="G32" s="21"/>
       <c r="H32" s="20"/>
-      <c r="I32" s="597"/>
-      <c r="J32" s="598"/>
-      <c r="K32" s="599"/>
+      <c r="I32" s="558"/>
+      <c r="J32" s="559"/>
+      <c r="K32" s="560"/>
     </row>
     <row r="33" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="553"/>
-      <c r="B33" s="554"/>
-      <c r="C33" s="554"/>
-      <c r="D33" s="555"/>
+      <c r="A33" s="561"/>
+      <c r="B33" s="562"/>
+      <c r="C33" s="562"/>
+      <c r="D33" s="563"/>
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
       <c r="G33" s="21"/>
       <c r="H33" s="20"/>
-      <c r="I33" s="597"/>
-      <c r="J33" s="598"/>
-      <c r="K33" s="599"/>
+      <c r="I33" s="558"/>
+      <c r="J33" s="559"/>
+      <c r="K33" s="560"/>
     </row>
     <row r="34" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="553"/>
-      <c r="B34" s="554"/>
-      <c r="C34" s="554"/>
-      <c r="D34" s="555"/>
+      <c r="A34" s="561"/>
+      <c r="B34" s="562"/>
+      <c r="C34" s="562"/>
+      <c r="D34" s="563"/>
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
       <c r="G34" s="21"/>
       <c r="H34" s="20"/>
-      <c r="I34" s="597"/>
-      <c r="J34" s="598"/>
-      <c r="K34" s="599"/>
+      <c r="I34" s="558"/>
+      <c r="J34" s="559"/>
+      <c r="K34" s="560"/>
     </row>
     <row r="35" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="553"/>
-      <c r="B35" s="554"/>
-      <c r="C35" s="554"/>
-      <c r="D35" s="555"/>
+      <c r="A35" s="561"/>
+      <c r="B35" s="562"/>
+      <c r="C35" s="562"/>
+      <c r="D35" s="563"/>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
       <c r="G35" s="21"/>
       <c r="H35" s="20"/>
-      <c r="I35" s="558"/>
-      <c r="J35" s="559"/>
-      <c r="K35" s="560"/>
+      <c r="I35" s="580"/>
+      <c r="J35" s="581"/>
+      <c r="K35" s="582"/>
     </row>
     <row r="36" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="553"/>
-      <c r="B36" s="554"/>
-      <c r="C36" s="554"/>
-      <c r="D36" s="555"/>
+      <c r="A36" s="561"/>
+      <c r="B36" s="562"/>
+      <c r="C36" s="562"/>
+      <c r="D36" s="563"/>
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
       <c r="G36" s="21"/>
       <c r="H36" s="20"/>
-      <c r="I36" s="558"/>
-      <c r="J36" s="559"/>
-      <c r="K36" s="560"/>
+      <c r="I36" s="580"/>
+      <c r="J36" s="581"/>
+      <c r="K36" s="582"/>
     </row>
     <row r="37" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="553"/>
-      <c r="B37" s="554"/>
-      <c r="C37" s="554"/>
-      <c r="D37" s="555"/>
+      <c r="A37" s="561"/>
+      <c r="B37" s="562"/>
+      <c r="C37" s="562"/>
+      <c r="D37" s="563"/>
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
       <c r="G37" s="21"/>
       <c r="H37" s="20"/>
-      <c r="I37" s="558"/>
-      <c r="J37" s="559"/>
-      <c r="K37" s="560"/>
+      <c r="I37" s="580"/>
+      <c r="J37" s="581"/>
+      <c r="K37" s="582"/>
     </row>
     <row r="38" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="614"/>
-      <c r="B38" s="615"/>
-      <c r="C38" s="615"/>
-      <c r="D38" s="616"/>
+      <c r="A38" s="574"/>
+      <c r="B38" s="575"/>
+      <c r="C38" s="575"/>
+      <c r="D38" s="576"/>
       <c r="E38" s="19"/>
       <c r="F38" s="19"/>
       <c r="G38" s="22"/>
       <c r="H38" s="23"/>
-      <c r="I38" s="617"/>
-      <c r="J38" s="618"/>
-      <c r="K38" s="619"/>
+      <c r="I38" s="577"/>
+      <c r="J38" s="578"/>
+      <c r="K38" s="579"/>
     </row>
     <row r="39" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="478" t="s">
+      <c r="A39" s="286" t="s">
         <v>115</v>
       </c>
-      <c r="B39" s="479"/>
-      <c r="C39" s="479"/>
-      <c r="D39" s="479"/>
-      <c r="E39" s="479"/>
-      <c r="F39" s="479"/>
-      <c r="G39" s="479"/>
-      <c r="H39" s="479"/>
-      <c r="I39" s="479"/>
-      <c r="J39" s="479"/>
-      <c r="K39" s="480"/>
+      <c r="B39" s="287"/>
+      <c r="C39" s="287"/>
+      <c r="D39" s="287"/>
+      <c r="E39" s="287"/>
+      <c r="F39" s="287"/>
+      <c r="G39" s="287"/>
+      <c r="H39" s="287"/>
+      <c r="I39" s="287"/>
+      <c r="J39" s="287"/>
+      <c r="K39" s="288"/>
     </row>
     <row r="40" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="604" t="s">
+      <c r="A40" s="564" t="s">
         <v>335</v>
       </c>
-      <c r="B40" s="605"/>
-      <c r="C40" s="605"/>
-      <c r="D40" s="605"/>
-      <c r="E40" s="605"/>
-      <c r="F40" s="605"/>
-      <c r="G40" s="605"/>
-      <c r="H40" s="605"/>
-      <c r="I40" s="605"/>
-      <c r="J40" s="605"/>
-      <c r="K40" s="606"/>
+      <c r="B40" s="565"/>
+      <c r="C40" s="565"/>
+      <c r="D40" s="565"/>
+      <c r="E40" s="565"/>
+      <c r="F40" s="565"/>
+      <c r="G40" s="565"/>
+      <c r="H40" s="565"/>
+      <c r="I40" s="565"/>
+      <c r="J40" s="565"/>
+      <c r="K40" s="566"/>
     </row>
     <row r="41" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="126" t="s">
@@ -12991,154 +13002,232 @@
       <c r="C41" s="127" t="s">
         <v>338</v>
       </c>
-      <c r="D41" s="620" t="s">
+      <c r="D41" s="554" t="s">
         <v>339</v>
       </c>
-      <c r="E41" s="620"/>
-      <c r="F41" s="620"/>
-      <c r="G41" s="620"/>
-      <c r="H41" s="621"/>
+      <c r="E41" s="554"/>
+      <c r="F41" s="554"/>
+      <c r="G41" s="554"/>
+      <c r="H41" s="555"/>
       <c r="I41" s="127" t="s">
         <v>340</v>
       </c>
-      <c r="J41" s="620" t="s">
+      <c r="J41" s="554" t="s">
         <v>341</v>
       </c>
-      <c r="K41" s="420"/>
+      <c r="K41" s="361"/>
     </row>
     <row r="42" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="600"/>
-      <c r="B42" s="601"/>
-      <c r="C42" s="602"/>
-      <c r="D42" s="603"/>
-      <c r="E42" s="603"/>
-      <c r="F42" s="603"/>
-      <c r="G42" s="603"/>
-      <c r="H42" s="601"/>
-      <c r="I42" s="602"/>
-      <c r="J42" s="603"/>
-      <c r="K42" s="622"/>
+      <c r="A42" s="557"/>
+      <c r="B42" s="553"/>
+      <c r="C42" s="551"/>
+      <c r="D42" s="552"/>
+      <c r="E42" s="552"/>
+      <c r="F42" s="552"/>
+      <c r="G42" s="552"/>
+      <c r="H42" s="553"/>
+      <c r="I42" s="551"/>
+      <c r="J42" s="552"/>
+      <c r="K42" s="556"/>
     </row>
     <row r="43" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="600"/>
-      <c r="B43" s="601"/>
-      <c r="C43" s="602"/>
-      <c r="D43" s="603"/>
-      <c r="E43" s="603"/>
-      <c r="F43" s="603"/>
-      <c r="G43" s="603"/>
-      <c r="H43" s="601"/>
-      <c r="I43" s="602"/>
-      <c r="J43" s="603"/>
-      <c r="K43" s="622"/>
+      <c r="A43" s="557"/>
+      <c r="B43" s="553"/>
+      <c r="C43" s="551"/>
+      <c r="D43" s="552"/>
+      <c r="E43" s="552"/>
+      <c r="F43" s="552"/>
+      <c r="G43" s="552"/>
+      <c r="H43" s="553"/>
+      <c r="I43" s="551"/>
+      <c r="J43" s="552"/>
+      <c r="K43" s="556"/>
     </row>
     <row r="44" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="600"/>
-      <c r="B44" s="601"/>
-      <c r="C44" s="602"/>
-      <c r="D44" s="603"/>
-      <c r="E44" s="603"/>
-      <c r="F44" s="603"/>
-      <c r="G44" s="603"/>
-      <c r="H44" s="601"/>
-      <c r="I44" s="602"/>
-      <c r="J44" s="603"/>
-      <c r="K44" s="622"/>
+      <c r="A44" s="557"/>
+      <c r="B44" s="553"/>
+      <c r="C44" s="551"/>
+      <c r="D44" s="552"/>
+      <c r="E44" s="552"/>
+      <c r="F44" s="552"/>
+      <c r="G44" s="552"/>
+      <c r="H44" s="553"/>
+      <c r="I44" s="551"/>
+      <c r="J44" s="552"/>
+      <c r="K44" s="556"/>
     </row>
     <row r="45" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="600"/>
-      <c r="B45" s="601"/>
-      <c r="C45" s="602"/>
-      <c r="D45" s="603"/>
-      <c r="E45" s="603"/>
-      <c r="F45" s="603"/>
-      <c r="G45" s="603"/>
-      <c r="H45" s="601"/>
-      <c r="I45" s="602"/>
-      <c r="J45" s="603"/>
-      <c r="K45" s="622"/>
+      <c r="A45" s="557"/>
+      <c r="B45" s="553"/>
+      <c r="C45" s="551"/>
+      <c r="D45" s="552"/>
+      <c r="E45" s="552"/>
+      <c r="F45" s="552"/>
+      <c r="G45" s="552"/>
+      <c r="H45" s="553"/>
+      <c r="I45" s="551"/>
+      <c r="J45" s="552"/>
+      <c r="K45" s="556"/>
     </row>
     <row r="46" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="600"/>
-      <c r="B46" s="601"/>
-      <c r="C46" s="602"/>
-      <c r="D46" s="603"/>
-      <c r="E46" s="603"/>
-      <c r="F46" s="603"/>
-      <c r="G46" s="603"/>
-      <c r="H46" s="601"/>
-      <c r="I46" s="602"/>
-      <c r="J46" s="603"/>
-      <c r="K46" s="622"/>
+      <c r="A46" s="557"/>
+      <c r="B46" s="553"/>
+      <c r="C46" s="551"/>
+      <c r="D46" s="552"/>
+      <c r="E46" s="552"/>
+      <c r="F46" s="552"/>
+      <c r="G46" s="552"/>
+      <c r="H46" s="553"/>
+      <c r="I46" s="551"/>
+      <c r="J46" s="552"/>
+      <c r="K46" s="556"/>
     </row>
     <row r="47" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="600"/>
-      <c r="B47" s="601"/>
-      <c r="C47" s="602"/>
-      <c r="D47" s="603"/>
-      <c r="E47" s="603"/>
-      <c r="F47" s="603"/>
-      <c r="G47" s="603"/>
-      <c r="H47" s="601"/>
-      <c r="I47" s="602"/>
-      <c r="J47" s="603"/>
-      <c r="K47" s="622"/>
+      <c r="A47" s="557"/>
+      <c r="B47" s="553"/>
+      <c r="C47" s="551"/>
+      <c r="D47" s="552"/>
+      <c r="E47" s="552"/>
+      <c r="F47" s="552"/>
+      <c r="G47" s="552"/>
+      <c r="H47" s="553"/>
+      <c r="I47" s="551"/>
+      <c r="J47" s="552"/>
+      <c r="K47" s="556"/>
     </row>
     <row r="48" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="600"/>
-      <c r="B48" s="601"/>
-      <c r="C48" s="602"/>
-      <c r="D48" s="603"/>
-      <c r="E48" s="603"/>
-      <c r="F48" s="603"/>
-      <c r="G48" s="603"/>
-      <c r="H48" s="601"/>
-      <c r="I48" s="602"/>
-      <c r="J48" s="603"/>
-      <c r="K48" s="622"/>
+      <c r="A48" s="557"/>
+      <c r="B48" s="553"/>
+      <c r="C48" s="551"/>
+      <c r="D48" s="552"/>
+      <c r="E48" s="552"/>
+      <c r="F48" s="552"/>
+      <c r="G48" s="552"/>
+      <c r="H48" s="553"/>
+      <c r="I48" s="551"/>
+      <c r="J48" s="552"/>
+      <c r="K48" s="556"/>
     </row>
     <row r="49" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="478" t="s">
+      <c r="A49" s="286" t="s">
         <v>115</v>
       </c>
-      <c r="B49" s="479"/>
-      <c r="C49" s="479"/>
-      <c r="D49" s="479"/>
-      <c r="E49" s="479"/>
-      <c r="F49" s="479"/>
-      <c r="G49" s="479"/>
-      <c r="H49" s="479"/>
-      <c r="I49" s="479"/>
-      <c r="J49" s="479"/>
-      <c r="K49" s="508"/>
+      <c r="B49" s="287"/>
+      <c r="C49" s="287"/>
+      <c r="D49" s="287"/>
+      <c r="E49" s="287"/>
+      <c r="F49" s="287"/>
+      <c r="G49" s="287"/>
+      <c r="H49" s="287"/>
+      <c r="I49" s="287"/>
+      <c r="J49" s="287"/>
+      <c r="K49" s="538"/>
     </row>
     <row r="50" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="475" t="s">
+      <c r="A50" s="283" t="s">
         <v>144</v>
       </c>
-      <c r="B50" s="477"/>
-      <c r="C50" s="515"/>
-      <c r="D50" s="609"/>
-      <c r="E50" s="609"/>
-      <c r="F50" s="610"/>
-      <c r="G50" s="607" t="s">
+      <c r="B50" s="285"/>
+      <c r="C50" s="525"/>
+      <c r="D50" s="569"/>
+      <c r="E50" s="569"/>
+      <c r="F50" s="570"/>
+      <c r="G50" s="567" t="s">
         <v>145</v>
       </c>
-      <c r="H50" s="608"/>
-      <c r="I50" s="611"/>
-      <c r="J50" s="612"/>
-      <c r="K50" s="613"/>
-      <c r="L50" s="213"/>
-      <c r="M50" s="213"/>
+      <c r="H50" s="568"/>
+      <c r="I50" s="571"/>
+      <c r="J50" s="572"/>
+      <c r="K50" s="573"/>
+      <c r="L50" s="209"/>
+      <c r="M50" s="209"/>
     </row>
     <row r="51" spans="1:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K51" s="217" t="s">
+      <c r="K51" s="213" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="102">
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A14:K14"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B15:D17"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="H3:K5"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="I15:K17"/>
+    <mergeCell ref="E15:F16"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="A49:K49"/>
+    <mergeCell ref="A39:K39"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="I35:K35"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="C48:H48"/>
@@ -13163,84 +13252,6 @@
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="I47:K47"/>
     <mergeCell ref="I19:K19"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="A49:K49"/>
-    <mergeCell ref="A39:K39"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B15:D17"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="H3:K5"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="I15:K17"/>
-    <mergeCell ref="E15:F16"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A14:K14"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496063" right="0" top="0.35433070866142002" bottom="0" header="0.31496062992126" footer="0"/>
@@ -13277,37 +13288,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="623"/>
-      <c r="B1" s="624"/>
-      <c r="C1" s="624"/>
-      <c r="D1" s="624"/>
-      <c r="E1" s="624"/>
-      <c r="F1" s="624"/>
-      <c r="G1" s="624"/>
-      <c r="H1" s="624"/>
-      <c r="I1" s="624"/>
-      <c r="J1" s="624"/>
-      <c r="K1" s="624"/>
-      <c r="L1" s="624"/>
-      <c r="M1" s="624"/>
-      <c r="N1" s="625"/>
+      <c r="A1" s="757"/>
+      <c r="B1" s="758"/>
+      <c r="C1" s="758"/>
+      <c r="D1" s="758"/>
+      <c r="E1" s="758"/>
+      <c r="F1" s="758"/>
+      <c r="G1" s="758"/>
+      <c r="H1" s="758"/>
+      <c r="I1" s="758"/>
+      <c r="J1" s="758"/>
+      <c r="K1" s="758"/>
+      <c r="L1" s="758"/>
+      <c r="M1" s="758"/>
+      <c r="N1" s="759"/>
     </row>
     <row r="2" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="648" t="s">
+      <c r="A2" s="732" t="s">
         <v>343</v>
       </c>
-      <c r="B2" s="649"/>
-      <c r="C2" s="628" t="s">
+      <c r="B2" s="733"/>
+      <c r="C2" s="762" t="s">
         <v>344</v>
       </c>
-      <c r="D2" s="628"/>
-      <c r="E2" s="628"/>
-      <c r="F2" s="629"/>
+      <c r="D2" s="762"/>
+      <c r="E2" s="762"/>
+      <c r="F2" s="763"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
       <c r="I2" s="27"/>
-      <c r="J2" s="626"/>
-      <c r="K2" s="626"/>
+      <c r="J2" s="760"/>
+      <c r="K2" s="760"/>
       <c r="L2" s="28"/>
       <c r="M2" s="28"/>
       <c r="N2" s="29"/>
@@ -13315,17 +13326,17 @@
     <row r="3" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30"/>
       <c r="B3" s="31"/>
-      <c r="C3" s="632" t="s">
+      <c r="C3" s="649" t="s">
         <v>345</v>
       </c>
-      <c r="D3" s="632"/>
-      <c r="E3" s="632"/>
-      <c r="F3" s="633"/>
+      <c r="D3" s="649"/>
+      <c r="E3" s="649"/>
+      <c r="F3" s="650"/>
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
       <c r="I3" s="32"/>
-      <c r="J3" s="627"/>
-      <c r="K3" s="627"/>
+      <c r="J3" s="761"/>
+      <c r="K3" s="761"/>
       <c r="L3" s="33"/>
       <c r="M3" s="33"/>
       <c r="N3" s="34"/>
@@ -13333,49 +13344,49 @@
     <row r="4" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
       <c r="B4" s="31"/>
-      <c r="C4" s="632" t="s">
+      <c r="C4" s="649" t="s">
         <v>346</v>
       </c>
-      <c r="D4" s="632"/>
-      <c r="E4" s="632"/>
-      <c r="F4" s="633"/>
+      <c r="D4" s="649"/>
+      <c r="E4" s="649"/>
+      <c r="F4" s="650"/>
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
       <c r="B5" s="31"/>
-      <c r="C5" s="632"/>
-      <c r="D5" s="632"/>
-      <c r="E5" s="632"/>
-      <c r="F5" s="633"/>
-      <c r="G5" s="650"/>
-      <c r="H5" s="650"/>
-      <c r="I5" s="650"/>
-      <c r="J5" s="650"/>
-      <c r="K5" s="650"/>
-      <c r="L5" s="650"/>
-      <c r="M5" s="650"/>
+      <c r="C5" s="649"/>
+      <c r="D5" s="649"/>
+      <c r="E5" s="649"/>
+      <c r="F5" s="650"/>
+      <c r="G5" s="754"/>
+      <c r="H5" s="754"/>
+      <c r="I5" s="754"/>
+      <c r="J5" s="754"/>
+      <c r="K5" s="754"/>
+      <c r="L5" s="754"/>
+      <c r="M5" s="754"/>
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30"/>
       <c r="B6" s="31"/>
-      <c r="C6" s="632" t="s">
+      <c r="C6" s="649" t="s">
         <v>347</v>
       </c>
-      <c r="D6" s="632"/>
-      <c r="E6" s="632"/>
-      <c r="F6" s="633"/>
-      <c r="H6" s="257"/>
-      <c r="I6" s="267" t="s">
+      <c r="D6" s="649"/>
+      <c r="E6" s="649"/>
+      <c r="F6" s="650"/>
+      <c r="H6" s="253"/>
+      <c r="I6" s="263" t="s">
         <v>348</v>
       </c>
-      <c r="J6" s="239"/>
-      <c r="K6" s="258"/>
-      <c r="L6" s="268" t="s">
+      <c r="J6" s="235"/>
+      <c r="K6" s="254"/>
+      <c r="L6" s="264" t="s">
         <v>349</v>
       </c>
-      <c r="M6" s="239"/>
+      <c r="M6" s="235"/>
       <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14" ht="3" customHeight="1" x14ac:dyDescent="0.25">
@@ -13394,18 +13405,18 @@
     <row r="8" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
       <c r="B8" s="31"/>
-      <c r="C8" s="632" t="s">
+      <c r="C8" s="649" t="s">
         <v>350</v>
       </c>
-      <c r="D8" s="632"/>
-      <c r="E8" s="632"/>
-      <c r="F8" s="633"/>
-      <c r="H8" s="257"/>
-      <c r="I8" s="267" t="s">
+      <c r="D8" s="649"/>
+      <c r="E8" s="649"/>
+      <c r="F8" s="650"/>
+      <c r="H8" s="253"/>
+      <c r="I8" s="263" t="s">
         <v>348</v>
       </c>
-      <c r="K8" s="257"/>
-      <c r="L8" s="268" t="s">
+      <c r="K8" s="253"/>
+      <c r="L8" s="264" t="s">
         <v>349</v>
       </c>
       <c r="N8" s="35"/>
@@ -13422,51 +13433,51 @@
     <row r="10" spans="1:14" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
       <c r="B10" s="31"/>
-      <c r="C10" s="632"/>
-      <c r="D10" s="632"/>
-      <c r="E10" s="632"/>
-      <c r="F10" s="633"/>
-      <c r="G10" s="646" t="s">
+      <c r="C10" s="649"/>
+      <c r="D10" s="649"/>
+      <c r="E10" s="649"/>
+      <c r="F10" s="650"/>
+      <c r="G10" s="622" t="s">
         <v>351</v>
       </c>
-      <c r="H10" s="647"/>
-      <c r="I10" s="647"/>
-      <c r="J10" s="647"/>
-      <c r="K10" s="256"/>
-      <c r="L10" s="256"/>
-      <c r="M10" s="256"/>
+      <c r="H10" s="623"/>
+      <c r="I10" s="623"/>
+      <c r="J10" s="623"/>
+      <c r="K10" s="252"/>
+      <c r="L10" s="252"/>
+      <c r="M10" s="252"/>
       <c r="N10" s="81"/>
     </row>
     <row r="11" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30"/>
       <c r="B11" s="31"/>
-      <c r="C11" s="632"/>
-      <c r="D11" s="632"/>
-      <c r="E11" s="632"/>
-      <c r="F11" s="633"/>
-      <c r="G11" s="748"/>
-      <c r="H11" s="749"/>
-      <c r="I11" s="749"/>
-      <c r="J11" s="749"/>
-      <c r="K11" s="749"/>
-      <c r="L11" s="749"/>
-      <c r="M11" s="749"/>
+      <c r="C11" s="649"/>
+      <c r="D11" s="649"/>
+      <c r="E11" s="649"/>
+      <c r="F11" s="650"/>
+      <c r="G11" s="624"/>
+      <c r="H11" s="625"/>
+      <c r="I11" s="625"/>
+      <c r="J11" s="625"/>
+      <c r="K11" s="625"/>
+      <c r="L11" s="625"/>
+      <c r="M11" s="625"/>
       <c r="N11" s="81"/>
     </row>
     <row r="12" spans="1:14" ht="4.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
       <c r="B12" s="37"/>
-      <c r="C12" s="651"/>
-      <c r="D12" s="651"/>
-      <c r="E12" s="651"/>
-      <c r="F12" s="652"/>
-      <c r="G12" s="750"/>
-      <c r="H12" s="751"/>
-      <c r="I12" s="751"/>
-      <c r="J12" s="751"/>
-      <c r="K12" s="751"/>
-      <c r="L12" s="751"/>
-      <c r="M12" s="751"/>
+      <c r="C12" s="755"/>
+      <c r="D12" s="755"/>
+      <c r="E12" s="755"/>
+      <c r="F12" s="756"/>
+      <c r="G12" s="626"/>
+      <c r="H12" s="627"/>
+      <c r="I12" s="627"/>
+      <c r="J12" s="627"/>
+      <c r="K12" s="627"/>
+      <c r="L12" s="627"/>
+      <c r="M12" s="627"/>
       <c r="N12" s="116"/>
     </row>
     <row r="13" spans="1:14" ht="4.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -13476,34 +13487,34 @@
       <c r="D13" s="164"/>
       <c r="E13" s="164"/>
       <c r="F13" s="165"/>
-      <c r="G13" s="240"/>
-      <c r="H13" s="240"/>
-      <c r="I13" s="240"/>
-      <c r="J13" s="241"/>
-      <c r="K13" s="241"/>
-      <c r="L13" s="241"/>
-      <c r="M13" s="241"/>
+      <c r="G13" s="236"/>
+      <c r="H13" s="236"/>
+      <c r="I13" s="236"/>
+      <c r="J13" s="237"/>
+      <c r="K13" s="237"/>
+      <c r="L13" s="237"/>
+      <c r="M13" s="237"/>
       <c r="N13" s="81"/>
     </row>
     <row r="14" spans="1:14" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="644" t="s">
+      <c r="A14" s="671" t="s">
         <v>352</v>
       </c>
-      <c r="B14" s="645"/>
-      <c r="C14" s="638" t="s">
+      <c r="B14" s="672"/>
+      <c r="C14" s="767" t="s">
         <v>353</v>
       </c>
-      <c r="D14" s="638"/>
-      <c r="E14" s="565"/>
-      <c r="F14" s="566"/>
-      <c r="G14" s="243"/>
-      <c r="H14" s="259"/>
-      <c r="I14" s="267" t="s">
+      <c r="D14" s="767"/>
+      <c r="E14" s="586"/>
+      <c r="F14" s="587"/>
+      <c r="G14" s="239"/>
+      <c r="H14" s="255"/>
+      <c r="I14" s="263" t="s">
         <v>348</v>
       </c>
       <c r="J14" s="32"/>
-      <c r="K14" s="259"/>
-      <c r="L14" s="269" t="s">
+      <c r="K14" s="255"/>
+      <c r="L14" s="265" t="s">
         <v>349</v>
       </c>
       <c r="M14" s="32"/>
@@ -13512,51 +13523,51 @@
     <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="52"/>
       <c r="B15" s="53"/>
-      <c r="C15" s="638"/>
-      <c r="D15" s="638"/>
-      <c r="E15" s="565"/>
-      <c r="F15" s="566"/>
-      <c r="G15" s="646" t="s">
+      <c r="C15" s="767"/>
+      <c r="D15" s="767"/>
+      <c r="E15" s="586"/>
+      <c r="F15" s="587"/>
+      <c r="G15" s="622" t="s">
         <v>351</v>
       </c>
-      <c r="H15" s="647"/>
-      <c r="I15" s="647"/>
-      <c r="J15" s="647"/>
-      <c r="K15" s="647"/>
-      <c r="L15" s="647"/>
-      <c r="M15" s="647"/>
+      <c r="H15" s="623"/>
+      <c r="I15" s="623"/>
+      <c r="J15" s="623"/>
+      <c r="K15" s="623"/>
+      <c r="L15" s="623"/>
+      <c r="M15" s="623"/>
       <c r="N15" s="115"/>
     </row>
     <row r="16" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="52"/>
       <c r="B16" s="53"/>
-      <c r="C16" s="638"/>
-      <c r="D16" s="638"/>
-      <c r="E16" s="565"/>
-      <c r="F16" s="566"/>
-      <c r="G16" s="752"/>
-      <c r="H16" s="753"/>
-      <c r="I16" s="753"/>
-      <c r="J16" s="753"/>
-      <c r="K16" s="753"/>
-      <c r="L16" s="753"/>
-      <c r="M16" s="753"/>
+      <c r="C16" s="767"/>
+      <c r="D16" s="767"/>
+      <c r="E16" s="586"/>
+      <c r="F16" s="587"/>
+      <c r="G16" s="628"/>
+      <c r="H16" s="629"/>
+      <c r="I16" s="629"/>
+      <c r="J16" s="629"/>
+      <c r="K16" s="629"/>
+      <c r="L16" s="629"/>
+      <c r="M16" s="629"/>
       <c r="N16" s="115"/>
     </row>
     <row r="17" spans="1:14" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="39"/>
       <c r="B17" s="40"/>
-      <c r="C17" s="565"/>
-      <c r="D17" s="565"/>
-      <c r="E17" s="565"/>
-      <c r="F17" s="566"/>
-      <c r="G17" s="754"/>
-      <c r="H17" s="755"/>
-      <c r="I17" s="755"/>
-      <c r="J17" s="755"/>
-      <c r="K17" s="755"/>
-      <c r="L17" s="755"/>
-      <c r="M17" s="755"/>
+      <c r="C17" s="586"/>
+      <c r="D17" s="586"/>
+      <c r="E17" s="586"/>
+      <c r="F17" s="587"/>
+      <c r="G17" s="630"/>
+      <c r="H17" s="631"/>
+      <c r="I17" s="631"/>
+      <c r="J17" s="631"/>
+      <c r="K17" s="631"/>
+      <c r="L17" s="631"/>
+      <c r="M17" s="631"/>
       <c r="N17" s="113"/>
     </row>
     <row r="18" spans="1:14" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -13567,10 +13578,10 @@
       <c r="E18" s="44"/>
       <c r="F18" s="45"/>
       <c r="G18" s="98"/>
-      <c r="H18" s="244"/>
+      <c r="H18" s="240"/>
       <c r="I18" s="99"/>
       <c r="J18" s="99"/>
-      <c r="K18" s="244"/>
+      <c r="K18" s="240"/>
       <c r="L18" s="99"/>
       <c r="M18" s="99"/>
       <c r="N18" s="100"/>
@@ -13578,20 +13589,20 @@
     <row r="19" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="41"/>
       <c r="B19" s="42"/>
-      <c r="C19" s="740" t="s">
+      <c r="C19" s="676" t="s">
         <v>354</v>
       </c>
-      <c r="D19" s="740"/>
-      <c r="E19" s="741"/>
-      <c r="F19" s="742"/>
+      <c r="D19" s="676"/>
+      <c r="E19" s="677"/>
+      <c r="F19" s="678"/>
       <c r="G19" s="46"/>
-      <c r="H19" s="260"/>
-      <c r="I19" s="254" t="s">
+      <c r="H19" s="256"/>
+      <c r="I19" s="250" t="s">
         <v>348</v>
       </c>
       <c r="J19" s="46"/>
-      <c r="K19" s="260"/>
-      <c r="L19" s="254" t="s">
+      <c r="K19" s="256"/>
+      <c r="L19" s="250" t="s">
         <v>349</v>
       </c>
       <c r="M19" s="46"/>
@@ -13600,110 +13611,110 @@
     <row r="20" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="41"/>
       <c r="B20" s="42"/>
-      <c r="C20" s="740"/>
-      <c r="D20" s="740"/>
-      <c r="E20" s="741"/>
-      <c r="F20" s="742"/>
-      <c r="G20" s="646" t="s">
+      <c r="C20" s="676"/>
+      <c r="D20" s="676"/>
+      <c r="E20" s="677"/>
+      <c r="F20" s="678"/>
+      <c r="G20" s="622" t="s">
         <v>355</v>
       </c>
-      <c r="H20" s="647"/>
-      <c r="I20" s="647"/>
-      <c r="J20" s="647"/>
-      <c r="K20" s="764"/>
-      <c r="L20" s="764"/>
-      <c r="M20" s="764"/>
+      <c r="H20" s="623"/>
+      <c r="I20" s="623"/>
+      <c r="J20" s="623"/>
+      <c r="K20" s="640"/>
+      <c r="L20" s="640"/>
+      <c r="M20" s="640"/>
       <c r="N20" s="47"/>
     </row>
     <row r="21" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="41"/>
       <c r="B21" s="42"/>
-      <c r="C21" s="740"/>
-      <c r="D21" s="740"/>
-      <c r="E21" s="741"/>
-      <c r="F21" s="742"/>
+      <c r="C21" s="676"/>
+      <c r="D21" s="676"/>
+      <c r="E21" s="677"/>
+      <c r="F21" s="678"/>
       <c r="G21" s="46"/>
       <c r="H21" s="46"/>
-      <c r="I21" s="718" t="s">
+      <c r="I21" s="651" t="s">
         <v>356</v>
       </c>
-      <c r="J21" s="718"/>
-      <c r="K21" s="224"/>
-      <c r="L21" s="765"/>
-      <c r="M21" s="765"/>
+      <c r="J21" s="651"/>
+      <c r="K21" s="220"/>
+      <c r="L21" s="641"/>
+      <c r="M21" s="641"/>
       <c r="N21" s="47"/>
     </row>
     <row r="22" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="41"/>
       <c r="B22" s="42"/>
-      <c r="C22" s="740"/>
-      <c r="D22" s="740"/>
-      <c r="E22" s="741"/>
-      <c r="F22" s="742"/>
-      <c r="G22" s="719" t="s">
+      <c r="C22" s="676"/>
+      <c r="D22" s="676"/>
+      <c r="E22" s="677"/>
+      <c r="F22" s="678"/>
+      <c r="G22" s="652" t="s">
         <v>357</v>
       </c>
-      <c r="H22" s="720"/>
-      <c r="I22" s="720"/>
-      <c r="J22" s="720"/>
-      <c r="K22" s="224"/>
-      <c r="L22" s="766"/>
-      <c r="M22" s="766"/>
+      <c r="H22" s="653"/>
+      <c r="I22" s="653"/>
+      <c r="J22" s="653"/>
+      <c r="K22" s="220"/>
+      <c r="L22" s="642"/>
+      <c r="M22" s="642"/>
       <c r="N22" s="47"/>
     </row>
     <row r="23" spans="1:14" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="48"/>
       <c r="B23" s="49"/>
-      <c r="C23" s="743"/>
-      <c r="D23" s="743"/>
-      <c r="E23" s="743"/>
-      <c r="F23" s="744"/>
+      <c r="C23" s="679"/>
+      <c r="D23" s="679"/>
+      <c r="E23" s="679"/>
+      <c r="F23" s="680"/>
       <c r="G23" s="112" t="s">
         <v>358</v>
       </c>
-      <c r="H23" s="218"/>
-      <c r="I23" s="218"/>
-      <c r="J23" s="747"/>
-      <c r="K23" s="747"/>
-      <c r="L23" s="747"/>
+      <c r="H23" s="214"/>
+      <c r="I23" s="214"/>
+      <c r="J23" s="683"/>
+      <c r="K23" s="683"/>
+      <c r="L23" s="683"/>
       <c r="M23" s="117"/>
       <c r="N23" s="113"/>
     </row>
     <row r="24" spans="1:14" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="41"/>
       <c r="B24" s="42"/>
-      <c r="C24" s="632"/>
-      <c r="D24" s="632"/>
-      <c r="E24" s="632"/>
-      <c r="F24" s="633"/>
-      <c r="G24" s="238"/>
-      <c r="H24" s="238"/>
-      <c r="I24" s="238"/>
-      <c r="J24" s="245"/>
-      <c r="K24" s="245"/>
-      <c r="L24" s="245"/>
-      <c r="M24" s="246"/>
+      <c r="C24" s="649"/>
+      <c r="D24" s="649"/>
+      <c r="E24" s="649"/>
+      <c r="F24" s="650"/>
+      <c r="G24" s="234"/>
+      <c r="H24" s="234"/>
+      <c r="I24" s="234"/>
+      <c r="J24" s="241"/>
+      <c r="K24" s="241"/>
+      <c r="L24" s="241"/>
+      <c r="M24" s="242"/>
       <c r="N24" s="111"/>
     </row>
     <row r="25" spans="1:14" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="644" t="s">
+      <c r="A25" s="671" t="s">
         <v>359</v>
       </c>
-      <c r="B25" s="645"/>
-      <c r="C25" s="635" t="s">
+      <c r="B25" s="672"/>
+      <c r="C25" s="715" t="s">
         <v>360</v>
       </c>
-      <c r="D25" s="635"/>
-      <c r="E25" s="635"/>
-      <c r="F25" s="634"/>
+      <c r="D25" s="715"/>
+      <c r="E25" s="715"/>
+      <c r="F25" s="716"/>
       <c r="G25" s="32"/>
-      <c r="H25" s="259"/>
-      <c r="I25" s="266" t="s">
+      <c r="H25" s="255"/>
+      <c r="I25" s="262" t="s">
         <v>348</v>
       </c>
       <c r="J25" s="32"/>
-      <c r="K25" s="259"/>
-      <c r="L25" s="269" t="s">
+      <c r="K25" s="255"/>
+      <c r="L25" s="265" t="s">
         <v>349</v>
       </c>
       <c r="M25" s="32"/>
@@ -13712,51 +13723,51 @@
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="39"/>
       <c r="B26" s="40"/>
-      <c r="C26" s="635"/>
-      <c r="D26" s="635"/>
-      <c r="E26" s="635"/>
-      <c r="F26" s="634"/>
-      <c r="G26" s="646" t="s">
+      <c r="C26" s="715"/>
+      <c r="D26" s="715"/>
+      <c r="E26" s="715"/>
+      <c r="F26" s="716"/>
+      <c r="G26" s="622" t="s">
         <v>355</v>
       </c>
-      <c r="H26" s="647"/>
-      <c r="I26" s="647"/>
-      <c r="J26" s="647"/>
-      <c r="K26" s="647"/>
-      <c r="L26" s="647"/>
-      <c r="M26" s="647"/>
+      <c r="H26" s="623"/>
+      <c r="I26" s="623"/>
+      <c r="J26" s="623"/>
+      <c r="K26" s="623"/>
+      <c r="L26" s="623"/>
+      <c r="M26" s="623"/>
       <c r="N26" s="111"/>
     </row>
     <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="39"/>
       <c r="B27" s="40"/>
-      <c r="C27" s="635"/>
-      <c r="D27" s="635"/>
-      <c r="E27" s="635"/>
-      <c r="F27" s="634"/>
-      <c r="G27" s="760"/>
-      <c r="H27" s="761"/>
-      <c r="I27" s="761"/>
-      <c r="J27" s="761"/>
-      <c r="K27" s="761"/>
-      <c r="L27" s="761"/>
-      <c r="M27" s="761"/>
+      <c r="C27" s="715"/>
+      <c r="D27" s="715"/>
+      <c r="E27" s="715"/>
+      <c r="F27" s="716"/>
+      <c r="G27" s="636"/>
+      <c r="H27" s="637"/>
+      <c r="I27" s="637"/>
+      <c r="J27" s="637"/>
+      <c r="K27" s="637"/>
+      <c r="L27" s="637"/>
+      <c r="M27" s="637"/>
       <c r="N27" s="111"/>
     </row>
     <row r="28" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="50"/>
       <c r="B28" s="51"/>
-      <c r="C28" s="642"/>
-      <c r="D28" s="642"/>
-      <c r="E28" s="642"/>
-      <c r="F28" s="643"/>
-      <c r="G28" s="762"/>
-      <c r="H28" s="763"/>
-      <c r="I28" s="763"/>
-      <c r="J28" s="763"/>
-      <c r="K28" s="763"/>
-      <c r="L28" s="763"/>
-      <c r="M28" s="763"/>
+      <c r="C28" s="717"/>
+      <c r="D28" s="717"/>
+      <c r="E28" s="717"/>
+      <c r="F28" s="718"/>
+      <c r="G28" s="638"/>
+      <c r="H28" s="639"/>
+      <c r="I28" s="639"/>
+      <c r="J28" s="639"/>
+      <c r="K28" s="639"/>
+      <c r="L28" s="639"/>
+      <c r="M28" s="639"/>
       <c r="N28" s="113"/>
     </row>
     <row r="29" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -13766,51 +13777,51 @@
       <c r="D29" s="167"/>
       <c r="E29" s="167"/>
       <c r="F29" s="166"/>
-      <c r="G29" s="238"/>
-      <c r="H29" s="238"/>
-      <c r="I29" s="238"/>
-      <c r="J29" s="247"/>
-      <c r="K29" s="247"/>
-      <c r="L29" s="247"/>
-      <c r="M29" s="247"/>
+      <c r="G29" s="234"/>
+      <c r="H29" s="234"/>
+      <c r="I29" s="234"/>
+      <c r="J29" s="243"/>
+      <c r="K29" s="243"/>
+      <c r="L29" s="243"/>
+      <c r="M29" s="243"/>
       <c r="N29" s="111"/>
     </row>
     <row r="30" spans="1:14" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="644" t="s">
+      <c r="A30" s="671" t="s">
         <v>361</v>
       </c>
-      <c r="B30" s="645"/>
-      <c r="C30" s="635" t="s">
+      <c r="B30" s="672"/>
+      <c r="C30" s="715" t="s">
         <v>362</v>
       </c>
-      <c r="D30" s="635"/>
-      <c r="E30" s="635"/>
-      <c r="F30" s="634"/>
+      <c r="D30" s="715"/>
+      <c r="E30" s="715"/>
+      <c r="F30" s="716"/>
       <c r="G30" s="32"/>
-      <c r="H30" s="259"/>
-      <c r="I30" s="269" t="s">
+      <c r="H30" s="255"/>
+      <c r="I30" s="265" t="s">
         <v>348</v>
       </c>
-      <c r="J30" s="242"/>
-      <c r="K30" s="259"/>
-      <c r="L30" s="269" t="s">
+      <c r="J30" s="238"/>
+      <c r="K30" s="255"/>
+      <c r="L30" s="265" t="s">
         <v>349</v>
       </c>
       <c r="M30" s="32"/>
       <c r="N30" s="115"/>
     </row>
     <row r="31" spans="1:14" ht="4.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="264"/>
-      <c r="B31" s="265"/>
-      <c r="C31" s="635"/>
-      <c r="D31" s="635"/>
-      <c r="E31" s="635"/>
-      <c r="F31" s="634"/>
+      <c r="A31" s="260"/>
+      <c r="B31" s="261"/>
+      <c r="C31" s="715"/>
+      <c r="D31" s="715"/>
+      <c r="E31" s="715"/>
+      <c r="F31" s="716"/>
       <c r="G31" s="32"/>
-      <c r="H31" s="209"/>
+      <c r="H31" s="205"/>
       <c r="I31" s="68"/>
-      <c r="J31" s="242"/>
-      <c r="K31" s="209"/>
+      <c r="J31" s="238"/>
+      <c r="K31" s="205"/>
       <c r="L31" s="68"/>
       <c r="M31" s="32"/>
       <c r="N31" s="115"/>
@@ -13818,51 +13829,51 @@
     <row r="32" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="39"/>
       <c r="B32" s="40"/>
-      <c r="C32" s="635"/>
-      <c r="D32" s="635"/>
-      <c r="E32" s="635"/>
-      <c r="F32" s="634"/>
-      <c r="G32" s="745" t="s">
+      <c r="C32" s="715"/>
+      <c r="D32" s="715"/>
+      <c r="E32" s="715"/>
+      <c r="F32" s="716"/>
+      <c r="G32" s="681" t="s">
         <v>351</v>
       </c>
-      <c r="H32" s="746"/>
-      <c r="I32" s="746"/>
-      <c r="J32" s="746"/>
-      <c r="K32" s="746"/>
-      <c r="L32" s="746"/>
-      <c r="M32" s="746"/>
+      <c r="H32" s="682"/>
+      <c r="I32" s="682"/>
+      <c r="J32" s="682"/>
+      <c r="K32" s="682"/>
+      <c r="L32" s="682"/>
+      <c r="M32" s="682"/>
       <c r="N32" s="2"/>
     </row>
     <row r="33" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="39"/>
       <c r="B33" s="40"/>
-      <c r="C33" s="635"/>
-      <c r="D33" s="635"/>
-      <c r="E33" s="635"/>
-      <c r="F33" s="634"/>
-      <c r="G33" s="756"/>
-      <c r="H33" s="757"/>
-      <c r="I33" s="757"/>
-      <c r="J33" s="757"/>
-      <c r="K33" s="757"/>
-      <c r="L33" s="757"/>
-      <c r="M33" s="757"/>
+      <c r="C33" s="715"/>
+      <c r="D33" s="715"/>
+      <c r="E33" s="715"/>
+      <c r="F33" s="716"/>
+      <c r="G33" s="632"/>
+      <c r="H33" s="633"/>
+      <c r="I33" s="633"/>
+      <c r="J33" s="633"/>
+      <c r="K33" s="633"/>
+      <c r="L33" s="633"/>
+      <c r="M33" s="633"/>
       <c r="N33" s="111"/>
     </row>
     <row r="34" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="50"/>
       <c r="B34" s="51"/>
-      <c r="C34" s="642"/>
-      <c r="D34" s="642"/>
-      <c r="E34" s="642"/>
-      <c r="F34" s="643"/>
-      <c r="G34" s="758"/>
-      <c r="H34" s="759"/>
-      <c r="I34" s="759"/>
-      <c r="J34" s="759"/>
-      <c r="K34" s="759"/>
-      <c r="L34" s="759"/>
-      <c r="M34" s="759"/>
+      <c r="C34" s="717"/>
+      <c r="D34" s="717"/>
+      <c r="E34" s="717"/>
+      <c r="F34" s="718"/>
+      <c r="G34" s="634"/>
+      <c r="H34" s="635"/>
+      <c r="I34" s="635"/>
+      <c r="J34" s="635"/>
+      <c r="K34" s="635"/>
+      <c r="L34" s="635"/>
+      <c r="M34" s="635"/>
       <c r="N34" s="113"/>
     </row>
     <row r="35" spans="1:14" ht="3.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -13872,30 +13883,30 @@
       <c r="D35" s="167"/>
       <c r="E35" s="167"/>
       <c r="F35" s="166"/>
-      <c r="G35" s="248"/>
-      <c r="H35" s="248"/>
-      <c r="I35" s="248"/>
+      <c r="G35" s="244"/>
+      <c r="H35" s="244"/>
+      <c r="I35" s="244"/>
       <c r="N35" s="111"/>
     </row>
     <row r="36" spans="1:14" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="644" t="s">
+      <c r="A36" s="671" t="s">
         <v>363</v>
       </c>
-      <c r="B36" s="645"/>
-      <c r="C36" s="635" t="s">
+      <c r="B36" s="672"/>
+      <c r="C36" s="715" t="s">
         <v>364</v>
       </c>
-      <c r="D36" s="635"/>
-      <c r="E36" s="635"/>
-      <c r="F36" s="634"/>
+      <c r="D36" s="715"/>
+      <c r="E36" s="715"/>
+      <c r="F36" s="716"/>
       <c r="G36" s="32"/>
-      <c r="H36" s="259"/>
-      <c r="I36" s="269" t="s">
+      <c r="H36" s="255"/>
+      <c r="I36" s="265" t="s">
         <v>348</v>
       </c>
-      <c r="J36" s="242"/>
-      <c r="K36" s="259"/>
-      <c r="L36" s="269" t="s">
+      <c r="J36" s="238"/>
+      <c r="K36" s="255"/>
+      <c r="L36" s="265" t="s">
         <v>349</v>
       </c>
       <c r="M36" s="32"/>
@@ -13904,19 +13915,19 @@
     <row r="37" spans="1:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="39"/>
       <c r="B37" s="40"/>
-      <c r="C37" s="635"/>
-      <c r="D37" s="635"/>
-      <c r="E37" s="635"/>
-      <c r="F37" s="634"/>
-      <c r="G37" s="767" t="s">
+      <c r="C37" s="715"/>
+      <c r="D37" s="715"/>
+      <c r="E37" s="715"/>
+      <c r="F37" s="716"/>
+      <c r="G37" s="643" t="s">
         <v>365</v>
       </c>
-      <c r="H37" s="768"/>
-      <c r="I37" s="768"/>
-      <c r="J37" s="768"/>
-      <c r="K37" s="768"/>
-      <c r="L37" s="686"/>
-      <c r="M37" s="686"/>
+      <c r="H37" s="644"/>
+      <c r="I37" s="644"/>
+      <c r="J37" s="644"/>
+      <c r="K37" s="644"/>
+      <c r="L37" s="684"/>
+      <c r="M37" s="684"/>
       <c r="N37" s="111"/>
     </row>
     <row r="38" spans="1:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13938,50 +13949,50 @@
     <row r="39" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="39"/>
       <c r="B39" s="40"/>
-      <c r="C39" s="635" t="s">
+      <c r="C39" s="715" t="s">
         <v>366</v>
       </c>
-      <c r="D39" s="635"/>
-      <c r="E39" s="635"/>
-      <c r="F39" s="634"/>
+      <c r="D39" s="715"/>
+      <c r="E39" s="715"/>
+      <c r="F39" s="716"/>
       <c r="G39" s="110"/>
-      <c r="H39" s="261"/>
-      <c r="I39" s="266" t="s">
+      <c r="H39" s="257"/>
+      <c r="I39" s="262" t="s">
         <v>348</v>
       </c>
-      <c r="J39" s="249"/>
-      <c r="K39" s="262"/>
-      <c r="L39" s="270" t="s">
+      <c r="J39" s="245"/>
+      <c r="K39" s="258"/>
+      <c r="L39" s="266" t="s">
         <v>349</v>
       </c>
-      <c r="M39" s="249"/>
+      <c r="M39" s="245"/>
       <c r="N39" s="111"/>
     </row>
     <row r="40" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="39"/>
       <c r="B40" s="40"/>
-      <c r="C40" s="635"/>
-      <c r="D40" s="635"/>
-      <c r="E40" s="635"/>
-      <c r="F40" s="634"/>
-      <c r="G40" s="767" t="s">
+      <c r="C40" s="715"/>
+      <c r="D40" s="715"/>
+      <c r="E40" s="715"/>
+      <c r="F40" s="716"/>
+      <c r="G40" s="643" t="s">
         <v>365</v>
       </c>
-      <c r="H40" s="768"/>
-      <c r="I40" s="768"/>
-      <c r="J40" s="768"/>
-      <c r="K40" s="768"/>
-      <c r="L40" s="686"/>
-      <c r="M40" s="686"/>
+      <c r="H40" s="644"/>
+      <c r="I40" s="644"/>
+      <c r="J40" s="644"/>
+      <c r="K40" s="644"/>
+      <c r="L40" s="684"/>
+      <c r="M40" s="684"/>
       <c r="N40" s="111"/>
     </row>
     <row r="41" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="50"/>
       <c r="B41" s="51"/>
-      <c r="C41" s="642"/>
-      <c r="D41" s="642"/>
-      <c r="E41" s="642"/>
-      <c r="F41" s="643"/>
+      <c r="C41" s="717"/>
+      <c r="D41" s="717"/>
+      <c r="E41" s="717"/>
+      <c r="F41" s="718"/>
       <c r="G41" s="114"/>
       <c r="H41" s="61"/>
       <c r="I41" s="61"/>
@@ -13997,34 +14008,34 @@
       <c r="D42" s="167"/>
       <c r="E42" s="167"/>
       <c r="F42" s="166"/>
-      <c r="G42" s="250"/>
-      <c r="H42" s="251"/>
-      <c r="I42" s="251"/>
-      <c r="J42" s="252"/>
-      <c r="K42" s="252"/>
-      <c r="L42" s="253"/>
-      <c r="M42" s="252"/>
+      <c r="G42" s="246"/>
+      <c r="H42" s="247"/>
+      <c r="I42" s="247"/>
+      <c r="J42" s="248"/>
+      <c r="K42" s="248"/>
+      <c r="L42" s="249"/>
+      <c r="M42" s="248"/>
       <c r="N42" s="111"/>
     </row>
     <row r="43" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="644" t="s">
+      <c r="A43" s="671" t="s">
         <v>367</v>
       </c>
-      <c r="B43" s="645"/>
-      <c r="C43" s="638" t="s">
+      <c r="B43" s="672"/>
+      <c r="C43" s="767" t="s">
         <v>368</v>
       </c>
-      <c r="D43" s="638"/>
-      <c r="E43" s="638"/>
-      <c r="F43" s="639"/>
+      <c r="D43" s="767"/>
+      <c r="E43" s="767"/>
+      <c r="F43" s="768"/>
       <c r="G43" s="32"/>
-      <c r="H43" s="259"/>
-      <c r="I43" s="269" t="s">
+      <c r="H43" s="255"/>
+      <c r="I43" s="265" t="s">
         <v>348</v>
       </c>
-      <c r="J43" s="242"/>
-      <c r="K43" s="259"/>
-      <c r="L43" s="269" t="s">
+      <c r="J43" s="238"/>
+      <c r="K43" s="255"/>
+      <c r="L43" s="265" t="s">
         <v>349</v>
       </c>
       <c r="M43" s="32"/>
@@ -14033,64 +14044,64 @@
     <row r="44" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="39"/>
       <c r="B44" s="40"/>
-      <c r="C44" s="638"/>
-      <c r="D44" s="638"/>
-      <c r="E44" s="638"/>
-      <c r="F44" s="639"/>
-      <c r="G44" s="646" t="s">
+      <c r="C44" s="767"/>
+      <c r="D44" s="767"/>
+      <c r="E44" s="767"/>
+      <c r="F44" s="768"/>
+      <c r="G44" s="622" t="s">
         <v>369</v>
       </c>
-      <c r="H44" s="647"/>
-      <c r="I44" s="647"/>
-      <c r="J44" s="647"/>
-      <c r="K44" s="647"/>
-      <c r="L44" s="647"/>
-      <c r="M44" s="647"/>
-      <c r="N44" s="739"/>
+      <c r="H44" s="623"/>
+      <c r="I44" s="623"/>
+      <c r="J44" s="623"/>
+      <c r="K44" s="623"/>
+      <c r="L44" s="623"/>
+      <c r="M44" s="623"/>
+      <c r="N44" s="675"/>
     </row>
     <row r="45" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="39"/>
       <c r="B45" s="40"/>
-      <c r="C45" s="638"/>
-      <c r="D45" s="638"/>
-      <c r="E45" s="638"/>
-      <c r="F45" s="639"/>
-      <c r="G45" s="760"/>
-      <c r="H45" s="761"/>
-      <c r="I45" s="761"/>
-      <c r="J45" s="761"/>
-      <c r="K45" s="761"/>
-      <c r="L45" s="761"/>
-      <c r="M45" s="761"/>
+      <c r="C45" s="767"/>
+      <c r="D45" s="767"/>
+      <c r="E45" s="767"/>
+      <c r="F45" s="768"/>
+      <c r="G45" s="636"/>
+      <c r="H45" s="637"/>
+      <c r="I45" s="637"/>
+      <c r="J45" s="637"/>
+      <c r="K45" s="637"/>
+      <c r="L45" s="637"/>
+      <c r="M45" s="637"/>
       <c r="N45" s="111"/>
     </row>
     <row r="46" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="50"/>
       <c r="B46" s="51"/>
-      <c r="C46" s="640"/>
-      <c r="D46" s="640"/>
-      <c r="E46" s="640"/>
-      <c r="F46" s="641"/>
-      <c r="G46" s="762"/>
-      <c r="H46" s="763"/>
-      <c r="I46" s="763"/>
-      <c r="J46" s="763"/>
-      <c r="K46" s="763"/>
-      <c r="L46" s="763"/>
-      <c r="M46" s="763"/>
+      <c r="C46" s="769"/>
+      <c r="D46" s="769"/>
+      <c r="E46" s="769"/>
+      <c r="F46" s="770"/>
+      <c r="G46" s="638"/>
+      <c r="H46" s="639"/>
+      <c r="I46" s="639"/>
+      <c r="J46" s="639"/>
+      <c r="K46" s="639"/>
+      <c r="L46" s="639"/>
+      <c r="M46" s="639"/>
       <c r="N46" s="113"/>
     </row>
     <row r="47" spans="1:14" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="636" t="s">
+      <c r="A47" s="765" t="s">
         <v>370</v>
       </c>
-      <c r="B47" s="637"/>
-      <c r="C47" s="635" t="s">
+      <c r="B47" s="766"/>
+      <c r="C47" s="715" t="s">
         <v>371</v>
       </c>
-      <c r="D47" s="635"/>
-      <c r="E47" s="635"/>
-      <c r="F47" s="634"/>
+      <c r="D47" s="715"/>
+      <c r="E47" s="715"/>
+      <c r="F47" s="716"/>
       <c r="G47" s="38"/>
       <c r="H47" s="38"/>
       <c r="I47" s="38"/>
@@ -14103,10 +14114,10 @@
     <row r="48" spans="1:14" ht="0.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="54"/>
       <c r="B48" s="55"/>
-      <c r="C48" s="635"/>
-      <c r="D48" s="635"/>
-      <c r="E48" s="635"/>
-      <c r="F48" s="634"/>
+      <c r="C48" s="715"/>
+      <c r="D48" s="715"/>
+      <c r="E48" s="715"/>
+      <c r="F48" s="716"/>
       <c r="G48" s="59"/>
       <c r="H48" s="59"/>
       <c r="I48" s="59"/>
@@ -14121,18 +14132,18 @@
         <v>372</v>
       </c>
       <c r="B49" s="55"/>
-      <c r="C49" s="635" t="s">
+      <c r="C49" s="715" t="s">
         <v>373</v>
       </c>
-      <c r="D49" s="635"/>
-      <c r="E49" s="635"/>
-      <c r="F49" s="634"/>
-      <c r="H49" s="257"/>
-      <c r="I49" s="267" t="s">
+      <c r="D49" s="715"/>
+      <c r="E49" s="715"/>
+      <c r="F49" s="716"/>
+      <c r="H49" s="253"/>
+      <c r="I49" s="263" t="s">
         <v>348</v>
       </c>
-      <c r="K49" s="257"/>
-      <c r="L49" s="267" t="s">
+      <c r="K49" s="253"/>
+      <c r="L49" s="263" t="s">
         <v>349</v>
       </c>
       <c r="N49" s="2"/>
@@ -14140,19 +14151,19 @@
     <row r="50" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="54"/>
       <c r="B50" s="55"/>
-      <c r="C50" s="635"/>
-      <c r="D50" s="635"/>
-      <c r="E50" s="635"/>
-      <c r="F50" s="634"/>
-      <c r="G50" s="769" t="s">
+      <c r="C50" s="715"/>
+      <c r="D50" s="715"/>
+      <c r="E50" s="715"/>
+      <c r="F50" s="716"/>
+      <c r="G50" s="645" t="s">
         <v>374</v>
       </c>
-      <c r="H50" s="770"/>
-      <c r="I50" s="770"/>
-      <c r="J50" s="770"/>
-      <c r="K50" s="685"/>
-      <c r="L50" s="685"/>
-      <c r="M50" s="685"/>
+      <c r="H50" s="646"/>
+      <c r="I50" s="646"/>
+      <c r="J50" s="646"/>
+      <c r="K50" s="621"/>
+      <c r="L50" s="621"/>
+      <c r="M50" s="621"/>
       <c r="N50" s="107"/>
       <c r="O50" s="61"/>
     </row>
@@ -14161,18 +14172,18 @@
         <v>375</v>
       </c>
       <c r="B51" s="55"/>
-      <c r="C51" s="634" t="s">
+      <c r="C51" s="716" t="s">
         <v>376</v>
       </c>
-      <c r="D51" s="634"/>
-      <c r="E51" s="634"/>
-      <c r="F51" s="634"/>
-      <c r="H51" s="257"/>
-      <c r="I51" s="267" t="s">
+      <c r="D51" s="716"/>
+      <c r="E51" s="716"/>
+      <c r="F51" s="716"/>
+      <c r="H51" s="253"/>
+      <c r="I51" s="263" t="s">
         <v>348</v>
       </c>
-      <c r="K51" s="263"/>
-      <c r="L51" s="267" t="s">
+      <c r="K51" s="259"/>
+      <c r="L51" s="263" t="s">
         <v>349</v>
       </c>
       <c r="N51" s="2"/>
@@ -14180,19 +14191,19 @@
     <row r="52" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="54"/>
       <c r="B52" s="55"/>
-      <c r="C52" s="634"/>
-      <c r="D52" s="634"/>
-      <c r="E52" s="634"/>
-      <c r="F52" s="634"/>
-      <c r="G52" s="771" t="s">
+      <c r="C52" s="716"/>
+      <c r="D52" s="716"/>
+      <c r="E52" s="716"/>
+      <c r="F52" s="716"/>
+      <c r="G52" s="647" t="s">
         <v>377</v>
       </c>
-      <c r="H52" s="772"/>
-      <c r="I52" s="772"/>
-      <c r="J52" s="772"/>
-      <c r="K52" s="772"/>
-      <c r="L52" s="685"/>
-      <c r="M52" s="685"/>
+      <c r="H52" s="648"/>
+      <c r="I52" s="648"/>
+      <c r="J52" s="648"/>
+      <c r="K52" s="648"/>
+      <c r="L52" s="621"/>
+      <c r="M52" s="621"/>
       <c r="N52" s="107"/>
       <c r="O52" s="61"/>
     </row>
@@ -14201,48 +14212,48 @@
         <v>378</v>
       </c>
       <c r="B53" s="55"/>
-      <c r="C53" s="635" t="s">
+      <c r="C53" s="715" t="s">
         <v>379</v>
       </c>
-      <c r="D53" s="635"/>
+      <c r="D53" s="715"/>
       <c r="E53" s="103"/>
       <c r="F53" s="104"/>
-      <c r="H53" s="257"/>
-      <c r="I53" s="267" t="s">
+      <c r="H53" s="253"/>
+      <c r="I53" s="263" t="s">
         <v>348</v>
       </c>
-      <c r="K53" s="257"/>
-      <c r="L53" s="267" t="s">
+      <c r="K53" s="253"/>
+      <c r="L53" s="263" t="s">
         <v>349</v>
       </c>
       <c r="N53" s="2"/>
     </row>
     <row r="54" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="659"/>
-      <c r="B54" s="660"/>
-      <c r="C54" s="660"/>
-      <c r="D54" s="660"/>
-      <c r="E54" s="660"/>
-      <c r="F54" s="661"/>
+      <c r="A54" s="726"/>
+      <c r="B54" s="727"/>
+      <c r="C54" s="727"/>
+      <c r="D54" s="727"/>
+      <c r="E54" s="727"/>
+      <c r="F54" s="728"/>
       <c r="G54" s="172" t="s">
         <v>377</v>
       </c>
-      <c r="H54" s="219"/>
-      <c r="I54" s="219"/>
+      <c r="H54" s="215"/>
+      <c r="I54" s="215"/>
       <c r="J54" s="108"/>
       <c r="K54" s="108"/>
-      <c r="L54" s="685"/>
-      <c r="M54" s="685"/>
+      <c r="L54" s="621"/>
+      <c r="M54" s="621"/>
       <c r="N54" s="109"/>
       <c r="O54" s="61"/>
     </row>
     <row r="55" spans="1:15" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="662"/>
-      <c r="B55" s="663"/>
-      <c r="C55" s="663"/>
-      <c r="D55" s="663"/>
-      <c r="E55" s="663"/>
-      <c r="F55" s="664"/>
+      <c r="A55" s="729"/>
+      <c r="B55" s="730"/>
+      <c r="C55" s="730"/>
+      <c r="D55" s="730"/>
+      <c r="E55" s="730"/>
+      <c r="F55" s="731"/>
       <c r="G55" s="105"/>
       <c r="H55" s="101"/>
       <c r="I55" s="101"/>
@@ -14254,10 +14265,10 @@
       <c r="O55" s="61"/>
     </row>
     <row r="56" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="737" t="s">
+      <c r="A56" s="673" t="s">
         <v>380</v>
       </c>
-      <c r="B56" s="738"/>
+      <c r="B56" s="674"/>
       <c r="C56" s="170" t="s">
         <v>381</v>
       </c>
@@ -14268,150 +14279,150 @@
       <c r="H56" s="170"/>
       <c r="I56" s="170"/>
       <c r="J56" s="171"/>
-      <c r="K56" s="232"/>
-      <c r="L56" s="233"/>
-      <c r="M56" s="233"/>
-      <c r="N56" s="234"/>
+      <c r="K56" s="228"/>
+      <c r="L56" s="229"/>
+      <c r="M56" s="229"/>
+      <c r="N56" s="230"/>
     </row>
     <row r="57" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="656" t="s">
+      <c r="A57" s="723" t="s">
         <v>382</v>
       </c>
-      <c r="B57" s="657"/>
-      <c r="C57" s="657"/>
-      <c r="D57" s="657"/>
-      <c r="E57" s="658"/>
-      <c r="F57" s="229" t="s">
+      <c r="B57" s="724"/>
+      <c r="C57" s="724"/>
+      <c r="D57" s="724"/>
+      <c r="E57" s="725"/>
+      <c r="F57" s="225" t="s">
         <v>383</v>
       </c>
-      <c r="G57" s="419" t="s">
+      <c r="G57" s="360" t="s">
         <v>384</v>
       </c>
-      <c r="H57" s="620"/>
-      <c r="I57" s="620"/>
-      <c r="J57" s="420"/>
-      <c r="K57" s="235"/>
-      <c r="L57" s="679" t="s">
+      <c r="H57" s="554"/>
+      <c r="I57" s="554"/>
+      <c r="J57" s="361"/>
+      <c r="K57" s="231"/>
+      <c r="L57" s="748" t="s">
         <v>385</v>
       </c>
-      <c r="M57" s="680"/>
-      <c r="N57" s="237"/>
+      <c r="M57" s="749"/>
+      <c r="N57" s="233"/>
     </row>
     <row r="58" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="672"/>
-      <c r="B58" s="673"/>
-      <c r="C58" s="675"/>
-      <c r="D58" s="675"/>
-      <c r="E58" s="676"/>
+      <c r="A58" s="741"/>
+      <c r="B58" s="742"/>
+      <c r="C58" s="744"/>
+      <c r="D58" s="744"/>
+      <c r="E58" s="745"/>
       <c r="F58" s="62"/>
-      <c r="G58" s="665"/>
-      <c r="H58" s="666"/>
-      <c r="I58" s="666"/>
-      <c r="J58" s="667"/>
-      <c r="K58" s="235"/>
-      <c r="L58" s="681"/>
-      <c r="M58" s="682"/>
-      <c r="N58" s="237"/>
+      <c r="G58" s="734"/>
+      <c r="H58" s="735"/>
+      <c r="I58" s="735"/>
+      <c r="J58" s="736"/>
+      <c r="K58" s="231"/>
+      <c r="L58" s="750"/>
+      <c r="M58" s="751"/>
+      <c r="N58" s="233"/>
     </row>
     <row r="59" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="672"/>
-      <c r="B59" s="673"/>
-      <c r="C59" s="673"/>
-      <c r="D59" s="673"/>
-      <c r="E59" s="674"/>
+      <c r="A59" s="741"/>
+      <c r="B59" s="742"/>
+      <c r="C59" s="742"/>
+      <c r="D59" s="742"/>
+      <c r="E59" s="743"/>
       <c r="F59" s="62"/>
-      <c r="G59" s="665"/>
-      <c r="H59" s="666"/>
-      <c r="I59" s="666"/>
-      <c r="J59" s="667"/>
-      <c r="K59" s="235"/>
-      <c r="L59" s="681"/>
-      <c r="M59" s="682"/>
-      <c r="N59" s="237"/>
+      <c r="G59" s="734"/>
+      <c r="H59" s="735"/>
+      <c r="I59" s="735"/>
+      <c r="J59" s="736"/>
+      <c r="K59" s="231"/>
+      <c r="L59" s="750"/>
+      <c r="M59" s="751"/>
+      <c r="N59" s="233"/>
     </row>
     <row r="60" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="668"/>
-      <c r="B60" s="669"/>
-      <c r="C60" s="670"/>
-      <c r="D60" s="670"/>
-      <c r="E60" s="671"/>
+      <c r="A60" s="737"/>
+      <c r="B60" s="738"/>
+      <c r="C60" s="739"/>
+      <c r="D60" s="739"/>
+      <c r="E60" s="740"/>
       <c r="F60" s="177"/>
-      <c r="G60" s="653"/>
-      <c r="H60" s="654"/>
-      <c r="I60" s="654"/>
-      <c r="J60" s="655"/>
-      <c r="K60" s="235"/>
-      <c r="L60" s="681"/>
-      <c r="M60" s="682"/>
-      <c r="N60" s="237"/>
+      <c r="G60" s="720"/>
+      <c r="H60" s="721"/>
+      <c r="I60" s="721"/>
+      <c r="J60" s="722"/>
+      <c r="K60" s="231"/>
+      <c r="L60" s="750"/>
+      <c r="M60" s="751"/>
+      <c r="N60" s="233"/>
     </row>
     <row r="61" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="648" t="s">
+      <c r="A61" s="732" t="s">
         <v>386</v>
       </c>
-      <c r="B61" s="649"/>
-      <c r="C61" s="677" t="s">
+      <c r="B61" s="733"/>
+      <c r="C61" s="746" t="s">
         <v>387</v>
       </c>
-      <c r="D61" s="677"/>
-      <c r="E61" s="677"/>
-      <c r="F61" s="677"/>
-      <c r="G61" s="677"/>
-      <c r="H61" s="677"/>
-      <c r="I61" s="677"/>
-      <c r="J61" s="220"/>
-      <c r="K61" s="236"/>
-      <c r="L61" s="683"/>
-      <c r="M61" s="684"/>
-      <c r="N61" s="237"/>
+      <c r="D61" s="746"/>
+      <c r="E61" s="746"/>
+      <c r="F61" s="746"/>
+      <c r="G61" s="746"/>
+      <c r="H61" s="746"/>
+      <c r="I61" s="746"/>
+      <c r="J61" s="216"/>
+      <c r="K61" s="232"/>
+      <c r="L61" s="752"/>
+      <c r="M61" s="753"/>
+      <c r="N61" s="233"/>
     </row>
     <row r="62" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="63"/>
       <c r="B62" s="64"/>
-      <c r="C62" s="678"/>
-      <c r="D62" s="678"/>
-      <c r="E62" s="678"/>
-      <c r="F62" s="678"/>
-      <c r="G62" s="678"/>
-      <c r="H62" s="678"/>
-      <c r="I62" s="678"/>
-      <c r="J62" s="221"/>
+      <c r="C62" s="747"/>
+      <c r="D62" s="747"/>
+      <c r="E62" s="747"/>
+      <c r="F62" s="747"/>
+      <c r="G62" s="747"/>
+      <c r="H62" s="747"/>
+      <c r="I62" s="747"/>
+      <c r="J62" s="217"/>
       <c r="K62" s="176"/>
-      <c r="L62" s="630" t="s">
+      <c r="L62" s="719" t="s">
         <v>388</v>
       </c>
-      <c r="M62" s="630"/>
+      <c r="M62" s="719"/>
       <c r="N62" s="161"/>
     </row>
     <row r="63" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="63"/>
       <c r="B63" s="64"/>
-      <c r="C63" s="678"/>
-      <c r="D63" s="678"/>
-      <c r="E63" s="678"/>
-      <c r="F63" s="678"/>
-      <c r="G63" s="678"/>
-      <c r="H63" s="678"/>
-      <c r="I63" s="678"/>
-      <c r="J63" s="221"/>
-      <c r="K63" s="630"/>
-      <c r="L63" s="630"/>
-      <c r="M63" s="630"/>
-      <c r="N63" s="631"/>
+      <c r="C63" s="747"/>
+      <c r="D63" s="747"/>
+      <c r="E63" s="747"/>
+      <c r="F63" s="747"/>
+      <c r="G63" s="747"/>
+      <c r="H63" s="747"/>
+      <c r="I63" s="747"/>
+      <c r="J63" s="217"/>
+      <c r="K63" s="719"/>
+      <c r="L63" s="719"/>
+      <c r="M63" s="719"/>
+      <c r="N63" s="764"/>
     </row>
     <row r="64" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="159"/>
       <c r="B64" s="160"/>
-      <c r="C64" s="222"/>
-      <c r="D64" s="222"/>
-      <c r="E64" s="222"/>
-      <c r="F64" s="222"/>
-      <c r="G64" s="222"/>
-      <c r="H64" s="222"/>
-      <c r="I64" s="222"/>
-      <c r="J64" s="223"/>
-      <c r="L64" s="708"/>
-      <c r="M64" s="709"/>
+      <c r="C64" s="218"/>
+      <c r="D64" s="218"/>
+      <c r="E64" s="218"/>
+      <c r="F64" s="218"/>
+      <c r="G64" s="218"/>
+      <c r="H64" s="218"/>
+      <c r="I64" s="218"/>
+      <c r="J64" s="219"/>
+      <c r="L64" s="705"/>
+      <c r="M64" s="706"/>
       <c r="N64" s="2"/>
     </row>
     <row r="65" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14424,108 +14435,108 @@
       <c r="H65" s="33"/>
       <c r="I65" s="33"/>
       <c r="J65" s="33"/>
-      <c r="L65" s="710"/>
-      <c r="M65" s="711"/>
+      <c r="L65" s="707"/>
+      <c r="M65" s="708"/>
       <c r="N65" s="2"/>
     </row>
     <row r="66" spans="1:14" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="65"/>
-      <c r="B66" s="730" t="s">
+      <c r="B66" s="663" t="s">
         <v>389</v>
       </c>
-      <c r="C66" s="731"/>
-      <c r="D66" s="732"/>
-      <c r="F66" s="721"/>
-      <c r="G66" s="722"/>
-      <c r="H66" s="722"/>
-      <c r="I66" s="722"/>
-      <c r="J66" s="723"/>
-      <c r="L66" s="710"/>
-      <c r="M66" s="711"/>
+      <c r="C66" s="664"/>
+      <c r="D66" s="665"/>
+      <c r="F66" s="654"/>
+      <c r="G66" s="655"/>
+      <c r="H66" s="655"/>
+      <c r="I66" s="655"/>
+      <c r="J66" s="656"/>
+      <c r="L66" s="707"/>
+      <c r="M66" s="708"/>
       <c r="N66" s="66"/>
     </row>
     <row r="67" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="65"/>
-      <c r="B67" s="714" t="s">
+      <c r="B67" s="711" t="s">
         <v>390</v>
       </c>
-      <c r="C67" s="715"/>
+      <c r="C67" s="712"/>
       <c r="D67" s="118"/>
-      <c r="F67" s="724"/>
-      <c r="G67" s="725"/>
-      <c r="H67" s="725"/>
-      <c r="I67" s="725"/>
-      <c r="J67" s="726"/>
-      <c r="L67" s="710"/>
-      <c r="M67" s="711"/>
+      <c r="F67" s="657"/>
+      <c r="G67" s="658"/>
+      <c r="H67" s="658"/>
+      <c r="I67" s="658"/>
+      <c r="J67" s="659"/>
+      <c r="L67" s="707"/>
+      <c r="M67" s="708"/>
       <c r="N67" s="66"/>
     </row>
     <row r="68" spans="1:14" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="65"/>
-      <c r="B68" s="702" t="s">
+      <c r="B68" s="700" t="s">
         <v>391</v>
       </c>
-      <c r="C68" s="703"/>
-      <c r="D68" s="706"/>
-      <c r="F68" s="727"/>
-      <c r="G68" s="728"/>
-      <c r="H68" s="728"/>
-      <c r="I68" s="728"/>
-      <c r="J68" s="729"/>
-      <c r="L68" s="710"/>
-      <c r="M68" s="711"/>
+      <c r="C68" s="701"/>
+      <c r="D68" s="666"/>
+      <c r="F68" s="660"/>
+      <c r="G68" s="661"/>
+      <c r="H68" s="661"/>
+      <c r="I68" s="661"/>
+      <c r="J68" s="662"/>
+      <c r="L68" s="707"/>
+      <c r="M68" s="708"/>
       <c r="N68" s="66"/>
     </row>
     <row r="69" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="65"/>
-      <c r="B69" s="716"/>
-      <c r="C69" s="717"/>
-      <c r="D69" s="733"/>
-      <c r="F69" s="734" t="s">
+      <c r="B69" s="713"/>
+      <c r="C69" s="714"/>
+      <c r="D69" s="667"/>
+      <c r="F69" s="668" t="s">
         <v>392</v>
       </c>
-      <c r="G69" s="735"/>
-      <c r="H69" s="735"/>
-      <c r="I69" s="735"/>
-      <c r="J69" s="736"/>
-      <c r="L69" s="710"/>
-      <c r="M69" s="711"/>
+      <c r="G69" s="669"/>
+      <c r="H69" s="669"/>
+      <c r="I69" s="669"/>
+      <c r="J69" s="670"/>
+      <c r="L69" s="707"/>
+      <c r="M69" s="708"/>
       <c r="N69" s="66"/>
     </row>
     <row r="70" spans="1:14" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="65"/>
-      <c r="B70" s="702" t="s">
+      <c r="B70" s="700" t="s">
         <v>393</v>
       </c>
-      <c r="C70" s="703"/>
-      <c r="D70" s="706"/>
+      <c r="C70" s="701"/>
+      <c r="D70" s="666"/>
       <c r="F70" s="67"/>
       <c r="G70" s="162"/>
       <c r="H70" s="162"/>
       <c r="I70" s="162"/>
       <c r="J70" s="163"/>
       <c r="K70" s="68"/>
-      <c r="L70" s="712"/>
-      <c r="M70" s="713"/>
+      <c r="L70" s="709"/>
+      <c r="M70" s="710"/>
       <c r="N70" s="66"/>
     </row>
     <row r="71" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="65"/>
-      <c r="B71" s="704"/>
-      <c r="C71" s="705"/>
-      <c r="D71" s="707"/>
-      <c r="F71" s="699" t="s">
+      <c r="B71" s="702"/>
+      <c r="C71" s="703"/>
+      <c r="D71" s="704"/>
+      <c r="F71" s="697" t="s">
         <v>394</v>
       </c>
-      <c r="G71" s="700"/>
-      <c r="H71" s="700"/>
-      <c r="I71" s="700"/>
-      <c r="J71" s="701"/>
+      <c r="G71" s="698"/>
+      <c r="H71" s="698"/>
+      <c r="I71" s="698"/>
+      <c r="J71" s="699"/>
       <c r="K71" s="68"/>
-      <c r="L71" s="697" t="s">
+      <c r="L71" s="695" t="s">
         <v>395</v>
       </c>
-      <c r="M71" s="698"/>
+      <c r="M71" s="696"/>
       <c r="N71" s="66"/>
     </row>
     <row r="72" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14545,34 +14556,34 @@
       <c r="N72" s="74"/>
     </row>
     <row r="73" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="694" t="s">
+      <c r="A73" s="692" t="s">
         <v>396</v>
       </c>
-      <c r="B73" s="695"/>
-      <c r="C73" s="695"/>
-      <c r="D73" s="695"/>
-      <c r="E73" s="695"/>
-      <c r="F73" s="695"/>
-      <c r="G73" s="695"/>
-      <c r="H73" s="695"/>
-      <c r="I73" s="695"/>
-      <c r="J73" s="695"/>
-      <c r="K73" s="695"/>
-      <c r="L73" s="695"/>
-      <c r="M73" s="695"/>
-      <c r="N73" s="696"/>
+      <c r="B73" s="693"/>
+      <c r="C73" s="693"/>
+      <c r="D73" s="693"/>
+      <c r="E73" s="693"/>
+      <c r="F73" s="693"/>
+      <c r="G73" s="693"/>
+      <c r="H73" s="693"/>
+      <c r="I73" s="693"/>
+      <c r="J73" s="693"/>
+      <c r="K73" s="693"/>
+      <c r="L73" s="693"/>
+      <c r="M73" s="693"/>
+      <c r="N73" s="694"/>
     </row>
     <row r="74" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="65"/>
       <c r="B74" s="68"/>
       <c r="C74" s="75"/>
       <c r="D74" s="75"/>
-      <c r="E74" s="691"/>
-      <c r="F74" s="692"/>
-      <c r="G74" s="692"/>
-      <c r="H74" s="692"/>
-      <c r="I74" s="692"/>
-      <c r="J74" s="693"/>
+      <c r="E74" s="689"/>
+      <c r="F74" s="690"/>
+      <c r="G74" s="690"/>
+      <c r="H74" s="690"/>
+      <c r="I74" s="690"/>
+      <c r="J74" s="691"/>
       <c r="K74" s="119"/>
       <c r="L74" s="119"/>
       <c r="N74" s="66"/>
@@ -14580,16 +14591,16 @@
     <row r="75" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="65"/>
       <c r="B75" s="68"/>
-      <c r="C75" s="209"/>
-      <c r="D75" s="209"/>
-      <c r="E75" s="688" t="s">
+      <c r="C75" s="205"/>
+      <c r="D75" s="205"/>
+      <c r="E75" s="686" t="s">
         <v>397</v>
       </c>
-      <c r="F75" s="689"/>
-      <c r="G75" s="689"/>
-      <c r="H75" s="689"/>
-      <c r="I75" s="689"/>
-      <c r="J75" s="690"/>
+      <c r="F75" s="687"/>
+      <c r="G75" s="687"/>
+      <c r="H75" s="687"/>
+      <c r="I75" s="687"/>
+      <c r="J75" s="688"/>
       <c r="K75" s="121"/>
       <c r="L75" s="120"/>
       <c r="M75" s="76"/>
@@ -14612,40 +14623,82 @@
       <c r="N76" s="79"/>
     </row>
     <row r="77" spans="1:14" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="687" t="s">
+      <c r="A77" s="685" t="s">
         <v>398</v>
       </c>
-      <c r="B77" s="687"/>
-      <c r="C77" s="687"/>
-      <c r="D77" s="687"/>
-      <c r="E77" s="687"/>
-      <c r="F77" s="687"/>
-      <c r="G77" s="687"/>
-      <c r="H77" s="687"/>
-      <c r="I77" s="687"/>
-      <c r="J77" s="687"/>
-      <c r="K77" s="687"/>
-      <c r="L77" s="687"/>
-      <c r="M77" s="687"/>
-      <c r="N77" s="687"/>
+      <c r="B77" s="685"/>
+      <c r="C77" s="685"/>
+      <c r="D77" s="685"/>
+      <c r="E77" s="685"/>
+      <c r="F77" s="685"/>
+      <c r="G77" s="685"/>
+      <c r="H77" s="685"/>
+      <c r="I77" s="685"/>
+      <c r="J77" s="685"/>
+      <c r="K77" s="685"/>
+      <c r="L77" s="685"/>
+      <c r="M77" s="685"/>
+      <c r="N77" s="685"/>
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G11:M12"/>
-    <mergeCell ref="G16:M17"/>
-    <mergeCell ref="G33:M34"/>
-    <mergeCell ref="G27:M28"/>
-    <mergeCell ref="G45:M46"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="G37:K37"/>
-    <mergeCell ref="G40:K40"/>
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="G52:K52"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C51:F52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C43:F46"/>
+    <mergeCell ref="C47:F48"/>
+    <mergeCell ref="C49:F50"/>
+    <mergeCell ref="C30:F34"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F17"/>
+    <mergeCell ref="G15:M15"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="G5:M5"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C39:F41"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="G60:J60"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A54:F55"/>
+    <mergeCell ref="G57:J57"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="G58:J58"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="G59:J59"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="C61:I63"/>
+    <mergeCell ref="L57:M61"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="C25:F28"/>
+    <mergeCell ref="C36:F37"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A77:N77"/>
+    <mergeCell ref="E75:J75"/>
+    <mergeCell ref="E74:J74"/>
+    <mergeCell ref="A73:N73"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="B70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="L64:M70"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C69"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="G22:J22"/>
@@ -14662,63 +14715,21 @@
     <mergeCell ref="J23:L23"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A77:N77"/>
-    <mergeCell ref="E75:J75"/>
-    <mergeCell ref="E74:J74"/>
-    <mergeCell ref="A73:N73"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="B70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="L64:M70"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C69"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="C25:F28"/>
-    <mergeCell ref="C36:F37"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C39:F41"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="G60:J60"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A54:F55"/>
-    <mergeCell ref="G57:J57"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="G58:J58"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="G59:J59"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="C61:I63"/>
-    <mergeCell ref="L57:M61"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="G5:M5"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="K63:N63"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C51:F52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C43:F46"/>
-    <mergeCell ref="C47:F48"/>
-    <mergeCell ref="C49:F50"/>
-    <mergeCell ref="C30:F34"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F17"/>
-    <mergeCell ref="G15:M15"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G11:M12"/>
+    <mergeCell ref="G16:M17"/>
+    <mergeCell ref="G33:M34"/>
+    <mergeCell ref="G27:M28"/>
+    <mergeCell ref="G45:M46"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="G37:K37"/>
+    <mergeCell ref="G40:K40"/>
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="G52:K52"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047" right="0" top="0.35433070866142002" bottom="0" header="0.15748031496063" footer="0"/>

--- a/templates/PDS.xlsx
+++ b/templates/PDS.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CHRMIS\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B2150C-6667-43E8-A0D2-3A89991F3D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8467E2-4204-4FB1-A496-87C2951A5EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C1" sheetId="1" r:id="rId1"/>
@@ -1704,7 +1704,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="75">
+  <borders count="76">
     <border>
       <left/>
       <right/>
@@ -2594,11 +2594,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="777">
+  <cellXfs count="778">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -3456,6 +3465,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="26" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -3679,6 +3691,24 @@
     </xf>
     <xf numFmtId="49" fontId="50" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="33" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4974,24 +5004,6 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6131,8 +6143,8 @@
   </sheetPr>
   <dimension ref="A1:S264"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51:K52"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31:N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6157,20 +6169,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="349"/>
-      <c r="B1" s="350"/>
-      <c r="C1" s="350"/>
-      <c r="D1" s="350"/>
-      <c r="E1" s="350"/>
-      <c r="F1" s="350"/>
-      <c r="G1" s="350"/>
-      <c r="H1" s="350"/>
-      <c r="I1" s="350"/>
-      <c r="J1" s="350"/>
-      <c r="K1" s="350"/>
-      <c r="L1" s="350"/>
-      <c r="M1" s="350"/>
-      <c r="N1" s="351"/>
+      <c r="A1" s="356"/>
+      <c r="B1" s="357"/>
+      <c r="C1" s="357"/>
+      <c r="D1" s="357"/>
+      <c r="E1" s="357"/>
+      <c r="F1" s="357"/>
+      <c r="G1" s="357"/>
+      <c r="H1" s="357"/>
+      <c r="I1" s="357"/>
+      <c r="J1" s="357"/>
+      <c r="K1" s="357"/>
+      <c r="L1" s="357"/>
+      <c r="M1" s="357"/>
+      <c r="N1" s="358"/>
     </row>
     <row r="2" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="143"/>
@@ -6200,58 +6212,58 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="352" t="s">
+      <c r="A3" s="359" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="353"/>
-      <c r="C3" s="353"/>
-      <c r="D3" s="353"/>
-      <c r="E3" s="353"/>
-      <c r="F3" s="353"/>
-      <c r="G3" s="353"/>
-      <c r="H3" s="353"/>
-      <c r="I3" s="353"/>
-      <c r="J3" s="353"/>
-      <c r="K3" s="353"/>
-      <c r="L3" s="353"/>
-      <c r="M3" s="353"/>
-      <c r="N3" s="354"/>
+      <c r="B3" s="360"/>
+      <c r="C3" s="360"/>
+      <c r="D3" s="360"/>
+      <c r="E3" s="360"/>
+      <c r="F3" s="360"/>
+      <c r="G3" s="360"/>
+      <c r="H3" s="360"/>
+      <c r="I3" s="360"/>
+      <c r="J3" s="360"/>
+      <c r="K3" s="360"/>
+      <c r="L3" s="360"/>
+      <c r="M3" s="360"/>
+      <c r="N3" s="361"/>
     </row>
     <row r="4" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="391" t="s">
+      <c r="A4" s="398" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="392"/>
-      <c r="C4" s="392"/>
-      <c r="D4" s="392"/>
-      <c r="E4" s="392"/>
-      <c r="F4" s="392"/>
-      <c r="G4" s="392"/>
-      <c r="H4" s="392"/>
-      <c r="I4" s="392"/>
-      <c r="J4" s="392"/>
-      <c r="K4" s="392"/>
-      <c r="L4" s="392"/>
-      <c r="M4" s="392"/>
-      <c r="N4" s="393"/>
+      <c r="B4" s="399"/>
+      <c r="C4" s="399"/>
+      <c r="D4" s="399"/>
+      <c r="E4" s="399"/>
+      <c r="F4" s="399"/>
+      <c r="G4" s="399"/>
+      <c r="H4" s="399"/>
+      <c r="I4" s="399"/>
+      <c r="J4" s="399"/>
+      <c r="K4" s="399"/>
+      <c r="L4" s="399"/>
+      <c r="M4" s="399"/>
+      <c r="N4" s="400"/>
     </row>
     <row r="5" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="398" t="s">
+      <c r="A5" s="405" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="399"/>
-      <c r="C5" s="399"/>
-      <c r="D5" s="399"/>
-      <c r="E5" s="399"/>
-      <c r="F5" s="399"/>
-      <c r="G5" s="399"/>
-      <c r="H5" s="399"/>
-      <c r="I5" s="399"/>
-      <c r="J5" s="399"/>
-      <c r="K5" s="399"/>
-      <c r="L5" s="399"/>
-      <c r="M5" s="399"/>
-      <c r="N5" s="400"/>
+      <c r="B5" s="406"/>
+      <c r="C5" s="406"/>
+      <c r="D5" s="406"/>
+      <c r="E5" s="406"/>
+      <c r="F5" s="406"/>
+      <c r="G5" s="406"/>
+      <c r="H5" s="406"/>
+      <c r="I5" s="406"/>
+      <c r="J5" s="406"/>
+      <c r="K5" s="406"/>
+      <c r="L5" s="406"/>
+      <c r="M5" s="406"/>
+      <c r="N5" s="407"/>
     </row>
     <row r="6" spans="1:18" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="173"/>
@@ -6269,7 +6281,7 @@
       <c r="M6" s="174"/>
       <c r="N6" s="175"/>
     </row>
-    <row r="7" spans="1:18" s="83" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" s="83" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="146" t="s">
         <v>7</v>
       </c>
@@ -6282,71 +6294,72 @@
       <c r="H7" s="82"/>
       <c r="I7" s="82"/>
       <c r="J7" s="82"/>
-    </row>
-    <row r="8" spans="1:18" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N7" s="282"/>
+    </row>
+    <row r="8" spans="1:18" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="147"/>
       <c r="N8" s="140"/>
     </row>
     <row r="9" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="355" t="s">
+      <c r="A9" s="362" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="356"/>
-      <c r="C9" s="356"/>
-      <c r="D9" s="356"/>
-      <c r="E9" s="356"/>
-      <c r="F9" s="356"/>
-      <c r="G9" s="356"/>
-      <c r="H9" s="356"/>
-      <c r="I9" s="356"/>
-      <c r="J9" s="356"/>
-      <c r="K9" s="356"/>
-      <c r="L9" s="356"/>
-      <c r="M9" s="356"/>
-      <c r="N9" s="357"/>
+      <c r="B9" s="363"/>
+      <c r="C9" s="363"/>
+      <c r="D9" s="363"/>
+      <c r="E9" s="363"/>
+      <c r="F9" s="363"/>
+      <c r="G9" s="363"/>
+      <c r="H9" s="363"/>
+      <c r="I9" s="363"/>
+      <c r="J9" s="363"/>
+      <c r="K9" s="363"/>
+      <c r="L9" s="363"/>
+      <c r="M9" s="363"/>
+      <c r="N9" s="364"/>
     </row>
     <row r="10" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="148" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="374" t="s">
+      <c r="B10" s="381" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="375"/>
-      <c r="D10" s="366"/>
-      <c r="E10" s="366"/>
-      <c r="F10" s="366"/>
-      <c r="G10" s="366"/>
-      <c r="H10" s="366"/>
-      <c r="I10" s="366"/>
-      <c r="J10" s="366"/>
-      <c r="K10" s="366"/>
-      <c r="L10" s="366"/>
-      <c r="M10" s="366"/>
-      <c r="N10" s="367"/>
+      <c r="C10" s="382"/>
+      <c r="D10" s="373"/>
+      <c r="E10" s="373"/>
+      <c r="F10" s="373"/>
+      <c r="G10" s="373"/>
+      <c r="H10" s="373"/>
+      <c r="I10" s="373"/>
+      <c r="J10" s="373"/>
+      <c r="K10" s="373"/>
+      <c r="L10" s="373"/>
+      <c r="M10" s="373"/>
+      <c r="N10" s="374"/>
       <c r="P10" s="83"/>
     </row>
     <row r="11" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="376" t="s">
+      <c r="B11" s="383" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="377"/>
-      <c r="D11" s="438"/>
-      <c r="E11" s="439"/>
-      <c r="F11" s="439"/>
-      <c r="G11" s="439"/>
-      <c r="H11" s="439"/>
-      <c r="I11" s="439"/>
-      <c r="J11" s="439"/>
-      <c r="K11" s="440"/>
-      <c r="L11" s="432" t="s">
+      <c r="C11" s="384"/>
+      <c r="D11" s="445"/>
+      <c r="E11" s="446"/>
+      <c r="F11" s="446"/>
+      <c r="G11" s="446"/>
+      <c r="H11" s="446"/>
+      <c r="I11" s="446"/>
+      <c r="J11" s="446"/>
+      <c r="K11" s="447"/>
+      <c r="L11" s="439" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="433"/>
-      <c r="N11" s="434"/>
+      <c r="M11" s="440"/>
+      <c r="N11" s="441"/>
       <c r="P11" s="76" t="s">
         <v>14</v>
       </c>
@@ -6356,21 +6369,21 @@
     </row>
     <row r="12" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="149"/>
-      <c r="B12" s="378" t="s">
+      <c r="B12" s="385" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="379"/>
-      <c r="D12" s="441"/>
-      <c r="E12" s="442"/>
-      <c r="F12" s="442"/>
-      <c r="G12" s="442"/>
-      <c r="H12" s="442"/>
-      <c r="I12" s="442"/>
-      <c r="J12" s="442"/>
-      <c r="K12" s="442"/>
-      <c r="L12" s="443"/>
-      <c r="M12" s="443"/>
-      <c r="N12" s="444"/>
+      <c r="C12" s="386"/>
+      <c r="D12" s="448"/>
+      <c r="E12" s="449"/>
+      <c r="F12" s="449"/>
+      <c r="G12" s="449"/>
+      <c r="H12" s="449"/>
+      <c r="I12" s="449"/>
+      <c r="J12" s="449"/>
+      <c r="K12" s="449"/>
+      <c r="L12" s="450"/>
+      <c r="M12" s="450"/>
+      <c r="N12" s="451"/>
       <c r="P12" s="76" t="s">
         <v>17</v>
       </c>
@@ -6382,23 +6395,23 @@
       <c r="A13" s="204" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="481" t="s">
+      <c r="B13" s="488" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="375"/>
-      <c r="D13" s="435"/>
-      <c r="E13" s="435"/>
-      <c r="F13" s="436"/>
+      <c r="C13" s="382"/>
+      <c r="D13" s="442"/>
+      <c r="E13" s="442"/>
+      <c r="F13" s="443"/>
       <c r="G13" s="89" t="s">
         <v>21</v>
       </c>
       <c r="H13" s="129"/>
       <c r="I13" s="251"/>
-      <c r="J13" s="461"/>
-      <c r="K13" s="462"/>
-      <c r="L13" s="462"/>
-      <c r="M13" s="462"/>
-      <c r="N13" s="463"/>
+      <c r="J13" s="468"/>
+      <c r="K13" s="469"/>
+      <c r="L13" s="469"/>
+      <c r="M13" s="469"/>
+      <c r="N13" s="470"/>
       <c r="P13" s="76" t="s">
         <v>22</v>
       </c>
@@ -6431,21 +6444,21 @@
         <v>25</v>
       </c>
       <c r="C15" s="84"/>
-      <c r="D15" s="476"/>
-      <c r="E15" s="476"/>
-      <c r="F15" s="477"/>
-      <c r="G15" s="459" t="s">
+      <c r="D15" s="483"/>
+      <c r="E15" s="483"/>
+      <c r="F15" s="484"/>
+      <c r="G15" s="466" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="460"/>
-      <c r="I15" s="460"/>
+      <c r="H15" s="467"/>
+      <c r="I15" s="467"/>
       <c r="J15" s="130"/>
       <c r="K15" s="131"/>
-      <c r="L15" s="464" t="s">
+      <c r="L15" s="471" t="s">
         <v>27</v>
       </c>
-      <c r="M15" s="464"/>
-      <c r="N15" s="465"/>
+      <c r="M15" s="471"/>
+      <c r="N15" s="472"/>
       <c r="P15" s="76" t="s">
         <v>28</v>
       </c>
@@ -6461,19 +6474,19 @@
         <v>31</v>
       </c>
       <c r="C16" s="85"/>
-      <c r="D16" s="368"/>
-      <c r="E16" s="369"/>
-      <c r="F16" s="370"/>
-      <c r="G16" s="478" t="s">
+      <c r="D16" s="375"/>
+      <c r="E16" s="376"/>
+      <c r="F16" s="377"/>
+      <c r="G16" s="485" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="479"/>
-      <c r="I16" s="480"/>
-      <c r="J16" s="472"/>
-      <c r="K16" s="473"/>
-      <c r="L16" s="473"/>
-      <c r="M16" s="473"/>
-      <c r="N16" s="474"/>
+      <c r="H16" s="486"/>
+      <c r="I16" s="487"/>
+      <c r="J16" s="479"/>
+      <c r="K16" s="480"/>
+      <c r="L16" s="480"/>
+      <c r="M16" s="480"/>
+      <c r="N16" s="481"/>
       <c r="P16" s="76" t="s">
         <v>34</v>
       </c>
@@ -6482,49 +6495,49 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="445">
+      <c r="A17" s="452">
         <v>6</v>
       </c>
-      <c r="B17" s="450" t="s">
+      <c r="B17" s="457" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="451"/>
-      <c r="D17" s="373"/>
-      <c r="E17" s="373"/>
-      <c r="F17" s="373"/>
+      <c r="C17" s="458"/>
+      <c r="D17" s="380"/>
+      <c r="E17" s="380"/>
+      <c r="F17" s="380"/>
       <c r="G17" s="90" t="s">
         <v>38</v>
       </c>
       <c r="H17" s="91"/>
-      <c r="I17" s="429"/>
-      <c r="J17" s="430"/>
-      <c r="K17" s="430"/>
-      <c r="L17" s="430"/>
-      <c r="M17" s="430"/>
-      <c r="N17" s="431"/>
+      <c r="I17" s="436"/>
+      <c r="J17" s="437"/>
+      <c r="K17" s="437"/>
+      <c r="L17" s="437"/>
+      <c r="M17" s="437"/>
+      <c r="N17" s="438"/>
       <c r="Q17" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="446"/>
-      <c r="B18" s="452"/>
-      <c r="C18" s="453"/>
-      <c r="D18" s="437"/>
-      <c r="E18" s="437"/>
-      <c r="F18" s="437"/>
+      <c r="A18" s="453"/>
+      <c r="B18" s="459"/>
+      <c r="C18" s="460"/>
+      <c r="D18" s="444"/>
+      <c r="E18" s="444"/>
+      <c r="F18" s="444"/>
       <c r="G18" s="136"/>
       <c r="H18" s="92"/>
-      <c r="I18" s="475" t="s">
+      <c r="I18" s="482" t="s">
         <v>40</v>
       </c>
-      <c r="J18" s="401"/>
-      <c r="K18" s="401"/>
-      <c r="L18" s="401" t="s">
+      <c r="J18" s="408"/>
+      <c r="K18" s="408"/>
+      <c r="L18" s="408" t="s">
         <v>41</v>
       </c>
-      <c r="M18" s="401"/>
-      <c r="N18" s="402"/>
+      <c r="M18" s="408"/>
+      <c r="N18" s="409"/>
       <c r="Q18" s="3" t="s">
         <v>42</v>
       </c>
@@ -6533,105 +6546,105 @@
       <c r="A19" s="152"/>
       <c r="B19" s="191"/>
       <c r="C19" s="141"/>
-      <c r="D19" s="466"/>
-      <c r="E19" s="467"/>
-      <c r="F19" s="468"/>
+      <c r="D19" s="473"/>
+      <c r="E19" s="474"/>
+      <c r="F19" s="475"/>
       <c r="G19" s="136"/>
       <c r="H19" s="92"/>
-      <c r="I19" s="403"/>
-      <c r="J19" s="404"/>
-      <c r="K19" s="404"/>
-      <c r="L19" s="407"/>
-      <c r="M19" s="404"/>
-      <c r="N19" s="408"/>
+      <c r="I19" s="410"/>
+      <c r="J19" s="411"/>
+      <c r="K19" s="411"/>
+      <c r="L19" s="414"/>
+      <c r="M19" s="411"/>
+      <c r="N19" s="415"/>
       <c r="Q19" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="446"/>
+      <c r="A20" s="453"/>
       <c r="B20" s="191"/>
       <c r="C20" s="124"/>
-      <c r="D20" s="466"/>
-      <c r="E20" s="467"/>
-      <c r="F20" s="468"/>
+      <c r="D20" s="473"/>
+      <c r="E20" s="474"/>
+      <c r="F20" s="475"/>
       <c r="G20" s="134"/>
       <c r="H20" s="139"/>
-      <c r="I20" s="405"/>
-      <c r="J20" s="406"/>
-      <c r="K20" s="406"/>
-      <c r="L20" s="406"/>
-      <c r="M20" s="406"/>
-      <c r="N20" s="409"/>
+      <c r="I20" s="412"/>
+      <c r="J20" s="413"/>
+      <c r="K20" s="413"/>
+      <c r="L20" s="413"/>
+      <c r="M20" s="413"/>
+      <c r="N20" s="416"/>
       <c r="Q20" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="447"/>
+      <c r="A21" s="454"/>
       <c r="B21" s="192"/>
       <c r="C21" s="122"/>
-      <c r="D21" s="469"/>
-      <c r="E21" s="470"/>
-      <c r="F21" s="471"/>
+      <c r="D21" s="476"/>
+      <c r="E21" s="477"/>
+      <c r="F21" s="478"/>
       <c r="G21" s="134"/>
       <c r="H21" s="139"/>
-      <c r="I21" s="410" t="s">
+      <c r="I21" s="417" t="s">
         <v>45</v>
       </c>
-      <c r="J21" s="411"/>
-      <c r="K21" s="411"/>
-      <c r="L21" s="426" t="s">
+      <c r="J21" s="418"/>
+      <c r="K21" s="418"/>
+      <c r="L21" s="433" t="s">
         <v>46</v>
       </c>
-      <c r="M21" s="427"/>
-      <c r="N21" s="428"/>
+      <c r="M21" s="434"/>
+      <c r="N21" s="435"/>
       <c r="Q21" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="448" t="s">
+      <c r="A22" s="455" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="394" t="s">
+      <c r="B22" s="401" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="395"/>
-      <c r="D22" s="437"/>
-      <c r="E22" s="437"/>
-      <c r="F22" s="437"/>
+      <c r="C22" s="402"/>
+      <c r="D22" s="444"/>
+      <c r="E22" s="444"/>
+      <c r="F22" s="444"/>
       <c r="G22" s="134"/>
       <c r="H22" s="139"/>
-      <c r="I22" s="429"/>
-      <c r="J22" s="430"/>
-      <c r="K22" s="430"/>
-      <c r="L22" s="430"/>
-      <c r="M22" s="430"/>
-      <c r="N22" s="431"/>
+      <c r="I22" s="436"/>
+      <c r="J22" s="437"/>
+      <c r="K22" s="437"/>
+      <c r="L22" s="437"/>
+      <c r="M22" s="437"/>
+      <c r="N22" s="438"/>
       <c r="Q22" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="449"/>
-      <c r="B23" s="396"/>
-      <c r="C23" s="397"/>
-      <c r="D23" s="414"/>
-      <c r="E23" s="414"/>
-      <c r="F23" s="414"/>
+      <c r="A23" s="456"/>
+      <c r="B23" s="403"/>
+      <c r="C23" s="404"/>
+      <c r="D23" s="421"/>
+      <c r="E23" s="421"/>
+      <c r="F23" s="421"/>
       <c r="G23" s="134"/>
       <c r="H23" s="139"/>
-      <c r="I23" s="456" t="s">
+      <c r="I23" s="463" t="s">
         <v>51</v>
       </c>
-      <c r="J23" s="457"/>
-      <c r="K23" s="457"/>
-      <c r="L23" s="454" t="s">
+      <c r="J23" s="464"/>
+      <c r="K23" s="464"/>
+      <c r="L23" s="461" t="s">
         <v>52</v>
       </c>
-      <c r="M23" s="454"/>
-      <c r="N23" s="455"/>
+      <c r="M23" s="461"/>
+      <c r="N23" s="462"/>
       <c r="Q23" s="3" t="s">
         <v>53</v>
       </c>
@@ -6640,163 +6653,163 @@
       <c r="A24" s="148" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="332" t="s">
+      <c r="B24" s="333" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="333"/>
-      <c r="D24" s="369"/>
-      <c r="E24" s="369"/>
-      <c r="F24" s="369"/>
-      <c r="G24" s="380" t="s">
+      <c r="C24" s="334"/>
+      <c r="D24" s="376"/>
+      <c r="E24" s="376"/>
+      <c r="F24" s="376"/>
+      <c r="G24" s="387" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="342"/>
-      <c r="I24" s="385"/>
-      <c r="J24" s="386"/>
-      <c r="K24" s="386"/>
-      <c r="L24" s="386"/>
-      <c r="M24" s="386"/>
-      <c r="N24" s="387"/>
+      <c r="H24" s="343"/>
+      <c r="I24" s="392"/>
+      <c r="J24" s="393"/>
+      <c r="K24" s="393"/>
+      <c r="L24" s="393"/>
+      <c r="M24" s="393"/>
+      <c r="N24" s="394"/>
       <c r="Q24" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="412" t="s">
+      <c r="A25" s="419" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="394" t="s">
+      <c r="B25" s="401" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="395"/>
-      <c r="D25" s="373"/>
-      <c r="E25" s="373"/>
-      <c r="F25" s="373"/>
+      <c r="C25" s="402"/>
+      <c r="D25" s="380"/>
+      <c r="E25" s="380"/>
+      <c r="F25" s="380"/>
       <c r="G25" s="97" t="s">
         <v>60</v>
       </c>
       <c r="H25" s="86"/>
-      <c r="I25" s="388"/>
-      <c r="J25" s="383"/>
-      <c r="K25" s="383"/>
-      <c r="L25" s="383"/>
-      <c r="M25" s="383"/>
-      <c r="N25" s="384"/>
+      <c r="I25" s="395"/>
+      <c r="J25" s="390"/>
+      <c r="K25" s="390"/>
+      <c r="L25" s="390"/>
+      <c r="M25" s="390"/>
+      <c r="N25" s="391"/>
       <c r="Q25" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="413"/>
-      <c r="B26" s="396"/>
-      <c r="C26" s="397"/>
-      <c r="D26" s="414"/>
-      <c r="E26" s="414"/>
-      <c r="F26" s="414"/>
+      <c r="A26" s="420"/>
+      <c r="B26" s="403"/>
+      <c r="C26" s="404"/>
+      <c r="D26" s="421"/>
+      <c r="E26" s="421"/>
+      <c r="F26" s="421"/>
       <c r="G26" s="134"/>
       <c r="H26" s="139"/>
-      <c r="I26" s="475" t="s">
+      <c r="I26" s="482" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="401"/>
-      <c r="K26" s="401"/>
-      <c r="L26" s="401" t="s">
+      <c r="J26" s="408"/>
+      <c r="K26" s="408"/>
+      <c r="L26" s="408" t="s">
         <v>41</v>
       </c>
-      <c r="M26" s="401"/>
-      <c r="N26" s="402"/>
+      <c r="M26" s="408"/>
+      <c r="N26" s="409"/>
       <c r="Q26" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="412" t="s">
+      <c r="A27" s="419" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="458" t="s">
+      <c r="B27" s="465" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="395"/>
-      <c r="D27" s="415"/>
-      <c r="E27" s="415"/>
-      <c r="F27" s="415"/>
+      <c r="C27" s="402"/>
+      <c r="D27" s="422"/>
+      <c r="E27" s="422"/>
+      <c r="F27" s="422"/>
       <c r="G27" s="136"/>
       <c r="H27" s="92"/>
-      <c r="I27" s="388"/>
-      <c r="J27" s="383"/>
-      <c r="K27" s="383"/>
-      <c r="L27" s="383"/>
-      <c r="M27" s="383"/>
-      <c r="N27" s="384"/>
+      <c r="I27" s="395"/>
+      <c r="J27" s="390"/>
+      <c r="K27" s="390"/>
+      <c r="L27" s="390"/>
+      <c r="M27" s="390"/>
+      <c r="N27" s="391"/>
       <c r="Q27" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="413"/>
-      <c r="B28" s="396"/>
-      <c r="C28" s="397"/>
-      <c r="D28" s="416"/>
-      <c r="E28" s="416"/>
-      <c r="F28" s="416"/>
+      <c r="A28" s="420"/>
+      <c r="B28" s="403"/>
+      <c r="C28" s="404"/>
+      <c r="D28" s="423"/>
+      <c r="E28" s="423"/>
+      <c r="F28" s="423"/>
       <c r="G28" s="136"/>
       <c r="H28" s="92"/>
-      <c r="I28" s="488" t="s">
+      <c r="I28" s="495" t="s">
         <v>45</v>
       </c>
-      <c r="J28" s="489"/>
-      <c r="K28" s="489"/>
-      <c r="L28" s="490" t="s">
+      <c r="J28" s="496"/>
+      <c r="K28" s="496"/>
+      <c r="L28" s="497" t="s">
         <v>46</v>
       </c>
-      <c r="M28" s="489"/>
-      <c r="N28" s="491"/>
+      <c r="M28" s="496"/>
+      <c r="N28" s="498"/>
       <c r="Q28" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="412" t="s">
+      <c r="A29" s="419" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="394" t="s">
+      <c r="B29" s="401" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="395"/>
-      <c r="D29" s="417"/>
-      <c r="E29" s="415"/>
-      <c r="F29" s="418"/>
+      <c r="C29" s="402"/>
+      <c r="D29" s="424"/>
+      <c r="E29" s="422"/>
+      <c r="F29" s="425"/>
       <c r="G29" s="136"/>
       <c r="H29" s="142"/>
-      <c r="I29" s="485"/>
-      <c r="J29" s="486"/>
-      <c r="K29" s="486"/>
-      <c r="L29" s="486"/>
-      <c r="M29" s="486"/>
-      <c r="N29" s="487"/>
+      <c r="I29" s="492"/>
+      <c r="J29" s="493"/>
+      <c r="K29" s="493"/>
+      <c r="L29" s="493"/>
+      <c r="M29" s="493"/>
+      <c r="N29" s="494"/>
       <c r="Q29" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="413"/>
-      <c r="B30" s="396"/>
-      <c r="C30" s="397"/>
-      <c r="D30" s="419"/>
-      <c r="E30" s="416"/>
-      <c r="F30" s="420"/>
+      <c r="A30" s="420"/>
+      <c r="B30" s="403"/>
+      <c r="C30" s="404"/>
+      <c r="D30" s="426"/>
+      <c r="E30" s="423"/>
+      <c r="F30" s="427"/>
       <c r="G30" s="136"/>
       <c r="H30" s="142"/>
-      <c r="I30" s="381" t="s">
+      <c r="I30" s="388" t="s">
         <v>51</v>
       </c>
-      <c r="J30" s="381"/>
-      <c r="K30" s="381"/>
-      <c r="L30" s="381" t="s">
+      <c r="J30" s="388"/>
+      <c r="K30" s="388"/>
+      <c r="L30" s="388" t="s">
         <v>52</v>
       </c>
-      <c r="M30" s="381"/>
-      <c r="N30" s="382"/>
+      <c r="M30" s="388"/>
+      <c r="N30" s="389"/>
       <c r="Q30" s="3" t="s">
         <v>70</v>
       </c>
@@ -6809,19 +6822,19 @@
         <v>72</v>
       </c>
       <c r="C31" s="85"/>
-      <c r="D31" s="415"/>
-      <c r="E31" s="415"/>
-      <c r="F31" s="415"/>
-      <c r="G31" s="380" t="s">
+      <c r="D31" s="422"/>
+      <c r="E31" s="422"/>
+      <c r="F31" s="422"/>
+      <c r="G31" s="387" t="s">
         <v>56</v>
       </c>
-      <c r="H31" s="342"/>
-      <c r="I31" s="482"/>
-      <c r="J31" s="483"/>
-      <c r="K31" s="483"/>
-      <c r="L31" s="483"/>
-      <c r="M31" s="483"/>
-      <c r="N31" s="484"/>
+      <c r="H31" s="343"/>
+      <c r="I31" s="489"/>
+      <c r="J31" s="490"/>
+      <c r="K31" s="490"/>
+      <c r="L31" s="490"/>
+      <c r="M31" s="490"/>
+      <c r="N31" s="491"/>
       <c r="Q31" s="3" t="s">
         <v>73</v>
       </c>
@@ -6834,42 +6847,42 @@
         <v>75</v>
       </c>
       <c r="C32" s="85"/>
-      <c r="D32" s="415"/>
-      <c r="E32" s="415"/>
-      <c r="F32" s="415"/>
+      <c r="D32" s="422"/>
+      <c r="E32" s="422"/>
+      <c r="F32" s="422"/>
       <c r="G32" s="133" t="s">
         <v>76</v>
       </c>
       <c r="H32" s="137"/>
-      <c r="I32" s="385"/>
-      <c r="J32" s="386"/>
-      <c r="K32" s="386"/>
-      <c r="L32" s="386"/>
-      <c r="M32" s="386"/>
-      <c r="N32" s="387"/>
+      <c r="I32" s="392"/>
+      <c r="J32" s="393"/>
+      <c r="K32" s="393"/>
+      <c r="L32" s="393"/>
+      <c r="M32" s="393"/>
+      <c r="N32" s="394"/>
       <c r="Q32" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="389" t="s">
+      <c r="A33" s="396" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="332"/>
-      <c r="C33" s="333"/>
-      <c r="D33" s="390"/>
-      <c r="E33" s="390"/>
-      <c r="F33" s="390"/>
+      <c r="B33" s="333"/>
+      <c r="C33" s="334"/>
+      <c r="D33" s="397"/>
+      <c r="E33" s="397"/>
+      <c r="F33" s="397"/>
       <c r="G33" s="178" t="s">
         <v>79</v>
       </c>
       <c r="H33" s="135"/>
-      <c r="I33" s="385"/>
-      <c r="J33" s="386"/>
-      <c r="K33" s="386"/>
-      <c r="L33" s="386"/>
-      <c r="M33" s="386"/>
-      <c r="N33" s="387"/>
+      <c r="I33" s="392"/>
+      <c r="J33" s="393"/>
+      <c r="K33" s="393"/>
+      <c r="L33" s="393"/>
+      <c r="M33" s="393"/>
+      <c r="N33" s="394"/>
       <c r="Q33" s="3" t="s">
         <v>80</v>
       </c>
@@ -6880,19 +6893,19 @@
       </c>
       <c r="B34" s="193"/>
       <c r="C34" s="138"/>
-      <c r="D34" s="373"/>
-      <c r="E34" s="373"/>
-      <c r="F34" s="373"/>
+      <c r="D34" s="380"/>
+      <c r="E34" s="380"/>
+      <c r="F34" s="380"/>
       <c r="G34" s="97" t="s">
         <v>82</v>
       </c>
       <c r="H34" s="86"/>
-      <c r="I34" s="423"/>
-      <c r="J34" s="424"/>
-      <c r="K34" s="424"/>
-      <c r="L34" s="424"/>
-      <c r="M34" s="424"/>
-      <c r="N34" s="425"/>
+      <c r="I34" s="430"/>
+      <c r="J34" s="431"/>
+      <c r="K34" s="431"/>
+      <c r="L34" s="431"/>
+      <c r="M34" s="431"/>
+      <c r="N34" s="432"/>
       <c r="Q34" s="3" t="s">
         <v>83</v>
       </c>
@@ -6926,21 +6939,21 @@
         <v>87</v>
       </c>
       <c r="C36" s="197"/>
-      <c r="D36" s="492"/>
-      <c r="E36" s="493"/>
-      <c r="F36" s="493"/>
-      <c r="G36" s="493"/>
-      <c r="H36" s="494"/>
-      <c r="I36" s="421" t="s">
+      <c r="D36" s="499"/>
+      <c r="E36" s="500"/>
+      <c r="F36" s="500"/>
+      <c r="G36" s="500"/>
+      <c r="H36" s="501"/>
+      <c r="I36" s="428" t="s">
         <v>88</v>
       </c>
-      <c r="J36" s="421"/>
-      <c r="K36" s="421"/>
-      <c r="L36" s="422"/>
-      <c r="M36" s="360" t="s">
+      <c r="J36" s="428"/>
+      <c r="K36" s="428"/>
+      <c r="L36" s="429"/>
+      <c r="M36" s="367" t="s">
         <v>89</v>
       </c>
-      <c r="N36" s="361"/>
+      <c r="N36" s="368"/>
       <c r="Q36" s="3" t="s">
         <v>90</v>
       </c>
@@ -6951,19 +6964,19 @@
         <v>91</v>
       </c>
       <c r="C37" s="142"/>
-      <c r="D37" s="296"/>
-      <c r="E37" s="297"/>
-      <c r="F37" s="298"/>
-      <c r="G37" s="312" t="s">
+      <c r="D37" s="297"/>
+      <c r="E37" s="298"/>
+      <c r="F37" s="299"/>
+      <c r="G37" s="313" t="s">
         <v>92</v>
       </c>
-      <c r="H37" s="312"/>
-      <c r="I37" s="294"/>
-      <c r="J37" s="294"/>
-      <c r="K37" s="294"/>
-      <c r="L37" s="295"/>
-      <c r="M37" s="292"/>
-      <c r="N37" s="293"/>
+      <c r="H37" s="313"/>
+      <c r="I37" s="295"/>
+      <c r="J37" s="295"/>
+      <c r="K37" s="295"/>
+      <c r="L37" s="296"/>
+      <c r="M37" s="293"/>
+      <c r="N37" s="294"/>
       <c r="Q37" s="3" t="s">
         <v>93</v>
       </c>
@@ -6974,17 +6987,17 @@
         <v>94</v>
       </c>
       <c r="C38" s="188"/>
-      <c r="D38" s="296"/>
-      <c r="E38" s="297"/>
-      <c r="F38" s="298"/>
-      <c r="G38" s="296"/>
-      <c r="H38" s="298"/>
-      <c r="I38" s="294"/>
-      <c r="J38" s="294"/>
-      <c r="K38" s="294"/>
-      <c r="L38" s="295"/>
-      <c r="M38" s="292"/>
-      <c r="N38" s="293"/>
+      <c r="D38" s="297"/>
+      <c r="E38" s="298"/>
+      <c r="F38" s="299"/>
+      <c r="G38" s="297"/>
+      <c r="H38" s="299"/>
+      <c r="I38" s="295"/>
+      <c r="J38" s="295"/>
+      <c r="K38" s="295"/>
+      <c r="L38" s="296"/>
+      <c r="M38" s="293"/>
+      <c r="N38" s="294"/>
       <c r="Q38" s="3" t="s">
         <v>95</v>
       </c>
@@ -6995,17 +7008,17 @@
         <v>96</v>
       </c>
       <c r="C39" s="85"/>
-      <c r="D39" s="296"/>
-      <c r="E39" s="297"/>
-      <c r="F39" s="297"/>
-      <c r="G39" s="297"/>
-      <c r="H39" s="298"/>
-      <c r="I39" s="294"/>
-      <c r="J39" s="294"/>
-      <c r="K39" s="294"/>
-      <c r="L39" s="295"/>
-      <c r="M39" s="292"/>
-      <c r="N39" s="293"/>
+      <c r="D39" s="297"/>
+      <c r="E39" s="298"/>
+      <c r="F39" s="298"/>
+      <c r="G39" s="298"/>
+      <c r="H39" s="299"/>
+      <c r="I39" s="295"/>
+      <c r="J39" s="295"/>
+      <c r="K39" s="295"/>
+      <c r="L39" s="296"/>
+      <c r="M39" s="293"/>
+      <c r="N39" s="294"/>
       <c r="Q39" s="3" t="s">
         <v>97</v>
       </c>
@@ -7016,17 +7029,17 @@
         <v>98</v>
       </c>
       <c r="C40" s="85"/>
-      <c r="D40" s="296"/>
-      <c r="E40" s="297"/>
-      <c r="F40" s="297"/>
-      <c r="G40" s="297"/>
-      <c r="H40" s="298"/>
-      <c r="I40" s="294"/>
-      <c r="J40" s="294"/>
-      <c r="K40" s="294"/>
-      <c r="L40" s="295"/>
-      <c r="M40" s="292"/>
-      <c r="N40" s="293"/>
+      <c r="D40" s="297"/>
+      <c r="E40" s="298"/>
+      <c r="F40" s="298"/>
+      <c r="G40" s="298"/>
+      <c r="H40" s="299"/>
+      <c r="I40" s="295"/>
+      <c r="J40" s="295"/>
+      <c r="K40" s="295"/>
+      <c r="L40" s="296"/>
+      <c r="M40" s="293"/>
+      <c r="N40" s="294"/>
       <c r="Q40" s="3" t="s">
         <v>99</v>
       </c>
@@ -7037,17 +7050,17 @@
         <v>100</v>
       </c>
       <c r="C41" s="85"/>
-      <c r="D41" s="296"/>
-      <c r="E41" s="297"/>
-      <c r="F41" s="297"/>
-      <c r="G41" s="297"/>
-      <c r="H41" s="298"/>
-      <c r="I41" s="294"/>
-      <c r="J41" s="294"/>
-      <c r="K41" s="294"/>
-      <c r="L41" s="295"/>
-      <c r="M41" s="292"/>
-      <c r="N41" s="293"/>
+      <c r="D41" s="297"/>
+      <c r="E41" s="298"/>
+      <c r="F41" s="298"/>
+      <c r="G41" s="298"/>
+      <c r="H41" s="299"/>
+      <c r="I41" s="295"/>
+      <c r="J41" s="295"/>
+      <c r="K41" s="295"/>
+      <c r="L41" s="296"/>
+      <c r="M41" s="293"/>
+      <c r="N41" s="294"/>
       <c r="Q41" s="3" t="s">
         <v>101</v>
       </c>
@@ -7058,17 +7071,17 @@
         <v>102</v>
       </c>
       <c r="C42" s="123"/>
-      <c r="D42" s="296"/>
-      <c r="E42" s="297"/>
-      <c r="F42" s="297"/>
-      <c r="G42" s="297"/>
-      <c r="H42" s="298"/>
-      <c r="I42" s="294"/>
-      <c r="J42" s="294"/>
-      <c r="K42" s="294"/>
-      <c r="L42" s="295"/>
-      <c r="M42" s="292"/>
-      <c r="N42" s="293"/>
+      <c r="D42" s="297"/>
+      <c r="E42" s="298"/>
+      <c r="F42" s="298"/>
+      <c r="G42" s="298"/>
+      <c r="H42" s="299"/>
+      <c r="I42" s="295"/>
+      <c r="J42" s="295"/>
+      <c r="K42" s="295"/>
+      <c r="L42" s="296"/>
+      <c r="M42" s="293"/>
+      <c r="N42" s="294"/>
       <c r="Q42" s="3" t="s">
         <v>103</v>
       </c>
@@ -7081,17 +7094,17 @@
         <v>105</v>
       </c>
       <c r="C43" s="91"/>
-      <c r="D43" s="296"/>
-      <c r="E43" s="297"/>
-      <c r="F43" s="297"/>
-      <c r="G43" s="297"/>
-      <c r="H43" s="298"/>
-      <c r="I43" s="294"/>
-      <c r="J43" s="294"/>
-      <c r="K43" s="294"/>
-      <c r="L43" s="295"/>
-      <c r="M43" s="292"/>
-      <c r="N43" s="293"/>
+      <c r="D43" s="297"/>
+      <c r="E43" s="298"/>
+      <c r="F43" s="298"/>
+      <c r="G43" s="298"/>
+      <c r="H43" s="299"/>
+      <c r="I43" s="295"/>
+      <c r="J43" s="295"/>
+      <c r="K43" s="295"/>
+      <c r="L43" s="296"/>
+      <c r="M43" s="293"/>
+      <c r="N43" s="294"/>
       <c r="Q43" s="3" t="s">
         <v>106</v>
       </c>
@@ -7102,19 +7115,19 @@
         <v>12</v>
       </c>
       <c r="C44" s="139"/>
-      <c r="D44" s="296"/>
-      <c r="E44" s="297"/>
-      <c r="F44" s="298"/>
-      <c r="G44" s="312" t="s">
+      <c r="D44" s="297"/>
+      <c r="E44" s="298"/>
+      <c r="F44" s="299"/>
+      <c r="G44" s="313" t="s">
         <v>107</v>
       </c>
-      <c r="H44" s="312"/>
-      <c r="I44" s="294"/>
-      <c r="J44" s="294"/>
-      <c r="K44" s="294"/>
-      <c r="L44" s="295"/>
-      <c r="M44" s="292"/>
-      <c r="N44" s="293"/>
+      <c r="H44" s="313"/>
+      <c r="I44" s="295"/>
+      <c r="J44" s="295"/>
+      <c r="K44" s="295"/>
+      <c r="L44" s="296"/>
+      <c r="M44" s="293"/>
+      <c r="N44" s="294"/>
       <c r="Q44" s="3" t="s">
         <v>108</v>
       </c>
@@ -7125,17 +7138,17 @@
         <v>16</v>
       </c>
       <c r="C45" s="181"/>
-      <c r="D45" s="296"/>
-      <c r="E45" s="297"/>
-      <c r="F45" s="298"/>
-      <c r="G45" s="297"/>
-      <c r="H45" s="298"/>
-      <c r="I45" s="294"/>
-      <c r="J45" s="294"/>
-      <c r="K45" s="294"/>
-      <c r="L45" s="295"/>
-      <c r="M45" s="292"/>
-      <c r="N45" s="293"/>
+      <c r="D45" s="297"/>
+      <c r="E45" s="298"/>
+      <c r="F45" s="299"/>
+      <c r="G45" s="298"/>
+      <c r="H45" s="299"/>
+      <c r="I45" s="295"/>
+      <c r="J45" s="295"/>
+      <c r="K45" s="295"/>
+      <c r="L45" s="296"/>
+      <c r="M45" s="293"/>
+      <c r="N45" s="294"/>
       <c r="Q45" s="3" t="s">
         <v>109</v>
       </c>
@@ -7148,17 +7161,17 @@
         <v>111</v>
       </c>
       <c r="C46" s="91"/>
-      <c r="D46" s="331"/>
-      <c r="E46" s="332"/>
-      <c r="F46" s="332"/>
-      <c r="G46" s="332"/>
-      <c r="H46" s="333"/>
-      <c r="I46" s="294"/>
-      <c r="J46" s="294"/>
-      <c r="K46" s="294"/>
-      <c r="L46" s="295"/>
-      <c r="M46" s="292"/>
-      <c r="N46" s="293"/>
+      <c r="D46" s="332"/>
+      <c r="E46" s="333"/>
+      <c r="F46" s="333"/>
+      <c r="G46" s="333"/>
+      <c r="H46" s="334"/>
+      <c r="I46" s="295"/>
+      <c r="J46" s="295"/>
+      <c r="K46" s="295"/>
+      <c r="L46" s="296"/>
+      <c r="M46" s="293"/>
+      <c r="N46" s="294"/>
       <c r="Q46" s="3" t="s">
         <v>112</v>
       </c>
@@ -7169,17 +7182,17 @@
         <v>10</v>
       </c>
       <c r="C47" s="139"/>
-      <c r="D47" s="309"/>
-      <c r="E47" s="310"/>
-      <c r="F47" s="310"/>
-      <c r="G47" s="310"/>
-      <c r="H47" s="311"/>
-      <c r="I47" s="294"/>
-      <c r="J47" s="294"/>
-      <c r="K47" s="294"/>
-      <c r="L47" s="295"/>
-      <c r="M47" s="292"/>
-      <c r="N47" s="293"/>
+      <c r="D47" s="310"/>
+      <c r="E47" s="311"/>
+      <c r="F47" s="311"/>
+      <c r="G47" s="311"/>
+      <c r="H47" s="312"/>
+      <c r="I47" s="295"/>
+      <c r="J47" s="295"/>
+      <c r="K47" s="295"/>
+      <c r="L47" s="296"/>
+      <c r="M47" s="293"/>
+      <c r="N47" s="294"/>
       <c r="Q47" s="3" t="s">
         <v>113</v>
       </c>
@@ -7190,17 +7203,17 @@
         <v>12</v>
       </c>
       <c r="C48" s="139"/>
-      <c r="D48" s="309"/>
-      <c r="E48" s="310"/>
-      <c r="F48" s="310"/>
-      <c r="G48" s="310"/>
-      <c r="H48" s="311"/>
-      <c r="I48" s="294"/>
-      <c r="J48" s="294"/>
-      <c r="K48" s="294"/>
-      <c r="L48" s="295"/>
-      <c r="M48" s="292"/>
-      <c r="N48" s="293"/>
+      <c r="D48" s="310"/>
+      <c r="E48" s="311"/>
+      <c r="F48" s="311"/>
+      <c r="G48" s="311"/>
+      <c r="H48" s="312"/>
+      <c r="I48" s="295"/>
+      <c r="J48" s="295"/>
+      <c r="K48" s="295"/>
+      <c r="L48" s="296"/>
+      <c r="M48" s="293"/>
+      <c r="N48" s="294"/>
       <c r="Q48" s="3" t="s">
         <v>114</v>
       </c>
@@ -7211,19 +7224,19 @@
         <v>16</v>
       </c>
       <c r="C49" s="183"/>
-      <c r="D49" s="324"/>
-      <c r="E49" s="325"/>
-      <c r="F49" s="325"/>
-      <c r="G49" s="325"/>
-      <c r="H49" s="326"/>
-      <c r="I49" s="322" t="s">
+      <c r="D49" s="325"/>
+      <c r="E49" s="326"/>
+      <c r="F49" s="326"/>
+      <c r="G49" s="326"/>
+      <c r="H49" s="327"/>
+      <c r="I49" s="323" t="s">
         <v>115</v>
       </c>
-      <c r="J49" s="322"/>
-      <c r="K49" s="322"/>
-      <c r="L49" s="322"/>
-      <c r="M49" s="322"/>
-      <c r="N49" s="323"/>
+      <c r="J49" s="323"/>
+      <c r="K49" s="323"/>
+      <c r="L49" s="323"/>
+      <c r="M49" s="323"/>
+      <c r="N49" s="324"/>
       <c r="Q49" s="3" t="s">
         <v>116</v>
       </c>
@@ -7239,47 +7252,47 @@
       <c r="F50" s="88"/>
       <c r="G50" s="88"/>
       <c r="H50" s="88"/>
-      <c r="I50" s="371" t="s">
+      <c r="I50" s="378" t="s">
         <v>118</v>
       </c>
-      <c r="J50" s="371"/>
-      <c r="K50" s="371"/>
-      <c r="L50" s="371"/>
-      <c r="M50" s="371"/>
-      <c r="N50" s="372"/>
+      <c r="J50" s="378"/>
+      <c r="K50" s="378"/>
+      <c r="L50" s="378"/>
+      <c r="M50" s="378"/>
+      <c r="N50" s="379"/>
       <c r="Q50" s="3" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="362" t="s">
+      <c r="A51" s="369" t="s">
         <v>120</v>
       </c>
-      <c r="B51" s="337" t="s">
+      <c r="B51" s="338" t="s">
         <v>121</v>
       </c>
-      <c r="C51" s="337"/>
-      <c r="D51" s="313" t="s">
+      <c r="C51" s="338"/>
+      <c r="D51" s="314" t="s">
         <v>122</v>
       </c>
-      <c r="E51" s="314"/>
-      <c r="F51" s="340"/>
-      <c r="G51" s="313" t="s">
+      <c r="E51" s="315"/>
+      <c r="F51" s="341"/>
+      <c r="G51" s="314" t="s">
         <v>123</v>
       </c>
-      <c r="H51" s="314"/>
-      <c r="I51" s="315"/>
-      <c r="J51" s="327" t="s">
+      <c r="H51" s="315"/>
+      <c r="I51" s="316"/>
+      <c r="J51" s="328" t="s">
         <v>124</v>
       </c>
-      <c r="K51" s="328"/>
-      <c r="L51" s="304" t="s">
+      <c r="K51" s="329"/>
+      <c r="L51" s="305" t="s">
         <v>125</v>
       </c>
-      <c r="M51" s="364" t="s">
+      <c r="M51" s="371" t="s">
         <v>126</v>
       </c>
-      <c r="N51" s="358" t="s">
+      <c r="N51" s="365" t="s">
         <v>127</v>
       </c>
       <c r="Q51" s="3" t="s">
@@ -7287,43 +7300,43 @@
       </c>
     </row>
     <row r="52" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="363"/>
-      <c r="B52" s="338"/>
-      <c r="C52" s="338"/>
-      <c r="D52" s="316"/>
-      <c r="E52" s="317"/>
-      <c r="F52" s="341"/>
-      <c r="G52" s="316"/>
-      <c r="H52" s="317"/>
-      <c r="I52" s="318"/>
-      <c r="J52" s="329"/>
-      <c r="K52" s="330"/>
-      <c r="L52" s="304"/>
-      <c r="M52" s="364"/>
-      <c r="N52" s="358"/>
+      <c r="A52" s="370"/>
+      <c r="B52" s="339"/>
+      <c r="C52" s="339"/>
+      <c r="D52" s="317"/>
+      <c r="E52" s="318"/>
+      <c r="F52" s="342"/>
+      <c r="G52" s="317"/>
+      <c r="H52" s="318"/>
+      <c r="I52" s="319"/>
+      <c r="J52" s="330"/>
+      <c r="K52" s="331"/>
+      <c r="L52" s="305"/>
+      <c r="M52" s="371"/>
+      <c r="N52" s="365"/>
       <c r="Q52" s="3" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="195"/>
-      <c r="B53" s="339"/>
-      <c r="C53" s="339"/>
-      <c r="D53" s="319"/>
-      <c r="E53" s="320"/>
-      <c r="F53" s="342"/>
-      <c r="G53" s="319"/>
-      <c r="H53" s="320"/>
-      <c r="I53" s="321"/>
+      <c r="B53" s="340"/>
+      <c r="C53" s="340"/>
+      <c r="D53" s="320"/>
+      <c r="E53" s="321"/>
+      <c r="F53" s="343"/>
+      <c r="G53" s="320"/>
+      <c r="H53" s="321"/>
+      <c r="I53" s="322"/>
       <c r="J53" s="93" t="s">
         <v>130</v>
       </c>
       <c r="K53" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="L53" s="305"/>
-      <c r="M53" s="365"/>
-      <c r="N53" s="359"/>
+      <c r="L53" s="306"/>
+      <c r="M53" s="372"/>
+      <c r="N53" s="366"/>
       <c r="O53" s="95"/>
       <c r="P53" s="95"/>
       <c r="Q53" s="3" t="s">
@@ -7331,17 +7344,17 @@
       </c>
     </row>
     <row r="54" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="772" t="s">
+      <c r="A54" s="350" t="s">
         <v>133</v>
       </c>
-      <c r="B54" s="771"/>
-      <c r="C54" s="773"/>
-      <c r="D54" s="343"/>
-      <c r="E54" s="344"/>
-      <c r="F54" s="345"/>
-      <c r="G54" s="306"/>
-      <c r="H54" s="307"/>
-      <c r="I54" s="308"/>
+      <c r="B54" s="351"/>
+      <c r="C54" s="352"/>
+      <c r="D54" s="344"/>
+      <c r="E54" s="345"/>
+      <c r="F54" s="346"/>
+      <c r="G54" s="307"/>
+      <c r="H54" s="308"/>
+      <c r="I54" s="309"/>
       <c r="J54" s="269"/>
       <c r="K54" s="267"/>
       <c r="L54" s="270"/>
@@ -7352,17 +7365,17 @@
       </c>
     </row>
     <row r="55" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="772" t="s">
+      <c r="A55" s="350" t="s">
         <v>135</v>
       </c>
-      <c r="B55" s="771"/>
-      <c r="C55" s="773"/>
-      <c r="D55" s="343"/>
-      <c r="E55" s="344"/>
-      <c r="F55" s="345"/>
-      <c r="G55" s="306"/>
-      <c r="H55" s="307"/>
-      <c r="I55" s="308"/>
+      <c r="B55" s="351"/>
+      <c r="C55" s="352"/>
+      <c r="D55" s="344"/>
+      <c r="E55" s="345"/>
+      <c r="F55" s="346"/>
+      <c r="G55" s="307"/>
+      <c r="H55" s="308"/>
+      <c r="I55" s="309"/>
       <c r="J55" s="269"/>
       <c r="K55" s="267"/>
       <c r="L55" s="270"/>
@@ -7373,17 +7386,17 @@
       </c>
     </row>
     <row r="56" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="772" t="s">
+      <c r="A56" s="350" t="s">
         <v>137</v>
       </c>
-      <c r="B56" s="771"/>
-      <c r="C56" s="773"/>
-      <c r="D56" s="343"/>
-      <c r="E56" s="344"/>
-      <c r="F56" s="345"/>
-      <c r="G56" s="306"/>
-      <c r="H56" s="307"/>
-      <c r="I56" s="308"/>
+      <c r="B56" s="351"/>
+      <c r="C56" s="352"/>
+      <c r="D56" s="344"/>
+      <c r="E56" s="345"/>
+      <c r="F56" s="346"/>
+      <c r="G56" s="307"/>
+      <c r="H56" s="308"/>
+      <c r="I56" s="309"/>
       <c r="J56" s="269"/>
       <c r="K56" s="267"/>
       <c r="L56" s="270"/>
@@ -7394,17 +7407,17 @@
       </c>
     </row>
     <row r="57" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="772" t="s">
+      <c r="A57" s="350" t="s">
         <v>139</v>
       </c>
-      <c r="B57" s="771"/>
-      <c r="C57" s="773"/>
-      <c r="D57" s="343"/>
-      <c r="E57" s="344"/>
-      <c r="F57" s="345"/>
-      <c r="G57" s="306"/>
-      <c r="H57" s="307"/>
-      <c r="I57" s="308"/>
+      <c r="B57" s="351"/>
+      <c r="C57" s="352"/>
+      <c r="D57" s="344"/>
+      <c r="E57" s="345"/>
+      <c r="F57" s="346"/>
+      <c r="G57" s="307"/>
+      <c r="H57" s="308"/>
+      <c r="I57" s="309"/>
       <c r="J57" s="269"/>
       <c r="K57" s="267"/>
       <c r="L57" s="270"/>
@@ -7415,17 +7428,17 @@
       </c>
     </row>
     <row r="58" spans="1:17" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="775" t="s">
+      <c r="A58" s="353" t="s">
         <v>141</v>
       </c>
-      <c r="B58" s="774"/>
-      <c r="C58" s="776"/>
-      <c r="D58" s="346"/>
-      <c r="E58" s="347"/>
-      <c r="F58" s="348"/>
-      <c r="G58" s="334"/>
-      <c r="H58" s="335"/>
-      <c r="I58" s="336"/>
+      <c r="B58" s="354"/>
+      <c r="C58" s="355"/>
+      <c r="D58" s="347"/>
+      <c r="E58" s="348"/>
+      <c r="F58" s="349"/>
+      <c r="G58" s="335"/>
+      <c r="H58" s="336"/>
+      <c r="I58" s="337"/>
       <c r="J58" s="274"/>
       <c r="K58" s="268"/>
       <c r="L58" s="275"/>
@@ -7436,66 +7449,66 @@
       </c>
     </row>
     <row r="59" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="286" t="s">
+      <c r="A59" s="287" t="s">
         <v>115</v>
       </c>
-      <c r="B59" s="287"/>
-      <c r="C59" s="287"/>
-      <c r="D59" s="287"/>
-      <c r="E59" s="287"/>
-      <c r="F59" s="287"/>
-      <c r="G59" s="287"/>
-      <c r="H59" s="287"/>
-      <c r="I59" s="287"/>
-      <c r="J59" s="287"/>
-      <c r="K59" s="287"/>
-      <c r="L59" s="287"/>
-      <c r="M59" s="287"/>
-      <c r="N59" s="288"/>
+      <c r="B59" s="288"/>
+      <c r="C59" s="288"/>
+      <c r="D59" s="288"/>
+      <c r="E59" s="288"/>
+      <c r="F59" s="288"/>
+      <c r="G59" s="288"/>
+      <c r="H59" s="288"/>
+      <c r="I59" s="288"/>
+      <c r="J59" s="288"/>
+      <c r="K59" s="288"/>
+      <c r="L59" s="288"/>
+      <c r="M59" s="288"/>
+      <c r="N59" s="289"/>
       <c r="Q59" s="3" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="283" t="s">
+      <c r="A60" s="284" t="s">
         <v>144</v>
       </c>
-      <c r="B60" s="284"/>
-      <c r="C60" s="285"/>
-      <c r="D60" s="299"/>
-      <c r="E60" s="300"/>
-      <c r="F60" s="300"/>
-      <c r="G60" s="300"/>
-      <c r="H60" s="300"/>
-      <c r="I60" s="301"/>
-      <c r="J60" s="302" t="s">
+      <c r="B60" s="285"/>
+      <c r="C60" s="286"/>
+      <c r="D60" s="300"/>
+      <c r="E60" s="301"/>
+      <c r="F60" s="301"/>
+      <c r="G60" s="301"/>
+      <c r="H60" s="301"/>
+      <c r="I60" s="302"/>
+      <c r="J60" s="303" t="s">
         <v>145</v>
       </c>
-      <c r="K60" s="303"/>
-      <c r="L60" s="289"/>
-      <c r="M60" s="290"/>
-      <c r="N60" s="291"/>
+      <c r="K60" s="304"/>
+      <c r="L60" s="290"/>
+      <c r="M60" s="291"/>
+      <c r="N60" s="292"/>
       <c r="Q60" s="3" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:17" s="128" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="282" t="s">
+      <c r="A61" s="283" t="s">
         <v>147</v>
       </c>
-      <c r="B61" s="282"/>
-      <c r="C61" s="282"/>
-      <c r="D61" s="282"/>
-      <c r="E61" s="282"/>
-      <c r="F61" s="282"/>
-      <c r="G61" s="282"/>
-      <c r="H61" s="282"/>
-      <c r="I61" s="282"/>
-      <c r="J61" s="282"/>
-      <c r="K61" s="282"/>
-      <c r="L61" s="282"/>
-      <c r="M61" s="282"/>
-      <c r="N61" s="282"/>
+      <c r="B61" s="283"/>
+      <c r="C61" s="283"/>
+      <c r="D61" s="283"/>
+      <c r="E61" s="283"/>
+      <c r="F61" s="283"/>
+      <c r="G61" s="283"/>
+      <c r="H61" s="283"/>
+      <c r="I61" s="283"/>
+      <c r="J61" s="283"/>
+      <c r="K61" s="283"/>
+      <c r="L61" s="283"/>
+      <c r="M61" s="283"/>
+      <c r="N61" s="283"/>
       <c r="Q61" s="210" t="s">
         <v>148</v>
       </c>
@@ -11575,8 +11588,8 @@
     <hyperlink ref="Q61" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.15" right="0.12" top="0.36" bottom="0.12" header="0.24" footer="0.12"/>
-  <pageSetup paperSize="269" scale="73" orientation="portrait" r:id="rId205"/>
+  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.11811023622047245" bottom="0.11811023622047245" header="0.15748031496062992" footer="0.15748031496062992"/>
+  <pageSetup paperSize="256" scale="81" orientation="portrait" horizontalDpi="4294967293" r:id="rId205"/>
   <drawing r:id="rId206"/>
 </worksheet>
 </file>
@@ -11589,7 +11602,7 @@
   <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:H7"/>
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11607,68 +11620,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="495"/>
-      <c r="B1" s="496"/>
-      <c r="C1" s="496"/>
-      <c r="D1" s="496"/>
-      <c r="E1" s="496"/>
-      <c r="F1" s="496"/>
-      <c r="G1" s="496"/>
-      <c r="H1" s="496"/>
-      <c r="I1" s="496"/>
-      <c r="J1" s="496"/>
-      <c r="K1" s="497"/>
+      <c r="A1" s="502"/>
+      <c r="B1" s="503"/>
+      <c r="C1" s="503"/>
+      <c r="D1" s="503"/>
+      <c r="E1" s="503"/>
+      <c r="F1" s="503"/>
+      <c r="G1" s="503"/>
+      <c r="H1" s="503"/>
+      <c r="I1" s="503"/>
+      <c r="J1" s="503"/>
+      <c r="K1" s="504"/>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="508" t="s">
+      <c r="A2" s="515" t="s">
         <v>305</v>
       </c>
-      <c r="B2" s="509"/>
-      <c r="C2" s="509"/>
-      <c r="D2" s="509"/>
-      <c r="E2" s="509"/>
-      <c r="F2" s="509"/>
-      <c r="G2" s="509"/>
-      <c r="H2" s="509"/>
-      <c r="I2" s="509"/>
-      <c r="J2" s="509"/>
-      <c r="K2" s="510"/>
+      <c r="B2" s="516"/>
+      <c r="C2" s="516"/>
+      <c r="D2" s="516"/>
+      <c r="E2" s="516"/>
+      <c r="F2" s="516"/>
+      <c r="G2" s="516"/>
+      <c r="H2" s="516"/>
+      <c r="I2" s="516"/>
+      <c r="J2" s="516"/>
+      <c r="K2" s="517"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="125" t="s">
         <v>306</v>
       </c>
-      <c r="B3" s="498" t="s">
+      <c r="B3" s="505" t="s">
         <v>307</v>
       </c>
-      <c r="C3" s="498"/>
-      <c r="D3" s="498"/>
-      <c r="E3" s="499"/>
-      <c r="F3" s="506" t="s">
+      <c r="C3" s="505"/>
+      <c r="D3" s="505"/>
+      <c r="E3" s="506"/>
+      <c r="F3" s="513" t="s">
         <v>308</v>
       </c>
-      <c r="G3" s="502" t="s">
+      <c r="G3" s="509" t="s">
         <v>309</v>
       </c>
-      <c r="H3" s="499"/>
-      <c r="I3" s="502" t="s">
+      <c r="H3" s="506"/>
+      <c r="I3" s="509" t="s">
         <v>310</v>
       </c>
-      <c r="J3" s="504" t="s">
+      <c r="J3" s="511" t="s">
         <v>311</v>
       </c>
-      <c r="K3" s="505"/>
+      <c r="K3" s="512"/>
     </row>
     <row r="4" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="500"/>
-      <c r="C4" s="500"/>
-      <c r="D4" s="500"/>
-      <c r="E4" s="501"/>
-      <c r="F4" s="507"/>
-      <c r="G4" s="503"/>
-      <c r="H4" s="501"/>
-      <c r="I4" s="503"/>
+      <c r="B4" s="507"/>
+      <c r="C4" s="507"/>
+      <c r="D4" s="507"/>
+      <c r="E4" s="508"/>
+      <c r="F4" s="514"/>
+      <c r="G4" s="510"/>
+      <c r="H4" s="508"/>
+      <c r="I4" s="510"/>
       <c r="J4" s="5" t="s">
         <v>312</v>
       </c>
@@ -11677,125 +11690,125 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="514"/>
-      <c r="B5" s="515"/>
-      <c r="C5" s="515"/>
-      <c r="D5" s="515"/>
-      <c r="E5" s="515"/>
+      <c r="A5" s="521"/>
+      <c r="B5" s="522"/>
+      <c r="C5" s="522"/>
+      <c r="D5" s="522"/>
+      <c r="E5" s="522"/>
       <c r="F5" s="280"/>
-      <c r="G5" s="511"/>
-      <c r="H5" s="511"/>
+      <c r="G5" s="518"/>
+      <c r="H5" s="518"/>
       <c r="I5" s="221"/>
       <c r="J5" s="277"/>
       <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="514"/>
-      <c r="B6" s="515"/>
-      <c r="C6" s="515"/>
-      <c r="D6" s="515"/>
-      <c r="E6" s="515"/>
+      <c r="A6" s="521"/>
+      <c r="B6" s="522"/>
+      <c r="C6" s="522"/>
+      <c r="D6" s="522"/>
+      <c r="E6" s="522"/>
       <c r="F6" s="280"/>
-      <c r="G6" s="512"/>
-      <c r="H6" s="513"/>
+      <c r="G6" s="519"/>
+      <c r="H6" s="520"/>
       <c r="I6" s="221"/>
       <c r="J6" s="278"/>
       <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="514"/>
-      <c r="B7" s="515"/>
-      <c r="C7" s="515"/>
-      <c r="D7" s="515"/>
-      <c r="E7" s="515"/>
+      <c r="A7" s="521"/>
+      <c r="B7" s="522"/>
+      <c r="C7" s="522"/>
+      <c r="D7" s="522"/>
+      <c r="E7" s="522"/>
       <c r="F7" s="280"/>
-      <c r="G7" s="511"/>
-      <c r="H7" s="511"/>
+      <c r="G7" s="518"/>
+      <c r="H7" s="518"/>
       <c r="I7" s="221"/>
       <c r="J7" s="278"/>
       <c r="K7" s="13"/>
     </row>
     <row r="8" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="514"/>
-      <c r="B8" s="515"/>
-      <c r="C8" s="515"/>
-      <c r="D8" s="515"/>
-      <c r="E8" s="515"/>
+      <c r="A8" s="521"/>
+      <c r="B8" s="522"/>
+      <c r="C8" s="522"/>
+      <c r="D8" s="522"/>
+      <c r="E8" s="522"/>
       <c r="F8" s="280"/>
-      <c r="G8" s="511"/>
-      <c r="H8" s="511"/>
+      <c r="G8" s="518"/>
+      <c r="H8" s="518"/>
       <c r="I8" s="221"/>
       <c r="J8" s="278"/>
       <c r="K8" s="13"/>
     </row>
     <row r="9" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="514"/>
-      <c r="B9" s="515"/>
-      <c r="C9" s="515"/>
-      <c r="D9" s="515"/>
-      <c r="E9" s="515"/>
+      <c r="A9" s="521"/>
+      <c r="B9" s="522"/>
+      <c r="C9" s="522"/>
+      <c r="D9" s="522"/>
+      <c r="E9" s="522"/>
       <c r="F9" s="280"/>
-      <c r="G9" s="511"/>
-      <c r="H9" s="511"/>
+      <c r="G9" s="518"/>
+      <c r="H9" s="518"/>
       <c r="I9" s="221"/>
       <c r="J9" s="278"/>
       <c r="K9" s="13"/>
     </row>
     <row r="10" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="514"/>
-      <c r="B10" s="515"/>
-      <c r="C10" s="515"/>
-      <c r="D10" s="515"/>
-      <c r="E10" s="515"/>
+      <c r="A10" s="521"/>
+      <c r="B10" s="522"/>
+      <c r="C10" s="522"/>
+      <c r="D10" s="522"/>
+      <c r="E10" s="522"/>
       <c r="F10" s="280"/>
-      <c r="G10" s="511"/>
-      <c r="H10" s="511"/>
+      <c r="G10" s="518"/>
+      <c r="H10" s="518"/>
       <c r="I10" s="221"/>
       <c r="J10" s="278"/>
       <c r="K10" s="13"/>
     </row>
     <row r="11" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="535"/>
-      <c r="B11" s="534"/>
-      <c r="C11" s="534"/>
-      <c r="D11" s="534"/>
-      <c r="E11" s="534"/>
+      <c r="A11" s="542"/>
+      <c r="B11" s="541"/>
+      <c r="C11" s="541"/>
+      <c r="D11" s="541"/>
+      <c r="E11" s="541"/>
       <c r="F11" s="281"/>
-      <c r="G11" s="542"/>
-      <c r="H11" s="542"/>
+      <c r="G11" s="549"/>
+      <c r="H11" s="549"/>
       <c r="I11" s="222"/>
       <c r="J11" s="279"/>
       <c r="K11" s="14"/>
     </row>
     <row r="12" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="536" t="s">
+      <c r="A12" s="543" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="537"/>
-      <c r="C12" s="537"/>
-      <c r="D12" s="537"/>
-      <c r="E12" s="537"/>
-      <c r="F12" s="537"/>
-      <c r="G12" s="537"/>
-      <c r="H12" s="537"/>
-      <c r="I12" s="537"/>
-      <c r="J12" s="537"/>
-      <c r="K12" s="538"/>
+      <c r="B12" s="544"/>
+      <c r="C12" s="544"/>
+      <c r="D12" s="544"/>
+      <c r="E12" s="544"/>
+      <c r="F12" s="544"/>
+      <c r="G12" s="544"/>
+      <c r="H12" s="544"/>
+      <c r="I12" s="544"/>
+      <c r="J12" s="544"/>
+      <c r="K12" s="545"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="539" t="s">
+      <c r="A13" s="546" t="s">
         <v>314</v>
       </c>
-      <c r="B13" s="540"/>
-      <c r="C13" s="540"/>
-      <c r="D13" s="540"/>
-      <c r="E13" s="540"/>
-      <c r="F13" s="540"/>
-      <c r="G13" s="540"/>
-      <c r="H13" s="540"/>
-      <c r="I13" s="540"/>
-      <c r="J13" s="540"/>
-      <c r="K13" s="541"/>
+      <c r="B13" s="547"/>
+      <c r="C13" s="547"/>
+      <c r="D13" s="547"/>
+      <c r="E13" s="547"/>
+      <c r="F13" s="547"/>
+      <c r="G13" s="547"/>
+      <c r="H13" s="547"/>
+      <c r="I13" s="547"/>
+      <c r="J13" s="547"/>
+      <c r="K13" s="548"/>
     </row>
     <row r="14" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="180" t="s">
@@ -11816,447 +11829,447 @@
       <c r="A15" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="B15" s="521" t="s">
+      <c r="B15" s="528" t="s">
         <v>317</v>
       </c>
-      <c r="C15" s="522"/>
-      <c r="D15" s="520" t="s">
+      <c r="C15" s="529"/>
+      <c r="D15" s="527" t="s">
         <v>318</v>
       </c>
-      <c r="E15" s="521"/>
-      <c r="F15" s="522"/>
-      <c r="G15" s="520" t="s">
+      <c r="E15" s="528"/>
+      <c r="F15" s="529"/>
+      <c r="G15" s="527" t="s">
         <v>319</v>
       </c>
-      <c r="H15" s="521"/>
-      <c r="I15" s="522"/>
-      <c r="J15" s="543" t="s">
+      <c r="H15" s="528"/>
+      <c r="I15" s="529"/>
+      <c r="J15" s="550" t="s">
         <v>320</v>
       </c>
-      <c r="K15" s="516" t="s">
+      <c r="K15" s="523" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
-      <c r="B16" s="500"/>
-      <c r="C16" s="501"/>
-      <c r="D16" s="520"/>
-      <c r="E16" s="521"/>
-      <c r="F16" s="522"/>
-      <c r="G16" s="520"/>
-      <c r="H16" s="521"/>
-      <c r="I16" s="522"/>
-      <c r="J16" s="543"/>
-      <c r="K16" s="516"/>
+      <c r="B16" s="507"/>
+      <c r="C16" s="508"/>
+      <c r="D16" s="527"/>
+      <c r="E16" s="528"/>
+      <c r="F16" s="529"/>
+      <c r="G16" s="527"/>
+      <c r="H16" s="528"/>
+      <c r="I16" s="529"/>
+      <c r="J16" s="550"/>
+      <c r="K16" s="523"/>
     </row>
     <row r="17" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="518" t="s">
+      <c r="A17" s="525" t="s">
         <v>130</v>
       </c>
-      <c r="B17" s="519"/>
+      <c r="B17" s="526"/>
       <c r="C17" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="D17" s="503"/>
-      <c r="E17" s="500"/>
-      <c r="F17" s="501"/>
-      <c r="G17" s="503"/>
-      <c r="H17" s="500"/>
-      <c r="I17" s="501"/>
-      <c r="J17" s="544"/>
-      <c r="K17" s="517"/>
+      <c r="D17" s="510"/>
+      <c r="E17" s="507"/>
+      <c r="F17" s="508"/>
+      <c r="G17" s="510"/>
+      <c r="H17" s="507"/>
+      <c r="I17" s="508"/>
+      <c r="J17" s="551"/>
+      <c r="K17" s="524"/>
     </row>
     <row r="18" spans="1:11" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="523"/>
-      <c r="B18" s="524"/>
+      <c r="A18" s="530"/>
+      <c r="B18" s="531"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="515"/>
-      <c r="E18" s="515"/>
-      <c r="F18" s="515"/>
-      <c r="G18" s="515"/>
-      <c r="H18" s="515"/>
-      <c r="I18" s="515"/>
+      <c r="D18" s="522"/>
+      <c r="E18" s="522"/>
+      <c r="F18" s="522"/>
+      <c r="G18" s="522"/>
+      <c r="H18" s="522"/>
+      <c r="I18" s="522"/>
       <c r="J18" s="8"/>
       <c r="K18" s="9"/>
     </row>
     <row r="19" spans="1:11" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="523"/>
-      <c r="B19" s="524"/>
+      <c r="A19" s="530"/>
+      <c r="B19" s="531"/>
       <c r="C19" s="15"/>
-      <c r="D19" s="515"/>
-      <c r="E19" s="515"/>
-      <c r="F19" s="515"/>
-      <c r="G19" s="515"/>
-      <c r="H19" s="515"/>
-      <c r="I19" s="515"/>
+      <c r="D19" s="522"/>
+      <c r="E19" s="522"/>
+      <c r="F19" s="522"/>
+      <c r="G19" s="522"/>
+      <c r="H19" s="522"/>
+      <c r="I19" s="522"/>
       <c r="J19" s="8"/>
       <c r="K19" s="9"/>
     </row>
     <row r="20" spans="1:11" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="523"/>
-      <c r="B20" s="524"/>
+      <c r="A20" s="530"/>
+      <c r="B20" s="531"/>
       <c r="C20" s="15"/>
-      <c r="D20" s="515"/>
-      <c r="E20" s="515"/>
-      <c r="F20" s="515"/>
-      <c r="G20" s="515"/>
-      <c r="H20" s="515"/>
-      <c r="I20" s="515"/>
+      <c r="D20" s="522"/>
+      <c r="E20" s="522"/>
+      <c r="F20" s="522"/>
+      <c r="G20" s="522"/>
+      <c r="H20" s="522"/>
+      <c r="I20" s="522"/>
       <c r="J20" s="8"/>
       <c r="K20" s="9"/>
     </row>
     <row r="21" spans="1:11" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="523"/>
-      <c r="B21" s="524"/>
+      <c r="A21" s="530"/>
+      <c r="B21" s="531"/>
       <c r="C21" s="15"/>
-      <c r="D21" s="515"/>
-      <c r="E21" s="515"/>
-      <c r="F21" s="515"/>
-      <c r="G21" s="515"/>
-      <c r="H21" s="515"/>
-      <c r="I21" s="515"/>
+      <c r="D21" s="522"/>
+      <c r="E21" s="522"/>
+      <c r="F21" s="522"/>
+      <c r="G21" s="522"/>
+      <c r="H21" s="522"/>
+      <c r="I21" s="522"/>
       <c r="J21" s="8"/>
       <c r="K21" s="9"/>
     </row>
     <row r="22" spans="1:11" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="523"/>
-      <c r="B22" s="524"/>
+      <c r="A22" s="530"/>
+      <c r="B22" s="531"/>
       <c r="C22" s="15"/>
-      <c r="D22" s="515"/>
-      <c r="E22" s="515"/>
-      <c r="F22" s="515"/>
-      <c r="G22" s="515"/>
-      <c r="H22" s="515"/>
-      <c r="I22" s="515"/>
+      <c r="D22" s="522"/>
+      <c r="E22" s="522"/>
+      <c r="F22" s="522"/>
+      <c r="G22" s="522"/>
+      <c r="H22" s="522"/>
+      <c r="I22" s="522"/>
       <c r="J22" s="8"/>
       <c r="K22" s="9"/>
     </row>
     <row r="23" spans="1:11" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="523"/>
-      <c r="B23" s="524"/>
+      <c r="A23" s="530"/>
+      <c r="B23" s="531"/>
       <c r="C23" s="15"/>
-      <c r="D23" s="515"/>
-      <c r="E23" s="515"/>
-      <c r="F23" s="515"/>
-      <c r="G23" s="515"/>
-      <c r="H23" s="515"/>
-      <c r="I23" s="515"/>
+      <c r="D23" s="522"/>
+      <c r="E23" s="522"/>
+      <c r="F23" s="522"/>
+      <c r="G23" s="522"/>
+      <c r="H23" s="522"/>
+      <c r="I23" s="522"/>
       <c r="J23" s="8"/>
       <c r="K23" s="9"/>
     </row>
     <row r="24" spans="1:11" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="523"/>
-      <c r="B24" s="524"/>
+      <c r="A24" s="530"/>
+      <c r="B24" s="531"/>
       <c r="C24" s="15"/>
-      <c r="D24" s="515"/>
-      <c r="E24" s="515"/>
-      <c r="F24" s="515"/>
-      <c r="G24" s="515"/>
-      <c r="H24" s="515"/>
-      <c r="I24" s="515"/>
+      <c r="D24" s="522"/>
+      <c r="E24" s="522"/>
+      <c r="F24" s="522"/>
+      <c r="G24" s="522"/>
+      <c r="H24" s="522"/>
+      <c r="I24" s="522"/>
       <c r="J24" s="8"/>
       <c r="K24" s="9"/>
     </row>
     <row r="25" spans="1:11" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="523"/>
-      <c r="B25" s="524"/>
+      <c r="A25" s="530"/>
+      <c r="B25" s="531"/>
       <c r="C25" s="15"/>
-      <c r="D25" s="515"/>
-      <c r="E25" s="515"/>
-      <c r="F25" s="515"/>
-      <c r="G25" s="515"/>
-      <c r="H25" s="515"/>
-      <c r="I25" s="515"/>
+      <c r="D25" s="522"/>
+      <c r="E25" s="522"/>
+      <c r="F25" s="522"/>
+      <c r="G25" s="522"/>
+      <c r="H25" s="522"/>
+      <c r="I25" s="522"/>
       <c r="J25" s="8"/>
       <c r="K25" s="9"/>
     </row>
     <row r="26" spans="1:11" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="523"/>
-      <c r="B26" s="524"/>
+      <c r="A26" s="530"/>
+      <c r="B26" s="531"/>
       <c r="C26" s="15"/>
-      <c r="D26" s="515"/>
-      <c r="E26" s="515"/>
-      <c r="F26" s="515"/>
-      <c r="G26" s="515"/>
-      <c r="H26" s="515"/>
-      <c r="I26" s="515"/>
+      <c r="D26" s="522"/>
+      <c r="E26" s="522"/>
+      <c r="F26" s="522"/>
+      <c r="G26" s="522"/>
+      <c r="H26" s="522"/>
+      <c r="I26" s="522"/>
       <c r="J26" s="8"/>
       <c r="K26" s="9"/>
     </row>
     <row r="27" spans="1:11" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="523"/>
-      <c r="B27" s="524"/>
+      <c r="A27" s="530"/>
+      <c r="B27" s="531"/>
       <c r="C27" s="15"/>
-      <c r="D27" s="515"/>
-      <c r="E27" s="515"/>
-      <c r="F27" s="515"/>
-      <c r="G27" s="515"/>
-      <c r="H27" s="515"/>
-      <c r="I27" s="515"/>
+      <c r="D27" s="522"/>
+      <c r="E27" s="522"/>
+      <c r="F27" s="522"/>
+      <c r="G27" s="522"/>
+      <c r="H27" s="522"/>
+      <c r="I27" s="522"/>
       <c r="J27" s="8"/>
       <c r="K27" s="9"/>
     </row>
     <row r="28" spans="1:11" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="523"/>
-      <c r="B28" s="524"/>
+      <c r="A28" s="530"/>
+      <c r="B28" s="531"/>
       <c r="C28" s="15"/>
-      <c r="D28" s="515"/>
-      <c r="E28" s="515"/>
-      <c r="F28" s="515"/>
-      <c r="G28" s="515"/>
-      <c r="H28" s="515"/>
-      <c r="I28" s="515"/>
+      <c r="D28" s="522"/>
+      <c r="E28" s="522"/>
+      <c r="F28" s="522"/>
+      <c r="G28" s="522"/>
+      <c r="H28" s="522"/>
+      <c r="I28" s="522"/>
       <c r="J28" s="8"/>
       <c r="K28" s="9"/>
     </row>
     <row r="29" spans="1:11" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="523"/>
-      <c r="B29" s="524"/>
+      <c r="A29" s="530"/>
+      <c r="B29" s="531"/>
       <c r="C29" s="15"/>
-      <c r="D29" s="515"/>
-      <c r="E29" s="515"/>
-      <c r="F29" s="515"/>
-      <c r="G29" s="515"/>
-      <c r="H29" s="515"/>
-      <c r="I29" s="515"/>
+      <c r="D29" s="522"/>
+      <c r="E29" s="522"/>
+      <c r="F29" s="522"/>
+      <c r="G29" s="522"/>
+      <c r="H29" s="522"/>
+      <c r="I29" s="522"/>
       <c r="J29" s="8"/>
       <c r="K29" s="9"/>
     </row>
     <row r="30" spans="1:11" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="523"/>
-      <c r="B30" s="524"/>
+      <c r="A30" s="530"/>
+      <c r="B30" s="531"/>
       <c r="C30" s="15"/>
-      <c r="D30" s="515"/>
-      <c r="E30" s="515"/>
-      <c r="F30" s="515"/>
-      <c r="G30" s="515"/>
-      <c r="H30" s="515"/>
-      <c r="I30" s="515"/>
+      <c r="D30" s="522"/>
+      <c r="E30" s="522"/>
+      <c r="F30" s="522"/>
+      <c r="G30" s="522"/>
+      <c r="H30" s="522"/>
+      <c r="I30" s="522"/>
       <c r="J30" s="8"/>
       <c r="K30" s="9"/>
     </row>
     <row r="31" spans="1:11" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="523"/>
-      <c r="B31" s="524"/>
+      <c r="A31" s="530"/>
+      <c r="B31" s="531"/>
       <c r="C31" s="15"/>
-      <c r="D31" s="515"/>
-      <c r="E31" s="515"/>
-      <c r="F31" s="515"/>
-      <c r="G31" s="515"/>
-      <c r="H31" s="515"/>
-      <c r="I31" s="515"/>
+      <c r="D31" s="522"/>
+      <c r="E31" s="522"/>
+      <c r="F31" s="522"/>
+      <c r="G31" s="522"/>
+      <c r="H31" s="522"/>
+      <c r="I31" s="522"/>
       <c r="J31" s="8"/>
       <c r="K31" s="9"/>
     </row>
     <row r="32" spans="1:11" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="523"/>
-      <c r="B32" s="524"/>
+      <c r="A32" s="530"/>
+      <c r="B32" s="531"/>
       <c r="C32" s="15"/>
-      <c r="D32" s="515"/>
-      <c r="E32" s="515"/>
-      <c r="F32" s="515"/>
-      <c r="G32" s="515"/>
-      <c r="H32" s="515"/>
-      <c r="I32" s="515"/>
+      <c r="D32" s="522"/>
+      <c r="E32" s="522"/>
+      <c r="F32" s="522"/>
+      <c r="G32" s="522"/>
+      <c r="H32" s="522"/>
+      <c r="I32" s="522"/>
       <c r="J32" s="8"/>
       <c r="K32" s="9"/>
     </row>
     <row r="33" spans="1:12" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="523"/>
-      <c r="B33" s="524"/>
+      <c r="A33" s="530"/>
+      <c r="B33" s="531"/>
       <c r="C33" s="15"/>
-      <c r="D33" s="515"/>
-      <c r="E33" s="515"/>
-      <c r="F33" s="515"/>
-      <c r="G33" s="515"/>
-      <c r="H33" s="515"/>
-      <c r="I33" s="515"/>
+      <c r="D33" s="522"/>
+      <c r="E33" s="522"/>
+      <c r="F33" s="522"/>
+      <c r="G33" s="522"/>
+      <c r="H33" s="522"/>
+      <c r="I33" s="522"/>
       <c r="J33" s="8"/>
       <c r="K33" s="9"/>
     </row>
     <row r="34" spans="1:12" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="523"/>
-      <c r="B34" s="524"/>
+      <c r="A34" s="530"/>
+      <c r="B34" s="531"/>
       <c r="C34" s="15"/>
-      <c r="D34" s="515"/>
-      <c r="E34" s="515"/>
-      <c r="F34" s="515"/>
-      <c r="G34" s="515"/>
-      <c r="H34" s="515"/>
-      <c r="I34" s="515"/>
+      <c r="D34" s="522"/>
+      <c r="E34" s="522"/>
+      <c r="F34" s="522"/>
+      <c r="G34" s="522"/>
+      <c r="H34" s="522"/>
+      <c r="I34" s="522"/>
       <c r="J34" s="8"/>
       <c r="K34" s="9"/>
     </row>
     <row r="35" spans="1:12" s="12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="523"/>
-      <c r="B35" s="524"/>
+      <c r="A35" s="530"/>
+      <c r="B35" s="531"/>
       <c r="C35" s="15"/>
-      <c r="D35" s="515"/>
-      <c r="E35" s="515"/>
-      <c r="F35" s="515"/>
-      <c r="G35" s="515"/>
-      <c r="H35" s="515"/>
-      <c r="I35" s="515"/>
+      <c r="D35" s="522"/>
+      <c r="E35" s="522"/>
+      <c r="F35" s="522"/>
+      <c r="G35" s="522"/>
+      <c r="H35" s="522"/>
+      <c r="I35" s="522"/>
       <c r="J35" s="8"/>
       <c r="K35" s="9"/>
     </row>
     <row r="36" spans="1:12" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="523"/>
-      <c r="B36" s="524"/>
+      <c r="A36" s="530"/>
+      <c r="B36" s="531"/>
       <c r="C36" s="15"/>
-      <c r="D36" s="515"/>
-      <c r="E36" s="515"/>
-      <c r="F36" s="515"/>
-      <c r="G36" s="515"/>
-      <c r="H36" s="515"/>
-      <c r="I36" s="515"/>
+      <c r="D36" s="522"/>
+      <c r="E36" s="522"/>
+      <c r="F36" s="522"/>
+      <c r="G36" s="522"/>
+      <c r="H36" s="522"/>
+      <c r="I36" s="522"/>
       <c r="J36" s="8"/>
       <c r="K36" s="9"/>
     </row>
     <row r="37" spans="1:12" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="523"/>
-      <c r="B37" s="524"/>
+      <c r="A37" s="530"/>
+      <c r="B37" s="531"/>
       <c r="C37" s="15"/>
-      <c r="D37" s="515"/>
-      <c r="E37" s="515"/>
-      <c r="F37" s="515"/>
-      <c r="G37" s="515"/>
-      <c r="H37" s="515"/>
-      <c r="I37" s="515"/>
+      <c r="D37" s="522"/>
+      <c r="E37" s="522"/>
+      <c r="F37" s="522"/>
+      <c r="G37" s="522"/>
+      <c r="H37" s="522"/>
+      <c r="I37" s="522"/>
       <c r="J37" s="8"/>
       <c r="K37" s="9"/>
     </row>
     <row r="38" spans="1:12" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="523"/>
-      <c r="B38" s="524"/>
+      <c r="A38" s="530"/>
+      <c r="B38" s="531"/>
       <c r="C38" s="15"/>
-      <c r="D38" s="515"/>
-      <c r="E38" s="515"/>
-      <c r="F38" s="515"/>
-      <c r="G38" s="515"/>
-      <c r="H38" s="515"/>
-      <c r="I38" s="515"/>
+      <c r="D38" s="522"/>
+      <c r="E38" s="522"/>
+      <c r="F38" s="522"/>
+      <c r="G38" s="522"/>
+      <c r="H38" s="522"/>
+      <c r="I38" s="522"/>
       <c r="J38" s="8"/>
       <c r="K38" s="9"/>
     </row>
     <row r="39" spans="1:12" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="523"/>
-      <c r="B39" s="524"/>
+      <c r="A39" s="530"/>
+      <c r="B39" s="531"/>
       <c r="C39" s="15"/>
-      <c r="D39" s="515"/>
-      <c r="E39" s="515"/>
-      <c r="F39" s="515"/>
-      <c r="G39" s="515"/>
-      <c r="H39" s="515"/>
-      <c r="I39" s="515"/>
+      <c r="D39" s="522"/>
+      <c r="E39" s="522"/>
+      <c r="F39" s="522"/>
+      <c r="G39" s="522"/>
+      <c r="H39" s="522"/>
+      <c r="I39" s="522"/>
       <c r="J39" s="8"/>
       <c r="K39" s="9"/>
     </row>
     <row r="40" spans="1:12" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="523"/>
-      <c r="B40" s="524"/>
+      <c r="A40" s="530"/>
+      <c r="B40" s="531"/>
       <c r="C40" s="15"/>
-      <c r="D40" s="515"/>
-      <c r="E40" s="515"/>
-      <c r="F40" s="515"/>
-      <c r="G40" s="515"/>
-      <c r="H40" s="515"/>
-      <c r="I40" s="515"/>
+      <c r="D40" s="522"/>
+      <c r="E40" s="522"/>
+      <c r="F40" s="522"/>
+      <c r="G40" s="522"/>
+      <c r="H40" s="522"/>
+      <c r="I40" s="522"/>
       <c r="J40" s="8"/>
       <c r="K40" s="9"/>
     </row>
     <row r="41" spans="1:12" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="523"/>
-      <c r="B41" s="524"/>
+      <c r="A41" s="530"/>
+      <c r="B41" s="531"/>
       <c r="C41" s="15"/>
-      <c r="D41" s="515"/>
-      <c r="E41" s="515"/>
-      <c r="F41" s="515"/>
-      <c r="G41" s="515"/>
-      <c r="H41" s="515"/>
-      <c r="I41" s="515"/>
+      <c r="D41" s="522"/>
+      <c r="E41" s="522"/>
+      <c r="F41" s="522"/>
+      <c r="G41" s="522"/>
+      <c r="H41" s="522"/>
+      <c r="I41" s="522"/>
       <c r="J41" s="8"/>
       <c r="K41" s="9"/>
     </row>
     <row r="42" spans="1:12" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="523"/>
-      <c r="B42" s="524"/>
+      <c r="A42" s="530"/>
+      <c r="B42" s="531"/>
       <c r="C42" s="15"/>
-      <c r="D42" s="515"/>
-      <c r="E42" s="515"/>
-      <c r="F42" s="515"/>
-      <c r="G42" s="515"/>
-      <c r="H42" s="515"/>
-      <c r="I42" s="515"/>
+      <c r="D42" s="522"/>
+      <c r="E42" s="522"/>
+      <c r="F42" s="522"/>
+      <c r="G42" s="522"/>
+      <c r="H42" s="522"/>
+      <c r="I42" s="522"/>
       <c r="J42" s="8"/>
       <c r="K42" s="9"/>
     </row>
     <row r="43" spans="1:12" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="523"/>
-      <c r="B43" s="524"/>
+      <c r="A43" s="530"/>
+      <c r="B43" s="531"/>
       <c r="C43" s="15"/>
-      <c r="D43" s="515"/>
-      <c r="E43" s="515"/>
-      <c r="F43" s="515"/>
-      <c r="G43" s="515"/>
-      <c r="H43" s="515"/>
-      <c r="I43" s="515"/>
+      <c r="D43" s="522"/>
+      <c r="E43" s="522"/>
+      <c r="F43" s="522"/>
+      <c r="G43" s="522"/>
+      <c r="H43" s="522"/>
+      <c r="I43" s="522"/>
       <c r="J43" s="8"/>
       <c r="K43" s="9"/>
     </row>
     <row r="44" spans="1:12" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="523"/>
-      <c r="B44" s="524"/>
+      <c r="A44" s="530"/>
+      <c r="B44" s="531"/>
       <c r="C44" s="15"/>
-      <c r="D44" s="515"/>
-      <c r="E44" s="515"/>
-      <c r="F44" s="515"/>
-      <c r="G44" s="515"/>
-      <c r="H44" s="515"/>
-      <c r="I44" s="515"/>
+      <c r="D44" s="522"/>
+      <c r="E44" s="522"/>
+      <c r="F44" s="522"/>
+      <c r="G44" s="522"/>
+      <c r="H44" s="522"/>
+      <c r="I44" s="522"/>
       <c r="J44" s="8"/>
       <c r="K44" s="9"/>
     </row>
     <row r="45" spans="1:12" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="528"/>
-      <c r="B45" s="529"/>
+      <c r="A45" s="535"/>
+      <c r="B45" s="536"/>
       <c r="C45" s="16"/>
-      <c r="D45" s="534"/>
-      <c r="E45" s="534"/>
-      <c r="F45" s="534"/>
-      <c r="G45" s="534"/>
-      <c r="H45" s="534"/>
-      <c r="I45" s="534"/>
+      <c r="D45" s="541"/>
+      <c r="E45" s="541"/>
+      <c r="F45" s="541"/>
+      <c r="G45" s="541"/>
+      <c r="H45" s="541"/>
+      <c r="I45" s="541"/>
       <c r="J45" s="10"/>
       <c r="K45" s="11"/>
     </row>
     <row r="46" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="530" t="s">
+      <c r="A46" s="537" t="s">
         <v>115</v>
       </c>
-      <c r="B46" s="531"/>
-      <c r="C46" s="531"/>
-      <c r="D46" s="531"/>
-      <c r="E46" s="531"/>
-      <c r="F46" s="531"/>
-      <c r="G46" s="531"/>
-      <c r="H46" s="531"/>
-      <c r="I46" s="531"/>
-      <c r="J46" s="532"/>
-      <c r="K46" s="533"/>
+      <c r="B46" s="538"/>
+      <c r="C46" s="538"/>
+      <c r="D46" s="538"/>
+      <c r="E46" s="538"/>
+      <c r="F46" s="538"/>
+      <c r="G46" s="538"/>
+      <c r="H46" s="538"/>
+      <c r="I46" s="538"/>
+      <c r="J46" s="539"/>
+      <c r="K46" s="540"/>
     </row>
     <row r="47" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="283" t="s">
+      <c r="A47" s="284" t="s">
         <v>144</v>
       </c>
-      <c r="B47" s="284"/>
-      <c r="C47" s="285"/>
-      <c r="D47" s="525"/>
-      <c r="E47" s="526"/>
-      <c r="F47" s="526"/>
-      <c r="G47" s="526"/>
-      <c r="H47" s="527"/>
+      <c r="B47" s="285"/>
+      <c r="C47" s="286"/>
+      <c r="D47" s="532"/>
+      <c r="E47" s="533"/>
+      <c r="F47" s="533"/>
+      <c r="G47" s="533"/>
+      <c r="H47" s="534"/>
       <c r="I47" s="206" t="s">
         <v>145</v>
       </c>
@@ -12265,19 +12278,19 @@
       <c r="L47" s="208"/>
     </row>
     <row r="48" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="282" t="s">
+      <c r="A48" s="283" t="s">
         <v>322</v>
       </c>
-      <c r="B48" s="282"/>
-      <c r="C48" s="282"/>
-      <c r="D48" s="282"/>
-      <c r="E48" s="282"/>
-      <c r="F48" s="282"/>
-      <c r="G48" s="282"/>
-      <c r="H48" s="282"/>
-      <c r="I48" s="282"/>
-      <c r="J48" s="282"/>
-      <c r="K48" s="282"/>
+      <c r="B48" s="283"/>
+      <c r="C48" s="283"/>
+      <c r="D48" s="283"/>
+      <c r="E48" s="283"/>
+      <c r="F48" s="283"/>
+      <c r="G48" s="283"/>
+      <c r="H48" s="283"/>
+      <c r="I48" s="283"/>
+      <c r="J48" s="283"/>
+      <c r="K48" s="283"/>
       <c r="L48" s="211"/>
     </row>
   </sheetData>
@@ -12401,8 +12414,8 @@
     <mergeCell ref="A6:E6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.15748031496063" right="0" top="0.15748031496063" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="269" scale="78" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.11811023622047245" bottom="0.11811023622047245" header="0.15748031496062992" footer="0.15748031496062992"/>
+  <pageSetup paperSize="256" scale="92" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12413,8 +12426,8 @@
   </sheetPr>
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showGridLines="0" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -12433,564 +12446,564 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="583"/>
-      <c r="B1" s="584"/>
-      <c r="C1" s="584"/>
-      <c r="D1" s="584"/>
-      <c r="E1" s="584"/>
-      <c r="F1" s="584"/>
-      <c r="G1" s="584"/>
-      <c r="H1" s="584"/>
-      <c r="I1" s="584"/>
-      <c r="J1" s="584"/>
-      <c r="K1" s="585"/>
+      <c r="A1" s="590"/>
+      <c r="B1" s="591"/>
+      <c r="C1" s="591"/>
+      <c r="D1" s="591"/>
+      <c r="E1" s="591"/>
+      <c r="F1" s="591"/>
+      <c r="G1" s="591"/>
+      <c r="H1" s="591"/>
+      <c r="I1" s="591"/>
+      <c r="J1" s="591"/>
+      <c r="K1" s="592"/>
     </row>
     <row r="2" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="605" t="s">
+      <c r="A2" s="612" t="s">
         <v>323</v>
       </c>
-      <c r="B2" s="606"/>
-      <c r="C2" s="606"/>
-      <c r="D2" s="606"/>
-      <c r="E2" s="606"/>
-      <c r="F2" s="606"/>
-      <c r="G2" s="606"/>
-      <c r="H2" s="606"/>
-      <c r="I2" s="606"/>
-      <c r="J2" s="606"/>
-      <c r="K2" s="607"/>
+      <c r="B2" s="613"/>
+      <c r="C2" s="613"/>
+      <c r="D2" s="613"/>
+      <c r="E2" s="613"/>
+      <c r="F2" s="613"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="613"/>
+      <c r="I2" s="613"/>
+      <c r="J2" s="613"/>
+      <c r="K2" s="614"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="591" t="s">
+      <c r="A3" s="598" t="s">
         <v>324</v>
       </c>
-      <c r="B3" s="593" t="s">
+      <c r="B3" s="600" t="s">
         <v>325</v>
       </c>
-      <c r="C3" s="593"/>
-      <c r="D3" s="594"/>
-      <c r="E3" s="498" t="s">
+      <c r="C3" s="600"/>
+      <c r="D3" s="601"/>
+      <c r="E3" s="505" t="s">
         <v>326</v>
       </c>
-      <c r="F3" s="499"/>
-      <c r="G3" s="610" t="s">
+      <c r="F3" s="506"/>
+      <c r="G3" s="617" t="s">
         <v>327</v>
       </c>
-      <c r="H3" s="502" t="s">
+      <c r="H3" s="509" t="s">
         <v>328</v>
       </c>
-      <c r="I3" s="600"/>
-      <c r="J3" s="600"/>
-      <c r="K3" s="601"/>
+      <c r="I3" s="607"/>
+      <c r="J3" s="607"/>
+      <c r="K3" s="608"/>
     </row>
     <row r="4" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="592"/>
-      <c r="B4" s="595"/>
-      <c r="C4" s="595"/>
-      <c r="D4" s="596"/>
-      <c r="E4" s="500"/>
-      <c r="F4" s="501"/>
-      <c r="G4" s="611"/>
-      <c r="H4" s="602"/>
-      <c r="I4" s="586"/>
-      <c r="J4" s="586"/>
-      <c r="K4" s="603"/>
+      <c r="A4" s="599"/>
+      <c r="B4" s="602"/>
+      <c r="C4" s="602"/>
+      <c r="D4" s="603"/>
+      <c r="E4" s="507"/>
+      <c r="F4" s="508"/>
+      <c r="G4" s="618"/>
+      <c r="H4" s="609"/>
+      <c r="I4" s="593"/>
+      <c r="J4" s="593"/>
+      <c r="K4" s="610"/>
     </row>
     <row r="5" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
-      <c r="B5" s="608"/>
-      <c r="C5" s="608"/>
-      <c r="D5" s="609"/>
+      <c r="B5" s="615"/>
+      <c r="C5" s="615"/>
+      <c r="D5" s="616"/>
       <c r="E5" s="18" t="s">
         <v>130</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="G5" s="612"/>
-      <c r="H5" s="604"/>
-      <c r="I5" s="427"/>
-      <c r="J5" s="427"/>
-      <c r="K5" s="428"/>
+      <c r="G5" s="619"/>
+      <c r="H5" s="611"/>
+      <c r="I5" s="434"/>
+      <c r="J5" s="434"/>
+      <c r="K5" s="435"/>
     </row>
     <row r="6" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="545"/>
-      <c r="B6" s="546"/>
-      <c r="C6" s="546"/>
-      <c r="D6" s="547"/>
+      <c r="A6" s="552"/>
+      <c r="B6" s="553"/>
+      <c r="C6" s="553"/>
+      <c r="D6" s="554"/>
       <c r="E6" s="24"/>
       <c r="F6" s="24"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="548"/>
-      <c r="I6" s="549"/>
-      <c r="J6" s="549"/>
-      <c r="K6" s="550"/>
+      <c r="H6" s="555"/>
+      <c r="I6" s="556"/>
+      <c r="J6" s="556"/>
+      <c r="K6" s="557"/>
     </row>
     <row r="7" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="545"/>
-      <c r="B7" s="546"/>
-      <c r="C7" s="546"/>
-      <c r="D7" s="547"/>
+      <c r="A7" s="552"/>
+      <c r="B7" s="553"/>
+      <c r="C7" s="553"/>
+      <c r="D7" s="554"/>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
       <c r="G7" s="25"/>
-      <c r="H7" s="548"/>
-      <c r="I7" s="549"/>
-      <c r="J7" s="549"/>
-      <c r="K7" s="550"/>
+      <c r="H7" s="555"/>
+      <c r="I7" s="556"/>
+      <c r="J7" s="556"/>
+      <c r="K7" s="557"/>
     </row>
     <row r="8" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="545"/>
-      <c r="B8" s="546"/>
-      <c r="C8" s="546"/>
-      <c r="D8" s="547"/>
+      <c r="A8" s="552"/>
+      <c r="B8" s="553"/>
+      <c r="C8" s="553"/>
+      <c r="D8" s="554"/>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
       <c r="G8" s="25"/>
-      <c r="H8" s="548"/>
-      <c r="I8" s="549"/>
-      <c r="J8" s="549"/>
-      <c r="K8" s="550"/>
+      <c r="H8" s="555"/>
+      <c r="I8" s="556"/>
+      <c r="J8" s="556"/>
+      <c r="K8" s="557"/>
     </row>
     <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="545"/>
-      <c r="B9" s="546"/>
-      <c r="C9" s="546"/>
-      <c r="D9" s="547"/>
+      <c r="A9" s="552"/>
+      <c r="B9" s="553"/>
+      <c r="C9" s="553"/>
+      <c r="D9" s="554"/>
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="548"/>
-      <c r="I9" s="549"/>
-      <c r="J9" s="549"/>
-      <c r="K9" s="550"/>
+      <c r="H9" s="555"/>
+      <c r="I9" s="556"/>
+      <c r="J9" s="556"/>
+      <c r="K9" s="557"/>
     </row>
     <row r="10" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="545"/>
-      <c r="B10" s="546"/>
-      <c r="C10" s="546"/>
-      <c r="D10" s="547"/>
+      <c r="A10" s="552"/>
+      <c r="B10" s="553"/>
+      <c r="C10" s="553"/>
+      <c r="D10" s="554"/>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="548"/>
-      <c r="I10" s="549"/>
-      <c r="J10" s="549"/>
-      <c r="K10" s="550"/>
+      <c r="H10" s="555"/>
+      <c r="I10" s="556"/>
+      <c r="J10" s="556"/>
+      <c r="K10" s="557"/>
     </row>
     <row r="11" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="545"/>
-      <c r="B11" s="546"/>
-      <c r="C11" s="546"/>
-      <c r="D11" s="547"/>
+      <c r="A11" s="552"/>
+      <c r="B11" s="553"/>
+      <c r="C11" s="553"/>
+      <c r="D11" s="554"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="548"/>
-      <c r="I11" s="549"/>
-      <c r="J11" s="549"/>
-      <c r="K11" s="550"/>
+      <c r="H11" s="555"/>
+      <c r="I11" s="556"/>
+      <c r="J11" s="556"/>
+      <c r="K11" s="557"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="597"/>
-      <c r="B12" s="598"/>
-      <c r="C12" s="598"/>
-      <c r="D12" s="599"/>
+      <c r="A12" s="604"/>
+      <c r="B12" s="605"/>
+      <c r="C12" s="605"/>
+      <c r="D12" s="606"/>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
       <c r="G12" s="26"/>
-      <c r="H12" s="613"/>
-      <c r="I12" s="614"/>
-      <c r="J12" s="614"/>
-      <c r="K12" s="615"/>
+      <c r="H12" s="620"/>
+      <c r="I12" s="621"/>
+      <c r="J12" s="621"/>
+      <c r="K12" s="622"/>
     </row>
     <row r="13" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="536" t="s">
+      <c r="A13" s="543" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="537"/>
-      <c r="C13" s="537"/>
-      <c r="D13" s="537"/>
-      <c r="E13" s="537"/>
-      <c r="F13" s="537"/>
-      <c r="G13" s="537"/>
-      <c r="H13" s="537"/>
-      <c r="I13" s="537"/>
-      <c r="J13" s="537"/>
-      <c r="K13" s="538"/>
+      <c r="B13" s="544"/>
+      <c r="C13" s="544"/>
+      <c r="D13" s="544"/>
+      <c r="E13" s="544"/>
+      <c r="F13" s="544"/>
+      <c r="G13" s="544"/>
+      <c r="H13" s="544"/>
+      <c r="I13" s="544"/>
+      <c r="J13" s="544"/>
+      <c r="K13" s="545"/>
     </row>
     <row r="14" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="616" t="s">
+      <c r="A14" s="623" t="s">
         <v>329</v>
       </c>
-      <c r="B14" s="617"/>
-      <c r="C14" s="617"/>
-      <c r="D14" s="617"/>
-      <c r="E14" s="617"/>
-      <c r="F14" s="617"/>
-      <c r="G14" s="617"/>
-      <c r="H14" s="617"/>
-      <c r="I14" s="617"/>
-      <c r="J14" s="617"/>
-      <c r="K14" s="618"/>
+      <c r="B14" s="624"/>
+      <c r="C14" s="624"/>
+      <c r="D14" s="624"/>
+      <c r="E14" s="624"/>
+      <c r="F14" s="624"/>
+      <c r="G14" s="624"/>
+      <c r="H14" s="624"/>
+      <c r="I14" s="624"/>
+      <c r="J14" s="624"/>
+      <c r="K14" s="625"/>
     </row>
     <row r="15" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="592" t="s">
+      <c r="A15" s="599" t="s">
         <v>330</v>
       </c>
-      <c r="B15" s="521" t="s">
+      <c r="B15" s="528" t="s">
         <v>331</v>
       </c>
-      <c r="C15" s="586"/>
-      <c r="D15" s="587"/>
-      <c r="E15" s="521" t="s">
+      <c r="C15" s="593"/>
+      <c r="D15" s="594"/>
+      <c r="E15" s="528" t="s">
         <v>332</v>
       </c>
-      <c r="F15" s="522"/>
-      <c r="G15" s="619" t="s">
+      <c r="F15" s="529"/>
+      <c r="G15" s="626" t="s">
         <v>327</v>
       </c>
-      <c r="H15" s="589" t="s">
+      <c r="H15" s="596" t="s">
         <v>333</v>
       </c>
-      <c r="I15" s="520" t="s">
+      <c r="I15" s="527" t="s">
         <v>334</v>
       </c>
-      <c r="J15" s="586"/>
-      <c r="K15" s="603"/>
+      <c r="J15" s="593"/>
+      <c r="K15" s="610"/>
     </row>
     <row r="16" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="592"/>
-      <c r="B16" s="586"/>
-      <c r="C16" s="586"/>
-      <c r="D16" s="587"/>
-      <c r="E16" s="500"/>
-      <c r="F16" s="501"/>
-      <c r="G16" s="619"/>
-      <c r="H16" s="589"/>
-      <c r="I16" s="602"/>
-      <c r="J16" s="586"/>
-      <c r="K16" s="603"/>
+      <c r="A16" s="599"/>
+      <c r="B16" s="593"/>
+      <c r="C16" s="593"/>
+      <c r="D16" s="594"/>
+      <c r="E16" s="507"/>
+      <c r="F16" s="508"/>
+      <c r="G16" s="626"/>
+      <c r="H16" s="596"/>
+      <c r="I16" s="609"/>
+      <c r="J16" s="593"/>
+      <c r="K16" s="610"/>
     </row>
     <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
-      <c r="B17" s="427"/>
-      <c r="C17" s="427"/>
-      <c r="D17" s="588"/>
+      <c r="B17" s="434"/>
+      <c r="C17" s="434"/>
+      <c r="D17" s="595"/>
       <c r="E17" s="18" t="s">
         <v>130</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="G17" s="620"/>
-      <c r="H17" s="590"/>
-      <c r="I17" s="604"/>
-      <c r="J17" s="427"/>
-      <c r="K17" s="428"/>
+      <c r="G17" s="627"/>
+      <c r="H17" s="597"/>
+      <c r="I17" s="611"/>
+      <c r="J17" s="434"/>
+      <c r="K17" s="435"/>
     </row>
     <row r="18" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="561"/>
-      <c r="B18" s="562"/>
-      <c r="C18" s="562"/>
-      <c r="D18" s="563"/>
+      <c r="A18" s="568"/>
+      <c r="B18" s="569"/>
+      <c r="C18" s="569"/>
+      <c r="D18" s="570"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="21"/>
       <c r="H18" s="20"/>
-      <c r="I18" s="580"/>
-      <c r="J18" s="581"/>
-      <c r="K18" s="582"/>
+      <c r="I18" s="587"/>
+      <c r="J18" s="588"/>
+      <c r="K18" s="589"/>
     </row>
     <row r="19" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="561"/>
-      <c r="B19" s="562"/>
-      <c r="C19" s="562"/>
-      <c r="D19" s="563"/>
+      <c r="A19" s="568"/>
+      <c r="B19" s="569"/>
+      <c r="C19" s="569"/>
+      <c r="D19" s="570"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="21"/>
       <c r="H19" s="20"/>
-      <c r="I19" s="558"/>
-      <c r="J19" s="559"/>
-      <c r="K19" s="560"/>
+      <c r="I19" s="565"/>
+      <c r="J19" s="566"/>
+      <c r="K19" s="567"/>
     </row>
     <row r="20" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="561"/>
-      <c r="B20" s="562"/>
-      <c r="C20" s="562"/>
-      <c r="D20" s="563"/>
+      <c r="A20" s="568"/>
+      <c r="B20" s="569"/>
+      <c r="C20" s="569"/>
+      <c r="D20" s="570"/>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
       <c r="G20" s="21"/>
       <c r="H20" s="20"/>
-      <c r="I20" s="558"/>
-      <c r="J20" s="559"/>
-      <c r="K20" s="560"/>
+      <c r="I20" s="565"/>
+      <c r="J20" s="566"/>
+      <c r="K20" s="567"/>
     </row>
     <row r="21" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="561"/>
-      <c r="B21" s="562"/>
-      <c r="C21" s="562"/>
-      <c r="D21" s="563"/>
+      <c r="A21" s="568"/>
+      <c r="B21" s="569"/>
+      <c r="C21" s="569"/>
+      <c r="D21" s="570"/>
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
       <c r="G21" s="21"/>
       <c r="H21" s="20"/>
-      <c r="I21" s="558"/>
-      <c r="J21" s="559"/>
-      <c r="K21" s="560"/>
+      <c r="I21" s="565"/>
+      <c r="J21" s="566"/>
+      <c r="K21" s="567"/>
     </row>
     <row r="22" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="561"/>
-      <c r="B22" s="562"/>
-      <c r="C22" s="562"/>
-      <c r="D22" s="563"/>
+      <c r="A22" s="568"/>
+      <c r="B22" s="569"/>
+      <c r="C22" s="569"/>
+      <c r="D22" s="570"/>
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
       <c r="G22" s="21"/>
       <c r="H22" s="20"/>
-      <c r="I22" s="558"/>
-      <c r="J22" s="559"/>
-      <c r="K22" s="560"/>
+      <c r="I22" s="565"/>
+      <c r="J22" s="566"/>
+      <c r="K22" s="567"/>
     </row>
     <row r="23" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="561"/>
-      <c r="B23" s="562"/>
-      <c r="C23" s="562"/>
-      <c r="D23" s="563"/>
+      <c r="A23" s="568"/>
+      <c r="B23" s="569"/>
+      <c r="C23" s="569"/>
+      <c r="D23" s="570"/>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
       <c r="G23" s="21"/>
       <c r="H23" s="20"/>
-      <c r="I23" s="558"/>
-      <c r="J23" s="559"/>
-      <c r="K23" s="560"/>
+      <c r="I23" s="565"/>
+      <c r="J23" s="566"/>
+      <c r="K23" s="567"/>
     </row>
     <row r="24" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="561"/>
-      <c r="B24" s="562"/>
-      <c r="C24" s="562"/>
-      <c r="D24" s="563"/>
+      <c r="A24" s="568"/>
+      <c r="B24" s="569"/>
+      <c r="C24" s="569"/>
+      <c r="D24" s="570"/>
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
       <c r="G24" s="21"/>
       <c r="H24" s="20"/>
-      <c r="I24" s="558"/>
-      <c r="J24" s="559"/>
-      <c r="K24" s="560"/>
+      <c r="I24" s="565"/>
+      <c r="J24" s="566"/>
+      <c r="K24" s="567"/>
     </row>
     <row r="25" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="561"/>
-      <c r="B25" s="562"/>
-      <c r="C25" s="562"/>
-      <c r="D25" s="563"/>
+      <c r="A25" s="568"/>
+      <c r="B25" s="569"/>
+      <c r="C25" s="569"/>
+      <c r="D25" s="570"/>
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
       <c r="G25" s="21"/>
       <c r="H25" s="20"/>
-      <c r="I25" s="558"/>
-      <c r="J25" s="559"/>
-      <c r="K25" s="560"/>
+      <c r="I25" s="565"/>
+      <c r="J25" s="566"/>
+      <c r="K25" s="567"/>
     </row>
     <row r="26" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="561"/>
-      <c r="B26" s="562"/>
-      <c r="C26" s="562"/>
-      <c r="D26" s="563"/>
+      <c r="A26" s="568"/>
+      <c r="B26" s="569"/>
+      <c r="C26" s="569"/>
+      <c r="D26" s="570"/>
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
       <c r="G26" s="21"/>
       <c r="H26" s="20"/>
-      <c r="I26" s="580"/>
-      <c r="J26" s="581"/>
-      <c r="K26" s="582"/>
+      <c r="I26" s="587"/>
+      <c r="J26" s="588"/>
+      <c r="K26" s="589"/>
     </row>
     <row r="27" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="561"/>
-      <c r="B27" s="562"/>
-      <c r="C27" s="562"/>
-      <c r="D27" s="563"/>
+      <c r="A27" s="568"/>
+      <c r="B27" s="569"/>
+      <c r="C27" s="569"/>
+      <c r="D27" s="570"/>
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
       <c r="G27" s="21"/>
       <c r="H27" s="20"/>
-      <c r="I27" s="580"/>
-      <c r="J27" s="581"/>
-      <c r="K27" s="582"/>
+      <c r="I27" s="587"/>
+      <c r="J27" s="588"/>
+      <c r="K27" s="589"/>
     </row>
     <row r="28" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="561"/>
-      <c r="B28" s="562"/>
-      <c r="C28" s="562"/>
-      <c r="D28" s="563"/>
+      <c r="A28" s="568"/>
+      <c r="B28" s="569"/>
+      <c r="C28" s="569"/>
+      <c r="D28" s="570"/>
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
       <c r="G28" s="21"/>
       <c r="H28" s="20"/>
-      <c r="I28" s="580"/>
-      <c r="J28" s="581"/>
-      <c r="K28" s="582"/>
+      <c r="I28" s="587"/>
+      <c r="J28" s="588"/>
+      <c r="K28" s="589"/>
     </row>
     <row r="29" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="561"/>
-      <c r="B29" s="562"/>
-      <c r="C29" s="562"/>
-      <c r="D29" s="563"/>
+      <c r="A29" s="568"/>
+      <c r="B29" s="569"/>
+      <c r="C29" s="569"/>
+      <c r="D29" s="570"/>
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
       <c r="G29" s="21"/>
       <c r="H29" s="20"/>
-      <c r="I29" s="558"/>
-      <c r="J29" s="559"/>
-      <c r="K29" s="560"/>
+      <c r="I29" s="565"/>
+      <c r="J29" s="566"/>
+      <c r="K29" s="567"/>
     </row>
     <row r="30" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="561"/>
-      <c r="B30" s="562"/>
-      <c r="C30" s="562"/>
-      <c r="D30" s="563"/>
+      <c r="A30" s="568"/>
+      <c r="B30" s="569"/>
+      <c r="C30" s="569"/>
+      <c r="D30" s="570"/>
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
       <c r="G30" s="21"/>
       <c r="H30" s="20"/>
-      <c r="I30" s="558"/>
-      <c r="J30" s="559"/>
-      <c r="K30" s="560"/>
+      <c r="I30" s="565"/>
+      <c r="J30" s="566"/>
+      <c r="K30" s="567"/>
     </row>
     <row r="31" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="561"/>
-      <c r="B31" s="562"/>
-      <c r="C31" s="562"/>
-      <c r="D31" s="563"/>
+      <c r="A31" s="568"/>
+      <c r="B31" s="569"/>
+      <c r="C31" s="569"/>
+      <c r="D31" s="570"/>
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
       <c r="G31" s="21"/>
       <c r="H31" s="20"/>
-      <c r="I31" s="558"/>
-      <c r="J31" s="559"/>
-      <c r="K31" s="560"/>
+      <c r="I31" s="565"/>
+      <c r="J31" s="566"/>
+      <c r="K31" s="567"/>
     </row>
     <row r="32" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="561"/>
-      <c r="B32" s="562"/>
-      <c r="C32" s="562"/>
-      <c r="D32" s="563"/>
+      <c r="A32" s="568"/>
+      <c r="B32" s="569"/>
+      <c r="C32" s="569"/>
+      <c r="D32" s="570"/>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
       <c r="G32" s="21"/>
       <c r="H32" s="20"/>
-      <c r="I32" s="558"/>
-      <c r="J32" s="559"/>
-      <c r="K32" s="560"/>
+      <c r="I32" s="565"/>
+      <c r="J32" s="566"/>
+      <c r="K32" s="567"/>
     </row>
     <row r="33" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="561"/>
-      <c r="B33" s="562"/>
-      <c r="C33" s="562"/>
-      <c r="D33" s="563"/>
+      <c r="A33" s="568"/>
+      <c r="B33" s="569"/>
+      <c r="C33" s="569"/>
+      <c r="D33" s="570"/>
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
       <c r="G33" s="21"/>
       <c r="H33" s="20"/>
-      <c r="I33" s="558"/>
-      <c r="J33" s="559"/>
-      <c r="K33" s="560"/>
+      <c r="I33" s="565"/>
+      <c r="J33" s="566"/>
+      <c r="K33" s="567"/>
     </row>
     <row r="34" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="561"/>
-      <c r="B34" s="562"/>
-      <c r="C34" s="562"/>
-      <c r="D34" s="563"/>
+      <c r="A34" s="568"/>
+      <c r="B34" s="569"/>
+      <c r="C34" s="569"/>
+      <c r="D34" s="570"/>
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
       <c r="G34" s="21"/>
       <c r="H34" s="20"/>
-      <c r="I34" s="558"/>
-      <c r="J34" s="559"/>
-      <c r="K34" s="560"/>
+      <c r="I34" s="565"/>
+      <c r="J34" s="566"/>
+      <c r="K34" s="567"/>
     </row>
     <row r="35" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="561"/>
-      <c r="B35" s="562"/>
-      <c r="C35" s="562"/>
-      <c r="D35" s="563"/>
+      <c r="A35" s="568"/>
+      <c r="B35" s="569"/>
+      <c r="C35" s="569"/>
+      <c r="D35" s="570"/>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
       <c r="G35" s="21"/>
       <c r="H35" s="20"/>
-      <c r="I35" s="580"/>
-      <c r="J35" s="581"/>
-      <c r="K35" s="582"/>
+      <c r="I35" s="587"/>
+      <c r="J35" s="588"/>
+      <c r="K35" s="589"/>
     </row>
     <row r="36" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="561"/>
-      <c r="B36" s="562"/>
-      <c r="C36" s="562"/>
-      <c r="D36" s="563"/>
+      <c r="A36" s="568"/>
+      <c r="B36" s="569"/>
+      <c r="C36" s="569"/>
+      <c r="D36" s="570"/>
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
       <c r="G36" s="21"/>
       <c r="H36" s="20"/>
-      <c r="I36" s="580"/>
-      <c r="J36" s="581"/>
-      <c r="K36" s="582"/>
+      <c r="I36" s="587"/>
+      <c r="J36" s="588"/>
+      <c r="K36" s="589"/>
     </row>
     <row r="37" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="561"/>
-      <c r="B37" s="562"/>
-      <c r="C37" s="562"/>
-      <c r="D37" s="563"/>
+      <c r="A37" s="568"/>
+      <c r="B37" s="569"/>
+      <c r="C37" s="569"/>
+      <c r="D37" s="570"/>
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
       <c r="G37" s="21"/>
       <c r="H37" s="20"/>
-      <c r="I37" s="580"/>
-      <c r="J37" s="581"/>
-      <c r="K37" s="582"/>
+      <c r="I37" s="587"/>
+      <c r="J37" s="588"/>
+      <c r="K37" s="589"/>
     </row>
     <row r="38" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="574"/>
-      <c r="B38" s="575"/>
-      <c r="C38" s="575"/>
-      <c r="D38" s="576"/>
+      <c r="A38" s="581"/>
+      <c r="B38" s="582"/>
+      <c r="C38" s="582"/>
+      <c r="D38" s="583"/>
       <c r="E38" s="19"/>
       <c r="F38" s="19"/>
       <c r="G38" s="22"/>
       <c r="H38" s="23"/>
-      <c r="I38" s="577"/>
-      <c r="J38" s="578"/>
-      <c r="K38" s="579"/>
+      <c r="I38" s="584"/>
+      <c r="J38" s="585"/>
+      <c r="K38" s="586"/>
     </row>
     <row r="39" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="286" t="s">
+      <c r="A39" s="287" t="s">
         <v>115</v>
       </c>
-      <c r="B39" s="287"/>
-      <c r="C39" s="287"/>
-      <c r="D39" s="287"/>
-      <c r="E39" s="287"/>
-      <c r="F39" s="287"/>
-      <c r="G39" s="287"/>
-      <c r="H39" s="287"/>
-      <c r="I39" s="287"/>
-      <c r="J39" s="287"/>
-      <c r="K39" s="288"/>
+      <c r="B39" s="288"/>
+      <c r="C39" s="288"/>
+      <c r="D39" s="288"/>
+      <c r="E39" s="288"/>
+      <c r="F39" s="288"/>
+      <c r="G39" s="288"/>
+      <c r="H39" s="288"/>
+      <c r="I39" s="288"/>
+      <c r="J39" s="288"/>
+      <c r="K39" s="289"/>
     </row>
     <row r="40" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="564" t="s">
+      <c r="A40" s="571" t="s">
         <v>335</v>
       </c>
-      <c r="B40" s="565"/>
-      <c r="C40" s="565"/>
-      <c r="D40" s="565"/>
-      <c r="E40" s="565"/>
-      <c r="F40" s="565"/>
-      <c r="G40" s="565"/>
-      <c r="H40" s="565"/>
-      <c r="I40" s="565"/>
-      <c r="J40" s="565"/>
-      <c r="K40" s="566"/>
+      <c r="B40" s="572"/>
+      <c r="C40" s="572"/>
+      <c r="D40" s="572"/>
+      <c r="E40" s="572"/>
+      <c r="F40" s="572"/>
+      <c r="G40" s="572"/>
+      <c r="H40" s="572"/>
+      <c r="I40" s="572"/>
+      <c r="J40" s="572"/>
+      <c r="K40" s="573"/>
     </row>
     <row r="41" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="126" t="s">
@@ -13002,143 +13015,143 @@
       <c r="C41" s="127" t="s">
         <v>338</v>
       </c>
-      <c r="D41" s="554" t="s">
+      <c r="D41" s="561" t="s">
         <v>339</v>
       </c>
-      <c r="E41" s="554"/>
-      <c r="F41" s="554"/>
-      <c r="G41" s="554"/>
-      <c r="H41" s="555"/>
+      <c r="E41" s="561"/>
+      <c r="F41" s="561"/>
+      <c r="G41" s="561"/>
+      <c r="H41" s="562"/>
       <c r="I41" s="127" t="s">
         <v>340</v>
       </c>
-      <c r="J41" s="554" t="s">
+      <c r="J41" s="561" t="s">
         <v>341</v>
       </c>
-      <c r="K41" s="361"/>
+      <c r="K41" s="368"/>
     </row>
     <row r="42" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="557"/>
-      <c r="B42" s="553"/>
-      <c r="C42" s="551"/>
-      <c r="D42" s="552"/>
-      <c r="E42" s="552"/>
-      <c r="F42" s="552"/>
-      <c r="G42" s="552"/>
-      <c r="H42" s="553"/>
-      <c r="I42" s="551"/>
-      <c r="J42" s="552"/>
-      <c r="K42" s="556"/>
+      <c r="A42" s="564"/>
+      <c r="B42" s="560"/>
+      <c r="C42" s="558"/>
+      <c r="D42" s="559"/>
+      <c r="E42" s="559"/>
+      <c r="F42" s="559"/>
+      <c r="G42" s="559"/>
+      <c r="H42" s="560"/>
+      <c r="I42" s="558"/>
+      <c r="J42" s="559"/>
+      <c r="K42" s="563"/>
     </row>
     <row r="43" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="557"/>
-      <c r="B43" s="553"/>
-      <c r="C43" s="551"/>
-      <c r="D43" s="552"/>
-      <c r="E43" s="552"/>
-      <c r="F43" s="552"/>
-      <c r="G43" s="552"/>
-      <c r="H43" s="553"/>
-      <c r="I43" s="551"/>
-      <c r="J43" s="552"/>
-      <c r="K43" s="556"/>
+      <c r="A43" s="564"/>
+      <c r="B43" s="560"/>
+      <c r="C43" s="558"/>
+      <c r="D43" s="559"/>
+      <c r="E43" s="559"/>
+      <c r="F43" s="559"/>
+      <c r="G43" s="559"/>
+      <c r="H43" s="560"/>
+      <c r="I43" s="558"/>
+      <c r="J43" s="559"/>
+      <c r="K43" s="563"/>
     </row>
     <row r="44" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="557"/>
-      <c r="B44" s="553"/>
-      <c r="C44" s="551"/>
-      <c r="D44" s="552"/>
-      <c r="E44" s="552"/>
-      <c r="F44" s="552"/>
-      <c r="G44" s="552"/>
-      <c r="H44" s="553"/>
-      <c r="I44" s="551"/>
-      <c r="J44" s="552"/>
-      <c r="K44" s="556"/>
+      <c r="A44" s="564"/>
+      <c r="B44" s="560"/>
+      <c r="C44" s="558"/>
+      <c r="D44" s="559"/>
+      <c r="E44" s="559"/>
+      <c r="F44" s="559"/>
+      <c r="G44" s="559"/>
+      <c r="H44" s="560"/>
+      <c r="I44" s="558"/>
+      <c r="J44" s="559"/>
+      <c r="K44" s="563"/>
     </row>
     <row r="45" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="557"/>
-      <c r="B45" s="553"/>
-      <c r="C45" s="551"/>
-      <c r="D45" s="552"/>
-      <c r="E45" s="552"/>
-      <c r="F45" s="552"/>
-      <c r="G45" s="552"/>
-      <c r="H45" s="553"/>
-      <c r="I45" s="551"/>
-      <c r="J45" s="552"/>
-      <c r="K45" s="556"/>
+      <c r="A45" s="564"/>
+      <c r="B45" s="560"/>
+      <c r="C45" s="558"/>
+      <c r="D45" s="559"/>
+      <c r="E45" s="559"/>
+      <c r="F45" s="559"/>
+      <c r="G45" s="559"/>
+      <c r="H45" s="560"/>
+      <c r="I45" s="558"/>
+      <c r="J45" s="559"/>
+      <c r="K45" s="563"/>
     </row>
     <row r="46" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="557"/>
-      <c r="B46" s="553"/>
-      <c r="C46" s="551"/>
-      <c r="D46" s="552"/>
-      <c r="E46" s="552"/>
-      <c r="F46" s="552"/>
-      <c r="G46" s="552"/>
-      <c r="H46" s="553"/>
-      <c r="I46" s="551"/>
-      <c r="J46" s="552"/>
-      <c r="K46" s="556"/>
+      <c r="A46" s="564"/>
+      <c r="B46" s="560"/>
+      <c r="C46" s="558"/>
+      <c r="D46" s="559"/>
+      <c r="E46" s="559"/>
+      <c r="F46" s="559"/>
+      <c r="G46" s="559"/>
+      <c r="H46" s="560"/>
+      <c r="I46" s="558"/>
+      <c r="J46" s="559"/>
+      <c r="K46" s="563"/>
     </row>
     <row r="47" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="557"/>
-      <c r="B47" s="553"/>
-      <c r="C47" s="551"/>
-      <c r="D47" s="552"/>
-      <c r="E47" s="552"/>
-      <c r="F47" s="552"/>
-      <c r="G47" s="552"/>
-      <c r="H47" s="553"/>
-      <c r="I47" s="551"/>
-      <c r="J47" s="552"/>
-      <c r="K47" s="556"/>
+      <c r="A47" s="564"/>
+      <c r="B47" s="560"/>
+      <c r="C47" s="558"/>
+      <c r="D47" s="559"/>
+      <c r="E47" s="559"/>
+      <c r="F47" s="559"/>
+      <c r="G47" s="559"/>
+      <c r="H47" s="560"/>
+      <c r="I47" s="558"/>
+      <c r="J47" s="559"/>
+      <c r="K47" s="563"/>
     </row>
     <row r="48" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="557"/>
-      <c r="B48" s="553"/>
-      <c r="C48" s="551"/>
-      <c r="D48" s="552"/>
-      <c r="E48" s="552"/>
-      <c r="F48" s="552"/>
-      <c r="G48" s="552"/>
-      <c r="H48" s="553"/>
-      <c r="I48" s="551"/>
-      <c r="J48" s="552"/>
-      <c r="K48" s="556"/>
+      <c r="A48" s="564"/>
+      <c r="B48" s="560"/>
+      <c r="C48" s="558"/>
+      <c r="D48" s="559"/>
+      <c r="E48" s="559"/>
+      <c r="F48" s="559"/>
+      <c r="G48" s="559"/>
+      <c r="H48" s="560"/>
+      <c r="I48" s="558"/>
+      <c r="J48" s="559"/>
+      <c r="K48" s="563"/>
     </row>
     <row r="49" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="286" t="s">
+      <c r="A49" s="287" t="s">
         <v>115</v>
       </c>
-      <c r="B49" s="287"/>
-      <c r="C49" s="287"/>
-      <c r="D49" s="287"/>
-      <c r="E49" s="287"/>
-      <c r="F49" s="287"/>
-      <c r="G49" s="287"/>
-      <c r="H49" s="287"/>
-      <c r="I49" s="287"/>
-      <c r="J49" s="287"/>
-      <c r="K49" s="538"/>
+      <c r="B49" s="288"/>
+      <c r="C49" s="288"/>
+      <c r="D49" s="288"/>
+      <c r="E49" s="288"/>
+      <c r="F49" s="288"/>
+      <c r="G49" s="288"/>
+      <c r="H49" s="288"/>
+      <c r="I49" s="288"/>
+      <c r="J49" s="288"/>
+      <c r="K49" s="545"/>
     </row>
     <row r="50" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="283" t="s">
+      <c r="A50" s="284" t="s">
         <v>144</v>
       </c>
-      <c r="B50" s="285"/>
-      <c r="C50" s="525"/>
-      <c r="D50" s="569"/>
-      <c r="E50" s="569"/>
-      <c r="F50" s="570"/>
-      <c r="G50" s="567" t="s">
+      <c r="B50" s="286"/>
+      <c r="C50" s="532"/>
+      <c r="D50" s="576"/>
+      <c r="E50" s="576"/>
+      <c r="F50" s="577"/>
+      <c r="G50" s="574" t="s">
         <v>145</v>
       </c>
-      <c r="H50" s="568"/>
-      <c r="I50" s="571"/>
-      <c r="J50" s="572"/>
-      <c r="K50" s="573"/>
+      <c r="H50" s="575"/>
+      <c r="I50" s="578"/>
+      <c r="J50" s="579"/>
+      <c r="K50" s="580"/>
       <c r="L50" s="209"/>
       <c r="M50" s="209"/>
     </row>
@@ -13254,8 +13267,8 @@
     <mergeCell ref="I19:K19"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.15748031496063" right="0" top="0.35433070866142002" bottom="0" header="0.31496062992126" footer="0"/>
-  <pageSetup paperSize="269" scale="70" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.15748031496062992" right="0" top="0.35433070866141736" bottom="0" header="0.31496062992125984" footer="0"/>
+  <pageSetup paperSize="256" scale="77" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13266,8 +13279,8 @@
   </sheetPr>
   <dimension ref="A1:O77"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74:J74"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -13288,37 +13301,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="757"/>
-      <c r="B1" s="758"/>
-      <c r="C1" s="758"/>
-      <c r="D1" s="758"/>
-      <c r="E1" s="758"/>
-      <c r="F1" s="758"/>
-      <c r="G1" s="758"/>
-      <c r="H1" s="758"/>
-      <c r="I1" s="758"/>
-      <c r="J1" s="758"/>
-      <c r="K1" s="758"/>
-      <c r="L1" s="758"/>
-      <c r="M1" s="758"/>
-      <c r="N1" s="759"/>
+      <c r="A1" s="764"/>
+      <c r="B1" s="765"/>
+      <c r="C1" s="765"/>
+      <c r="D1" s="765"/>
+      <c r="E1" s="765"/>
+      <c r="F1" s="765"/>
+      <c r="G1" s="765"/>
+      <c r="H1" s="765"/>
+      <c r="I1" s="765"/>
+      <c r="J1" s="765"/>
+      <c r="K1" s="765"/>
+      <c r="L1" s="765"/>
+      <c r="M1" s="765"/>
+      <c r="N1" s="766"/>
     </row>
     <row r="2" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="732" t="s">
+      <c r="A2" s="739" t="s">
         <v>343</v>
       </c>
-      <c r="B2" s="733"/>
-      <c r="C2" s="762" t="s">
+      <c r="B2" s="740"/>
+      <c r="C2" s="769" t="s">
         <v>344</v>
       </c>
-      <c r="D2" s="762"/>
-      <c r="E2" s="762"/>
-      <c r="F2" s="763"/>
+      <c r="D2" s="769"/>
+      <c r="E2" s="769"/>
+      <c r="F2" s="770"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
       <c r="I2" s="27"/>
-      <c r="J2" s="760"/>
-      <c r="K2" s="760"/>
+      <c r="J2" s="767"/>
+      <c r="K2" s="767"/>
       <c r="L2" s="28"/>
       <c r="M2" s="28"/>
       <c r="N2" s="29"/>
@@ -13326,17 +13339,17 @@
     <row r="3" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30"/>
       <c r="B3" s="31"/>
-      <c r="C3" s="649" t="s">
+      <c r="C3" s="656" t="s">
         <v>345</v>
       </c>
-      <c r="D3" s="649"/>
-      <c r="E3" s="649"/>
-      <c r="F3" s="650"/>
+      <c r="D3" s="656"/>
+      <c r="E3" s="656"/>
+      <c r="F3" s="657"/>
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
       <c r="I3" s="32"/>
-      <c r="J3" s="761"/>
-      <c r="K3" s="761"/>
+      <c r="J3" s="768"/>
+      <c r="K3" s="768"/>
       <c r="L3" s="33"/>
       <c r="M3" s="33"/>
       <c r="N3" s="34"/>
@@ -13344,39 +13357,39 @@
     <row r="4" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
       <c r="B4" s="31"/>
-      <c r="C4" s="649" t="s">
+      <c r="C4" s="656" t="s">
         <v>346</v>
       </c>
-      <c r="D4" s="649"/>
-      <c r="E4" s="649"/>
-      <c r="F4" s="650"/>
+      <c r="D4" s="656"/>
+      <c r="E4" s="656"/>
+      <c r="F4" s="657"/>
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
       <c r="B5" s="31"/>
-      <c r="C5" s="649"/>
-      <c r="D5" s="649"/>
-      <c r="E5" s="649"/>
-      <c r="F5" s="650"/>
-      <c r="G5" s="754"/>
-      <c r="H5" s="754"/>
-      <c r="I5" s="754"/>
-      <c r="J5" s="754"/>
-      <c r="K5" s="754"/>
-      <c r="L5" s="754"/>
-      <c r="M5" s="754"/>
+      <c r="C5" s="656"/>
+      <c r="D5" s="656"/>
+      <c r="E5" s="656"/>
+      <c r="F5" s="657"/>
+      <c r="G5" s="761"/>
+      <c r="H5" s="761"/>
+      <c r="I5" s="761"/>
+      <c r="J5" s="761"/>
+      <c r="K5" s="761"/>
+      <c r="L5" s="761"/>
+      <c r="M5" s="761"/>
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30"/>
       <c r="B6" s="31"/>
-      <c r="C6" s="649" t="s">
+      <c r="C6" s="656" t="s">
         <v>347</v>
       </c>
-      <c r="D6" s="649"/>
-      <c r="E6" s="649"/>
-      <c r="F6" s="650"/>
+      <c r="D6" s="656"/>
+      <c r="E6" s="656"/>
+      <c r="F6" s="657"/>
       <c r="H6" s="253"/>
       <c r="I6" s="263" t="s">
         <v>348</v>
@@ -13405,12 +13418,12 @@
     <row r="8" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
       <c r="B8" s="31"/>
-      <c r="C8" s="649" t="s">
+      <c r="C8" s="656" t="s">
         <v>350</v>
       </c>
-      <c r="D8" s="649"/>
-      <c r="E8" s="649"/>
-      <c r="F8" s="650"/>
+      <c r="D8" s="656"/>
+      <c r="E8" s="656"/>
+      <c r="F8" s="657"/>
       <c r="H8" s="253"/>
       <c r="I8" s="263" t="s">
         <v>348</v>
@@ -13433,16 +13446,16 @@
     <row r="10" spans="1:14" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
       <c r="B10" s="31"/>
-      <c r="C10" s="649"/>
-      <c r="D10" s="649"/>
-      <c r="E10" s="649"/>
-      <c r="F10" s="650"/>
-      <c r="G10" s="622" t="s">
+      <c r="C10" s="656"/>
+      <c r="D10" s="656"/>
+      <c r="E10" s="656"/>
+      <c r="F10" s="657"/>
+      <c r="G10" s="629" t="s">
         <v>351</v>
       </c>
-      <c r="H10" s="623"/>
-      <c r="I10" s="623"/>
-      <c r="J10" s="623"/>
+      <c r="H10" s="630"/>
+      <c r="I10" s="630"/>
+      <c r="J10" s="630"/>
       <c r="K10" s="252"/>
       <c r="L10" s="252"/>
       <c r="M10" s="252"/>
@@ -13451,33 +13464,33 @@
     <row r="11" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30"/>
       <c r="B11" s="31"/>
-      <c r="C11" s="649"/>
-      <c r="D11" s="649"/>
-      <c r="E11" s="649"/>
-      <c r="F11" s="650"/>
-      <c r="G11" s="624"/>
-      <c r="H11" s="625"/>
-      <c r="I11" s="625"/>
-      <c r="J11" s="625"/>
-      <c r="K11" s="625"/>
-      <c r="L11" s="625"/>
-      <c r="M11" s="625"/>
+      <c r="C11" s="656"/>
+      <c r="D11" s="656"/>
+      <c r="E11" s="656"/>
+      <c r="F11" s="657"/>
+      <c r="G11" s="631"/>
+      <c r="H11" s="632"/>
+      <c r="I11" s="632"/>
+      <c r="J11" s="632"/>
+      <c r="K11" s="632"/>
+      <c r="L11" s="632"/>
+      <c r="M11" s="632"/>
       <c r="N11" s="81"/>
     </row>
     <row r="12" spans="1:14" ht="4.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
       <c r="B12" s="37"/>
-      <c r="C12" s="755"/>
-      <c r="D12" s="755"/>
-      <c r="E12" s="755"/>
-      <c r="F12" s="756"/>
-      <c r="G12" s="626"/>
-      <c r="H12" s="627"/>
-      <c r="I12" s="627"/>
-      <c r="J12" s="627"/>
-      <c r="K12" s="627"/>
-      <c r="L12" s="627"/>
-      <c r="M12" s="627"/>
+      <c r="C12" s="762"/>
+      <c r="D12" s="762"/>
+      <c r="E12" s="762"/>
+      <c r="F12" s="763"/>
+      <c r="G12" s="633"/>
+      <c r="H12" s="634"/>
+      <c r="I12" s="634"/>
+      <c r="J12" s="634"/>
+      <c r="K12" s="634"/>
+      <c r="L12" s="634"/>
+      <c r="M12" s="634"/>
       <c r="N12" s="116"/>
     </row>
     <row r="13" spans="1:14" ht="4.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -13497,16 +13510,16 @@
       <c r="N13" s="81"/>
     </row>
     <row r="14" spans="1:14" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="671" t="s">
+      <c r="A14" s="678" t="s">
         <v>352</v>
       </c>
-      <c r="B14" s="672"/>
-      <c r="C14" s="767" t="s">
+      <c r="B14" s="679"/>
+      <c r="C14" s="774" t="s">
         <v>353</v>
       </c>
-      <c r="D14" s="767"/>
-      <c r="E14" s="586"/>
-      <c r="F14" s="587"/>
+      <c r="D14" s="774"/>
+      <c r="E14" s="593"/>
+      <c r="F14" s="594"/>
       <c r="G14" s="239"/>
       <c r="H14" s="255"/>
       <c r="I14" s="263" t="s">
@@ -13523,51 +13536,51 @@
     <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="52"/>
       <c r="B15" s="53"/>
-      <c r="C15" s="767"/>
-      <c r="D15" s="767"/>
-      <c r="E15" s="586"/>
-      <c r="F15" s="587"/>
-      <c r="G15" s="622" t="s">
+      <c r="C15" s="774"/>
+      <c r="D15" s="774"/>
+      <c r="E15" s="593"/>
+      <c r="F15" s="594"/>
+      <c r="G15" s="629" t="s">
         <v>351</v>
       </c>
-      <c r="H15" s="623"/>
-      <c r="I15" s="623"/>
-      <c r="J15" s="623"/>
-      <c r="K15" s="623"/>
-      <c r="L15" s="623"/>
-      <c r="M15" s="623"/>
+      <c r="H15" s="630"/>
+      <c r="I15" s="630"/>
+      <c r="J15" s="630"/>
+      <c r="K15" s="630"/>
+      <c r="L15" s="630"/>
+      <c r="M15" s="630"/>
       <c r="N15" s="115"/>
     </row>
     <row r="16" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="52"/>
       <c r="B16" s="53"/>
-      <c r="C16" s="767"/>
-      <c r="D16" s="767"/>
-      <c r="E16" s="586"/>
-      <c r="F16" s="587"/>
-      <c r="G16" s="628"/>
-      <c r="H16" s="629"/>
-      <c r="I16" s="629"/>
-      <c r="J16" s="629"/>
-      <c r="K16" s="629"/>
-      <c r="L16" s="629"/>
-      <c r="M16" s="629"/>
+      <c r="C16" s="774"/>
+      <c r="D16" s="774"/>
+      <c r="E16" s="593"/>
+      <c r="F16" s="594"/>
+      <c r="G16" s="635"/>
+      <c r="H16" s="636"/>
+      <c r="I16" s="636"/>
+      <c r="J16" s="636"/>
+      <c r="K16" s="636"/>
+      <c r="L16" s="636"/>
+      <c r="M16" s="636"/>
       <c r="N16" s="115"/>
     </row>
     <row r="17" spans="1:14" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="39"/>
       <c r="B17" s="40"/>
-      <c r="C17" s="586"/>
-      <c r="D17" s="586"/>
-      <c r="E17" s="586"/>
-      <c r="F17" s="587"/>
-      <c r="G17" s="630"/>
-      <c r="H17" s="631"/>
-      <c r="I17" s="631"/>
-      <c r="J17" s="631"/>
-      <c r="K17" s="631"/>
-      <c r="L17" s="631"/>
-      <c r="M17" s="631"/>
+      <c r="C17" s="593"/>
+      <c r="D17" s="593"/>
+      <c r="E17" s="593"/>
+      <c r="F17" s="594"/>
+      <c r="G17" s="637"/>
+      <c r="H17" s="638"/>
+      <c r="I17" s="638"/>
+      <c r="J17" s="638"/>
+      <c r="K17" s="638"/>
+      <c r="L17" s="638"/>
+      <c r="M17" s="638"/>
       <c r="N17" s="113"/>
     </row>
     <row r="18" spans="1:14" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -13589,12 +13602,12 @@
     <row r="19" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="41"/>
       <c r="B19" s="42"/>
-      <c r="C19" s="676" t="s">
+      <c r="C19" s="683" t="s">
         <v>354</v>
       </c>
-      <c r="D19" s="676"/>
-      <c r="E19" s="677"/>
-      <c r="F19" s="678"/>
+      <c r="D19" s="683"/>
+      <c r="E19" s="684"/>
+      <c r="F19" s="685"/>
       <c r="G19" s="46"/>
       <c r="H19" s="256"/>
       <c r="I19" s="250" t="s">
@@ -13611,82 +13624,82 @@
     <row r="20" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="41"/>
       <c r="B20" s="42"/>
-      <c r="C20" s="676"/>
-      <c r="D20" s="676"/>
-      <c r="E20" s="677"/>
-      <c r="F20" s="678"/>
-      <c r="G20" s="622" t="s">
+      <c r="C20" s="683"/>
+      <c r="D20" s="683"/>
+      <c r="E20" s="684"/>
+      <c r="F20" s="685"/>
+      <c r="G20" s="629" t="s">
         <v>355</v>
       </c>
-      <c r="H20" s="623"/>
-      <c r="I20" s="623"/>
-      <c r="J20" s="623"/>
-      <c r="K20" s="640"/>
-      <c r="L20" s="640"/>
-      <c r="M20" s="640"/>
+      <c r="H20" s="630"/>
+      <c r="I20" s="630"/>
+      <c r="J20" s="630"/>
+      <c r="K20" s="647"/>
+      <c r="L20" s="647"/>
+      <c r="M20" s="647"/>
       <c r="N20" s="47"/>
     </row>
     <row r="21" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="41"/>
       <c r="B21" s="42"/>
-      <c r="C21" s="676"/>
-      <c r="D21" s="676"/>
-      <c r="E21" s="677"/>
-      <c r="F21" s="678"/>
+      <c r="C21" s="683"/>
+      <c r="D21" s="683"/>
+      <c r="E21" s="684"/>
+      <c r="F21" s="685"/>
       <c r="G21" s="46"/>
       <c r="H21" s="46"/>
-      <c r="I21" s="651" t="s">
+      <c r="I21" s="658" t="s">
         <v>356</v>
       </c>
-      <c r="J21" s="651"/>
+      <c r="J21" s="658"/>
       <c r="K21" s="220"/>
-      <c r="L21" s="641"/>
-      <c r="M21" s="641"/>
+      <c r="L21" s="648"/>
+      <c r="M21" s="648"/>
       <c r="N21" s="47"/>
     </row>
     <row r="22" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="41"/>
       <c r="B22" s="42"/>
-      <c r="C22" s="676"/>
-      <c r="D22" s="676"/>
-      <c r="E22" s="677"/>
-      <c r="F22" s="678"/>
-      <c r="G22" s="652" t="s">
+      <c r="C22" s="683"/>
+      <c r="D22" s="683"/>
+      <c r="E22" s="684"/>
+      <c r="F22" s="685"/>
+      <c r="G22" s="659" t="s">
         <v>357</v>
       </c>
-      <c r="H22" s="653"/>
-      <c r="I22" s="653"/>
-      <c r="J22" s="653"/>
+      <c r="H22" s="660"/>
+      <c r="I22" s="660"/>
+      <c r="J22" s="660"/>
       <c r="K22" s="220"/>
-      <c r="L22" s="642"/>
-      <c r="M22" s="642"/>
+      <c r="L22" s="649"/>
+      <c r="M22" s="649"/>
       <c r="N22" s="47"/>
     </row>
     <row r="23" spans="1:14" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="48"/>
       <c r="B23" s="49"/>
-      <c r="C23" s="679"/>
-      <c r="D23" s="679"/>
-      <c r="E23" s="679"/>
-      <c r="F23" s="680"/>
+      <c r="C23" s="686"/>
+      <c r="D23" s="686"/>
+      <c r="E23" s="686"/>
+      <c r="F23" s="687"/>
       <c r="G23" s="112" t="s">
         <v>358</v>
       </c>
       <c r="H23" s="214"/>
       <c r="I23" s="214"/>
-      <c r="J23" s="683"/>
-      <c r="K23" s="683"/>
-      <c r="L23" s="683"/>
+      <c r="J23" s="690"/>
+      <c r="K23" s="690"/>
+      <c r="L23" s="690"/>
       <c r="M23" s="117"/>
       <c r="N23" s="113"/>
     </row>
     <row r="24" spans="1:14" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="41"/>
       <c r="B24" s="42"/>
-      <c r="C24" s="649"/>
-      <c r="D24" s="649"/>
-      <c r="E24" s="649"/>
-      <c r="F24" s="650"/>
+      <c r="C24" s="656"/>
+      <c r="D24" s="656"/>
+      <c r="E24" s="656"/>
+      <c r="F24" s="657"/>
       <c r="G24" s="234"/>
       <c r="H24" s="234"/>
       <c r="I24" s="234"/>
@@ -13697,16 +13710,16 @@
       <c r="N24" s="111"/>
     </row>
     <row r="25" spans="1:14" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="671" t="s">
+      <c r="A25" s="678" t="s">
         <v>359</v>
       </c>
-      <c r="B25" s="672"/>
-      <c r="C25" s="715" t="s">
+      <c r="B25" s="679"/>
+      <c r="C25" s="722" t="s">
         <v>360</v>
       </c>
-      <c r="D25" s="715"/>
-      <c r="E25" s="715"/>
-      <c r="F25" s="716"/>
+      <c r="D25" s="722"/>
+      <c r="E25" s="722"/>
+      <c r="F25" s="723"/>
       <c r="G25" s="32"/>
       <c r="H25" s="255"/>
       <c r="I25" s="262" t="s">
@@ -13723,51 +13736,51 @@
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="39"/>
       <c r="B26" s="40"/>
-      <c r="C26" s="715"/>
-      <c r="D26" s="715"/>
-      <c r="E26" s="715"/>
-      <c r="F26" s="716"/>
-      <c r="G26" s="622" t="s">
+      <c r="C26" s="722"/>
+      <c r="D26" s="722"/>
+      <c r="E26" s="722"/>
+      <c r="F26" s="723"/>
+      <c r="G26" s="629" t="s">
         <v>355</v>
       </c>
-      <c r="H26" s="623"/>
-      <c r="I26" s="623"/>
-      <c r="J26" s="623"/>
-      <c r="K26" s="623"/>
-      <c r="L26" s="623"/>
-      <c r="M26" s="623"/>
+      <c r="H26" s="630"/>
+      <c r="I26" s="630"/>
+      <c r="J26" s="630"/>
+      <c r="K26" s="630"/>
+      <c r="L26" s="630"/>
+      <c r="M26" s="630"/>
       <c r="N26" s="111"/>
     </row>
     <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="39"/>
       <c r="B27" s="40"/>
-      <c r="C27" s="715"/>
-      <c r="D27" s="715"/>
-      <c r="E27" s="715"/>
-      <c r="F27" s="716"/>
-      <c r="G27" s="636"/>
-      <c r="H27" s="637"/>
-      <c r="I27" s="637"/>
-      <c r="J27" s="637"/>
-      <c r="K27" s="637"/>
-      <c r="L27" s="637"/>
-      <c r="M27" s="637"/>
+      <c r="C27" s="722"/>
+      <c r="D27" s="722"/>
+      <c r="E27" s="722"/>
+      <c r="F27" s="723"/>
+      <c r="G27" s="643"/>
+      <c r="H27" s="644"/>
+      <c r="I27" s="644"/>
+      <c r="J27" s="644"/>
+      <c r="K27" s="644"/>
+      <c r="L27" s="644"/>
+      <c r="M27" s="644"/>
       <c r="N27" s="111"/>
     </row>
     <row r="28" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="50"/>
       <c r="B28" s="51"/>
-      <c r="C28" s="717"/>
-      <c r="D28" s="717"/>
-      <c r="E28" s="717"/>
-      <c r="F28" s="718"/>
-      <c r="G28" s="638"/>
-      <c r="H28" s="639"/>
-      <c r="I28" s="639"/>
-      <c r="J28" s="639"/>
-      <c r="K28" s="639"/>
-      <c r="L28" s="639"/>
-      <c r="M28" s="639"/>
+      <c r="C28" s="724"/>
+      <c r="D28" s="724"/>
+      <c r="E28" s="724"/>
+      <c r="F28" s="725"/>
+      <c r="G28" s="645"/>
+      <c r="H28" s="646"/>
+      <c r="I28" s="646"/>
+      <c r="J28" s="646"/>
+      <c r="K28" s="646"/>
+      <c r="L28" s="646"/>
+      <c r="M28" s="646"/>
       <c r="N28" s="113"/>
     </row>
     <row r="29" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -13787,16 +13800,16 @@
       <c r="N29" s="111"/>
     </row>
     <row r="30" spans="1:14" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="671" t="s">
+      <c r="A30" s="678" t="s">
         <v>361</v>
       </c>
-      <c r="B30" s="672"/>
-      <c r="C30" s="715" t="s">
+      <c r="B30" s="679"/>
+      <c r="C30" s="722" t="s">
         <v>362</v>
       </c>
-      <c r="D30" s="715"/>
-      <c r="E30" s="715"/>
-      <c r="F30" s="716"/>
+      <c r="D30" s="722"/>
+      <c r="E30" s="722"/>
+      <c r="F30" s="723"/>
       <c r="G30" s="32"/>
       <c r="H30" s="255"/>
       <c r="I30" s="265" t="s">
@@ -13813,10 +13826,10 @@
     <row r="31" spans="1:14" ht="4.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="260"/>
       <c r="B31" s="261"/>
-      <c r="C31" s="715"/>
-      <c r="D31" s="715"/>
-      <c r="E31" s="715"/>
-      <c r="F31" s="716"/>
+      <c r="C31" s="722"/>
+      <c r="D31" s="722"/>
+      <c r="E31" s="722"/>
+      <c r="F31" s="723"/>
       <c r="G31" s="32"/>
       <c r="H31" s="205"/>
       <c r="I31" s="68"/>
@@ -13829,51 +13842,51 @@
     <row r="32" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="39"/>
       <c r="B32" s="40"/>
-      <c r="C32" s="715"/>
-      <c r="D32" s="715"/>
-      <c r="E32" s="715"/>
-      <c r="F32" s="716"/>
-      <c r="G32" s="681" t="s">
+      <c r="C32" s="722"/>
+      <c r="D32" s="722"/>
+      <c r="E32" s="722"/>
+      <c r="F32" s="723"/>
+      <c r="G32" s="688" t="s">
         <v>351</v>
       </c>
-      <c r="H32" s="682"/>
-      <c r="I32" s="682"/>
-      <c r="J32" s="682"/>
-      <c r="K32" s="682"/>
-      <c r="L32" s="682"/>
-      <c r="M32" s="682"/>
+      <c r="H32" s="689"/>
+      <c r="I32" s="689"/>
+      <c r="J32" s="689"/>
+      <c r="K32" s="689"/>
+      <c r="L32" s="689"/>
+      <c r="M32" s="689"/>
       <c r="N32" s="2"/>
     </row>
     <row r="33" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="39"/>
       <c r="B33" s="40"/>
-      <c r="C33" s="715"/>
-      <c r="D33" s="715"/>
-      <c r="E33" s="715"/>
-      <c r="F33" s="716"/>
-      <c r="G33" s="632"/>
-      <c r="H33" s="633"/>
-      <c r="I33" s="633"/>
-      <c r="J33" s="633"/>
-      <c r="K33" s="633"/>
-      <c r="L33" s="633"/>
-      <c r="M33" s="633"/>
+      <c r="C33" s="722"/>
+      <c r="D33" s="722"/>
+      <c r="E33" s="722"/>
+      <c r="F33" s="723"/>
+      <c r="G33" s="639"/>
+      <c r="H33" s="640"/>
+      <c r="I33" s="640"/>
+      <c r="J33" s="640"/>
+      <c r="K33" s="640"/>
+      <c r="L33" s="640"/>
+      <c r="M33" s="640"/>
       <c r="N33" s="111"/>
     </row>
     <row r="34" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="50"/>
       <c r="B34" s="51"/>
-      <c r="C34" s="717"/>
-      <c r="D34" s="717"/>
-      <c r="E34" s="717"/>
-      <c r="F34" s="718"/>
-      <c r="G34" s="634"/>
-      <c r="H34" s="635"/>
-      <c r="I34" s="635"/>
-      <c r="J34" s="635"/>
-      <c r="K34" s="635"/>
-      <c r="L34" s="635"/>
-      <c r="M34" s="635"/>
+      <c r="C34" s="724"/>
+      <c r="D34" s="724"/>
+      <c r="E34" s="724"/>
+      <c r="F34" s="725"/>
+      <c r="G34" s="641"/>
+      <c r="H34" s="642"/>
+      <c r="I34" s="642"/>
+      <c r="J34" s="642"/>
+      <c r="K34" s="642"/>
+      <c r="L34" s="642"/>
+      <c r="M34" s="642"/>
       <c r="N34" s="113"/>
     </row>
     <row r="35" spans="1:14" ht="3.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -13889,16 +13902,16 @@
       <c r="N35" s="111"/>
     </row>
     <row r="36" spans="1:14" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="671" t="s">
+      <c r="A36" s="678" t="s">
         <v>363</v>
       </c>
-      <c r="B36" s="672"/>
-      <c r="C36" s="715" t="s">
+      <c r="B36" s="679"/>
+      <c r="C36" s="722" t="s">
         <v>364</v>
       </c>
-      <c r="D36" s="715"/>
-      <c r="E36" s="715"/>
-      <c r="F36" s="716"/>
+      <c r="D36" s="722"/>
+      <c r="E36" s="722"/>
+      <c r="F36" s="723"/>
       <c r="G36" s="32"/>
       <c r="H36" s="255"/>
       <c r="I36" s="265" t="s">
@@ -13915,19 +13928,19 @@
     <row r="37" spans="1:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="39"/>
       <c r="B37" s="40"/>
-      <c r="C37" s="715"/>
-      <c r="D37" s="715"/>
-      <c r="E37" s="715"/>
-      <c r="F37" s="716"/>
-      <c r="G37" s="643" t="s">
+      <c r="C37" s="722"/>
+      <c r="D37" s="722"/>
+      <c r="E37" s="722"/>
+      <c r="F37" s="723"/>
+      <c r="G37" s="650" t="s">
         <v>365</v>
       </c>
-      <c r="H37" s="644"/>
-      <c r="I37" s="644"/>
-      <c r="J37" s="644"/>
-      <c r="K37" s="644"/>
-      <c r="L37" s="684"/>
-      <c r="M37" s="684"/>
+      <c r="H37" s="651"/>
+      <c r="I37" s="651"/>
+      <c r="J37" s="651"/>
+      <c r="K37" s="651"/>
+      <c r="L37" s="691"/>
+      <c r="M37" s="691"/>
       <c r="N37" s="111"/>
     </row>
     <row r="38" spans="1:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13949,12 +13962,12 @@
     <row r="39" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="39"/>
       <c r="B39" s="40"/>
-      <c r="C39" s="715" t="s">
+      <c r="C39" s="722" t="s">
         <v>366</v>
       </c>
-      <c r="D39" s="715"/>
-      <c r="E39" s="715"/>
-      <c r="F39" s="716"/>
+      <c r="D39" s="722"/>
+      <c r="E39" s="722"/>
+      <c r="F39" s="723"/>
       <c r="G39" s="110"/>
       <c r="H39" s="257"/>
       <c r="I39" s="262" t="s">
@@ -13971,28 +13984,28 @@
     <row r="40" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="39"/>
       <c r="B40" s="40"/>
-      <c r="C40" s="715"/>
-      <c r="D40" s="715"/>
-      <c r="E40" s="715"/>
-      <c r="F40" s="716"/>
-      <c r="G40" s="643" t="s">
+      <c r="C40" s="722"/>
+      <c r="D40" s="722"/>
+      <c r="E40" s="722"/>
+      <c r="F40" s="723"/>
+      <c r="G40" s="650" t="s">
         <v>365</v>
       </c>
-      <c r="H40" s="644"/>
-      <c r="I40" s="644"/>
-      <c r="J40" s="644"/>
-      <c r="K40" s="644"/>
-      <c r="L40" s="684"/>
-      <c r="M40" s="684"/>
+      <c r="H40" s="651"/>
+      <c r="I40" s="651"/>
+      <c r="J40" s="651"/>
+      <c r="K40" s="651"/>
+      <c r="L40" s="691"/>
+      <c r="M40" s="691"/>
       <c r="N40" s="111"/>
     </row>
     <row r="41" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="50"/>
       <c r="B41" s="51"/>
-      <c r="C41" s="717"/>
-      <c r="D41" s="717"/>
-      <c r="E41" s="717"/>
-      <c r="F41" s="718"/>
+      <c r="C41" s="724"/>
+      <c r="D41" s="724"/>
+      <c r="E41" s="724"/>
+      <c r="F41" s="725"/>
       <c r="G41" s="114"/>
       <c r="H41" s="61"/>
       <c r="I41" s="61"/>
@@ -14018,16 +14031,16 @@
       <c r="N42" s="111"/>
     </row>
     <row r="43" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="671" t="s">
+      <c r="A43" s="678" t="s">
         <v>367</v>
       </c>
-      <c r="B43" s="672"/>
-      <c r="C43" s="767" t="s">
+      <c r="B43" s="679"/>
+      <c r="C43" s="774" t="s">
         <v>368</v>
       </c>
-      <c r="D43" s="767"/>
-      <c r="E43" s="767"/>
-      <c r="F43" s="768"/>
+      <c r="D43" s="774"/>
+      <c r="E43" s="774"/>
+      <c r="F43" s="775"/>
       <c r="G43" s="32"/>
       <c r="H43" s="255"/>
       <c r="I43" s="265" t="s">
@@ -14044,64 +14057,64 @@
     <row r="44" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="39"/>
       <c r="B44" s="40"/>
-      <c r="C44" s="767"/>
-      <c r="D44" s="767"/>
-      <c r="E44" s="767"/>
-      <c r="F44" s="768"/>
-      <c r="G44" s="622" t="s">
+      <c r="C44" s="774"/>
+      <c r="D44" s="774"/>
+      <c r="E44" s="774"/>
+      <c r="F44" s="775"/>
+      <c r="G44" s="629" t="s">
         <v>369</v>
       </c>
-      <c r="H44" s="623"/>
-      <c r="I44" s="623"/>
-      <c r="J44" s="623"/>
-      <c r="K44" s="623"/>
-      <c r="L44" s="623"/>
-      <c r="M44" s="623"/>
-      <c r="N44" s="675"/>
+      <c r="H44" s="630"/>
+      <c r="I44" s="630"/>
+      <c r="J44" s="630"/>
+      <c r="K44" s="630"/>
+      <c r="L44" s="630"/>
+      <c r="M44" s="630"/>
+      <c r="N44" s="682"/>
     </row>
     <row r="45" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="39"/>
       <c r="B45" s="40"/>
-      <c r="C45" s="767"/>
-      <c r="D45" s="767"/>
-      <c r="E45" s="767"/>
-      <c r="F45" s="768"/>
-      <c r="G45" s="636"/>
-      <c r="H45" s="637"/>
-      <c r="I45" s="637"/>
-      <c r="J45" s="637"/>
-      <c r="K45" s="637"/>
-      <c r="L45" s="637"/>
-      <c r="M45" s="637"/>
+      <c r="C45" s="774"/>
+      <c r="D45" s="774"/>
+      <c r="E45" s="774"/>
+      <c r="F45" s="775"/>
+      <c r="G45" s="643"/>
+      <c r="H45" s="644"/>
+      <c r="I45" s="644"/>
+      <c r="J45" s="644"/>
+      <c r="K45" s="644"/>
+      <c r="L45" s="644"/>
+      <c r="M45" s="644"/>
       <c r="N45" s="111"/>
     </row>
     <row r="46" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="50"/>
       <c r="B46" s="51"/>
-      <c r="C46" s="769"/>
-      <c r="D46" s="769"/>
-      <c r="E46" s="769"/>
-      <c r="F46" s="770"/>
-      <c r="G46" s="638"/>
-      <c r="H46" s="639"/>
-      <c r="I46" s="639"/>
-      <c r="J46" s="639"/>
-      <c r="K46" s="639"/>
-      <c r="L46" s="639"/>
-      <c r="M46" s="639"/>
+      <c r="C46" s="776"/>
+      <c r="D46" s="776"/>
+      <c r="E46" s="776"/>
+      <c r="F46" s="777"/>
+      <c r="G46" s="645"/>
+      <c r="H46" s="646"/>
+      <c r="I46" s="646"/>
+      <c r="J46" s="646"/>
+      <c r="K46" s="646"/>
+      <c r="L46" s="646"/>
+      <c r="M46" s="646"/>
       <c r="N46" s="113"/>
     </row>
     <row r="47" spans="1:14" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="765" t="s">
+      <c r="A47" s="772" t="s">
         <v>370</v>
       </c>
-      <c r="B47" s="766"/>
-      <c r="C47" s="715" t="s">
+      <c r="B47" s="773"/>
+      <c r="C47" s="722" t="s">
         <v>371</v>
       </c>
-      <c r="D47" s="715"/>
-      <c r="E47" s="715"/>
-      <c r="F47" s="716"/>
+      <c r="D47" s="722"/>
+      <c r="E47" s="722"/>
+      <c r="F47" s="723"/>
       <c r="G47" s="38"/>
       <c r="H47" s="38"/>
       <c r="I47" s="38"/>
@@ -14114,10 +14127,10 @@
     <row r="48" spans="1:14" ht="0.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="54"/>
       <c r="B48" s="55"/>
-      <c r="C48" s="715"/>
-      <c r="D48" s="715"/>
-      <c r="E48" s="715"/>
-      <c r="F48" s="716"/>
+      <c r="C48" s="722"/>
+      <c r="D48" s="722"/>
+      <c r="E48" s="722"/>
+      <c r="F48" s="723"/>
       <c r="G48" s="59"/>
       <c r="H48" s="59"/>
       <c r="I48" s="59"/>
@@ -14132,12 +14145,12 @@
         <v>372</v>
       </c>
       <c r="B49" s="55"/>
-      <c r="C49" s="715" t="s">
+      <c r="C49" s="722" t="s">
         <v>373</v>
       </c>
-      <c r="D49" s="715"/>
-      <c r="E49" s="715"/>
-      <c r="F49" s="716"/>
+      <c r="D49" s="722"/>
+      <c r="E49" s="722"/>
+      <c r="F49" s="723"/>
       <c r="H49" s="253"/>
       <c r="I49" s="263" t="s">
         <v>348</v>
@@ -14151,19 +14164,19 @@
     <row r="50" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="54"/>
       <c r="B50" s="55"/>
-      <c r="C50" s="715"/>
-      <c r="D50" s="715"/>
-      <c r="E50" s="715"/>
-      <c r="F50" s="716"/>
-      <c r="G50" s="645" t="s">
+      <c r="C50" s="722"/>
+      <c r="D50" s="722"/>
+      <c r="E50" s="722"/>
+      <c r="F50" s="723"/>
+      <c r="G50" s="652" t="s">
         <v>374</v>
       </c>
-      <c r="H50" s="646"/>
-      <c r="I50" s="646"/>
-      <c r="J50" s="646"/>
-      <c r="K50" s="621"/>
-      <c r="L50" s="621"/>
-      <c r="M50" s="621"/>
+      <c r="H50" s="653"/>
+      <c r="I50" s="653"/>
+      <c r="J50" s="653"/>
+      <c r="K50" s="628"/>
+      <c r="L50" s="628"/>
+      <c r="M50" s="628"/>
       <c r="N50" s="107"/>
       <c r="O50" s="61"/>
     </row>
@@ -14172,12 +14185,12 @@
         <v>375</v>
       </c>
       <c r="B51" s="55"/>
-      <c r="C51" s="716" t="s">
+      <c r="C51" s="723" t="s">
         <v>376</v>
       </c>
-      <c r="D51" s="716"/>
-      <c r="E51" s="716"/>
-      <c r="F51" s="716"/>
+      <c r="D51" s="723"/>
+      <c r="E51" s="723"/>
+      <c r="F51" s="723"/>
       <c r="H51" s="253"/>
       <c r="I51" s="263" t="s">
         <v>348</v>
@@ -14191,19 +14204,19 @@
     <row r="52" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="54"/>
       <c r="B52" s="55"/>
-      <c r="C52" s="716"/>
-      <c r="D52" s="716"/>
-      <c r="E52" s="716"/>
-      <c r="F52" s="716"/>
-      <c r="G52" s="647" t="s">
+      <c r="C52" s="723"/>
+      <c r="D52" s="723"/>
+      <c r="E52" s="723"/>
+      <c r="F52" s="723"/>
+      <c r="G52" s="654" t="s">
         <v>377</v>
       </c>
-      <c r="H52" s="648"/>
-      <c r="I52" s="648"/>
-      <c r="J52" s="648"/>
-      <c r="K52" s="648"/>
-      <c r="L52" s="621"/>
-      <c r="M52" s="621"/>
+      <c r="H52" s="655"/>
+      <c r="I52" s="655"/>
+      <c r="J52" s="655"/>
+      <c r="K52" s="655"/>
+      <c r="L52" s="628"/>
+      <c r="M52" s="628"/>
       <c r="N52" s="107"/>
       <c r="O52" s="61"/>
     </row>
@@ -14212,10 +14225,10 @@
         <v>378</v>
       </c>
       <c r="B53" s="55"/>
-      <c r="C53" s="715" t="s">
+      <c r="C53" s="722" t="s">
         <v>379</v>
       </c>
-      <c r="D53" s="715"/>
+      <c r="D53" s="722"/>
       <c r="E53" s="103"/>
       <c r="F53" s="104"/>
       <c r="H53" s="253"/>
@@ -14229,12 +14242,12 @@
       <c r="N53" s="2"/>
     </row>
     <row r="54" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="726"/>
-      <c r="B54" s="727"/>
-      <c r="C54" s="727"/>
-      <c r="D54" s="727"/>
-      <c r="E54" s="727"/>
-      <c r="F54" s="728"/>
+      <c r="A54" s="733"/>
+      <c r="B54" s="734"/>
+      <c r="C54" s="734"/>
+      <c r="D54" s="734"/>
+      <c r="E54" s="734"/>
+      <c r="F54" s="735"/>
       <c r="G54" s="172" t="s">
         <v>377</v>
       </c>
@@ -14242,18 +14255,18 @@
       <c r="I54" s="215"/>
       <c r="J54" s="108"/>
       <c r="K54" s="108"/>
-      <c r="L54" s="621"/>
-      <c r="M54" s="621"/>
+      <c r="L54" s="628"/>
+      <c r="M54" s="628"/>
       <c r="N54" s="109"/>
       <c r="O54" s="61"/>
     </row>
     <row r="55" spans="1:15" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="729"/>
-      <c r="B55" s="730"/>
-      <c r="C55" s="730"/>
-      <c r="D55" s="730"/>
-      <c r="E55" s="730"/>
-      <c r="F55" s="731"/>
+      <c r="A55" s="736"/>
+      <c r="B55" s="737"/>
+      <c r="C55" s="737"/>
+      <c r="D55" s="737"/>
+      <c r="E55" s="737"/>
+      <c r="F55" s="738"/>
       <c r="G55" s="105"/>
       <c r="H55" s="101"/>
       <c r="I55" s="101"/>
@@ -14265,10 +14278,10 @@
       <c r="O55" s="61"/>
     </row>
     <row r="56" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="673" t="s">
+      <c r="A56" s="680" t="s">
         <v>380</v>
       </c>
-      <c r="B56" s="674"/>
+      <c r="B56" s="681"/>
       <c r="C56" s="170" t="s">
         <v>381</v>
       </c>
@@ -14285,130 +14298,130 @@
       <c r="N56" s="230"/>
     </row>
     <row r="57" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="723" t="s">
+      <c r="A57" s="730" t="s">
         <v>382</v>
       </c>
-      <c r="B57" s="724"/>
-      <c r="C57" s="724"/>
-      <c r="D57" s="724"/>
-      <c r="E57" s="725"/>
+      <c r="B57" s="731"/>
+      <c r="C57" s="731"/>
+      <c r="D57" s="731"/>
+      <c r="E57" s="732"/>
       <c r="F57" s="225" t="s">
         <v>383</v>
       </c>
-      <c r="G57" s="360" t="s">
+      <c r="G57" s="367" t="s">
         <v>384</v>
       </c>
-      <c r="H57" s="554"/>
-      <c r="I57" s="554"/>
-      <c r="J57" s="361"/>
+      <c r="H57" s="561"/>
+      <c r="I57" s="561"/>
+      <c r="J57" s="368"/>
       <c r="K57" s="231"/>
-      <c r="L57" s="748" t="s">
+      <c r="L57" s="755" t="s">
         <v>385</v>
       </c>
-      <c r="M57" s="749"/>
+      <c r="M57" s="756"/>
       <c r="N57" s="233"/>
     </row>
     <row r="58" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="741"/>
-      <c r="B58" s="742"/>
-      <c r="C58" s="744"/>
-      <c r="D58" s="744"/>
-      <c r="E58" s="745"/>
+      <c r="A58" s="748"/>
+      <c r="B58" s="749"/>
+      <c r="C58" s="751"/>
+      <c r="D58" s="751"/>
+      <c r="E58" s="752"/>
       <c r="F58" s="62"/>
-      <c r="G58" s="734"/>
-      <c r="H58" s="735"/>
-      <c r="I58" s="735"/>
-      <c r="J58" s="736"/>
+      <c r="G58" s="741"/>
+      <c r="H58" s="742"/>
+      <c r="I58" s="742"/>
+      <c r="J58" s="743"/>
       <c r="K58" s="231"/>
-      <c r="L58" s="750"/>
-      <c r="M58" s="751"/>
+      <c r="L58" s="757"/>
+      <c r="M58" s="758"/>
       <c r="N58" s="233"/>
     </row>
     <row r="59" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="741"/>
-      <c r="B59" s="742"/>
-      <c r="C59" s="742"/>
-      <c r="D59" s="742"/>
-      <c r="E59" s="743"/>
+      <c r="A59" s="748"/>
+      <c r="B59" s="749"/>
+      <c r="C59" s="749"/>
+      <c r="D59" s="749"/>
+      <c r="E59" s="750"/>
       <c r="F59" s="62"/>
-      <c r="G59" s="734"/>
-      <c r="H59" s="735"/>
-      <c r="I59" s="735"/>
-      <c r="J59" s="736"/>
+      <c r="G59" s="741"/>
+      <c r="H59" s="742"/>
+      <c r="I59" s="742"/>
+      <c r="J59" s="743"/>
       <c r="K59" s="231"/>
-      <c r="L59" s="750"/>
-      <c r="M59" s="751"/>
+      <c r="L59" s="757"/>
+      <c r="M59" s="758"/>
       <c r="N59" s="233"/>
     </row>
     <row r="60" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="737"/>
-      <c r="B60" s="738"/>
-      <c r="C60" s="739"/>
-      <c r="D60" s="739"/>
-      <c r="E60" s="740"/>
+      <c r="A60" s="744"/>
+      <c r="B60" s="745"/>
+      <c r="C60" s="746"/>
+      <c r="D60" s="746"/>
+      <c r="E60" s="747"/>
       <c r="F60" s="177"/>
-      <c r="G60" s="720"/>
-      <c r="H60" s="721"/>
-      <c r="I60" s="721"/>
-      <c r="J60" s="722"/>
+      <c r="G60" s="727"/>
+      <c r="H60" s="728"/>
+      <c r="I60" s="728"/>
+      <c r="J60" s="729"/>
       <c r="K60" s="231"/>
-      <c r="L60" s="750"/>
-      <c r="M60" s="751"/>
+      <c r="L60" s="757"/>
+      <c r="M60" s="758"/>
       <c r="N60" s="233"/>
     </row>
     <row r="61" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="732" t="s">
+      <c r="A61" s="739" t="s">
         <v>386</v>
       </c>
-      <c r="B61" s="733"/>
-      <c r="C61" s="746" t="s">
+      <c r="B61" s="740"/>
+      <c r="C61" s="753" t="s">
         <v>387</v>
       </c>
-      <c r="D61" s="746"/>
-      <c r="E61" s="746"/>
-      <c r="F61" s="746"/>
-      <c r="G61" s="746"/>
-      <c r="H61" s="746"/>
-      <c r="I61" s="746"/>
+      <c r="D61" s="753"/>
+      <c r="E61" s="753"/>
+      <c r="F61" s="753"/>
+      <c r="G61" s="753"/>
+      <c r="H61" s="753"/>
+      <c r="I61" s="753"/>
       <c r="J61" s="216"/>
       <c r="K61" s="232"/>
-      <c r="L61" s="752"/>
-      <c r="M61" s="753"/>
+      <c r="L61" s="759"/>
+      <c r="M61" s="760"/>
       <c r="N61" s="233"/>
     </row>
     <row r="62" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="63"/>
       <c r="B62" s="64"/>
-      <c r="C62" s="747"/>
-      <c r="D62" s="747"/>
-      <c r="E62" s="747"/>
-      <c r="F62" s="747"/>
-      <c r="G62" s="747"/>
-      <c r="H62" s="747"/>
-      <c r="I62" s="747"/>
+      <c r="C62" s="754"/>
+      <c r="D62" s="754"/>
+      <c r="E62" s="754"/>
+      <c r="F62" s="754"/>
+      <c r="G62" s="754"/>
+      <c r="H62" s="754"/>
+      <c r="I62" s="754"/>
       <c r="J62" s="217"/>
       <c r="K62" s="176"/>
-      <c r="L62" s="719" t="s">
+      <c r="L62" s="726" t="s">
         <v>388</v>
       </c>
-      <c r="M62" s="719"/>
+      <c r="M62" s="726"/>
       <c r="N62" s="161"/>
     </row>
     <row r="63" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="63"/>
       <c r="B63" s="64"/>
-      <c r="C63" s="747"/>
-      <c r="D63" s="747"/>
-      <c r="E63" s="747"/>
-      <c r="F63" s="747"/>
-      <c r="G63" s="747"/>
-      <c r="H63" s="747"/>
-      <c r="I63" s="747"/>
+      <c r="C63" s="754"/>
+      <c r="D63" s="754"/>
+      <c r="E63" s="754"/>
+      <c r="F63" s="754"/>
+      <c r="G63" s="754"/>
+      <c r="H63" s="754"/>
+      <c r="I63" s="754"/>
       <c r="J63" s="217"/>
-      <c r="K63" s="719"/>
-      <c r="L63" s="719"/>
-      <c r="M63" s="719"/>
-      <c r="N63" s="764"/>
+      <c r="K63" s="726"/>
+      <c r="L63" s="726"/>
+      <c r="M63" s="726"/>
+      <c r="N63" s="771"/>
     </row>
     <row r="64" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="159"/>
@@ -14421,8 +14434,8 @@
       <c r="H64" s="218"/>
       <c r="I64" s="218"/>
       <c r="J64" s="219"/>
-      <c r="L64" s="705"/>
-      <c r="M64" s="706"/>
+      <c r="L64" s="712"/>
+      <c r="M64" s="713"/>
       <c r="N64" s="2"/>
     </row>
     <row r="65" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14435,108 +14448,108 @@
       <c r="H65" s="33"/>
       <c r="I65" s="33"/>
       <c r="J65" s="33"/>
-      <c r="L65" s="707"/>
-      <c r="M65" s="708"/>
+      <c r="L65" s="714"/>
+      <c r="M65" s="715"/>
       <c r="N65" s="2"/>
     </row>
     <row r="66" spans="1:14" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="65"/>
-      <c r="B66" s="663" t="s">
+      <c r="B66" s="670" t="s">
         <v>389</v>
       </c>
-      <c r="C66" s="664"/>
-      <c r="D66" s="665"/>
-      <c r="F66" s="654"/>
-      <c r="G66" s="655"/>
-      <c r="H66" s="655"/>
-      <c r="I66" s="655"/>
-      <c r="J66" s="656"/>
-      <c r="L66" s="707"/>
-      <c r="M66" s="708"/>
+      <c r="C66" s="671"/>
+      <c r="D66" s="672"/>
+      <c r="F66" s="661"/>
+      <c r="G66" s="662"/>
+      <c r="H66" s="662"/>
+      <c r="I66" s="662"/>
+      <c r="J66" s="663"/>
+      <c r="L66" s="714"/>
+      <c r="M66" s="715"/>
       <c r="N66" s="66"/>
     </row>
     <row r="67" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="65"/>
-      <c r="B67" s="711" t="s">
+      <c r="B67" s="718" t="s">
         <v>390</v>
       </c>
-      <c r="C67" s="712"/>
+      <c r="C67" s="719"/>
       <c r="D67" s="118"/>
-      <c r="F67" s="657"/>
-      <c r="G67" s="658"/>
-      <c r="H67" s="658"/>
-      <c r="I67" s="658"/>
-      <c r="J67" s="659"/>
-      <c r="L67" s="707"/>
-      <c r="M67" s="708"/>
+      <c r="F67" s="664"/>
+      <c r="G67" s="665"/>
+      <c r="H67" s="665"/>
+      <c r="I67" s="665"/>
+      <c r="J67" s="666"/>
+      <c r="L67" s="714"/>
+      <c r="M67" s="715"/>
       <c r="N67" s="66"/>
     </row>
     <row r="68" spans="1:14" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="65"/>
-      <c r="B68" s="700" t="s">
+      <c r="B68" s="707" t="s">
         <v>391</v>
       </c>
-      <c r="C68" s="701"/>
-      <c r="D68" s="666"/>
-      <c r="F68" s="660"/>
-      <c r="G68" s="661"/>
-      <c r="H68" s="661"/>
-      <c r="I68" s="661"/>
-      <c r="J68" s="662"/>
-      <c r="L68" s="707"/>
-      <c r="M68" s="708"/>
+      <c r="C68" s="708"/>
+      <c r="D68" s="673"/>
+      <c r="F68" s="667"/>
+      <c r="G68" s="668"/>
+      <c r="H68" s="668"/>
+      <c r="I68" s="668"/>
+      <c r="J68" s="669"/>
+      <c r="L68" s="714"/>
+      <c r="M68" s="715"/>
       <c r="N68" s="66"/>
     </row>
     <row r="69" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="65"/>
-      <c r="B69" s="713"/>
-      <c r="C69" s="714"/>
-      <c r="D69" s="667"/>
-      <c r="F69" s="668" t="s">
+      <c r="B69" s="720"/>
+      <c r="C69" s="721"/>
+      <c r="D69" s="674"/>
+      <c r="F69" s="675" t="s">
         <v>392</v>
       </c>
-      <c r="G69" s="669"/>
-      <c r="H69" s="669"/>
-      <c r="I69" s="669"/>
-      <c r="J69" s="670"/>
-      <c r="L69" s="707"/>
-      <c r="M69" s="708"/>
+      <c r="G69" s="676"/>
+      <c r="H69" s="676"/>
+      <c r="I69" s="676"/>
+      <c r="J69" s="677"/>
+      <c r="L69" s="714"/>
+      <c r="M69" s="715"/>
       <c r="N69" s="66"/>
     </row>
     <row r="70" spans="1:14" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="65"/>
-      <c r="B70" s="700" t="s">
+      <c r="B70" s="707" t="s">
         <v>393</v>
       </c>
-      <c r="C70" s="701"/>
-      <c r="D70" s="666"/>
+      <c r="C70" s="708"/>
+      <c r="D70" s="673"/>
       <c r="F70" s="67"/>
       <c r="G70" s="162"/>
       <c r="H70" s="162"/>
       <c r="I70" s="162"/>
       <c r="J70" s="163"/>
       <c r="K70" s="68"/>
-      <c r="L70" s="709"/>
-      <c r="M70" s="710"/>
+      <c r="L70" s="716"/>
+      <c r="M70" s="717"/>
       <c r="N70" s="66"/>
     </row>
     <row r="71" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="65"/>
-      <c r="B71" s="702"/>
-      <c r="C71" s="703"/>
-      <c r="D71" s="704"/>
-      <c r="F71" s="697" t="s">
+      <c r="B71" s="709"/>
+      <c r="C71" s="710"/>
+      <c r="D71" s="711"/>
+      <c r="F71" s="704" t="s">
         <v>394</v>
       </c>
-      <c r="G71" s="698"/>
-      <c r="H71" s="698"/>
-      <c r="I71" s="698"/>
-      <c r="J71" s="699"/>
+      <c r="G71" s="705"/>
+      <c r="H71" s="705"/>
+      <c r="I71" s="705"/>
+      <c r="J71" s="706"/>
       <c r="K71" s="68"/>
-      <c r="L71" s="695" t="s">
+      <c r="L71" s="702" t="s">
         <v>395</v>
       </c>
-      <c r="M71" s="696"/>
+      <c r="M71" s="703"/>
       <c r="N71" s="66"/>
     </row>
     <row r="72" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14556,34 +14569,34 @@
       <c r="N72" s="74"/>
     </row>
     <row r="73" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="692" t="s">
+      <c r="A73" s="699" t="s">
         <v>396</v>
       </c>
-      <c r="B73" s="693"/>
-      <c r="C73" s="693"/>
-      <c r="D73" s="693"/>
-      <c r="E73" s="693"/>
-      <c r="F73" s="693"/>
-      <c r="G73" s="693"/>
-      <c r="H73" s="693"/>
-      <c r="I73" s="693"/>
-      <c r="J73" s="693"/>
-      <c r="K73" s="693"/>
-      <c r="L73" s="693"/>
-      <c r="M73" s="693"/>
-      <c r="N73" s="694"/>
+      <c r="B73" s="700"/>
+      <c r="C73" s="700"/>
+      <c r="D73" s="700"/>
+      <c r="E73" s="700"/>
+      <c r="F73" s="700"/>
+      <c r="G73" s="700"/>
+      <c r="H73" s="700"/>
+      <c r="I73" s="700"/>
+      <c r="J73" s="700"/>
+      <c r="K73" s="700"/>
+      <c r="L73" s="700"/>
+      <c r="M73" s="700"/>
+      <c r="N73" s="701"/>
     </row>
     <row r="74" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="65"/>
       <c r="B74" s="68"/>
       <c r="C74" s="75"/>
       <c r="D74" s="75"/>
-      <c r="E74" s="689"/>
-      <c r="F74" s="690"/>
-      <c r="G74" s="690"/>
-      <c r="H74" s="690"/>
-      <c r="I74" s="690"/>
-      <c r="J74" s="691"/>
+      <c r="E74" s="696"/>
+      <c r="F74" s="697"/>
+      <c r="G74" s="697"/>
+      <c r="H74" s="697"/>
+      <c r="I74" s="697"/>
+      <c r="J74" s="698"/>
       <c r="K74" s="119"/>
       <c r="L74" s="119"/>
       <c r="N74" s="66"/>
@@ -14593,14 +14606,14 @@
       <c r="B75" s="68"/>
       <c r="C75" s="205"/>
       <c r="D75" s="205"/>
-      <c r="E75" s="686" t="s">
+      <c r="E75" s="693" t="s">
         <v>397</v>
       </c>
-      <c r="F75" s="687"/>
-      <c r="G75" s="687"/>
-      <c r="H75" s="687"/>
-      <c r="I75" s="687"/>
-      <c r="J75" s="688"/>
+      <c r="F75" s="694"/>
+      <c r="G75" s="694"/>
+      <c r="H75" s="694"/>
+      <c r="I75" s="694"/>
+      <c r="J75" s="695"/>
       <c r="K75" s="121"/>
       <c r="L75" s="120"/>
       <c r="M75" s="76"/>
@@ -14623,22 +14636,22 @@
       <c r="N76" s="79"/>
     </row>
     <row r="77" spans="1:14" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="685" t="s">
+      <c r="A77" s="692" t="s">
         <v>398</v>
       </c>
-      <c r="B77" s="685"/>
-      <c r="C77" s="685"/>
-      <c r="D77" s="685"/>
-      <c r="E77" s="685"/>
-      <c r="F77" s="685"/>
-      <c r="G77" s="685"/>
-      <c r="H77" s="685"/>
-      <c r="I77" s="685"/>
-      <c r="J77" s="685"/>
-      <c r="K77" s="685"/>
-      <c r="L77" s="685"/>
-      <c r="M77" s="685"/>
-      <c r="N77" s="685"/>
+      <c r="B77" s="692"/>
+      <c r="C77" s="692"/>
+      <c r="D77" s="692"/>
+      <c r="E77" s="692"/>
+      <c r="F77" s="692"/>
+      <c r="G77" s="692"/>
+      <c r="H77" s="692"/>
+      <c r="I77" s="692"/>
+      <c r="J77" s="692"/>
+      <c r="K77" s="692"/>
+      <c r="L77" s="692"/>
+      <c r="M77" s="692"/>
+      <c r="N77" s="692"/>
     </row>
   </sheetData>
   <mergeCells count="88">
@@ -14733,7 +14746,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047" right="0" top="0.35433070866142002" bottom="0" header="0.15748031496063" footer="0"/>
-  <pageSetup paperSize="269" scale="86" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="256" scale="88" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">

--- a/templates/PDS.xlsx
+++ b/templates/PDS.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CHRMIS\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8467E2-4204-4FB1-A496-87C2951A5EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2A4F13-8B21-41B2-9AEE-6FB129F06BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C1" sheetId="1" r:id="rId1"/>
@@ -3468,47 +3468,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="49" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="49" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -3517,6 +3476,26 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="49" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="49" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -3529,114 +3508,200 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="32" fillId="5" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="48" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="45" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="31" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3644,196 +3709,73 @@
     <xf numFmtId="49" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="2" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="2" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3852,18 +3794,6 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3872,12 +3802,6 @@
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3894,20 +3818,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3943,228 +3853,433 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="32" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="2" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="2" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="48" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="45" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="32" fillId="5" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="32" fillId="3" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4181,16 +4296,7 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4214,10 +4320,6 @@
     <xf numFmtId="49" fontId="11" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -4226,169 +4328,26 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4402,57 +4361,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="6" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="6" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4463,6 +4376,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="66" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4470,6 +4386,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="41" fillId="2" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4479,9 +4407,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4503,6 +4428,18 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -4535,439 +4472,95 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="6" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="6" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="73" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4984,9 +4577,24 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -5004,6 +4612,398 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="73" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6143,8 +6143,8 @@
   </sheetPr>
   <dimension ref="A1:S264"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31:N31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6169,20 +6169,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="356"/>
-      <c r="B1" s="357"/>
-      <c r="C1" s="357"/>
-      <c r="D1" s="357"/>
-      <c r="E1" s="357"/>
-      <c r="F1" s="357"/>
-      <c r="G1" s="357"/>
-      <c r="H1" s="357"/>
-      <c r="I1" s="357"/>
-      <c r="J1" s="357"/>
-      <c r="K1" s="357"/>
-      <c r="L1" s="357"/>
-      <c r="M1" s="357"/>
-      <c r="N1" s="358"/>
+      <c r="A1" s="407"/>
+      <c r="B1" s="408"/>
+      <c r="C1" s="408"/>
+      <c r="D1" s="408"/>
+      <c r="E1" s="408"/>
+      <c r="F1" s="408"/>
+      <c r="G1" s="408"/>
+      <c r="H1" s="408"/>
+      <c r="I1" s="408"/>
+      <c r="J1" s="408"/>
+      <c r="K1" s="408"/>
+      <c r="L1" s="408"/>
+      <c r="M1" s="408"/>
+      <c r="N1" s="409"/>
     </row>
     <row r="2" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="143"/>
@@ -6212,58 +6212,58 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="359" t="s">
+      <c r="A3" s="410" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="360"/>
-      <c r="C3" s="360"/>
-      <c r="D3" s="360"/>
-      <c r="E3" s="360"/>
-      <c r="F3" s="360"/>
-      <c r="G3" s="360"/>
-      <c r="H3" s="360"/>
-      <c r="I3" s="360"/>
-      <c r="J3" s="360"/>
-      <c r="K3" s="360"/>
-      <c r="L3" s="360"/>
-      <c r="M3" s="360"/>
-      <c r="N3" s="361"/>
+      <c r="B3" s="411"/>
+      <c r="C3" s="411"/>
+      <c r="D3" s="411"/>
+      <c r="E3" s="411"/>
+      <c r="F3" s="411"/>
+      <c r="G3" s="411"/>
+      <c r="H3" s="411"/>
+      <c r="I3" s="411"/>
+      <c r="J3" s="411"/>
+      <c r="K3" s="411"/>
+      <c r="L3" s="411"/>
+      <c r="M3" s="411"/>
+      <c r="N3" s="412"/>
     </row>
     <row r="4" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="398" t="s">
+      <c r="A4" s="378" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="399"/>
-      <c r="C4" s="399"/>
-      <c r="D4" s="399"/>
-      <c r="E4" s="399"/>
-      <c r="F4" s="399"/>
-      <c r="G4" s="399"/>
-      <c r="H4" s="399"/>
-      <c r="I4" s="399"/>
-      <c r="J4" s="399"/>
-      <c r="K4" s="399"/>
-      <c r="L4" s="399"/>
-      <c r="M4" s="399"/>
-      <c r="N4" s="400"/>
+      <c r="B4" s="379"/>
+      <c r="C4" s="379"/>
+      <c r="D4" s="379"/>
+      <c r="E4" s="379"/>
+      <c r="F4" s="379"/>
+      <c r="G4" s="379"/>
+      <c r="H4" s="379"/>
+      <c r="I4" s="379"/>
+      <c r="J4" s="379"/>
+      <c r="K4" s="379"/>
+      <c r="L4" s="379"/>
+      <c r="M4" s="379"/>
+      <c r="N4" s="380"/>
     </row>
     <row r="5" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="405" t="s">
+      <c r="A5" s="381" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="406"/>
-      <c r="C5" s="406"/>
-      <c r="D5" s="406"/>
-      <c r="E5" s="406"/>
-      <c r="F5" s="406"/>
-      <c r="G5" s="406"/>
-      <c r="H5" s="406"/>
-      <c r="I5" s="406"/>
-      <c r="J5" s="406"/>
-      <c r="K5" s="406"/>
-      <c r="L5" s="406"/>
-      <c r="M5" s="406"/>
-      <c r="N5" s="407"/>
+      <c r="B5" s="382"/>
+      <c r="C5" s="382"/>
+      <c r="D5" s="382"/>
+      <c r="E5" s="382"/>
+      <c r="F5" s="382"/>
+      <c r="G5" s="382"/>
+      <c r="H5" s="382"/>
+      <c r="I5" s="382"/>
+      <c r="J5" s="382"/>
+      <c r="K5" s="382"/>
+      <c r="L5" s="382"/>
+      <c r="M5" s="382"/>
+      <c r="N5" s="383"/>
     </row>
     <row r="6" spans="1:18" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="173"/>
@@ -6301,65 +6301,65 @@
       <c r="N8" s="140"/>
     </row>
     <row r="9" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="362" t="s">
+      <c r="A9" s="413" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="363"/>
-      <c r="C9" s="363"/>
-      <c r="D9" s="363"/>
-      <c r="E9" s="363"/>
-      <c r="F9" s="363"/>
-      <c r="G9" s="363"/>
-      <c r="H9" s="363"/>
-      <c r="I9" s="363"/>
-      <c r="J9" s="363"/>
-      <c r="K9" s="363"/>
-      <c r="L9" s="363"/>
-      <c r="M9" s="363"/>
-      <c r="N9" s="364"/>
+      <c r="B9" s="414"/>
+      <c r="C9" s="414"/>
+      <c r="D9" s="414"/>
+      <c r="E9" s="414"/>
+      <c r="F9" s="414"/>
+      <c r="G9" s="414"/>
+      <c r="H9" s="414"/>
+      <c r="I9" s="414"/>
+      <c r="J9" s="414"/>
+      <c r="K9" s="414"/>
+      <c r="L9" s="414"/>
+      <c r="M9" s="414"/>
+      <c r="N9" s="415"/>
     </row>
     <row r="10" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="148" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="381" t="s">
+      <c r="B10" s="430" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="382"/>
-      <c r="D10" s="373"/>
-      <c r="E10" s="373"/>
-      <c r="F10" s="373"/>
-      <c r="G10" s="373"/>
-      <c r="H10" s="373"/>
-      <c r="I10" s="373"/>
-      <c r="J10" s="373"/>
-      <c r="K10" s="373"/>
-      <c r="L10" s="373"/>
-      <c r="M10" s="373"/>
-      <c r="N10" s="374"/>
+      <c r="C10" s="343"/>
+      <c r="D10" s="424"/>
+      <c r="E10" s="424"/>
+      <c r="F10" s="424"/>
+      <c r="G10" s="424"/>
+      <c r="H10" s="424"/>
+      <c r="I10" s="424"/>
+      <c r="J10" s="424"/>
+      <c r="K10" s="424"/>
+      <c r="L10" s="424"/>
+      <c r="M10" s="424"/>
+      <c r="N10" s="425"/>
       <c r="P10" s="83"/>
     </row>
     <row r="11" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="383" t="s">
+      <c r="B11" s="431" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="384"/>
-      <c r="D11" s="445"/>
-      <c r="E11" s="446"/>
-      <c r="F11" s="446"/>
-      <c r="G11" s="446"/>
-      <c r="H11" s="446"/>
-      <c r="I11" s="446"/>
-      <c r="J11" s="446"/>
-      <c r="K11" s="447"/>
-      <c r="L11" s="439" t="s">
+      <c r="C11" s="432"/>
+      <c r="D11" s="355"/>
+      <c r="E11" s="356"/>
+      <c r="F11" s="356"/>
+      <c r="G11" s="356"/>
+      <c r="H11" s="356"/>
+      <c r="I11" s="356"/>
+      <c r="J11" s="356"/>
+      <c r="K11" s="357"/>
+      <c r="L11" s="344" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="440"/>
-      <c r="N11" s="441"/>
+      <c r="M11" s="345"/>
+      <c r="N11" s="346"/>
       <c r="P11" s="76" t="s">
         <v>14</v>
       </c>
@@ -6369,21 +6369,21 @@
     </row>
     <row r="12" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="149"/>
-      <c r="B12" s="385" t="s">
+      <c r="B12" s="433" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="386"/>
-      <c r="D12" s="448"/>
-      <c r="E12" s="449"/>
-      <c r="F12" s="449"/>
-      <c r="G12" s="449"/>
-      <c r="H12" s="449"/>
-      <c r="I12" s="449"/>
-      <c r="J12" s="449"/>
-      <c r="K12" s="449"/>
-      <c r="L12" s="450"/>
-      <c r="M12" s="450"/>
-      <c r="N12" s="451"/>
+      <c r="C12" s="434"/>
+      <c r="D12" s="358"/>
+      <c r="E12" s="359"/>
+      <c r="F12" s="359"/>
+      <c r="G12" s="359"/>
+      <c r="H12" s="359"/>
+      <c r="I12" s="359"/>
+      <c r="J12" s="359"/>
+      <c r="K12" s="359"/>
+      <c r="L12" s="360"/>
+      <c r="M12" s="360"/>
+      <c r="N12" s="361"/>
       <c r="P12" s="76" t="s">
         <v>17</v>
       </c>
@@ -6395,23 +6395,23 @@
       <c r="A13" s="204" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="488" t="s">
+      <c r="B13" s="342" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="382"/>
-      <c r="D13" s="442"/>
-      <c r="E13" s="442"/>
-      <c r="F13" s="443"/>
+      <c r="C13" s="343"/>
+      <c r="D13" s="347"/>
+      <c r="E13" s="347"/>
+      <c r="F13" s="348"/>
       <c r="G13" s="89" t="s">
         <v>21</v>
       </c>
       <c r="H13" s="129"/>
       <c r="I13" s="251"/>
-      <c r="J13" s="468"/>
-      <c r="K13" s="469"/>
-      <c r="L13" s="469"/>
-      <c r="M13" s="469"/>
-      <c r="N13" s="470"/>
+      <c r="J13" s="316"/>
+      <c r="K13" s="317"/>
+      <c r="L13" s="317"/>
+      <c r="M13" s="317"/>
+      <c r="N13" s="318"/>
       <c r="P13" s="76" t="s">
         <v>22</v>
       </c>
@@ -6444,21 +6444,21 @@
         <v>25</v>
       </c>
       <c r="C15" s="84"/>
-      <c r="D15" s="483"/>
-      <c r="E15" s="483"/>
-      <c r="F15" s="484"/>
-      <c r="G15" s="466" t="s">
+      <c r="D15" s="337"/>
+      <c r="E15" s="337"/>
+      <c r="F15" s="338"/>
+      <c r="G15" s="314" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="467"/>
-      <c r="I15" s="467"/>
+      <c r="H15" s="315"/>
+      <c r="I15" s="315"/>
       <c r="J15" s="130"/>
       <c r="K15" s="131"/>
-      <c r="L15" s="471" t="s">
+      <c r="L15" s="319" t="s">
         <v>27</v>
       </c>
-      <c r="M15" s="471"/>
-      <c r="N15" s="472"/>
+      <c r="M15" s="319"/>
+      <c r="N15" s="320"/>
       <c r="P15" s="76" t="s">
         <v>28</v>
       </c>
@@ -6474,19 +6474,19 @@
         <v>31</v>
       </c>
       <c r="C16" s="85"/>
-      <c r="D16" s="375"/>
-      <c r="E16" s="376"/>
-      <c r="F16" s="377"/>
-      <c r="G16" s="485" t="s">
+      <c r="D16" s="426"/>
+      <c r="E16" s="323"/>
+      <c r="F16" s="427"/>
+      <c r="G16" s="339" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="486"/>
-      <c r="I16" s="487"/>
-      <c r="J16" s="479"/>
-      <c r="K16" s="480"/>
-      <c r="L16" s="480"/>
-      <c r="M16" s="480"/>
-      <c r="N16" s="481"/>
+      <c r="H16" s="340"/>
+      <c r="I16" s="341"/>
+      <c r="J16" s="330"/>
+      <c r="K16" s="331"/>
+      <c r="L16" s="331"/>
+      <c r="M16" s="331"/>
+      <c r="N16" s="332"/>
       <c r="P16" s="76" t="s">
         <v>34</v>
       </c>
@@ -6495,49 +6495,49 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="452">
+      <c r="A17" s="362">
         <v>6</v>
       </c>
-      <c r="B17" s="457" t="s">
+      <c r="B17" s="368" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="458"/>
-      <c r="D17" s="380"/>
-      <c r="E17" s="380"/>
-      <c r="F17" s="380"/>
+      <c r="C17" s="369"/>
+      <c r="D17" s="367"/>
+      <c r="E17" s="367"/>
+      <c r="F17" s="367"/>
       <c r="G17" s="90" t="s">
         <v>38</v>
       </c>
       <c r="H17" s="91"/>
-      <c r="I17" s="436"/>
-      <c r="J17" s="437"/>
-      <c r="K17" s="437"/>
-      <c r="L17" s="437"/>
-      <c r="M17" s="437"/>
-      <c r="N17" s="438"/>
+      <c r="I17" s="333"/>
+      <c r="J17" s="321"/>
+      <c r="K17" s="321"/>
+      <c r="L17" s="321"/>
+      <c r="M17" s="321"/>
+      <c r="N17" s="322"/>
       <c r="Q17" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="453"/>
-      <c r="B18" s="459"/>
-      <c r="C18" s="460"/>
-      <c r="D18" s="444"/>
-      <c r="E18" s="444"/>
-      <c r="F18" s="444"/>
+      <c r="A18" s="363"/>
+      <c r="B18" s="370"/>
+      <c r="C18" s="371"/>
+      <c r="D18" s="349"/>
+      <c r="E18" s="349"/>
+      <c r="F18" s="349"/>
       <c r="G18" s="136"/>
       <c r="H18" s="92"/>
-      <c r="I18" s="482" t="s">
+      <c r="I18" s="302" t="s">
         <v>40</v>
       </c>
-      <c r="J18" s="408"/>
-      <c r="K18" s="408"/>
-      <c r="L18" s="408" t="s">
+      <c r="J18" s="303"/>
+      <c r="K18" s="303"/>
+      <c r="L18" s="303" t="s">
         <v>41</v>
       </c>
-      <c r="M18" s="408"/>
-      <c r="N18" s="409"/>
+      <c r="M18" s="303"/>
+      <c r="N18" s="304"/>
       <c r="Q18" s="3" t="s">
         <v>42</v>
       </c>
@@ -6546,105 +6546,105 @@
       <c r="A19" s="152"/>
       <c r="B19" s="191"/>
       <c r="C19" s="141"/>
-      <c r="D19" s="473"/>
-      <c r="E19" s="474"/>
-      <c r="F19" s="475"/>
+      <c r="D19" s="324"/>
+      <c r="E19" s="325"/>
+      <c r="F19" s="326"/>
       <c r="G19" s="136"/>
       <c r="H19" s="92"/>
-      <c r="I19" s="410"/>
-      <c r="J19" s="411"/>
-      <c r="K19" s="411"/>
-      <c r="L19" s="414"/>
-      <c r="M19" s="411"/>
-      <c r="N19" s="415"/>
+      <c r="I19" s="384"/>
+      <c r="J19" s="385"/>
+      <c r="K19" s="385"/>
+      <c r="L19" s="388"/>
+      <c r="M19" s="385"/>
+      <c r="N19" s="389"/>
       <c r="Q19" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="453"/>
+      <c r="A20" s="363"/>
       <c r="B20" s="191"/>
       <c r="C20" s="124"/>
-      <c r="D20" s="473"/>
-      <c r="E20" s="474"/>
-      <c r="F20" s="475"/>
+      <c r="D20" s="324"/>
+      <c r="E20" s="325"/>
+      <c r="F20" s="326"/>
       <c r="G20" s="134"/>
       <c r="H20" s="139"/>
-      <c r="I20" s="412"/>
-      <c r="J20" s="413"/>
-      <c r="K20" s="413"/>
-      <c r="L20" s="413"/>
-      <c r="M20" s="413"/>
-      <c r="N20" s="416"/>
+      <c r="I20" s="386"/>
+      <c r="J20" s="387"/>
+      <c r="K20" s="387"/>
+      <c r="L20" s="387"/>
+      <c r="M20" s="387"/>
+      <c r="N20" s="390"/>
       <c r="Q20" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="454"/>
+      <c r="A21" s="364"/>
       <c r="B21" s="192"/>
       <c r="C21" s="122"/>
-      <c r="D21" s="476"/>
-      <c r="E21" s="477"/>
-      <c r="F21" s="478"/>
+      <c r="D21" s="327"/>
+      <c r="E21" s="328"/>
+      <c r="F21" s="329"/>
       <c r="G21" s="134"/>
       <c r="H21" s="139"/>
-      <c r="I21" s="417" t="s">
+      <c r="I21" s="391" t="s">
         <v>45</v>
       </c>
-      <c r="J21" s="418"/>
-      <c r="K21" s="418"/>
-      <c r="L21" s="433" t="s">
+      <c r="J21" s="392"/>
+      <c r="K21" s="392"/>
+      <c r="L21" s="404" t="s">
         <v>46</v>
       </c>
-      <c r="M21" s="434"/>
-      <c r="N21" s="435"/>
+      <c r="M21" s="405"/>
+      <c r="N21" s="406"/>
       <c r="Q21" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="455" t="s">
+      <c r="A22" s="365" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="401" t="s">
+      <c r="B22" s="313" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="402"/>
-      <c r="D22" s="444"/>
-      <c r="E22" s="444"/>
-      <c r="F22" s="444"/>
+      <c r="C22" s="310"/>
+      <c r="D22" s="349"/>
+      <c r="E22" s="349"/>
+      <c r="F22" s="349"/>
       <c r="G22" s="134"/>
       <c r="H22" s="139"/>
-      <c r="I22" s="436"/>
-      <c r="J22" s="437"/>
-      <c r="K22" s="437"/>
-      <c r="L22" s="437"/>
-      <c r="M22" s="437"/>
-      <c r="N22" s="438"/>
+      <c r="I22" s="333"/>
+      <c r="J22" s="321"/>
+      <c r="K22" s="321"/>
+      <c r="L22" s="321"/>
+      <c r="M22" s="321"/>
+      <c r="N22" s="322"/>
       <c r="Q22" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="456"/>
-      <c r="B23" s="403"/>
-      <c r="C23" s="404"/>
-      <c r="D23" s="421"/>
-      <c r="E23" s="421"/>
-      <c r="F23" s="421"/>
+      <c r="A23" s="366"/>
+      <c r="B23" s="311"/>
+      <c r="C23" s="312"/>
+      <c r="D23" s="350"/>
+      <c r="E23" s="350"/>
+      <c r="F23" s="350"/>
       <c r="G23" s="134"/>
       <c r="H23" s="139"/>
-      <c r="I23" s="463" t="s">
+      <c r="I23" s="374" t="s">
         <v>51</v>
       </c>
-      <c r="J23" s="464"/>
-      <c r="K23" s="464"/>
-      <c r="L23" s="461" t="s">
+      <c r="J23" s="375"/>
+      <c r="K23" s="375"/>
+      <c r="L23" s="372" t="s">
         <v>52</v>
       </c>
-      <c r="M23" s="461"/>
-      <c r="N23" s="462"/>
+      <c r="M23" s="372"/>
+      <c r="N23" s="373"/>
       <c r="Q23" s="3" t="s">
         <v>53</v>
       </c>
@@ -6653,163 +6653,163 @@
       <c r="A24" s="148" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="333" t="s">
+      <c r="B24" s="353" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="334"/>
-      <c r="D24" s="376"/>
-      <c r="E24" s="376"/>
-      <c r="F24" s="376"/>
-      <c r="G24" s="387" t="s">
+      <c r="C24" s="354"/>
+      <c r="D24" s="323"/>
+      <c r="E24" s="323"/>
+      <c r="F24" s="323"/>
+      <c r="G24" s="435" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="343"/>
-      <c r="I24" s="392"/>
-      <c r="J24" s="393"/>
-      <c r="K24" s="393"/>
-      <c r="L24" s="393"/>
-      <c r="M24" s="393"/>
-      <c r="N24" s="394"/>
+      <c r="H24" s="436"/>
+      <c r="I24" s="334"/>
+      <c r="J24" s="335"/>
+      <c r="K24" s="335"/>
+      <c r="L24" s="335"/>
+      <c r="M24" s="335"/>
+      <c r="N24" s="336"/>
       <c r="Q24" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="419" t="s">
+      <c r="A25" s="351" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="401" t="s">
+      <c r="B25" s="313" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="402"/>
-      <c r="D25" s="380"/>
-      <c r="E25" s="380"/>
-      <c r="F25" s="380"/>
+      <c r="C25" s="310"/>
+      <c r="D25" s="367"/>
+      <c r="E25" s="367"/>
+      <c r="F25" s="367"/>
       <c r="G25" s="97" t="s">
         <v>60</v>
       </c>
       <c r="H25" s="86"/>
-      <c r="I25" s="395"/>
-      <c r="J25" s="390"/>
-      <c r="K25" s="390"/>
-      <c r="L25" s="390"/>
-      <c r="M25" s="390"/>
-      <c r="N25" s="391"/>
+      <c r="I25" s="294"/>
+      <c r="J25" s="295"/>
+      <c r="K25" s="295"/>
+      <c r="L25" s="295"/>
+      <c r="M25" s="295"/>
+      <c r="N25" s="439"/>
       <c r="Q25" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="420"/>
-      <c r="B26" s="403"/>
-      <c r="C26" s="404"/>
-      <c r="D26" s="421"/>
-      <c r="E26" s="421"/>
-      <c r="F26" s="421"/>
+      <c r="A26" s="352"/>
+      <c r="B26" s="311"/>
+      <c r="C26" s="312"/>
+      <c r="D26" s="350"/>
+      <c r="E26" s="350"/>
+      <c r="F26" s="350"/>
       <c r="G26" s="134"/>
       <c r="H26" s="139"/>
-      <c r="I26" s="482" t="s">
+      <c r="I26" s="302" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="408"/>
-      <c r="K26" s="408"/>
-      <c r="L26" s="408" t="s">
+      <c r="J26" s="303"/>
+      <c r="K26" s="303"/>
+      <c r="L26" s="303" t="s">
         <v>41</v>
       </c>
-      <c r="M26" s="408"/>
-      <c r="N26" s="409"/>
+      <c r="M26" s="303"/>
+      <c r="N26" s="304"/>
       <c r="Q26" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="419" t="s">
+      <c r="A27" s="351" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="465" t="s">
+      <c r="B27" s="309" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="402"/>
-      <c r="D27" s="422"/>
-      <c r="E27" s="422"/>
-      <c r="F27" s="422"/>
+      <c r="C27" s="310"/>
+      <c r="D27" s="293"/>
+      <c r="E27" s="293"/>
+      <c r="F27" s="293"/>
       <c r="G27" s="136"/>
       <c r="H27" s="92"/>
-      <c r="I27" s="395"/>
-      <c r="J27" s="390"/>
-      <c r="K27" s="390"/>
-      <c r="L27" s="390"/>
-      <c r="M27" s="390"/>
-      <c r="N27" s="391"/>
+      <c r="I27" s="294"/>
+      <c r="J27" s="295"/>
+      <c r="K27" s="295"/>
+      <c r="L27" s="295"/>
+      <c r="M27" s="295"/>
+      <c r="N27" s="439"/>
       <c r="Q27" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="420"/>
-      <c r="B28" s="403"/>
-      <c r="C28" s="404"/>
-      <c r="D28" s="423"/>
-      <c r="E28" s="423"/>
-      <c r="F28" s="423"/>
+      <c r="A28" s="352"/>
+      <c r="B28" s="311"/>
+      <c r="C28" s="312"/>
+      <c r="D28" s="393"/>
+      <c r="E28" s="393"/>
+      <c r="F28" s="393"/>
       <c r="G28" s="136"/>
       <c r="H28" s="92"/>
-      <c r="I28" s="495" t="s">
+      <c r="I28" s="305" t="s">
         <v>45</v>
       </c>
-      <c r="J28" s="496"/>
-      <c r="K28" s="496"/>
-      <c r="L28" s="497" t="s">
+      <c r="J28" s="306"/>
+      <c r="K28" s="306"/>
+      <c r="L28" s="307" t="s">
         <v>46</v>
       </c>
-      <c r="M28" s="496"/>
-      <c r="N28" s="498"/>
+      <c r="M28" s="306"/>
+      <c r="N28" s="308"/>
       <c r="Q28" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="419" t="s">
+      <c r="A29" s="351" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="401" t="s">
+      <c r="B29" s="313" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="402"/>
-      <c r="D29" s="424"/>
-      <c r="E29" s="422"/>
-      <c r="F29" s="425"/>
+      <c r="C29" s="310"/>
+      <c r="D29" s="394"/>
+      <c r="E29" s="293"/>
+      <c r="F29" s="395"/>
       <c r="G29" s="136"/>
       <c r="H29" s="142"/>
-      <c r="I29" s="492"/>
-      <c r="J29" s="493"/>
-      <c r="K29" s="493"/>
-      <c r="L29" s="493"/>
-      <c r="M29" s="493"/>
-      <c r="N29" s="494"/>
+      <c r="I29" s="299"/>
+      <c r="J29" s="300"/>
+      <c r="K29" s="300"/>
+      <c r="L29" s="300"/>
+      <c r="M29" s="300"/>
+      <c r="N29" s="301"/>
       <c r="Q29" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="420"/>
-      <c r="B30" s="403"/>
-      <c r="C30" s="404"/>
-      <c r="D30" s="426"/>
-      <c r="E30" s="423"/>
-      <c r="F30" s="427"/>
+      <c r="A30" s="352"/>
+      <c r="B30" s="311"/>
+      <c r="C30" s="312"/>
+      <c r="D30" s="396"/>
+      <c r="E30" s="393"/>
+      <c r="F30" s="397"/>
       <c r="G30" s="136"/>
       <c r="H30" s="142"/>
-      <c r="I30" s="388" t="s">
+      <c r="I30" s="437" t="s">
         <v>51</v>
       </c>
-      <c r="J30" s="388"/>
-      <c r="K30" s="388"/>
-      <c r="L30" s="388" t="s">
+      <c r="J30" s="437"/>
+      <c r="K30" s="437"/>
+      <c r="L30" s="437" t="s">
         <v>52</v>
       </c>
-      <c r="M30" s="388"/>
-      <c r="N30" s="389"/>
+      <c r="M30" s="437"/>
+      <c r="N30" s="438"/>
       <c r="Q30" s="3" t="s">
         <v>70</v>
       </c>
@@ -6822,19 +6822,19 @@
         <v>72</v>
       </c>
       <c r="C31" s="85"/>
-      <c r="D31" s="422"/>
-      <c r="E31" s="422"/>
-      <c r="F31" s="422"/>
-      <c r="G31" s="387" t="s">
+      <c r="D31" s="293"/>
+      <c r="E31" s="293"/>
+      <c r="F31" s="293"/>
+      <c r="G31" s="435" t="s">
         <v>56</v>
       </c>
-      <c r="H31" s="343"/>
-      <c r="I31" s="489"/>
-      <c r="J31" s="490"/>
-      <c r="K31" s="490"/>
-      <c r="L31" s="490"/>
-      <c r="M31" s="490"/>
-      <c r="N31" s="491"/>
+      <c r="H31" s="436"/>
+      <c r="I31" s="296"/>
+      <c r="J31" s="297"/>
+      <c r="K31" s="297"/>
+      <c r="L31" s="297"/>
+      <c r="M31" s="297"/>
+      <c r="N31" s="298"/>
       <c r="Q31" s="3" t="s">
         <v>73</v>
       </c>
@@ -6847,42 +6847,42 @@
         <v>75</v>
       </c>
       <c r="C32" s="85"/>
-      <c r="D32" s="422"/>
-      <c r="E32" s="422"/>
-      <c r="F32" s="422"/>
+      <c r="D32" s="293"/>
+      <c r="E32" s="293"/>
+      <c r="F32" s="293"/>
       <c r="G32" s="133" t="s">
         <v>76</v>
       </c>
       <c r="H32" s="137"/>
-      <c r="I32" s="392"/>
-      <c r="J32" s="393"/>
-      <c r="K32" s="393"/>
-      <c r="L32" s="393"/>
-      <c r="M32" s="393"/>
-      <c r="N32" s="394"/>
+      <c r="I32" s="334"/>
+      <c r="J32" s="335"/>
+      <c r="K32" s="335"/>
+      <c r="L32" s="335"/>
+      <c r="M32" s="335"/>
+      <c r="N32" s="336"/>
       <c r="Q32" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="396" t="s">
+      <c r="A33" s="376" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="333"/>
-      <c r="C33" s="334"/>
-      <c r="D33" s="397"/>
-      <c r="E33" s="397"/>
-      <c r="F33" s="397"/>
+      <c r="B33" s="353"/>
+      <c r="C33" s="354"/>
+      <c r="D33" s="377"/>
+      <c r="E33" s="377"/>
+      <c r="F33" s="377"/>
       <c r="G33" s="178" t="s">
         <v>79</v>
       </c>
       <c r="H33" s="135"/>
-      <c r="I33" s="392"/>
-      <c r="J33" s="393"/>
-      <c r="K33" s="393"/>
-      <c r="L33" s="393"/>
-      <c r="M33" s="393"/>
-      <c r="N33" s="394"/>
+      <c r="I33" s="334"/>
+      <c r="J33" s="335"/>
+      <c r="K33" s="335"/>
+      <c r="L33" s="335"/>
+      <c r="M33" s="335"/>
+      <c r="N33" s="336"/>
       <c r="Q33" s="3" t="s">
         <v>80</v>
       </c>
@@ -6893,19 +6893,19 @@
       </c>
       <c r="B34" s="193"/>
       <c r="C34" s="138"/>
-      <c r="D34" s="380"/>
-      <c r="E34" s="380"/>
-      <c r="F34" s="380"/>
+      <c r="D34" s="367"/>
+      <c r="E34" s="367"/>
+      <c r="F34" s="367"/>
       <c r="G34" s="97" t="s">
         <v>82</v>
       </c>
       <c r="H34" s="86"/>
-      <c r="I34" s="430"/>
-      <c r="J34" s="431"/>
-      <c r="K34" s="431"/>
-      <c r="L34" s="431"/>
-      <c r="M34" s="431"/>
-      <c r="N34" s="432"/>
+      <c r="I34" s="400"/>
+      <c r="J34" s="401"/>
+      <c r="K34" s="401"/>
+      <c r="L34" s="401"/>
+      <c r="M34" s="401"/>
+      <c r="N34" s="402"/>
       <c r="Q34" s="3" t="s">
         <v>83</v>
       </c>
@@ -6939,21 +6939,21 @@
         <v>87</v>
       </c>
       <c r="C36" s="197"/>
-      <c r="D36" s="499"/>
-      <c r="E36" s="500"/>
-      <c r="F36" s="500"/>
-      <c r="G36" s="500"/>
-      <c r="H36" s="501"/>
-      <c r="I36" s="428" t="s">
+      <c r="D36" s="287"/>
+      <c r="E36" s="288"/>
+      <c r="F36" s="288"/>
+      <c r="G36" s="288"/>
+      <c r="H36" s="289"/>
+      <c r="I36" s="398" t="s">
         <v>88</v>
       </c>
-      <c r="J36" s="428"/>
-      <c r="K36" s="428"/>
-      <c r="L36" s="429"/>
-      <c r="M36" s="367" t="s">
+      <c r="J36" s="398"/>
+      <c r="K36" s="398"/>
+      <c r="L36" s="399"/>
+      <c r="M36" s="418" t="s">
         <v>89</v>
       </c>
-      <c r="N36" s="368"/>
+      <c r="N36" s="419"/>
       <c r="Q36" s="3" t="s">
         <v>90</v>
       </c>
@@ -6964,19 +6964,19 @@
         <v>91</v>
       </c>
       <c r="C37" s="142"/>
-      <c r="D37" s="297"/>
-      <c r="E37" s="298"/>
-      <c r="F37" s="299"/>
-      <c r="G37" s="313" t="s">
+      <c r="D37" s="290"/>
+      <c r="E37" s="291"/>
+      <c r="F37" s="292"/>
+      <c r="G37" s="403" t="s">
         <v>92</v>
       </c>
-      <c r="H37" s="313"/>
-      <c r="I37" s="295"/>
-      <c r="J37" s="295"/>
-      <c r="K37" s="295"/>
-      <c r="L37" s="296"/>
-      <c r="M37" s="293"/>
-      <c r="N37" s="294"/>
+      <c r="H37" s="403"/>
+      <c r="I37" s="283"/>
+      <c r="J37" s="283"/>
+      <c r="K37" s="283"/>
+      <c r="L37" s="284"/>
+      <c r="M37" s="285"/>
+      <c r="N37" s="286"/>
       <c r="Q37" s="3" t="s">
         <v>93</v>
       </c>
@@ -6987,17 +6987,17 @@
         <v>94</v>
       </c>
       <c r="C38" s="188"/>
-      <c r="D38" s="297"/>
-      <c r="E38" s="298"/>
-      <c r="F38" s="299"/>
-      <c r="G38" s="297"/>
-      <c r="H38" s="299"/>
-      <c r="I38" s="295"/>
-      <c r="J38" s="295"/>
-      <c r="K38" s="295"/>
-      <c r="L38" s="296"/>
-      <c r="M38" s="293"/>
-      <c r="N38" s="294"/>
+      <c r="D38" s="290"/>
+      <c r="E38" s="291"/>
+      <c r="F38" s="292"/>
+      <c r="G38" s="290"/>
+      <c r="H38" s="292"/>
+      <c r="I38" s="283"/>
+      <c r="J38" s="283"/>
+      <c r="K38" s="283"/>
+      <c r="L38" s="284"/>
+      <c r="M38" s="285"/>
+      <c r="N38" s="286"/>
       <c r="Q38" s="3" t="s">
         <v>95</v>
       </c>
@@ -7008,17 +7008,17 @@
         <v>96</v>
       </c>
       <c r="C39" s="85"/>
-      <c r="D39" s="297"/>
-      <c r="E39" s="298"/>
-      <c r="F39" s="298"/>
-      <c r="G39" s="298"/>
-      <c r="H39" s="299"/>
-      <c r="I39" s="295"/>
-      <c r="J39" s="295"/>
-      <c r="K39" s="295"/>
-      <c r="L39" s="296"/>
-      <c r="M39" s="293"/>
-      <c r="N39" s="294"/>
+      <c r="D39" s="290"/>
+      <c r="E39" s="291"/>
+      <c r="F39" s="291"/>
+      <c r="G39" s="291"/>
+      <c r="H39" s="292"/>
+      <c r="I39" s="283"/>
+      <c r="J39" s="283"/>
+      <c r="K39" s="283"/>
+      <c r="L39" s="284"/>
+      <c r="M39" s="285"/>
+      <c r="N39" s="286"/>
       <c r="Q39" s="3" t="s">
         <v>97</v>
       </c>
@@ -7029,17 +7029,17 @@
         <v>98</v>
       </c>
       <c r="C40" s="85"/>
-      <c r="D40" s="297"/>
-      <c r="E40" s="298"/>
-      <c r="F40" s="298"/>
-      <c r="G40" s="298"/>
-      <c r="H40" s="299"/>
-      <c r="I40" s="295"/>
-      <c r="J40" s="295"/>
-      <c r="K40" s="295"/>
-      <c r="L40" s="296"/>
-      <c r="M40" s="293"/>
-      <c r="N40" s="294"/>
+      <c r="D40" s="290"/>
+      <c r="E40" s="291"/>
+      <c r="F40" s="291"/>
+      <c r="G40" s="291"/>
+      <c r="H40" s="292"/>
+      <c r="I40" s="283"/>
+      <c r="J40" s="283"/>
+      <c r="K40" s="283"/>
+      <c r="L40" s="284"/>
+      <c r="M40" s="285"/>
+      <c r="N40" s="286"/>
       <c r="Q40" s="3" t="s">
         <v>99</v>
       </c>
@@ -7050,17 +7050,17 @@
         <v>100</v>
       </c>
       <c r="C41" s="85"/>
-      <c r="D41" s="297"/>
-      <c r="E41" s="298"/>
-      <c r="F41" s="298"/>
-      <c r="G41" s="298"/>
-      <c r="H41" s="299"/>
-      <c r="I41" s="295"/>
-      <c r="J41" s="295"/>
-      <c r="K41" s="295"/>
-      <c r="L41" s="296"/>
-      <c r="M41" s="293"/>
-      <c r="N41" s="294"/>
+      <c r="D41" s="290"/>
+      <c r="E41" s="291"/>
+      <c r="F41" s="291"/>
+      <c r="G41" s="291"/>
+      <c r="H41" s="292"/>
+      <c r="I41" s="283"/>
+      <c r="J41" s="283"/>
+      <c r="K41" s="283"/>
+      <c r="L41" s="284"/>
+      <c r="M41" s="285"/>
+      <c r="N41" s="286"/>
       <c r="Q41" s="3" t="s">
         <v>101</v>
       </c>
@@ -7071,17 +7071,17 @@
         <v>102</v>
       </c>
       <c r="C42" s="123"/>
-      <c r="D42" s="297"/>
-      <c r="E42" s="298"/>
-      <c r="F42" s="298"/>
-      <c r="G42" s="298"/>
-      <c r="H42" s="299"/>
-      <c r="I42" s="295"/>
-      <c r="J42" s="295"/>
-      <c r="K42" s="295"/>
-      <c r="L42" s="296"/>
-      <c r="M42" s="293"/>
-      <c r="N42" s="294"/>
+      <c r="D42" s="290"/>
+      <c r="E42" s="291"/>
+      <c r="F42" s="291"/>
+      <c r="G42" s="291"/>
+      <c r="H42" s="292"/>
+      <c r="I42" s="283"/>
+      <c r="J42" s="283"/>
+      <c r="K42" s="283"/>
+      <c r="L42" s="284"/>
+      <c r="M42" s="285"/>
+      <c r="N42" s="286"/>
       <c r="Q42" s="3" t="s">
         <v>103</v>
       </c>
@@ -7094,17 +7094,17 @@
         <v>105</v>
       </c>
       <c r="C43" s="91"/>
-      <c r="D43" s="297"/>
-      <c r="E43" s="298"/>
-      <c r="F43" s="298"/>
-      <c r="G43" s="298"/>
-      <c r="H43" s="299"/>
-      <c r="I43" s="295"/>
-      <c r="J43" s="295"/>
-      <c r="K43" s="295"/>
-      <c r="L43" s="296"/>
-      <c r="M43" s="293"/>
-      <c r="N43" s="294"/>
+      <c r="D43" s="290"/>
+      <c r="E43" s="291"/>
+      <c r="F43" s="291"/>
+      <c r="G43" s="291"/>
+      <c r="H43" s="292"/>
+      <c r="I43" s="283"/>
+      <c r="J43" s="283"/>
+      <c r="K43" s="283"/>
+      <c r="L43" s="284"/>
+      <c r="M43" s="285"/>
+      <c r="N43" s="286"/>
       <c r="Q43" s="3" t="s">
         <v>106</v>
       </c>
@@ -7115,19 +7115,19 @@
         <v>12</v>
       </c>
       <c r="C44" s="139"/>
-      <c r="D44" s="297"/>
-      <c r="E44" s="298"/>
-      <c r="F44" s="299"/>
-      <c r="G44" s="313" t="s">
+      <c r="D44" s="290"/>
+      <c r="E44" s="291"/>
+      <c r="F44" s="292"/>
+      <c r="G44" s="403" t="s">
         <v>107</v>
       </c>
-      <c r="H44" s="313"/>
-      <c r="I44" s="295"/>
-      <c r="J44" s="295"/>
-      <c r="K44" s="295"/>
-      <c r="L44" s="296"/>
-      <c r="M44" s="293"/>
-      <c r="N44" s="294"/>
+      <c r="H44" s="403"/>
+      <c r="I44" s="283"/>
+      <c r="J44" s="283"/>
+      <c r="K44" s="283"/>
+      <c r="L44" s="284"/>
+      <c r="M44" s="285"/>
+      <c r="N44" s="286"/>
       <c r="Q44" s="3" t="s">
         <v>108</v>
       </c>
@@ -7138,17 +7138,17 @@
         <v>16</v>
       </c>
       <c r="C45" s="181"/>
-      <c r="D45" s="297"/>
-      <c r="E45" s="298"/>
-      <c r="F45" s="299"/>
-      <c r="G45" s="298"/>
-      <c r="H45" s="299"/>
-      <c r="I45" s="295"/>
-      <c r="J45" s="295"/>
-      <c r="K45" s="295"/>
-      <c r="L45" s="296"/>
-      <c r="M45" s="293"/>
-      <c r="N45" s="294"/>
+      <c r="D45" s="290"/>
+      <c r="E45" s="291"/>
+      <c r="F45" s="292"/>
+      <c r="G45" s="291"/>
+      <c r="H45" s="292"/>
+      <c r="I45" s="283"/>
+      <c r="J45" s="283"/>
+      <c r="K45" s="283"/>
+      <c r="L45" s="284"/>
+      <c r="M45" s="285"/>
+      <c r="N45" s="286"/>
       <c r="Q45" s="3" t="s">
         <v>109</v>
       </c>
@@ -7161,17 +7161,17 @@
         <v>111</v>
       </c>
       <c r="C46" s="91"/>
-      <c r="D46" s="332"/>
-      <c r="E46" s="333"/>
-      <c r="F46" s="333"/>
-      <c r="G46" s="333"/>
-      <c r="H46" s="334"/>
-      <c r="I46" s="295"/>
-      <c r="J46" s="295"/>
-      <c r="K46" s="295"/>
-      <c r="L46" s="296"/>
-      <c r="M46" s="293"/>
-      <c r="N46" s="294"/>
+      <c r="D46" s="478"/>
+      <c r="E46" s="353"/>
+      <c r="F46" s="353"/>
+      <c r="G46" s="353"/>
+      <c r="H46" s="354"/>
+      <c r="I46" s="283"/>
+      <c r="J46" s="283"/>
+      <c r="K46" s="283"/>
+      <c r="L46" s="284"/>
+      <c r="M46" s="285"/>
+      <c r="N46" s="286"/>
       <c r="Q46" s="3" t="s">
         <v>112</v>
       </c>
@@ -7182,17 +7182,17 @@
         <v>10</v>
       </c>
       <c r="C47" s="139"/>
-      <c r="D47" s="310"/>
-      <c r="E47" s="311"/>
-      <c r="F47" s="311"/>
-      <c r="G47" s="311"/>
-      <c r="H47" s="312"/>
-      <c r="I47" s="295"/>
-      <c r="J47" s="295"/>
-      <c r="K47" s="295"/>
-      <c r="L47" s="296"/>
-      <c r="M47" s="293"/>
-      <c r="N47" s="294"/>
+      <c r="D47" s="496"/>
+      <c r="E47" s="497"/>
+      <c r="F47" s="497"/>
+      <c r="G47" s="497"/>
+      <c r="H47" s="498"/>
+      <c r="I47" s="283"/>
+      <c r="J47" s="283"/>
+      <c r="K47" s="283"/>
+      <c r="L47" s="284"/>
+      <c r="M47" s="285"/>
+      <c r="N47" s="286"/>
       <c r="Q47" s="3" t="s">
         <v>113</v>
       </c>
@@ -7203,17 +7203,17 @@
         <v>12</v>
       </c>
       <c r="C48" s="139"/>
-      <c r="D48" s="310"/>
-      <c r="E48" s="311"/>
-      <c r="F48" s="311"/>
-      <c r="G48" s="311"/>
-      <c r="H48" s="312"/>
-      <c r="I48" s="295"/>
-      <c r="J48" s="295"/>
-      <c r="K48" s="295"/>
-      <c r="L48" s="296"/>
-      <c r="M48" s="293"/>
-      <c r="N48" s="294"/>
+      <c r="D48" s="496"/>
+      <c r="E48" s="497"/>
+      <c r="F48" s="497"/>
+      <c r="G48" s="497"/>
+      <c r="H48" s="498"/>
+      <c r="I48" s="283"/>
+      <c r="J48" s="283"/>
+      <c r="K48" s="283"/>
+      <c r="L48" s="284"/>
+      <c r="M48" s="285"/>
+      <c r="N48" s="286"/>
       <c r="Q48" s="3" t="s">
         <v>114</v>
       </c>
@@ -7224,19 +7224,19 @@
         <v>16</v>
       </c>
       <c r="C49" s="183"/>
-      <c r="D49" s="325"/>
-      <c r="E49" s="326"/>
-      <c r="F49" s="326"/>
-      <c r="G49" s="326"/>
-      <c r="H49" s="327"/>
-      <c r="I49" s="323" t="s">
+      <c r="D49" s="471"/>
+      <c r="E49" s="472"/>
+      <c r="F49" s="472"/>
+      <c r="G49" s="472"/>
+      <c r="H49" s="473"/>
+      <c r="I49" s="469" t="s">
         <v>115</v>
       </c>
-      <c r="J49" s="323"/>
-      <c r="K49" s="323"/>
-      <c r="L49" s="323"/>
-      <c r="M49" s="323"/>
-      <c r="N49" s="324"/>
+      <c r="J49" s="469"/>
+      <c r="K49" s="469"/>
+      <c r="L49" s="469"/>
+      <c r="M49" s="469"/>
+      <c r="N49" s="470"/>
       <c r="Q49" s="3" t="s">
         <v>116</v>
       </c>
@@ -7252,47 +7252,47 @@
       <c r="F50" s="88"/>
       <c r="G50" s="88"/>
       <c r="H50" s="88"/>
-      <c r="I50" s="378" t="s">
+      <c r="I50" s="428" t="s">
         <v>118</v>
       </c>
-      <c r="J50" s="378"/>
-      <c r="K50" s="378"/>
-      <c r="L50" s="378"/>
-      <c r="M50" s="378"/>
-      <c r="N50" s="379"/>
+      <c r="J50" s="428"/>
+      <c r="K50" s="428"/>
+      <c r="L50" s="428"/>
+      <c r="M50" s="428"/>
+      <c r="N50" s="429"/>
       <c r="Q50" s="3" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="369" t="s">
+      <c r="A51" s="420" t="s">
         <v>120</v>
       </c>
-      <c r="B51" s="338" t="s">
+      <c r="B51" s="443" t="s">
         <v>121</v>
       </c>
-      <c r="C51" s="338"/>
-      <c r="D51" s="314" t="s">
+      <c r="C51" s="443"/>
+      <c r="D51" s="446" t="s">
         <v>122</v>
       </c>
-      <c r="E51" s="315"/>
-      <c r="F51" s="341"/>
-      <c r="G51" s="314" t="s">
+      <c r="E51" s="447"/>
+      <c r="F51" s="448"/>
+      <c r="G51" s="446" t="s">
         <v>123</v>
       </c>
-      <c r="H51" s="315"/>
-      <c r="I51" s="316"/>
-      <c r="J51" s="328" t="s">
+      <c r="H51" s="447"/>
+      <c r="I51" s="499"/>
+      <c r="J51" s="474" t="s">
         <v>124</v>
       </c>
-      <c r="K51" s="329"/>
-      <c r="L51" s="305" t="s">
+      <c r="K51" s="475"/>
+      <c r="L51" s="494" t="s">
         <v>125</v>
       </c>
-      <c r="M51" s="371" t="s">
+      <c r="M51" s="422" t="s">
         <v>126</v>
       </c>
-      <c r="N51" s="365" t="s">
+      <c r="N51" s="416" t="s">
         <v>127</v>
       </c>
       <c r="Q51" s="3" t="s">
@@ -7300,43 +7300,43 @@
       </c>
     </row>
     <row r="52" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="370"/>
-      <c r="B52" s="339"/>
-      <c r="C52" s="339"/>
-      <c r="D52" s="317"/>
-      <c r="E52" s="318"/>
-      <c r="F52" s="342"/>
-      <c r="G52" s="317"/>
-      <c r="H52" s="318"/>
-      <c r="I52" s="319"/>
-      <c r="J52" s="330"/>
-      <c r="K52" s="331"/>
-      <c r="L52" s="305"/>
-      <c r="M52" s="371"/>
-      <c r="N52" s="365"/>
+      <c r="A52" s="421"/>
+      <c r="B52" s="444"/>
+      <c r="C52" s="444"/>
+      <c r="D52" s="449"/>
+      <c r="E52" s="450"/>
+      <c r="F52" s="451"/>
+      <c r="G52" s="449"/>
+      <c r="H52" s="450"/>
+      <c r="I52" s="500"/>
+      <c r="J52" s="476"/>
+      <c r="K52" s="477"/>
+      <c r="L52" s="494"/>
+      <c r="M52" s="422"/>
+      <c r="N52" s="416"/>
       <c r="Q52" s="3" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="195"/>
-      <c r="B53" s="340"/>
-      <c r="C53" s="340"/>
-      <c r="D53" s="320"/>
-      <c r="E53" s="321"/>
-      <c r="F53" s="343"/>
-      <c r="G53" s="320"/>
-      <c r="H53" s="321"/>
-      <c r="I53" s="322"/>
+      <c r="B53" s="445"/>
+      <c r="C53" s="445"/>
+      <c r="D53" s="452"/>
+      <c r="E53" s="453"/>
+      <c r="F53" s="436"/>
+      <c r="G53" s="452"/>
+      <c r="H53" s="453"/>
+      <c r="I53" s="501"/>
       <c r="J53" s="93" t="s">
         <v>130</v>
       </c>
       <c r="K53" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="L53" s="306"/>
-      <c r="M53" s="372"/>
-      <c r="N53" s="366"/>
+      <c r="L53" s="495"/>
+      <c r="M53" s="423"/>
+      <c r="N53" s="417"/>
       <c r="O53" s="95"/>
       <c r="P53" s="95"/>
       <c r="Q53" s="3" t="s">
@@ -7344,17 +7344,17 @@
       </c>
     </row>
     <row r="54" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="350" t="s">
+      <c r="A54" s="463" t="s">
         <v>133</v>
       </c>
-      <c r="B54" s="351"/>
-      <c r="C54" s="352"/>
-      <c r="D54" s="344"/>
-      <c r="E54" s="345"/>
-      <c r="F54" s="346"/>
-      <c r="G54" s="307"/>
-      <c r="H54" s="308"/>
-      <c r="I54" s="309"/>
+      <c r="B54" s="464"/>
+      <c r="C54" s="465"/>
+      <c r="D54" s="454"/>
+      <c r="E54" s="455"/>
+      <c r="F54" s="456"/>
+      <c r="G54" s="460"/>
+      <c r="H54" s="461"/>
+      <c r="I54" s="462"/>
       <c r="J54" s="269"/>
       <c r="K54" s="267"/>
       <c r="L54" s="270"/>
@@ -7365,17 +7365,17 @@
       </c>
     </row>
     <row r="55" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="350" t="s">
+      <c r="A55" s="463" t="s">
         <v>135</v>
       </c>
-      <c r="B55" s="351"/>
-      <c r="C55" s="352"/>
-      <c r="D55" s="344"/>
-      <c r="E55" s="345"/>
-      <c r="F55" s="346"/>
-      <c r="G55" s="307"/>
-      <c r="H55" s="308"/>
-      <c r="I55" s="309"/>
+      <c r="B55" s="464"/>
+      <c r="C55" s="465"/>
+      <c r="D55" s="454"/>
+      <c r="E55" s="455"/>
+      <c r="F55" s="456"/>
+      <c r="G55" s="460"/>
+      <c r="H55" s="461"/>
+      <c r="I55" s="462"/>
       <c r="J55" s="269"/>
       <c r="K55" s="267"/>
       <c r="L55" s="270"/>
@@ -7386,17 +7386,17 @@
       </c>
     </row>
     <row r="56" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="350" t="s">
+      <c r="A56" s="463" t="s">
         <v>137</v>
       </c>
-      <c r="B56" s="351"/>
-      <c r="C56" s="352"/>
-      <c r="D56" s="344"/>
-      <c r="E56" s="345"/>
-      <c r="F56" s="346"/>
-      <c r="G56" s="307"/>
-      <c r="H56" s="308"/>
-      <c r="I56" s="309"/>
+      <c r="B56" s="464"/>
+      <c r="C56" s="465"/>
+      <c r="D56" s="454"/>
+      <c r="E56" s="455"/>
+      <c r="F56" s="456"/>
+      <c r="G56" s="460"/>
+      <c r="H56" s="461"/>
+      <c r="I56" s="462"/>
       <c r="J56" s="269"/>
       <c r="K56" s="267"/>
       <c r="L56" s="270"/>
@@ -7407,17 +7407,17 @@
       </c>
     </row>
     <row r="57" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="350" t="s">
+      <c r="A57" s="463" t="s">
         <v>139</v>
       </c>
-      <c r="B57" s="351"/>
-      <c r="C57" s="352"/>
-      <c r="D57" s="344"/>
-      <c r="E57" s="345"/>
-      <c r="F57" s="346"/>
-      <c r="G57" s="307"/>
-      <c r="H57" s="308"/>
-      <c r="I57" s="309"/>
+      <c r="B57" s="464"/>
+      <c r="C57" s="465"/>
+      <c r="D57" s="454"/>
+      <c r="E57" s="455"/>
+      <c r="F57" s="456"/>
+      <c r="G57" s="460"/>
+      <c r="H57" s="461"/>
+      <c r="I57" s="462"/>
       <c r="J57" s="269"/>
       <c r="K57" s="267"/>
       <c r="L57" s="270"/>
@@ -7428,17 +7428,17 @@
       </c>
     </row>
     <row r="58" spans="1:17" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="353" t="s">
+      <c r="A58" s="466" t="s">
         <v>141</v>
       </c>
-      <c r="B58" s="354"/>
-      <c r="C58" s="355"/>
-      <c r="D58" s="347"/>
-      <c r="E58" s="348"/>
-      <c r="F58" s="349"/>
-      <c r="G58" s="335"/>
-      <c r="H58" s="336"/>
-      <c r="I58" s="337"/>
+      <c r="B58" s="467"/>
+      <c r="C58" s="468"/>
+      <c r="D58" s="457"/>
+      <c r="E58" s="458"/>
+      <c r="F58" s="459"/>
+      <c r="G58" s="440"/>
+      <c r="H58" s="441"/>
+      <c r="I58" s="442"/>
       <c r="J58" s="274"/>
       <c r="K58" s="268"/>
       <c r="L58" s="275"/>
@@ -7449,66 +7449,66 @@
       </c>
     </row>
     <row r="59" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="287" t="s">
+      <c r="A59" s="483" t="s">
         <v>115</v>
       </c>
-      <c r="B59" s="288"/>
-      <c r="C59" s="288"/>
-      <c r="D59" s="288"/>
-      <c r="E59" s="288"/>
-      <c r="F59" s="288"/>
-      <c r="G59" s="288"/>
-      <c r="H59" s="288"/>
-      <c r="I59" s="288"/>
-      <c r="J59" s="288"/>
-      <c r="K59" s="288"/>
-      <c r="L59" s="288"/>
-      <c r="M59" s="288"/>
-      <c r="N59" s="289"/>
+      <c r="B59" s="484"/>
+      <c r="C59" s="484"/>
+      <c r="D59" s="484"/>
+      <c r="E59" s="484"/>
+      <c r="F59" s="484"/>
+      <c r="G59" s="484"/>
+      <c r="H59" s="484"/>
+      <c r="I59" s="484"/>
+      <c r="J59" s="484"/>
+      <c r="K59" s="484"/>
+      <c r="L59" s="484"/>
+      <c r="M59" s="484"/>
+      <c r="N59" s="485"/>
       <c r="Q59" s="3" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="284" t="s">
+      <c r="A60" s="480" t="s">
         <v>144</v>
       </c>
-      <c r="B60" s="285"/>
-      <c r="C60" s="286"/>
-      <c r="D60" s="300"/>
-      <c r="E60" s="301"/>
-      <c r="F60" s="301"/>
-      <c r="G60" s="301"/>
-      <c r="H60" s="301"/>
-      <c r="I60" s="302"/>
-      <c r="J60" s="303" t="s">
+      <c r="B60" s="481"/>
+      <c r="C60" s="482"/>
+      <c r="D60" s="489"/>
+      <c r="E60" s="490"/>
+      <c r="F60" s="490"/>
+      <c r="G60" s="490"/>
+      <c r="H60" s="490"/>
+      <c r="I60" s="491"/>
+      <c r="J60" s="492" t="s">
         <v>145</v>
       </c>
-      <c r="K60" s="304"/>
-      <c r="L60" s="290"/>
-      <c r="M60" s="291"/>
-      <c r="N60" s="292"/>
+      <c r="K60" s="493"/>
+      <c r="L60" s="486"/>
+      <c r="M60" s="487"/>
+      <c r="N60" s="488"/>
       <c r="Q60" s="3" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:17" s="128" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="283" t="s">
+      <c r="A61" s="479" t="s">
         <v>147</v>
       </c>
-      <c r="B61" s="283"/>
-      <c r="C61" s="283"/>
-      <c r="D61" s="283"/>
-      <c r="E61" s="283"/>
-      <c r="F61" s="283"/>
-      <c r="G61" s="283"/>
-      <c r="H61" s="283"/>
-      <c r="I61" s="283"/>
-      <c r="J61" s="283"/>
-      <c r="K61" s="283"/>
-      <c r="L61" s="283"/>
-      <c r="M61" s="283"/>
-      <c r="N61" s="283"/>
+      <c r="B61" s="479"/>
+      <c r="C61" s="479"/>
+      <c r="D61" s="479"/>
+      <c r="E61" s="479"/>
+      <c r="F61" s="479"/>
+      <c r="G61" s="479"/>
+      <c r="H61" s="479"/>
+      <c r="I61" s="479"/>
+      <c r="J61" s="479"/>
+      <c r="K61" s="479"/>
+      <c r="L61" s="479"/>
+      <c r="M61" s="479"/>
+      <c r="N61" s="479"/>
       <c r="Q61" s="210" t="s">
         <v>148</v>
       </c>
@@ -11228,63 +11228,77 @@
     </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I31:N31"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="B29:C30"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D19:F21"/>
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I24:N24"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D22:F23"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="D17:F18"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="A61:N61"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A59:N59"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="I43:L43"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L51:L53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G51:I53"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="I47:L47"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="I49:N49"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="J51:K52"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="B51:C53"/>
+    <mergeCell ref="D51:F53"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="N51:N53"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="M51:M53"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="I50:N50"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="I32:N32"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L27:N27"/>
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="D37:F37"/>
@@ -11309,77 +11323,63 @@
     <mergeCell ref="L21:N21"/>
     <mergeCell ref="I22:K22"/>
     <mergeCell ref="L22:N22"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="A9:N9"/>
-    <mergeCell ref="N51:N53"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="M51:M53"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="I50:N50"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="I32:N32"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="B51:C53"/>
-    <mergeCell ref="D51:F53"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="I49:N49"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="J51:K52"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="A61:N61"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A59:N59"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="I43:L43"/>
-    <mergeCell ref="I44:L44"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L51:L53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="D43:H43"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G51:I53"/>
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="I47:L47"/>
-    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D22:F23"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="D17:F18"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="B29:C30"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D19:F21"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I24:N24"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I31:N31"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="D38:F38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="Q12" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -11620,68 +11620,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="502"/>
-      <c r="B1" s="503"/>
-      <c r="C1" s="503"/>
-      <c r="D1" s="503"/>
-      <c r="E1" s="503"/>
-      <c r="F1" s="503"/>
-      <c r="G1" s="503"/>
-      <c r="H1" s="503"/>
-      <c r="I1" s="503"/>
-      <c r="J1" s="503"/>
-      <c r="K1" s="504"/>
+      <c r="A1" s="537"/>
+      <c r="B1" s="538"/>
+      <c r="C1" s="538"/>
+      <c r="D1" s="538"/>
+      <c r="E1" s="538"/>
+      <c r="F1" s="538"/>
+      <c r="G1" s="538"/>
+      <c r="H1" s="538"/>
+      <c r="I1" s="538"/>
+      <c r="J1" s="538"/>
+      <c r="K1" s="539"/>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="515" t="s">
+      <c r="A2" s="547" t="s">
         <v>305</v>
       </c>
-      <c r="B2" s="516"/>
-      <c r="C2" s="516"/>
-      <c r="D2" s="516"/>
-      <c r="E2" s="516"/>
-      <c r="F2" s="516"/>
-      <c r="G2" s="516"/>
-      <c r="H2" s="516"/>
-      <c r="I2" s="516"/>
-      <c r="J2" s="516"/>
-      <c r="K2" s="517"/>
+      <c r="B2" s="548"/>
+      <c r="C2" s="548"/>
+      <c r="D2" s="548"/>
+      <c r="E2" s="548"/>
+      <c r="F2" s="548"/>
+      <c r="G2" s="548"/>
+      <c r="H2" s="548"/>
+      <c r="I2" s="548"/>
+      <c r="J2" s="548"/>
+      <c r="K2" s="549"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="125" t="s">
         <v>306</v>
       </c>
-      <c r="B3" s="505" t="s">
+      <c r="B3" s="540" t="s">
         <v>307</v>
       </c>
-      <c r="C3" s="505"/>
-      <c r="D3" s="505"/>
-      <c r="E3" s="506"/>
-      <c r="F3" s="513" t="s">
+      <c r="C3" s="540"/>
+      <c r="D3" s="540"/>
+      <c r="E3" s="541"/>
+      <c r="F3" s="545" t="s">
         <v>308</v>
       </c>
-      <c r="G3" s="509" t="s">
+      <c r="G3" s="542" t="s">
         <v>309</v>
       </c>
-      <c r="H3" s="506"/>
-      <c r="I3" s="509" t="s">
+      <c r="H3" s="541"/>
+      <c r="I3" s="542" t="s">
         <v>310</v>
       </c>
-      <c r="J3" s="511" t="s">
+      <c r="J3" s="543" t="s">
         <v>311</v>
       </c>
-      <c r="K3" s="512"/>
+      <c r="K3" s="544"/>
     </row>
     <row r="4" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="507"/>
-      <c r="C4" s="507"/>
-      <c r="D4" s="507"/>
-      <c r="E4" s="508"/>
-      <c r="F4" s="514"/>
-      <c r="G4" s="510"/>
-      <c r="H4" s="508"/>
-      <c r="I4" s="510"/>
+      <c r="B4" s="509"/>
+      <c r="C4" s="509"/>
+      <c r="D4" s="509"/>
+      <c r="E4" s="510"/>
+      <c r="F4" s="546"/>
+      <c r="G4" s="536"/>
+      <c r="H4" s="510"/>
+      <c r="I4" s="536"/>
       <c r="J4" s="5" t="s">
         <v>312</v>
       </c>
@@ -11690,125 +11690,125 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="521"/>
-      <c r="B5" s="522"/>
-      <c r="C5" s="522"/>
-      <c r="D5" s="522"/>
-      <c r="E5" s="522"/>
+      <c r="A5" s="530"/>
+      <c r="B5" s="504"/>
+      <c r="C5" s="504"/>
+      <c r="D5" s="504"/>
+      <c r="E5" s="504"/>
       <c r="F5" s="280"/>
-      <c r="G5" s="518"/>
-      <c r="H5" s="518"/>
+      <c r="G5" s="529"/>
+      <c r="H5" s="529"/>
       <c r="I5" s="221"/>
       <c r="J5" s="277"/>
       <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="521"/>
-      <c r="B6" s="522"/>
-      <c r="C6" s="522"/>
-      <c r="D6" s="522"/>
-      <c r="E6" s="522"/>
+      <c r="A6" s="530"/>
+      <c r="B6" s="504"/>
+      <c r="C6" s="504"/>
+      <c r="D6" s="504"/>
+      <c r="E6" s="504"/>
       <c r="F6" s="280"/>
-      <c r="G6" s="519"/>
-      <c r="H6" s="520"/>
+      <c r="G6" s="550"/>
+      <c r="H6" s="551"/>
       <c r="I6" s="221"/>
       <c r="J6" s="278"/>
       <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="521"/>
-      <c r="B7" s="522"/>
-      <c r="C7" s="522"/>
-      <c r="D7" s="522"/>
-      <c r="E7" s="522"/>
+      <c r="A7" s="530"/>
+      <c r="B7" s="504"/>
+      <c r="C7" s="504"/>
+      <c r="D7" s="504"/>
+      <c r="E7" s="504"/>
       <c r="F7" s="280"/>
-      <c r="G7" s="518"/>
-      <c r="H7" s="518"/>
+      <c r="G7" s="529"/>
+      <c r="H7" s="529"/>
       <c r="I7" s="221"/>
       <c r="J7" s="278"/>
       <c r="K7" s="13"/>
     </row>
     <row r="8" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="521"/>
-      <c r="B8" s="522"/>
-      <c r="C8" s="522"/>
-      <c r="D8" s="522"/>
-      <c r="E8" s="522"/>
+      <c r="A8" s="530"/>
+      <c r="B8" s="504"/>
+      <c r="C8" s="504"/>
+      <c r="D8" s="504"/>
+      <c r="E8" s="504"/>
       <c r="F8" s="280"/>
-      <c r="G8" s="518"/>
-      <c r="H8" s="518"/>
+      <c r="G8" s="529"/>
+      <c r="H8" s="529"/>
       <c r="I8" s="221"/>
       <c r="J8" s="278"/>
       <c r="K8" s="13"/>
     </row>
     <row r="9" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="521"/>
-      <c r="B9" s="522"/>
-      <c r="C9" s="522"/>
-      <c r="D9" s="522"/>
-      <c r="E9" s="522"/>
+      <c r="A9" s="530"/>
+      <c r="B9" s="504"/>
+      <c r="C9" s="504"/>
+      <c r="D9" s="504"/>
+      <c r="E9" s="504"/>
       <c r="F9" s="280"/>
-      <c r="G9" s="518"/>
-      <c r="H9" s="518"/>
+      <c r="G9" s="529"/>
+      <c r="H9" s="529"/>
       <c r="I9" s="221"/>
       <c r="J9" s="278"/>
       <c r="K9" s="13"/>
     </row>
     <row r="10" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="521"/>
-      <c r="B10" s="522"/>
-      <c r="C10" s="522"/>
-      <c r="D10" s="522"/>
-      <c r="E10" s="522"/>
+      <c r="A10" s="530"/>
+      <c r="B10" s="504"/>
+      <c r="C10" s="504"/>
+      <c r="D10" s="504"/>
+      <c r="E10" s="504"/>
       <c r="F10" s="280"/>
-      <c r="G10" s="518"/>
-      <c r="H10" s="518"/>
+      <c r="G10" s="529"/>
+      <c r="H10" s="529"/>
       <c r="I10" s="221"/>
       <c r="J10" s="278"/>
       <c r="K10" s="13"/>
     </row>
     <row r="11" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="542"/>
-      <c r="B11" s="541"/>
-      <c r="C11" s="541"/>
-      <c r="D11" s="541"/>
-      <c r="E11" s="541"/>
+      <c r="A11" s="505"/>
+      <c r="B11" s="506"/>
+      <c r="C11" s="506"/>
+      <c r="D11" s="506"/>
+      <c r="E11" s="506"/>
       <c r="F11" s="281"/>
-      <c r="G11" s="549"/>
-      <c r="H11" s="549"/>
+      <c r="G11" s="517"/>
+      <c r="H11" s="517"/>
       <c r="I11" s="222"/>
       <c r="J11" s="279"/>
       <c r="K11" s="14"/>
     </row>
     <row r="12" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="543" t="s">
+      <c r="A12" s="511" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="544"/>
-      <c r="C12" s="544"/>
-      <c r="D12" s="544"/>
-      <c r="E12" s="544"/>
-      <c r="F12" s="544"/>
-      <c r="G12" s="544"/>
-      <c r="H12" s="544"/>
-      <c r="I12" s="544"/>
-      <c r="J12" s="544"/>
-      <c r="K12" s="545"/>
+      <c r="B12" s="512"/>
+      <c r="C12" s="512"/>
+      <c r="D12" s="512"/>
+      <c r="E12" s="512"/>
+      <c r="F12" s="512"/>
+      <c r="G12" s="512"/>
+      <c r="H12" s="512"/>
+      <c r="I12" s="512"/>
+      <c r="J12" s="512"/>
+      <c r="K12" s="513"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="546" t="s">
+      <c r="A13" s="514" t="s">
         <v>314</v>
       </c>
-      <c r="B13" s="547"/>
-      <c r="C13" s="547"/>
-      <c r="D13" s="547"/>
-      <c r="E13" s="547"/>
-      <c r="F13" s="547"/>
-      <c r="G13" s="547"/>
-      <c r="H13" s="547"/>
-      <c r="I13" s="547"/>
-      <c r="J13" s="547"/>
-      <c r="K13" s="548"/>
+      <c r="B13" s="515"/>
+      <c r="C13" s="515"/>
+      <c r="D13" s="515"/>
+      <c r="E13" s="515"/>
+      <c r="F13" s="515"/>
+      <c r="G13" s="515"/>
+      <c r="H13" s="515"/>
+      <c r="I13" s="515"/>
+      <c r="J13" s="515"/>
+      <c r="K13" s="516"/>
     </row>
     <row r="14" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="180" t="s">
@@ -11829,447 +11829,447 @@
       <c r="A15" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="B15" s="528" t="s">
+      <c r="B15" s="507" t="s">
         <v>317</v>
       </c>
-      <c r="C15" s="529"/>
-      <c r="D15" s="527" t="s">
+      <c r="C15" s="508"/>
+      <c r="D15" s="535" t="s">
         <v>318</v>
       </c>
-      <c r="E15" s="528"/>
-      <c r="F15" s="529"/>
-      <c r="G15" s="527" t="s">
+      <c r="E15" s="507"/>
+      <c r="F15" s="508"/>
+      <c r="G15" s="535" t="s">
         <v>319</v>
       </c>
-      <c r="H15" s="528"/>
-      <c r="I15" s="529"/>
-      <c r="J15" s="550" t="s">
+      <c r="H15" s="507"/>
+      <c r="I15" s="508"/>
+      <c r="J15" s="518" t="s">
         <v>320</v>
       </c>
-      <c r="K15" s="523" t="s">
+      <c r="K15" s="531" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
-      <c r="B16" s="507"/>
-      <c r="C16" s="508"/>
-      <c r="D16" s="527"/>
-      <c r="E16" s="528"/>
-      <c r="F16" s="529"/>
-      <c r="G16" s="527"/>
-      <c r="H16" s="528"/>
-      <c r="I16" s="529"/>
-      <c r="J16" s="550"/>
-      <c r="K16" s="523"/>
+      <c r="B16" s="509"/>
+      <c r="C16" s="510"/>
+      <c r="D16" s="535"/>
+      <c r="E16" s="507"/>
+      <c r="F16" s="508"/>
+      <c r="G16" s="535"/>
+      <c r="H16" s="507"/>
+      <c r="I16" s="508"/>
+      <c r="J16" s="518"/>
+      <c r="K16" s="531"/>
     </row>
     <row r="17" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="525" t="s">
+      <c r="A17" s="533" t="s">
         <v>130</v>
       </c>
-      <c r="B17" s="526"/>
+      <c r="B17" s="534"/>
       <c r="C17" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="D17" s="510"/>
-      <c r="E17" s="507"/>
-      <c r="F17" s="508"/>
-      <c r="G17" s="510"/>
-      <c r="H17" s="507"/>
-      <c r="I17" s="508"/>
-      <c r="J17" s="551"/>
-      <c r="K17" s="524"/>
+      <c r="D17" s="536"/>
+      <c r="E17" s="509"/>
+      <c r="F17" s="510"/>
+      <c r="G17" s="536"/>
+      <c r="H17" s="509"/>
+      <c r="I17" s="510"/>
+      <c r="J17" s="519"/>
+      <c r="K17" s="532"/>
     </row>
     <row r="18" spans="1:11" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="530"/>
-      <c r="B18" s="531"/>
+      <c r="A18" s="502"/>
+      <c r="B18" s="503"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="522"/>
-      <c r="E18" s="522"/>
-      <c r="F18" s="522"/>
-      <c r="G18" s="522"/>
-      <c r="H18" s="522"/>
-      <c r="I18" s="522"/>
+      <c r="D18" s="504"/>
+      <c r="E18" s="504"/>
+      <c r="F18" s="504"/>
+      <c r="G18" s="504"/>
+      <c r="H18" s="504"/>
+      <c r="I18" s="504"/>
       <c r="J18" s="8"/>
       <c r="K18" s="9"/>
     </row>
     <row r="19" spans="1:11" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="530"/>
-      <c r="B19" s="531"/>
+      <c r="A19" s="502"/>
+      <c r="B19" s="503"/>
       <c r="C19" s="15"/>
-      <c r="D19" s="522"/>
-      <c r="E19" s="522"/>
-      <c r="F19" s="522"/>
-      <c r="G19" s="522"/>
-      <c r="H19" s="522"/>
-      <c r="I19" s="522"/>
+      <c r="D19" s="504"/>
+      <c r="E19" s="504"/>
+      <c r="F19" s="504"/>
+      <c r="G19" s="504"/>
+      <c r="H19" s="504"/>
+      <c r="I19" s="504"/>
       <c r="J19" s="8"/>
       <c r="K19" s="9"/>
     </row>
     <row r="20" spans="1:11" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="530"/>
-      <c r="B20" s="531"/>
+      <c r="A20" s="502"/>
+      <c r="B20" s="503"/>
       <c r="C20" s="15"/>
-      <c r="D20" s="522"/>
-      <c r="E20" s="522"/>
-      <c r="F20" s="522"/>
-      <c r="G20" s="522"/>
-      <c r="H20" s="522"/>
-      <c r="I20" s="522"/>
+      <c r="D20" s="504"/>
+      <c r="E20" s="504"/>
+      <c r="F20" s="504"/>
+      <c r="G20" s="504"/>
+      <c r="H20" s="504"/>
+      <c r="I20" s="504"/>
       <c r="J20" s="8"/>
       <c r="K20" s="9"/>
     </row>
     <row r="21" spans="1:11" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="530"/>
-      <c r="B21" s="531"/>
+      <c r="A21" s="502"/>
+      <c r="B21" s="503"/>
       <c r="C21" s="15"/>
-      <c r="D21" s="522"/>
-      <c r="E21" s="522"/>
-      <c r="F21" s="522"/>
-      <c r="G21" s="522"/>
-      <c r="H21" s="522"/>
-      <c r="I21" s="522"/>
+      <c r="D21" s="504"/>
+      <c r="E21" s="504"/>
+      <c r="F21" s="504"/>
+      <c r="G21" s="504"/>
+      <c r="H21" s="504"/>
+      <c r="I21" s="504"/>
       <c r="J21" s="8"/>
       <c r="K21" s="9"/>
     </row>
     <row r="22" spans="1:11" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="530"/>
-      <c r="B22" s="531"/>
+      <c r="A22" s="502"/>
+      <c r="B22" s="503"/>
       <c r="C22" s="15"/>
-      <c r="D22" s="522"/>
-      <c r="E22" s="522"/>
-      <c r="F22" s="522"/>
-      <c r="G22" s="522"/>
-      <c r="H22" s="522"/>
-      <c r="I22" s="522"/>
+      <c r="D22" s="504"/>
+      <c r="E22" s="504"/>
+      <c r="F22" s="504"/>
+      <c r="G22" s="504"/>
+      <c r="H22" s="504"/>
+      <c r="I22" s="504"/>
       <c r="J22" s="8"/>
       <c r="K22" s="9"/>
     </row>
     <row r="23" spans="1:11" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="530"/>
-      <c r="B23" s="531"/>
+      <c r="A23" s="502"/>
+      <c r="B23" s="503"/>
       <c r="C23" s="15"/>
-      <c r="D23" s="522"/>
-      <c r="E23" s="522"/>
-      <c r="F23" s="522"/>
-      <c r="G23" s="522"/>
-      <c r="H23" s="522"/>
-      <c r="I23" s="522"/>
+      <c r="D23" s="504"/>
+      <c r="E23" s="504"/>
+      <c r="F23" s="504"/>
+      <c r="G23" s="504"/>
+      <c r="H23" s="504"/>
+      <c r="I23" s="504"/>
       <c r="J23" s="8"/>
       <c r="K23" s="9"/>
     </row>
     <row r="24" spans="1:11" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="530"/>
-      <c r="B24" s="531"/>
+      <c r="A24" s="502"/>
+      <c r="B24" s="503"/>
       <c r="C24" s="15"/>
-      <c r="D24" s="522"/>
-      <c r="E24" s="522"/>
-      <c r="F24" s="522"/>
-      <c r="G24" s="522"/>
-      <c r="H24" s="522"/>
-      <c r="I24" s="522"/>
+      <c r="D24" s="504"/>
+      <c r="E24" s="504"/>
+      <c r="F24" s="504"/>
+      <c r="G24" s="504"/>
+      <c r="H24" s="504"/>
+      <c r="I24" s="504"/>
       <c r="J24" s="8"/>
       <c r="K24" s="9"/>
     </row>
     <row r="25" spans="1:11" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="530"/>
-      <c r="B25" s="531"/>
+      <c r="A25" s="502"/>
+      <c r="B25" s="503"/>
       <c r="C25" s="15"/>
-      <c r="D25" s="522"/>
-      <c r="E25" s="522"/>
-      <c r="F25" s="522"/>
-      <c r="G25" s="522"/>
-      <c r="H25" s="522"/>
-      <c r="I25" s="522"/>
+      <c r="D25" s="504"/>
+      <c r="E25" s="504"/>
+      <c r="F25" s="504"/>
+      <c r="G25" s="504"/>
+      <c r="H25" s="504"/>
+      <c r="I25" s="504"/>
       <c r="J25" s="8"/>
       <c r="K25" s="9"/>
     </row>
     <row r="26" spans="1:11" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="530"/>
-      <c r="B26" s="531"/>
+      <c r="A26" s="502"/>
+      <c r="B26" s="503"/>
       <c r="C26" s="15"/>
-      <c r="D26" s="522"/>
-      <c r="E26" s="522"/>
-      <c r="F26" s="522"/>
-      <c r="G26" s="522"/>
-      <c r="H26" s="522"/>
-      <c r="I26" s="522"/>
+      <c r="D26" s="504"/>
+      <c r="E26" s="504"/>
+      <c r="F26" s="504"/>
+      <c r="G26" s="504"/>
+      <c r="H26" s="504"/>
+      <c r="I26" s="504"/>
       <c r="J26" s="8"/>
       <c r="K26" s="9"/>
     </row>
     <row r="27" spans="1:11" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="530"/>
-      <c r="B27" s="531"/>
+      <c r="A27" s="502"/>
+      <c r="B27" s="503"/>
       <c r="C27" s="15"/>
-      <c r="D27" s="522"/>
-      <c r="E27" s="522"/>
-      <c r="F27" s="522"/>
-      <c r="G27" s="522"/>
-      <c r="H27" s="522"/>
-      <c r="I27" s="522"/>
+      <c r="D27" s="504"/>
+      <c r="E27" s="504"/>
+      <c r="F27" s="504"/>
+      <c r="G27" s="504"/>
+      <c r="H27" s="504"/>
+      <c r="I27" s="504"/>
       <c r="J27" s="8"/>
       <c r="K27" s="9"/>
     </row>
     <row r="28" spans="1:11" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="530"/>
-      <c r="B28" s="531"/>
+      <c r="A28" s="502"/>
+      <c r="B28" s="503"/>
       <c r="C28" s="15"/>
-      <c r="D28" s="522"/>
-      <c r="E28" s="522"/>
-      <c r="F28" s="522"/>
-      <c r="G28" s="522"/>
-      <c r="H28" s="522"/>
-      <c r="I28" s="522"/>
+      <c r="D28" s="504"/>
+      <c r="E28" s="504"/>
+      <c r="F28" s="504"/>
+      <c r="G28" s="504"/>
+      <c r="H28" s="504"/>
+      <c r="I28" s="504"/>
       <c r="J28" s="8"/>
       <c r="K28" s="9"/>
     </row>
     <row r="29" spans="1:11" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="530"/>
-      <c r="B29" s="531"/>
+      <c r="A29" s="502"/>
+      <c r="B29" s="503"/>
       <c r="C29" s="15"/>
-      <c r="D29" s="522"/>
-      <c r="E29" s="522"/>
-      <c r="F29" s="522"/>
-      <c r="G29" s="522"/>
-      <c r="H29" s="522"/>
-      <c r="I29" s="522"/>
+      <c r="D29" s="504"/>
+      <c r="E29" s="504"/>
+      <c r="F29" s="504"/>
+      <c r="G29" s="504"/>
+      <c r="H29" s="504"/>
+      <c r="I29" s="504"/>
       <c r="J29" s="8"/>
       <c r="K29" s="9"/>
     </row>
     <row r="30" spans="1:11" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="530"/>
-      <c r="B30" s="531"/>
+      <c r="A30" s="502"/>
+      <c r="B30" s="503"/>
       <c r="C30" s="15"/>
-      <c r="D30" s="522"/>
-      <c r="E30" s="522"/>
-      <c r="F30" s="522"/>
-      <c r="G30" s="522"/>
-      <c r="H30" s="522"/>
-      <c r="I30" s="522"/>
+      <c r="D30" s="504"/>
+      <c r="E30" s="504"/>
+      <c r="F30" s="504"/>
+      <c r="G30" s="504"/>
+      <c r="H30" s="504"/>
+      <c r="I30" s="504"/>
       <c r="J30" s="8"/>
       <c r="K30" s="9"/>
     </row>
     <row r="31" spans="1:11" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="530"/>
-      <c r="B31" s="531"/>
+      <c r="A31" s="502"/>
+      <c r="B31" s="503"/>
       <c r="C31" s="15"/>
-      <c r="D31" s="522"/>
-      <c r="E31" s="522"/>
-      <c r="F31" s="522"/>
-      <c r="G31" s="522"/>
-      <c r="H31" s="522"/>
-      <c r="I31" s="522"/>
+      <c r="D31" s="504"/>
+      <c r="E31" s="504"/>
+      <c r="F31" s="504"/>
+      <c r="G31" s="504"/>
+      <c r="H31" s="504"/>
+      <c r="I31" s="504"/>
       <c r="J31" s="8"/>
       <c r="K31" s="9"/>
     </row>
     <row r="32" spans="1:11" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="530"/>
-      <c r="B32" s="531"/>
+      <c r="A32" s="502"/>
+      <c r="B32" s="503"/>
       <c r="C32" s="15"/>
-      <c r="D32" s="522"/>
-      <c r="E32" s="522"/>
-      <c r="F32" s="522"/>
-      <c r="G32" s="522"/>
-      <c r="H32" s="522"/>
-      <c r="I32" s="522"/>
+      <c r="D32" s="504"/>
+      <c r="E32" s="504"/>
+      <c r="F32" s="504"/>
+      <c r="G32" s="504"/>
+      <c r="H32" s="504"/>
+      <c r="I32" s="504"/>
       <c r="J32" s="8"/>
       <c r="K32" s="9"/>
     </row>
     <row r="33" spans="1:12" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="530"/>
-      <c r="B33" s="531"/>
+      <c r="A33" s="502"/>
+      <c r="B33" s="503"/>
       <c r="C33" s="15"/>
-      <c r="D33" s="522"/>
-      <c r="E33" s="522"/>
-      <c r="F33" s="522"/>
-      <c r="G33" s="522"/>
-      <c r="H33" s="522"/>
-      <c r="I33" s="522"/>
+      <c r="D33" s="504"/>
+      <c r="E33" s="504"/>
+      <c r="F33" s="504"/>
+      <c r="G33" s="504"/>
+      <c r="H33" s="504"/>
+      <c r="I33" s="504"/>
       <c r="J33" s="8"/>
       <c r="K33" s="9"/>
     </row>
     <row r="34" spans="1:12" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="530"/>
-      <c r="B34" s="531"/>
+      <c r="A34" s="502"/>
+      <c r="B34" s="503"/>
       <c r="C34" s="15"/>
-      <c r="D34" s="522"/>
-      <c r="E34" s="522"/>
-      <c r="F34" s="522"/>
-      <c r="G34" s="522"/>
-      <c r="H34" s="522"/>
-      <c r="I34" s="522"/>
+      <c r="D34" s="504"/>
+      <c r="E34" s="504"/>
+      <c r="F34" s="504"/>
+      <c r="G34" s="504"/>
+      <c r="H34" s="504"/>
+      <c r="I34" s="504"/>
       <c r="J34" s="8"/>
       <c r="K34" s="9"/>
     </row>
     <row r="35" spans="1:12" s="12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="530"/>
-      <c r="B35" s="531"/>
+      <c r="A35" s="502"/>
+      <c r="B35" s="503"/>
       <c r="C35" s="15"/>
-      <c r="D35" s="522"/>
-      <c r="E35" s="522"/>
-      <c r="F35" s="522"/>
-      <c r="G35" s="522"/>
-      <c r="H35" s="522"/>
-      <c r="I35" s="522"/>
+      <c r="D35" s="504"/>
+      <c r="E35" s="504"/>
+      <c r="F35" s="504"/>
+      <c r="G35" s="504"/>
+      <c r="H35" s="504"/>
+      <c r="I35" s="504"/>
       <c r="J35" s="8"/>
       <c r="K35" s="9"/>
     </row>
     <row r="36" spans="1:12" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="530"/>
-      <c r="B36" s="531"/>
+      <c r="A36" s="502"/>
+      <c r="B36" s="503"/>
       <c r="C36" s="15"/>
-      <c r="D36" s="522"/>
-      <c r="E36" s="522"/>
-      <c r="F36" s="522"/>
-      <c r="G36" s="522"/>
-      <c r="H36" s="522"/>
-      <c r="I36" s="522"/>
+      <c r="D36" s="504"/>
+      <c r="E36" s="504"/>
+      <c r="F36" s="504"/>
+      <c r="G36" s="504"/>
+      <c r="H36" s="504"/>
+      <c r="I36" s="504"/>
       <c r="J36" s="8"/>
       <c r="K36" s="9"/>
     </row>
     <row r="37" spans="1:12" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="530"/>
-      <c r="B37" s="531"/>
+      <c r="A37" s="502"/>
+      <c r="B37" s="503"/>
       <c r="C37" s="15"/>
-      <c r="D37" s="522"/>
-      <c r="E37" s="522"/>
-      <c r="F37" s="522"/>
-      <c r="G37" s="522"/>
-      <c r="H37" s="522"/>
-      <c r="I37" s="522"/>
+      <c r="D37" s="504"/>
+      <c r="E37" s="504"/>
+      <c r="F37" s="504"/>
+      <c r="G37" s="504"/>
+      <c r="H37" s="504"/>
+      <c r="I37" s="504"/>
       <c r="J37" s="8"/>
       <c r="K37" s="9"/>
     </row>
     <row r="38" spans="1:12" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="530"/>
-      <c r="B38" s="531"/>
+      <c r="A38" s="502"/>
+      <c r="B38" s="503"/>
       <c r="C38" s="15"/>
-      <c r="D38" s="522"/>
-      <c r="E38" s="522"/>
-      <c r="F38" s="522"/>
-      <c r="G38" s="522"/>
-      <c r="H38" s="522"/>
-      <c r="I38" s="522"/>
+      <c r="D38" s="504"/>
+      <c r="E38" s="504"/>
+      <c r="F38" s="504"/>
+      <c r="G38" s="504"/>
+      <c r="H38" s="504"/>
+      <c r="I38" s="504"/>
       <c r="J38" s="8"/>
       <c r="K38" s="9"/>
     </row>
     <row r="39" spans="1:12" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="530"/>
-      <c r="B39" s="531"/>
+      <c r="A39" s="502"/>
+      <c r="B39" s="503"/>
       <c r="C39" s="15"/>
-      <c r="D39" s="522"/>
-      <c r="E39" s="522"/>
-      <c r="F39" s="522"/>
-      <c r="G39" s="522"/>
-      <c r="H39" s="522"/>
-      <c r="I39" s="522"/>
+      <c r="D39" s="504"/>
+      <c r="E39" s="504"/>
+      <c r="F39" s="504"/>
+      <c r="G39" s="504"/>
+      <c r="H39" s="504"/>
+      <c r="I39" s="504"/>
       <c r="J39" s="8"/>
       <c r="K39" s="9"/>
     </row>
     <row r="40" spans="1:12" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="530"/>
-      <c r="B40" s="531"/>
+      <c r="A40" s="502"/>
+      <c r="B40" s="503"/>
       <c r="C40" s="15"/>
-      <c r="D40" s="522"/>
-      <c r="E40" s="522"/>
-      <c r="F40" s="522"/>
-      <c r="G40" s="522"/>
-      <c r="H40" s="522"/>
-      <c r="I40" s="522"/>
+      <c r="D40" s="504"/>
+      <c r="E40" s="504"/>
+      <c r="F40" s="504"/>
+      <c r="G40" s="504"/>
+      <c r="H40" s="504"/>
+      <c r="I40" s="504"/>
       <c r="J40" s="8"/>
       <c r="K40" s="9"/>
     </row>
     <row r="41" spans="1:12" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="530"/>
-      <c r="B41" s="531"/>
+      <c r="A41" s="502"/>
+      <c r="B41" s="503"/>
       <c r="C41" s="15"/>
-      <c r="D41" s="522"/>
-      <c r="E41" s="522"/>
-      <c r="F41" s="522"/>
-      <c r="G41" s="522"/>
-      <c r="H41" s="522"/>
-      <c r="I41" s="522"/>
+      <c r="D41" s="504"/>
+      <c r="E41" s="504"/>
+      <c r="F41" s="504"/>
+      <c r="G41" s="504"/>
+      <c r="H41" s="504"/>
+      <c r="I41" s="504"/>
       <c r="J41" s="8"/>
       <c r="K41" s="9"/>
     </row>
     <row r="42" spans="1:12" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="530"/>
-      <c r="B42" s="531"/>
+      <c r="A42" s="502"/>
+      <c r="B42" s="503"/>
       <c r="C42" s="15"/>
-      <c r="D42" s="522"/>
-      <c r="E42" s="522"/>
-      <c r="F42" s="522"/>
-      <c r="G42" s="522"/>
-      <c r="H42" s="522"/>
-      <c r="I42" s="522"/>
+      <c r="D42" s="504"/>
+      <c r="E42" s="504"/>
+      <c r="F42" s="504"/>
+      <c r="G42" s="504"/>
+      <c r="H42" s="504"/>
+      <c r="I42" s="504"/>
       <c r="J42" s="8"/>
       <c r="K42" s="9"/>
     </row>
     <row r="43" spans="1:12" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="530"/>
-      <c r="B43" s="531"/>
+      <c r="A43" s="502"/>
+      <c r="B43" s="503"/>
       <c r="C43" s="15"/>
-      <c r="D43" s="522"/>
-      <c r="E43" s="522"/>
-      <c r="F43" s="522"/>
-      <c r="G43" s="522"/>
-      <c r="H43" s="522"/>
-      <c r="I43" s="522"/>
+      <c r="D43" s="504"/>
+      <c r="E43" s="504"/>
+      <c r="F43" s="504"/>
+      <c r="G43" s="504"/>
+      <c r="H43" s="504"/>
+      <c r="I43" s="504"/>
       <c r="J43" s="8"/>
       <c r="K43" s="9"/>
     </row>
     <row r="44" spans="1:12" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="530"/>
-      <c r="B44" s="531"/>
+      <c r="A44" s="502"/>
+      <c r="B44" s="503"/>
       <c r="C44" s="15"/>
-      <c r="D44" s="522"/>
-      <c r="E44" s="522"/>
-      <c r="F44" s="522"/>
-      <c r="G44" s="522"/>
-      <c r="H44" s="522"/>
-      <c r="I44" s="522"/>
+      <c r="D44" s="504"/>
+      <c r="E44" s="504"/>
+      <c r="F44" s="504"/>
+      <c r="G44" s="504"/>
+      <c r="H44" s="504"/>
+      <c r="I44" s="504"/>
       <c r="J44" s="8"/>
       <c r="K44" s="9"/>
     </row>
     <row r="45" spans="1:12" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="535"/>
-      <c r="B45" s="536"/>
+      <c r="A45" s="523"/>
+      <c r="B45" s="524"/>
       <c r="C45" s="16"/>
-      <c r="D45" s="541"/>
-      <c r="E45" s="541"/>
-      <c r="F45" s="541"/>
-      <c r="G45" s="541"/>
-      <c r="H45" s="541"/>
-      <c r="I45" s="541"/>
+      <c r="D45" s="506"/>
+      <c r="E45" s="506"/>
+      <c r="F45" s="506"/>
+      <c r="G45" s="506"/>
+      <c r="H45" s="506"/>
+      <c r="I45" s="506"/>
       <c r="J45" s="10"/>
       <c r="K45" s="11"/>
     </row>
     <row r="46" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="537" t="s">
+      <c r="A46" s="525" t="s">
         <v>115</v>
       </c>
-      <c r="B46" s="538"/>
-      <c r="C46" s="538"/>
-      <c r="D46" s="538"/>
-      <c r="E46" s="538"/>
-      <c r="F46" s="538"/>
-      <c r="G46" s="538"/>
-      <c r="H46" s="538"/>
-      <c r="I46" s="538"/>
-      <c r="J46" s="539"/>
-      <c r="K46" s="540"/>
+      <c r="B46" s="526"/>
+      <c r="C46" s="526"/>
+      <c r="D46" s="526"/>
+      <c r="E46" s="526"/>
+      <c r="F46" s="526"/>
+      <c r="G46" s="526"/>
+      <c r="H46" s="526"/>
+      <c r="I46" s="526"/>
+      <c r="J46" s="527"/>
+      <c r="K46" s="528"/>
     </row>
     <row r="47" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="284" t="s">
+      <c r="A47" s="480" t="s">
         <v>144</v>
       </c>
-      <c r="B47" s="285"/>
-      <c r="C47" s="286"/>
-      <c r="D47" s="532"/>
-      <c r="E47" s="533"/>
-      <c r="F47" s="533"/>
-      <c r="G47" s="533"/>
-      <c r="H47" s="534"/>
+      <c r="B47" s="481"/>
+      <c r="C47" s="482"/>
+      <c r="D47" s="520"/>
+      <c r="E47" s="521"/>
+      <c r="F47" s="521"/>
+      <c r="G47" s="521"/>
+      <c r="H47" s="522"/>
       <c r="I47" s="206" t="s">
         <v>145</v>
       </c>
@@ -12278,23 +12278,116 @@
       <c r="L47" s="208"/>
     </row>
     <row r="48" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="283" t="s">
+      <c r="A48" s="479" t="s">
         <v>322</v>
       </c>
-      <c r="B48" s="283"/>
-      <c r="C48" s="283"/>
-      <c r="D48" s="283"/>
-      <c r="E48" s="283"/>
-      <c r="F48" s="283"/>
-      <c r="G48" s="283"/>
-      <c r="H48" s="283"/>
-      <c r="I48" s="283"/>
-      <c r="J48" s="283"/>
-      <c r="K48" s="283"/>
+      <c r="B48" s="479"/>
+      <c r="C48" s="479"/>
+      <c r="D48" s="479"/>
+      <c r="E48" s="479"/>
+      <c r="F48" s="479"/>
+      <c r="G48" s="479"/>
+      <c r="H48" s="479"/>
+      <c r="I48" s="479"/>
+      <c r="J48" s="479"/>
+      <c r="K48" s="479"/>
       <c r="L48" s="211"/>
     </row>
   </sheetData>
   <mergeCells count="117">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D15:F17"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="G15:I17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A48:K48"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A46:K46"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A24:B24"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="G34:I34"/>
@@ -12319,99 +12412,6 @@
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="G23:I23"/>
     <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A12:K12"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A48:K48"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A46:K46"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="K15:K17"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D15:F17"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="G15:I17"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.11811023622047245" bottom="0.11811023622047245" header="0.15748031496062992" footer="0.15748031496062992"/>
@@ -12446,564 +12446,564 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="590"/>
-      <c r="B1" s="591"/>
-      <c r="C1" s="591"/>
-      <c r="D1" s="591"/>
-      <c r="E1" s="591"/>
-      <c r="F1" s="591"/>
-      <c r="G1" s="591"/>
-      <c r="H1" s="591"/>
-      <c r="I1" s="591"/>
-      <c r="J1" s="591"/>
-      <c r="K1" s="592"/>
+      <c r="A1" s="567"/>
+      <c r="B1" s="568"/>
+      <c r="C1" s="568"/>
+      <c r="D1" s="568"/>
+      <c r="E1" s="568"/>
+      <c r="F1" s="568"/>
+      <c r="G1" s="568"/>
+      <c r="H1" s="568"/>
+      <c r="I1" s="568"/>
+      <c r="J1" s="568"/>
+      <c r="K1" s="569"/>
     </row>
     <row r="2" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="612" t="s">
+      <c r="A2" s="594" t="s">
         <v>323</v>
       </c>
-      <c r="B2" s="613"/>
-      <c r="C2" s="613"/>
-      <c r="D2" s="613"/>
-      <c r="E2" s="613"/>
-      <c r="F2" s="613"/>
-      <c r="G2" s="613"/>
-      <c r="H2" s="613"/>
-      <c r="I2" s="613"/>
-      <c r="J2" s="613"/>
-      <c r="K2" s="614"/>
+      <c r="B2" s="595"/>
+      <c r="C2" s="595"/>
+      <c r="D2" s="595"/>
+      <c r="E2" s="595"/>
+      <c r="F2" s="595"/>
+      <c r="G2" s="595"/>
+      <c r="H2" s="595"/>
+      <c r="I2" s="595"/>
+      <c r="J2" s="595"/>
+      <c r="K2" s="596"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="598" t="s">
+      <c r="A3" s="578" t="s">
         <v>324</v>
       </c>
-      <c r="B3" s="600" t="s">
+      <c r="B3" s="579" t="s">
         <v>325</v>
       </c>
-      <c r="C3" s="600"/>
-      <c r="D3" s="601"/>
-      <c r="E3" s="505" t="s">
+      <c r="C3" s="579"/>
+      <c r="D3" s="580"/>
+      <c r="E3" s="540" t="s">
         <v>326</v>
       </c>
-      <c r="F3" s="506"/>
-      <c r="G3" s="617" t="s">
+      <c r="F3" s="541"/>
+      <c r="G3" s="599" t="s">
         <v>327</v>
       </c>
-      <c r="H3" s="509" t="s">
+      <c r="H3" s="542" t="s">
         <v>328</v>
       </c>
-      <c r="I3" s="607"/>
-      <c r="J3" s="607"/>
-      <c r="K3" s="608"/>
+      <c r="I3" s="589"/>
+      <c r="J3" s="589"/>
+      <c r="K3" s="590"/>
     </row>
     <row r="4" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="599"/>
-      <c r="B4" s="602"/>
-      <c r="C4" s="602"/>
-      <c r="D4" s="603"/>
-      <c r="E4" s="507"/>
-      <c r="F4" s="508"/>
-      <c r="G4" s="618"/>
-      <c r="H4" s="609"/>
-      <c r="I4" s="593"/>
-      <c r="J4" s="593"/>
-      <c r="K4" s="610"/>
+      <c r="A4" s="566"/>
+      <c r="B4" s="581"/>
+      <c r="C4" s="581"/>
+      <c r="D4" s="582"/>
+      <c r="E4" s="509"/>
+      <c r="F4" s="510"/>
+      <c r="G4" s="600"/>
+      <c r="H4" s="591"/>
+      <c r="I4" s="570"/>
+      <c r="J4" s="570"/>
+      <c r="K4" s="592"/>
     </row>
     <row r="5" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
-      <c r="B5" s="615"/>
-      <c r="C5" s="615"/>
-      <c r="D5" s="616"/>
+      <c r="B5" s="597"/>
+      <c r="C5" s="597"/>
+      <c r="D5" s="598"/>
       <c r="E5" s="18" t="s">
         <v>130</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="G5" s="619"/>
-      <c r="H5" s="611"/>
-      <c r="I5" s="434"/>
-      <c r="J5" s="434"/>
-      <c r="K5" s="435"/>
+      <c r="G5" s="601"/>
+      <c r="H5" s="593"/>
+      <c r="I5" s="405"/>
+      <c r="J5" s="405"/>
+      <c r="K5" s="406"/>
     </row>
     <row r="6" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="552"/>
-      <c r="B6" s="553"/>
-      <c r="C6" s="553"/>
-      <c r="D6" s="554"/>
+      <c r="A6" s="586"/>
+      <c r="B6" s="587"/>
+      <c r="C6" s="587"/>
+      <c r="D6" s="588"/>
       <c r="E6" s="24"/>
       <c r="F6" s="24"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="555"/>
-      <c r="I6" s="556"/>
-      <c r="J6" s="556"/>
-      <c r="K6" s="557"/>
+      <c r="H6" s="573"/>
+      <c r="I6" s="574"/>
+      <c r="J6" s="574"/>
+      <c r="K6" s="575"/>
     </row>
     <row r="7" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="552"/>
-      <c r="B7" s="553"/>
-      <c r="C7" s="553"/>
-      <c r="D7" s="554"/>
+      <c r="A7" s="586"/>
+      <c r="B7" s="587"/>
+      <c r="C7" s="587"/>
+      <c r="D7" s="588"/>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
       <c r="G7" s="25"/>
-      <c r="H7" s="555"/>
-      <c r="I7" s="556"/>
-      <c r="J7" s="556"/>
-      <c r="K7" s="557"/>
+      <c r="H7" s="573"/>
+      <c r="I7" s="574"/>
+      <c r="J7" s="574"/>
+      <c r="K7" s="575"/>
     </row>
     <row r="8" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="552"/>
-      <c r="B8" s="553"/>
-      <c r="C8" s="553"/>
-      <c r="D8" s="554"/>
+      <c r="A8" s="586"/>
+      <c r="B8" s="587"/>
+      <c r="C8" s="587"/>
+      <c r="D8" s="588"/>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
       <c r="G8" s="25"/>
-      <c r="H8" s="555"/>
-      <c r="I8" s="556"/>
-      <c r="J8" s="556"/>
-      <c r="K8" s="557"/>
+      <c r="H8" s="573"/>
+      <c r="I8" s="574"/>
+      <c r="J8" s="574"/>
+      <c r="K8" s="575"/>
     </row>
     <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="552"/>
-      <c r="B9" s="553"/>
-      <c r="C9" s="553"/>
-      <c r="D9" s="554"/>
+      <c r="A9" s="586"/>
+      <c r="B9" s="587"/>
+      <c r="C9" s="587"/>
+      <c r="D9" s="588"/>
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="555"/>
-      <c r="I9" s="556"/>
-      <c r="J9" s="556"/>
-      <c r="K9" s="557"/>
+      <c r="H9" s="573"/>
+      <c r="I9" s="574"/>
+      <c r="J9" s="574"/>
+      <c r="K9" s="575"/>
     </row>
     <row r="10" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="552"/>
-      <c r="B10" s="553"/>
-      <c r="C10" s="553"/>
-      <c r="D10" s="554"/>
+      <c r="A10" s="586"/>
+      <c r="B10" s="587"/>
+      <c r="C10" s="587"/>
+      <c r="D10" s="588"/>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="555"/>
-      <c r="I10" s="556"/>
-      <c r="J10" s="556"/>
-      <c r="K10" s="557"/>
+      <c r="H10" s="573"/>
+      <c r="I10" s="574"/>
+      <c r="J10" s="574"/>
+      <c r="K10" s="575"/>
     </row>
     <row r="11" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="552"/>
-      <c r="B11" s="553"/>
-      <c r="C11" s="553"/>
-      <c r="D11" s="554"/>
+      <c r="A11" s="586"/>
+      <c r="B11" s="587"/>
+      <c r="C11" s="587"/>
+      <c r="D11" s="588"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="555"/>
-      <c r="I11" s="556"/>
-      <c r="J11" s="556"/>
-      <c r="K11" s="557"/>
+      <c r="H11" s="573"/>
+      <c r="I11" s="574"/>
+      <c r="J11" s="574"/>
+      <c r="K11" s="575"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="604"/>
-      <c r="B12" s="605"/>
-      <c r="C12" s="605"/>
-      <c r="D12" s="606"/>
+      <c r="A12" s="583"/>
+      <c r="B12" s="584"/>
+      <c r="C12" s="584"/>
+      <c r="D12" s="585"/>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
       <c r="G12" s="26"/>
-      <c r="H12" s="620"/>
-      <c r="I12" s="621"/>
-      <c r="J12" s="621"/>
-      <c r="K12" s="622"/>
+      <c r="H12" s="552"/>
+      <c r="I12" s="553"/>
+      <c r="J12" s="553"/>
+      <c r="K12" s="554"/>
     </row>
     <row r="13" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="543" t="s">
+      <c r="A13" s="511" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="544"/>
-      <c r="C13" s="544"/>
-      <c r="D13" s="544"/>
-      <c r="E13" s="544"/>
-      <c r="F13" s="544"/>
-      <c r="G13" s="544"/>
-      <c r="H13" s="544"/>
-      <c r="I13" s="544"/>
-      <c r="J13" s="544"/>
-      <c r="K13" s="545"/>
+      <c r="B13" s="512"/>
+      <c r="C13" s="512"/>
+      <c r="D13" s="512"/>
+      <c r="E13" s="512"/>
+      <c r="F13" s="512"/>
+      <c r="G13" s="512"/>
+      <c r="H13" s="512"/>
+      <c r="I13" s="512"/>
+      <c r="J13" s="512"/>
+      <c r="K13" s="513"/>
     </row>
     <row r="14" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="623" t="s">
+      <c r="A14" s="555" t="s">
         <v>329</v>
       </c>
-      <c r="B14" s="624"/>
-      <c r="C14" s="624"/>
-      <c r="D14" s="624"/>
-      <c r="E14" s="624"/>
-      <c r="F14" s="624"/>
-      <c r="G14" s="624"/>
-      <c r="H14" s="624"/>
-      <c r="I14" s="624"/>
-      <c r="J14" s="624"/>
-      <c r="K14" s="625"/>
+      <c r="B14" s="556"/>
+      <c r="C14" s="556"/>
+      <c r="D14" s="556"/>
+      <c r="E14" s="556"/>
+      <c r="F14" s="556"/>
+      <c r="G14" s="556"/>
+      <c r="H14" s="556"/>
+      <c r="I14" s="556"/>
+      <c r="J14" s="556"/>
+      <c r="K14" s="557"/>
     </row>
     <row r="15" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="599" t="s">
+      <c r="A15" s="566" t="s">
         <v>330</v>
       </c>
-      <c r="B15" s="528" t="s">
+      <c r="B15" s="507" t="s">
         <v>331</v>
       </c>
-      <c r="C15" s="593"/>
-      <c r="D15" s="594"/>
-      <c r="E15" s="528" t="s">
+      <c r="C15" s="570"/>
+      <c r="D15" s="571"/>
+      <c r="E15" s="507" t="s">
         <v>332</v>
       </c>
-      <c r="F15" s="529"/>
-      <c r="G15" s="626" t="s">
+      <c r="F15" s="508"/>
+      <c r="G15" s="561" t="s">
         <v>327</v>
       </c>
-      <c r="H15" s="596" t="s">
+      <c r="H15" s="576" t="s">
         <v>333</v>
       </c>
-      <c r="I15" s="527" t="s">
+      <c r="I15" s="535" t="s">
         <v>334</v>
       </c>
-      <c r="J15" s="593"/>
-      <c r="K15" s="610"/>
+      <c r="J15" s="570"/>
+      <c r="K15" s="592"/>
     </row>
     <row r="16" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="599"/>
-      <c r="B16" s="593"/>
-      <c r="C16" s="593"/>
-      <c r="D16" s="594"/>
-      <c r="E16" s="507"/>
-      <c r="F16" s="508"/>
-      <c r="G16" s="626"/>
-      <c r="H16" s="596"/>
-      <c r="I16" s="609"/>
-      <c r="J16" s="593"/>
-      <c r="K16" s="610"/>
+      <c r="A16" s="566"/>
+      <c r="B16" s="570"/>
+      <c r="C16" s="570"/>
+      <c r="D16" s="571"/>
+      <c r="E16" s="509"/>
+      <c r="F16" s="510"/>
+      <c r="G16" s="561"/>
+      <c r="H16" s="576"/>
+      <c r="I16" s="591"/>
+      <c r="J16" s="570"/>
+      <c r="K16" s="592"/>
     </row>
     <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
-      <c r="B17" s="434"/>
-      <c r="C17" s="434"/>
-      <c r="D17" s="595"/>
+      <c r="B17" s="405"/>
+      <c r="C17" s="405"/>
+      <c r="D17" s="572"/>
       <c r="E17" s="18" t="s">
         <v>130</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="G17" s="627"/>
-      <c r="H17" s="597"/>
-      <c r="I17" s="611"/>
-      <c r="J17" s="434"/>
-      <c r="K17" s="435"/>
+      <c r="G17" s="562"/>
+      <c r="H17" s="577"/>
+      <c r="I17" s="593"/>
+      <c r="J17" s="405"/>
+      <c r="K17" s="406"/>
     </row>
     <row r="18" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="568"/>
-      <c r="B18" s="569"/>
-      <c r="C18" s="569"/>
-      <c r="D18" s="570"/>
+      <c r="A18" s="558"/>
+      <c r="B18" s="559"/>
+      <c r="C18" s="559"/>
+      <c r="D18" s="560"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="21"/>
       <c r="H18" s="20"/>
-      <c r="I18" s="587"/>
-      <c r="J18" s="588"/>
-      <c r="K18" s="589"/>
+      <c r="I18" s="563"/>
+      <c r="J18" s="564"/>
+      <c r="K18" s="565"/>
     </row>
     <row r="19" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="568"/>
-      <c r="B19" s="569"/>
-      <c r="C19" s="569"/>
-      <c r="D19" s="570"/>
+      <c r="A19" s="558"/>
+      <c r="B19" s="559"/>
+      <c r="C19" s="559"/>
+      <c r="D19" s="560"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="21"/>
       <c r="H19" s="20"/>
-      <c r="I19" s="565"/>
-      <c r="J19" s="566"/>
-      <c r="K19" s="567"/>
+      <c r="I19" s="602"/>
+      <c r="J19" s="603"/>
+      <c r="K19" s="604"/>
     </row>
     <row r="20" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="568"/>
-      <c r="B20" s="569"/>
-      <c r="C20" s="569"/>
-      <c r="D20" s="570"/>
+      <c r="A20" s="558"/>
+      <c r="B20" s="559"/>
+      <c r="C20" s="559"/>
+      <c r="D20" s="560"/>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
       <c r="G20" s="21"/>
       <c r="H20" s="20"/>
-      <c r="I20" s="565"/>
-      <c r="J20" s="566"/>
-      <c r="K20" s="567"/>
+      <c r="I20" s="602"/>
+      <c r="J20" s="603"/>
+      <c r="K20" s="604"/>
     </row>
     <row r="21" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="568"/>
-      <c r="B21" s="569"/>
-      <c r="C21" s="569"/>
-      <c r="D21" s="570"/>
+      <c r="A21" s="558"/>
+      <c r="B21" s="559"/>
+      <c r="C21" s="559"/>
+      <c r="D21" s="560"/>
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
       <c r="G21" s="21"/>
       <c r="H21" s="20"/>
-      <c r="I21" s="565"/>
-      <c r="J21" s="566"/>
-      <c r="K21" s="567"/>
+      <c r="I21" s="602"/>
+      <c r="J21" s="603"/>
+      <c r="K21" s="604"/>
     </row>
     <row r="22" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="568"/>
-      <c r="B22" s="569"/>
-      <c r="C22" s="569"/>
-      <c r="D22" s="570"/>
+      <c r="A22" s="558"/>
+      <c r="B22" s="559"/>
+      <c r="C22" s="559"/>
+      <c r="D22" s="560"/>
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
       <c r="G22" s="21"/>
       <c r="H22" s="20"/>
-      <c r="I22" s="565"/>
-      <c r="J22" s="566"/>
-      <c r="K22" s="567"/>
+      <c r="I22" s="602"/>
+      <c r="J22" s="603"/>
+      <c r="K22" s="604"/>
     </row>
     <row r="23" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="568"/>
-      <c r="B23" s="569"/>
-      <c r="C23" s="569"/>
-      <c r="D23" s="570"/>
+      <c r="A23" s="558"/>
+      <c r="B23" s="559"/>
+      <c r="C23" s="559"/>
+      <c r="D23" s="560"/>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
       <c r="G23" s="21"/>
       <c r="H23" s="20"/>
-      <c r="I23" s="565"/>
-      <c r="J23" s="566"/>
-      <c r="K23" s="567"/>
+      <c r="I23" s="602"/>
+      <c r="J23" s="603"/>
+      <c r="K23" s="604"/>
     </row>
     <row r="24" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="568"/>
-      <c r="B24" s="569"/>
-      <c r="C24" s="569"/>
-      <c r="D24" s="570"/>
+      <c r="A24" s="558"/>
+      <c r="B24" s="559"/>
+      <c r="C24" s="559"/>
+      <c r="D24" s="560"/>
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
       <c r="G24" s="21"/>
       <c r="H24" s="20"/>
-      <c r="I24" s="565"/>
-      <c r="J24" s="566"/>
-      <c r="K24" s="567"/>
+      <c r="I24" s="602"/>
+      <c r="J24" s="603"/>
+      <c r="K24" s="604"/>
     </row>
     <row r="25" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="568"/>
-      <c r="B25" s="569"/>
-      <c r="C25" s="569"/>
-      <c r="D25" s="570"/>
+      <c r="A25" s="558"/>
+      <c r="B25" s="559"/>
+      <c r="C25" s="559"/>
+      <c r="D25" s="560"/>
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
       <c r="G25" s="21"/>
       <c r="H25" s="20"/>
-      <c r="I25" s="565"/>
-      <c r="J25" s="566"/>
-      <c r="K25" s="567"/>
+      <c r="I25" s="602"/>
+      <c r="J25" s="603"/>
+      <c r="K25" s="604"/>
     </row>
     <row r="26" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="568"/>
-      <c r="B26" s="569"/>
-      <c r="C26" s="569"/>
-      <c r="D26" s="570"/>
+      <c r="A26" s="558"/>
+      <c r="B26" s="559"/>
+      <c r="C26" s="559"/>
+      <c r="D26" s="560"/>
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
       <c r="G26" s="21"/>
       <c r="H26" s="20"/>
-      <c r="I26" s="587"/>
-      <c r="J26" s="588"/>
-      <c r="K26" s="589"/>
+      <c r="I26" s="563"/>
+      <c r="J26" s="564"/>
+      <c r="K26" s="565"/>
     </row>
     <row r="27" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="568"/>
-      <c r="B27" s="569"/>
-      <c r="C27" s="569"/>
-      <c r="D27" s="570"/>
+      <c r="A27" s="558"/>
+      <c r="B27" s="559"/>
+      <c r="C27" s="559"/>
+      <c r="D27" s="560"/>
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
       <c r="G27" s="21"/>
       <c r="H27" s="20"/>
-      <c r="I27" s="587"/>
-      <c r="J27" s="588"/>
-      <c r="K27" s="589"/>
+      <c r="I27" s="563"/>
+      <c r="J27" s="564"/>
+      <c r="K27" s="565"/>
     </row>
     <row r="28" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="568"/>
-      <c r="B28" s="569"/>
-      <c r="C28" s="569"/>
-      <c r="D28" s="570"/>
+      <c r="A28" s="558"/>
+      <c r="B28" s="559"/>
+      <c r="C28" s="559"/>
+      <c r="D28" s="560"/>
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
       <c r="G28" s="21"/>
       <c r="H28" s="20"/>
-      <c r="I28" s="587"/>
-      <c r="J28" s="588"/>
-      <c r="K28" s="589"/>
+      <c r="I28" s="563"/>
+      <c r="J28" s="564"/>
+      <c r="K28" s="565"/>
     </row>
     <row r="29" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="568"/>
-      <c r="B29" s="569"/>
-      <c r="C29" s="569"/>
-      <c r="D29" s="570"/>
+      <c r="A29" s="558"/>
+      <c r="B29" s="559"/>
+      <c r="C29" s="559"/>
+      <c r="D29" s="560"/>
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
       <c r="G29" s="21"/>
       <c r="H29" s="20"/>
-      <c r="I29" s="565"/>
-      <c r="J29" s="566"/>
-      <c r="K29" s="567"/>
+      <c r="I29" s="602"/>
+      <c r="J29" s="603"/>
+      <c r="K29" s="604"/>
     </row>
     <row r="30" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="568"/>
-      <c r="B30" s="569"/>
-      <c r="C30" s="569"/>
-      <c r="D30" s="570"/>
+      <c r="A30" s="558"/>
+      <c r="B30" s="559"/>
+      <c r="C30" s="559"/>
+      <c r="D30" s="560"/>
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
       <c r="G30" s="21"/>
       <c r="H30" s="20"/>
-      <c r="I30" s="565"/>
-      <c r="J30" s="566"/>
-      <c r="K30" s="567"/>
+      <c r="I30" s="602"/>
+      <c r="J30" s="603"/>
+      <c r="K30" s="604"/>
     </row>
     <row r="31" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="568"/>
-      <c r="B31" s="569"/>
-      <c r="C31" s="569"/>
-      <c r="D31" s="570"/>
+      <c r="A31" s="558"/>
+      <c r="B31" s="559"/>
+      <c r="C31" s="559"/>
+      <c r="D31" s="560"/>
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
       <c r="G31" s="21"/>
       <c r="H31" s="20"/>
-      <c r="I31" s="565"/>
-      <c r="J31" s="566"/>
-      <c r="K31" s="567"/>
+      <c r="I31" s="602"/>
+      <c r="J31" s="603"/>
+      <c r="K31" s="604"/>
     </row>
     <row r="32" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="568"/>
-      <c r="B32" s="569"/>
-      <c r="C32" s="569"/>
-      <c r="D32" s="570"/>
+      <c r="A32" s="558"/>
+      <c r="B32" s="559"/>
+      <c r="C32" s="559"/>
+      <c r="D32" s="560"/>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
       <c r="G32" s="21"/>
       <c r="H32" s="20"/>
-      <c r="I32" s="565"/>
-      <c r="J32" s="566"/>
-      <c r="K32" s="567"/>
+      <c r="I32" s="602"/>
+      <c r="J32" s="603"/>
+      <c r="K32" s="604"/>
     </row>
     <row r="33" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="568"/>
-      <c r="B33" s="569"/>
-      <c r="C33" s="569"/>
-      <c r="D33" s="570"/>
+      <c r="A33" s="558"/>
+      <c r="B33" s="559"/>
+      <c r="C33" s="559"/>
+      <c r="D33" s="560"/>
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
       <c r="G33" s="21"/>
       <c r="H33" s="20"/>
-      <c r="I33" s="565"/>
-      <c r="J33" s="566"/>
-      <c r="K33" s="567"/>
+      <c r="I33" s="602"/>
+      <c r="J33" s="603"/>
+      <c r="K33" s="604"/>
     </row>
     <row r="34" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="568"/>
-      <c r="B34" s="569"/>
-      <c r="C34" s="569"/>
-      <c r="D34" s="570"/>
+      <c r="A34" s="558"/>
+      <c r="B34" s="559"/>
+      <c r="C34" s="559"/>
+      <c r="D34" s="560"/>
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
       <c r="G34" s="21"/>
       <c r="H34" s="20"/>
-      <c r="I34" s="565"/>
-      <c r="J34" s="566"/>
-      <c r="K34" s="567"/>
+      <c r="I34" s="602"/>
+      <c r="J34" s="603"/>
+      <c r="K34" s="604"/>
     </row>
     <row r="35" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="568"/>
-      <c r="B35" s="569"/>
-      <c r="C35" s="569"/>
-      <c r="D35" s="570"/>
+      <c r="A35" s="558"/>
+      <c r="B35" s="559"/>
+      <c r="C35" s="559"/>
+      <c r="D35" s="560"/>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
       <c r="G35" s="21"/>
       <c r="H35" s="20"/>
-      <c r="I35" s="587"/>
-      <c r="J35" s="588"/>
-      <c r="K35" s="589"/>
+      <c r="I35" s="563"/>
+      <c r="J35" s="564"/>
+      <c r="K35" s="565"/>
     </row>
     <row r="36" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="568"/>
-      <c r="B36" s="569"/>
-      <c r="C36" s="569"/>
-      <c r="D36" s="570"/>
+      <c r="A36" s="558"/>
+      <c r="B36" s="559"/>
+      <c r="C36" s="559"/>
+      <c r="D36" s="560"/>
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
       <c r="G36" s="21"/>
       <c r="H36" s="20"/>
-      <c r="I36" s="587"/>
-      <c r="J36" s="588"/>
-      <c r="K36" s="589"/>
+      <c r="I36" s="563"/>
+      <c r="J36" s="564"/>
+      <c r="K36" s="565"/>
     </row>
     <row r="37" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="568"/>
-      <c r="B37" s="569"/>
-      <c r="C37" s="569"/>
-      <c r="D37" s="570"/>
+      <c r="A37" s="558"/>
+      <c r="B37" s="559"/>
+      <c r="C37" s="559"/>
+      <c r="D37" s="560"/>
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
       <c r="G37" s="21"/>
       <c r="H37" s="20"/>
-      <c r="I37" s="587"/>
-      <c r="J37" s="588"/>
-      <c r="K37" s="589"/>
+      <c r="I37" s="563"/>
+      <c r="J37" s="564"/>
+      <c r="K37" s="565"/>
     </row>
     <row r="38" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="581"/>
-      <c r="B38" s="582"/>
-      <c r="C38" s="582"/>
-      <c r="D38" s="583"/>
+      <c r="A38" s="619"/>
+      <c r="B38" s="620"/>
+      <c r="C38" s="620"/>
+      <c r="D38" s="621"/>
       <c r="E38" s="19"/>
       <c r="F38" s="19"/>
       <c r="G38" s="22"/>
       <c r="H38" s="23"/>
-      <c r="I38" s="584"/>
-      <c r="J38" s="585"/>
-      <c r="K38" s="586"/>
+      <c r="I38" s="622"/>
+      <c r="J38" s="623"/>
+      <c r="K38" s="624"/>
     </row>
     <row r="39" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="287" t="s">
+      <c r="A39" s="483" t="s">
         <v>115</v>
       </c>
-      <c r="B39" s="288"/>
-      <c r="C39" s="288"/>
-      <c r="D39" s="288"/>
-      <c r="E39" s="288"/>
-      <c r="F39" s="288"/>
-      <c r="G39" s="288"/>
-      <c r="H39" s="288"/>
-      <c r="I39" s="288"/>
-      <c r="J39" s="288"/>
-      <c r="K39" s="289"/>
+      <c r="B39" s="484"/>
+      <c r="C39" s="484"/>
+      <c r="D39" s="484"/>
+      <c r="E39" s="484"/>
+      <c r="F39" s="484"/>
+      <c r="G39" s="484"/>
+      <c r="H39" s="484"/>
+      <c r="I39" s="484"/>
+      <c r="J39" s="484"/>
+      <c r="K39" s="485"/>
     </row>
     <row r="40" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="571" t="s">
+      <c r="A40" s="609" t="s">
         <v>335</v>
       </c>
-      <c r="B40" s="572"/>
-      <c r="C40" s="572"/>
-      <c r="D40" s="572"/>
-      <c r="E40" s="572"/>
-      <c r="F40" s="572"/>
-      <c r="G40" s="572"/>
-      <c r="H40" s="572"/>
-      <c r="I40" s="572"/>
-      <c r="J40" s="572"/>
-      <c r="K40" s="573"/>
+      <c r="B40" s="610"/>
+      <c r="C40" s="610"/>
+      <c r="D40" s="610"/>
+      <c r="E40" s="610"/>
+      <c r="F40" s="610"/>
+      <c r="G40" s="610"/>
+      <c r="H40" s="610"/>
+      <c r="I40" s="610"/>
+      <c r="J40" s="610"/>
+      <c r="K40" s="611"/>
     </row>
     <row r="41" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="126" t="s">
@@ -13015,143 +13015,143 @@
       <c r="C41" s="127" t="s">
         <v>338</v>
       </c>
-      <c r="D41" s="561" t="s">
+      <c r="D41" s="625" t="s">
         <v>339</v>
       </c>
-      <c r="E41" s="561"/>
-      <c r="F41" s="561"/>
-      <c r="G41" s="561"/>
-      <c r="H41" s="562"/>
+      <c r="E41" s="625"/>
+      <c r="F41" s="625"/>
+      <c r="G41" s="625"/>
+      <c r="H41" s="626"/>
       <c r="I41" s="127" t="s">
         <v>340</v>
       </c>
-      <c r="J41" s="561" t="s">
+      <c r="J41" s="625" t="s">
         <v>341</v>
       </c>
-      <c r="K41" s="368"/>
+      <c r="K41" s="419"/>
     </row>
     <row r="42" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="564"/>
-      <c r="B42" s="560"/>
-      <c r="C42" s="558"/>
-      <c r="D42" s="559"/>
-      <c r="E42" s="559"/>
-      <c r="F42" s="559"/>
-      <c r="G42" s="559"/>
-      <c r="H42" s="560"/>
-      <c r="I42" s="558"/>
-      <c r="J42" s="559"/>
-      <c r="K42" s="563"/>
+      <c r="A42" s="605"/>
+      <c r="B42" s="606"/>
+      <c r="C42" s="607"/>
+      <c r="D42" s="608"/>
+      <c r="E42" s="608"/>
+      <c r="F42" s="608"/>
+      <c r="G42" s="608"/>
+      <c r="H42" s="606"/>
+      <c r="I42" s="607"/>
+      <c r="J42" s="608"/>
+      <c r="K42" s="627"/>
     </row>
     <row r="43" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="564"/>
-      <c r="B43" s="560"/>
-      <c r="C43" s="558"/>
-      <c r="D43" s="559"/>
-      <c r="E43" s="559"/>
-      <c r="F43" s="559"/>
-      <c r="G43" s="559"/>
-      <c r="H43" s="560"/>
-      <c r="I43" s="558"/>
-      <c r="J43" s="559"/>
-      <c r="K43" s="563"/>
+      <c r="A43" s="605"/>
+      <c r="B43" s="606"/>
+      <c r="C43" s="607"/>
+      <c r="D43" s="608"/>
+      <c r="E43" s="608"/>
+      <c r="F43" s="608"/>
+      <c r="G43" s="608"/>
+      <c r="H43" s="606"/>
+      <c r="I43" s="607"/>
+      <c r="J43" s="608"/>
+      <c r="K43" s="627"/>
     </row>
     <row r="44" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="564"/>
-      <c r="B44" s="560"/>
-      <c r="C44" s="558"/>
-      <c r="D44" s="559"/>
-      <c r="E44" s="559"/>
-      <c r="F44" s="559"/>
-      <c r="G44" s="559"/>
-      <c r="H44" s="560"/>
-      <c r="I44" s="558"/>
-      <c r="J44" s="559"/>
-      <c r="K44" s="563"/>
+      <c r="A44" s="605"/>
+      <c r="B44" s="606"/>
+      <c r="C44" s="607"/>
+      <c r="D44" s="608"/>
+      <c r="E44" s="608"/>
+      <c r="F44" s="608"/>
+      <c r="G44" s="608"/>
+      <c r="H44" s="606"/>
+      <c r="I44" s="607"/>
+      <c r="J44" s="608"/>
+      <c r="K44" s="627"/>
     </row>
     <row r="45" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="564"/>
-      <c r="B45" s="560"/>
-      <c r="C45" s="558"/>
-      <c r="D45" s="559"/>
-      <c r="E45" s="559"/>
-      <c r="F45" s="559"/>
-      <c r="G45" s="559"/>
-      <c r="H45" s="560"/>
-      <c r="I45" s="558"/>
-      <c r="J45" s="559"/>
-      <c r="K45" s="563"/>
+      <c r="A45" s="605"/>
+      <c r="B45" s="606"/>
+      <c r="C45" s="607"/>
+      <c r="D45" s="608"/>
+      <c r="E45" s="608"/>
+      <c r="F45" s="608"/>
+      <c r="G45" s="608"/>
+      <c r="H45" s="606"/>
+      <c r="I45" s="607"/>
+      <c r="J45" s="608"/>
+      <c r="K45" s="627"/>
     </row>
     <row r="46" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="564"/>
-      <c r="B46" s="560"/>
-      <c r="C46" s="558"/>
-      <c r="D46" s="559"/>
-      <c r="E46" s="559"/>
-      <c r="F46" s="559"/>
-      <c r="G46" s="559"/>
-      <c r="H46" s="560"/>
-      <c r="I46" s="558"/>
-      <c r="J46" s="559"/>
-      <c r="K46" s="563"/>
+      <c r="A46" s="605"/>
+      <c r="B46" s="606"/>
+      <c r="C46" s="607"/>
+      <c r="D46" s="608"/>
+      <c r="E46" s="608"/>
+      <c r="F46" s="608"/>
+      <c r="G46" s="608"/>
+      <c r="H46" s="606"/>
+      <c r="I46" s="607"/>
+      <c r="J46" s="608"/>
+      <c r="K46" s="627"/>
     </row>
     <row r="47" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="564"/>
-      <c r="B47" s="560"/>
-      <c r="C47" s="558"/>
-      <c r="D47" s="559"/>
-      <c r="E47" s="559"/>
-      <c r="F47" s="559"/>
-      <c r="G47" s="559"/>
-      <c r="H47" s="560"/>
-      <c r="I47" s="558"/>
-      <c r="J47" s="559"/>
-      <c r="K47" s="563"/>
+      <c r="A47" s="605"/>
+      <c r="B47" s="606"/>
+      <c r="C47" s="607"/>
+      <c r="D47" s="608"/>
+      <c r="E47" s="608"/>
+      <c r="F47" s="608"/>
+      <c r="G47" s="608"/>
+      <c r="H47" s="606"/>
+      <c r="I47" s="607"/>
+      <c r="J47" s="608"/>
+      <c r="K47" s="627"/>
     </row>
     <row r="48" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="564"/>
-      <c r="B48" s="560"/>
-      <c r="C48" s="558"/>
-      <c r="D48" s="559"/>
-      <c r="E48" s="559"/>
-      <c r="F48" s="559"/>
-      <c r="G48" s="559"/>
-      <c r="H48" s="560"/>
-      <c r="I48" s="558"/>
-      <c r="J48" s="559"/>
-      <c r="K48" s="563"/>
+      <c r="A48" s="605"/>
+      <c r="B48" s="606"/>
+      <c r="C48" s="607"/>
+      <c r="D48" s="608"/>
+      <c r="E48" s="608"/>
+      <c r="F48" s="608"/>
+      <c r="G48" s="608"/>
+      <c r="H48" s="606"/>
+      <c r="I48" s="607"/>
+      <c r="J48" s="608"/>
+      <c r="K48" s="627"/>
     </row>
     <row r="49" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="287" t="s">
+      <c r="A49" s="483" t="s">
         <v>115</v>
       </c>
-      <c r="B49" s="288"/>
-      <c r="C49" s="288"/>
-      <c r="D49" s="288"/>
-      <c r="E49" s="288"/>
-      <c r="F49" s="288"/>
-      <c r="G49" s="288"/>
-      <c r="H49" s="288"/>
-      <c r="I49" s="288"/>
-      <c r="J49" s="288"/>
-      <c r="K49" s="545"/>
+      <c r="B49" s="484"/>
+      <c r="C49" s="484"/>
+      <c r="D49" s="484"/>
+      <c r="E49" s="484"/>
+      <c r="F49" s="484"/>
+      <c r="G49" s="484"/>
+      <c r="H49" s="484"/>
+      <c r="I49" s="484"/>
+      <c r="J49" s="484"/>
+      <c r="K49" s="513"/>
     </row>
     <row r="50" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="284" t="s">
+      <c r="A50" s="480" t="s">
         <v>144</v>
       </c>
-      <c r="B50" s="286"/>
-      <c r="C50" s="532"/>
-      <c r="D50" s="576"/>
-      <c r="E50" s="576"/>
-      <c r="F50" s="577"/>
-      <c r="G50" s="574" t="s">
+      <c r="B50" s="482"/>
+      <c r="C50" s="520"/>
+      <c r="D50" s="614"/>
+      <c r="E50" s="614"/>
+      <c r="F50" s="615"/>
+      <c r="G50" s="612" t="s">
         <v>145</v>
       </c>
-      <c r="H50" s="575"/>
-      <c r="I50" s="578"/>
-      <c r="J50" s="579"/>
-      <c r="K50" s="580"/>
+      <c r="H50" s="613"/>
+      <c r="I50" s="616"/>
+      <c r="J50" s="617"/>
+      <c r="K50" s="618"/>
       <c r="L50" s="209"/>
       <c r="M50" s="209"/>
     </row>
@@ -13163,21 +13163,69 @@
     <row r="52" spans="1:13" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="102">
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A14:K14"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="A49:K49"/>
+    <mergeCell ref="A39:K39"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I31:K31"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="B15:D17"/>
     <mergeCell ref="H9:K9"/>
@@ -13202,69 +13250,21 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="H7:K7"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="A49:K49"/>
-    <mergeCell ref="A39:K39"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A14:K14"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0" top="0.35433070866141736" bottom="0" header="0.31496062992125984" footer="0"/>
@@ -13279,7 +13279,7 @@
   </sheetPr>
   <dimension ref="A1:O77"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A52" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
@@ -13301,37 +13301,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="764"/>
-      <c r="B1" s="765"/>
-      <c r="C1" s="765"/>
-      <c r="D1" s="765"/>
-      <c r="E1" s="765"/>
-      <c r="F1" s="765"/>
-      <c r="G1" s="765"/>
-      <c r="H1" s="765"/>
-      <c r="I1" s="765"/>
-      <c r="J1" s="765"/>
-      <c r="K1" s="765"/>
-      <c r="L1" s="765"/>
-      <c r="M1" s="765"/>
-      <c r="N1" s="766"/>
+      <c r="A1" s="628"/>
+      <c r="B1" s="629"/>
+      <c r="C1" s="629"/>
+      <c r="D1" s="629"/>
+      <c r="E1" s="629"/>
+      <c r="F1" s="629"/>
+      <c r="G1" s="629"/>
+      <c r="H1" s="629"/>
+      <c r="I1" s="629"/>
+      <c r="J1" s="629"/>
+      <c r="K1" s="629"/>
+      <c r="L1" s="629"/>
+      <c r="M1" s="629"/>
+      <c r="N1" s="630"/>
     </row>
     <row r="2" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="739" t="s">
+      <c r="A2" s="653" t="s">
         <v>343</v>
       </c>
-      <c r="B2" s="740"/>
-      <c r="C2" s="769" t="s">
+      <c r="B2" s="654"/>
+      <c r="C2" s="633" t="s">
         <v>344</v>
       </c>
-      <c r="D2" s="769"/>
-      <c r="E2" s="769"/>
-      <c r="F2" s="770"/>
+      <c r="D2" s="633"/>
+      <c r="E2" s="633"/>
+      <c r="F2" s="634"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
       <c r="I2" s="27"/>
-      <c r="J2" s="767"/>
-      <c r="K2" s="767"/>
+      <c r="J2" s="631"/>
+      <c r="K2" s="631"/>
       <c r="L2" s="28"/>
       <c r="M2" s="28"/>
       <c r="N2" s="29"/>
@@ -13339,17 +13339,17 @@
     <row r="3" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30"/>
       <c r="B3" s="31"/>
-      <c r="C3" s="656" t="s">
+      <c r="C3" s="637" t="s">
         <v>345</v>
       </c>
-      <c r="D3" s="656"/>
-      <c r="E3" s="656"/>
-      <c r="F3" s="657"/>
+      <c r="D3" s="637"/>
+      <c r="E3" s="637"/>
+      <c r="F3" s="638"/>
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
       <c r="I3" s="32"/>
-      <c r="J3" s="768"/>
-      <c r="K3" s="768"/>
+      <c r="J3" s="632"/>
+      <c r="K3" s="632"/>
       <c r="L3" s="33"/>
       <c r="M3" s="33"/>
       <c r="N3" s="34"/>
@@ -13357,39 +13357,39 @@
     <row r="4" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
       <c r="B4" s="31"/>
-      <c r="C4" s="656" t="s">
+      <c r="C4" s="637" t="s">
         <v>346</v>
       </c>
-      <c r="D4" s="656"/>
-      <c r="E4" s="656"/>
-      <c r="F4" s="657"/>
+      <c r="D4" s="637"/>
+      <c r="E4" s="637"/>
+      <c r="F4" s="638"/>
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
       <c r="B5" s="31"/>
-      <c r="C5" s="656"/>
-      <c r="D5" s="656"/>
-      <c r="E5" s="656"/>
-      <c r="F5" s="657"/>
-      <c r="G5" s="761"/>
-      <c r="H5" s="761"/>
-      <c r="I5" s="761"/>
-      <c r="J5" s="761"/>
-      <c r="K5" s="761"/>
-      <c r="L5" s="761"/>
-      <c r="M5" s="761"/>
+      <c r="C5" s="637"/>
+      <c r="D5" s="637"/>
+      <c r="E5" s="637"/>
+      <c r="F5" s="638"/>
+      <c r="G5" s="655"/>
+      <c r="H5" s="655"/>
+      <c r="I5" s="655"/>
+      <c r="J5" s="655"/>
+      <c r="K5" s="655"/>
+      <c r="L5" s="655"/>
+      <c r="M5" s="655"/>
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30"/>
       <c r="B6" s="31"/>
-      <c r="C6" s="656" t="s">
+      <c r="C6" s="637" t="s">
         <v>347</v>
       </c>
-      <c r="D6" s="656"/>
-      <c r="E6" s="656"/>
-      <c r="F6" s="657"/>
+      <c r="D6" s="637"/>
+      <c r="E6" s="637"/>
+      <c r="F6" s="638"/>
       <c r="H6" s="253"/>
       <c r="I6" s="263" t="s">
         <v>348</v>
@@ -13418,12 +13418,12 @@
     <row r="8" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
       <c r="B8" s="31"/>
-      <c r="C8" s="656" t="s">
+      <c r="C8" s="637" t="s">
         <v>350</v>
       </c>
-      <c r="D8" s="656"/>
-      <c r="E8" s="656"/>
-      <c r="F8" s="657"/>
+      <c r="D8" s="637"/>
+      <c r="E8" s="637"/>
+      <c r="F8" s="638"/>
       <c r="H8" s="253"/>
       <c r="I8" s="263" t="s">
         <v>348</v>
@@ -13446,16 +13446,16 @@
     <row r="10" spans="1:14" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
       <c r="B10" s="31"/>
-      <c r="C10" s="656"/>
-      <c r="D10" s="656"/>
-      <c r="E10" s="656"/>
-      <c r="F10" s="657"/>
-      <c r="G10" s="629" t="s">
+      <c r="C10" s="637"/>
+      <c r="D10" s="637"/>
+      <c r="E10" s="637"/>
+      <c r="F10" s="638"/>
+      <c r="G10" s="651" t="s">
         <v>351</v>
       </c>
-      <c r="H10" s="630"/>
-      <c r="I10" s="630"/>
-      <c r="J10" s="630"/>
+      <c r="H10" s="652"/>
+      <c r="I10" s="652"/>
+      <c r="J10" s="652"/>
       <c r="K10" s="252"/>
       <c r="L10" s="252"/>
       <c r="M10" s="252"/>
@@ -13464,33 +13464,33 @@
     <row r="11" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30"/>
       <c r="B11" s="31"/>
-      <c r="C11" s="656"/>
-      <c r="D11" s="656"/>
-      <c r="E11" s="656"/>
-      <c r="F11" s="657"/>
-      <c r="G11" s="631"/>
-      <c r="H11" s="632"/>
-      <c r="I11" s="632"/>
-      <c r="J11" s="632"/>
-      <c r="K11" s="632"/>
-      <c r="L11" s="632"/>
-      <c r="M11" s="632"/>
+      <c r="C11" s="637"/>
+      <c r="D11" s="637"/>
+      <c r="E11" s="637"/>
+      <c r="F11" s="638"/>
+      <c r="G11" s="753"/>
+      <c r="H11" s="754"/>
+      <c r="I11" s="754"/>
+      <c r="J11" s="754"/>
+      <c r="K11" s="754"/>
+      <c r="L11" s="754"/>
+      <c r="M11" s="754"/>
       <c r="N11" s="81"/>
     </row>
     <row r="12" spans="1:14" ht="4.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
       <c r="B12" s="37"/>
-      <c r="C12" s="762"/>
-      <c r="D12" s="762"/>
-      <c r="E12" s="762"/>
-      <c r="F12" s="763"/>
-      <c r="G12" s="633"/>
-      <c r="H12" s="634"/>
-      <c r="I12" s="634"/>
-      <c r="J12" s="634"/>
-      <c r="K12" s="634"/>
-      <c r="L12" s="634"/>
-      <c r="M12" s="634"/>
+      <c r="C12" s="656"/>
+      <c r="D12" s="656"/>
+      <c r="E12" s="656"/>
+      <c r="F12" s="657"/>
+      <c r="G12" s="755"/>
+      <c r="H12" s="756"/>
+      <c r="I12" s="756"/>
+      <c r="J12" s="756"/>
+      <c r="K12" s="756"/>
+      <c r="L12" s="756"/>
+      <c r="M12" s="756"/>
       <c r="N12" s="116"/>
     </row>
     <row r="13" spans="1:14" ht="4.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -13510,16 +13510,16 @@
       <c r="N13" s="81"/>
     </row>
     <row r="14" spans="1:14" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="678" t="s">
+      <c r="A14" s="649" t="s">
         <v>352</v>
       </c>
-      <c r="B14" s="679"/>
-      <c r="C14" s="774" t="s">
+      <c r="B14" s="650"/>
+      <c r="C14" s="643" t="s">
         <v>353</v>
       </c>
-      <c r="D14" s="774"/>
-      <c r="E14" s="593"/>
-      <c r="F14" s="594"/>
+      <c r="D14" s="643"/>
+      <c r="E14" s="570"/>
+      <c r="F14" s="571"/>
       <c r="G14" s="239"/>
       <c r="H14" s="255"/>
       <c r="I14" s="263" t="s">
@@ -13536,51 +13536,51 @@
     <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="52"/>
       <c r="B15" s="53"/>
-      <c r="C15" s="774"/>
-      <c r="D15" s="774"/>
-      <c r="E15" s="593"/>
-      <c r="F15" s="594"/>
-      <c r="G15" s="629" t="s">
+      <c r="C15" s="643"/>
+      <c r="D15" s="643"/>
+      <c r="E15" s="570"/>
+      <c r="F15" s="571"/>
+      <c r="G15" s="651" t="s">
         <v>351</v>
       </c>
-      <c r="H15" s="630"/>
-      <c r="I15" s="630"/>
-      <c r="J15" s="630"/>
-      <c r="K15" s="630"/>
-      <c r="L15" s="630"/>
-      <c r="M15" s="630"/>
+      <c r="H15" s="652"/>
+      <c r="I15" s="652"/>
+      <c r="J15" s="652"/>
+      <c r="K15" s="652"/>
+      <c r="L15" s="652"/>
+      <c r="M15" s="652"/>
       <c r="N15" s="115"/>
     </row>
     <row r="16" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="52"/>
       <c r="B16" s="53"/>
-      <c r="C16" s="774"/>
-      <c r="D16" s="774"/>
-      <c r="E16" s="593"/>
-      <c r="F16" s="594"/>
-      <c r="G16" s="635"/>
-      <c r="H16" s="636"/>
-      <c r="I16" s="636"/>
-      <c r="J16" s="636"/>
-      <c r="K16" s="636"/>
-      <c r="L16" s="636"/>
-      <c r="M16" s="636"/>
+      <c r="C16" s="643"/>
+      <c r="D16" s="643"/>
+      <c r="E16" s="570"/>
+      <c r="F16" s="571"/>
+      <c r="G16" s="757"/>
+      <c r="H16" s="758"/>
+      <c r="I16" s="758"/>
+      <c r="J16" s="758"/>
+      <c r="K16" s="758"/>
+      <c r="L16" s="758"/>
+      <c r="M16" s="758"/>
       <c r="N16" s="115"/>
     </row>
     <row r="17" spans="1:14" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="39"/>
       <c r="B17" s="40"/>
-      <c r="C17" s="593"/>
-      <c r="D17" s="593"/>
-      <c r="E17" s="593"/>
-      <c r="F17" s="594"/>
-      <c r="G17" s="637"/>
-      <c r="H17" s="638"/>
-      <c r="I17" s="638"/>
-      <c r="J17" s="638"/>
-      <c r="K17" s="638"/>
-      <c r="L17" s="638"/>
-      <c r="M17" s="638"/>
+      <c r="C17" s="570"/>
+      <c r="D17" s="570"/>
+      <c r="E17" s="570"/>
+      <c r="F17" s="571"/>
+      <c r="G17" s="759"/>
+      <c r="H17" s="760"/>
+      <c r="I17" s="760"/>
+      <c r="J17" s="760"/>
+      <c r="K17" s="760"/>
+      <c r="L17" s="760"/>
+      <c r="M17" s="760"/>
       <c r="N17" s="113"/>
     </row>
     <row r="18" spans="1:14" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -13602,12 +13602,12 @@
     <row r="19" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="41"/>
       <c r="B19" s="42"/>
-      <c r="C19" s="683" t="s">
+      <c r="C19" s="745" t="s">
         <v>354</v>
       </c>
-      <c r="D19" s="683"/>
-      <c r="E19" s="684"/>
-      <c r="F19" s="685"/>
+      <c r="D19" s="745"/>
+      <c r="E19" s="746"/>
+      <c r="F19" s="747"/>
       <c r="G19" s="46"/>
       <c r="H19" s="256"/>
       <c r="I19" s="250" t="s">
@@ -13624,82 +13624,82 @@
     <row r="20" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="41"/>
       <c r="B20" s="42"/>
-      <c r="C20" s="683"/>
-      <c r="D20" s="683"/>
-      <c r="E20" s="684"/>
-      <c r="F20" s="685"/>
-      <c r="G20" s="629" t="s">
+      <c r="C20" s="745"/>
+      <c r="D20" s="745"/>
+      <c r="E20" s="746"/>
+      <c r="F20" s="747"/>
+      <c r="G20" s="651" t="s">
         <v>355</v>
       </c>
-      <c r="H20" s="630"/>
-      <c r="I20" s="630"/>
-      <c r="J20" s="630"/>
-      <c r="K20" s="647"/>
-      <c r="L20" s="647"/>
-      <c r="M20" s="647"/>
+      <c r="H20" s="652"/>
+      <c r="I20" s="652"/>
+      <c r="J20" s="652"/>
+      <c r="K20" s="769"/>
+      <c r="L20" s="769"/>
+      <c r="M20" s="769"/>
       <c r="N20" s="47"/>
     </row>
     <row r="21" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="41"/>
       <c r="B21" s="42"/>
-      <c r="C21" s="683"/>
-      <c r="D21" s="683"/>
-      <c r="E21" s="684"/>
-      <c r="F21" s="685"/>
+      <c r="C21" s="745"/>
+      <c r="D21" s="745"/>
+      <c r="E21" s="746"/>
+      <c r="F21" s="747"/>
       <c r="G21" s="46"/>
       <c r="H21" s="46"/>
-      <c r="I21" s="658" t="s">
+      <c r="I21" s="723" t="s">
         <v>356</v>
       </c>
-      <c r="J21" s="658"/>
+      <c r="J21" s="723"/>
       <c r="K21" s="220"/>
-      <c r="L21" s="648"/>
-      <c r="M21" s="648"/>
+      <c r="L21" s="770"/>
+      <c r="M21" s="770"/>
       <c r="N21" s="47"/>
     </row>
     <row r="22" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="41"/>
       <c r="B22" s="42"/>
-      <c r="C22" s="683"/>
-      <c r="D22" s="683"/>
-      <c r="E22" s="684"/>
-      <c r="F22" s="685"/>
-      <c r="G22" s="659" t="s">
+      <c r="C22" s="745"/>
+      <c r="D22" s="745"/>
+      <c r="E22" s="746"/>
+      <c r="F22" s="747"/>
+      <c r="G22" s="724" t="s">
         <v>357</v>
       </c>
-      <c r="H22" s="660"/>
-      <c r="I22" s="660"/>
-      <c r="J22" s="660"/>
+      <c r="H22" s="725"/>
+      <c r="I22" s="725"/>
+      <c r="J22" s="725"/>
       <c r="K22" s="220"/>
-      <c r="L22" s="649"/>
-      <c r="M22" s="649"/>
+      <c r="L22" s="771"/>
+      <c r="M22" s="771"/>
       <c r="N22" s="47"/>
     </row>
     <row r="23" spans="1:14" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="48"/>
       <c r="B23" s="49"/>
-      <c r="C23" s="686"/>
-      <c r="D23" s="686"/>
-      <c r="E23" s="686"/>
-      <c r="F23" s="687"/>
+      <c r="C23" s="748"/>
+      <c r="D23" s="748"/>
+      <c r="E23" s="748"/>
+      <c r="F23" s="749"/>
       <c r="G23" s="112" t="s">
         <v>358</v>
       </c>
       <c r="H23" s="214"/>
       <c r="I23" s="214"/>
-      <c r="J23" s="690"/>
-      <c r="K23" s="690"/>
-      <c r="L23" s="690"/>
+      <c r="J23" s="752"/>
+      <c r="K23" s="752"/>
+      <c r="L23" s="752"/>
       <c r="M23" s="117"/>
       <c r="N23" s="113"/>
     </row>
     <row r="24" spans="1:14" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="41"/>
       <c r="B24" s="42"/>
-      <c r="C24" s="656"/>
-      <c r="D24" s="656"/>
-      <c r="E24" s="656"/>
-      <c r="F24" s="657"/>
+      <c r="C24" s="637"/>
+      <c r="D24" s="637"/>
+      <c r="E24" s="637"/>
+      <c r="F24" s="638"/>
       <c r="G24" s="234"/>
       <c r="H24" s="234"/>
       <c r="I24" s="234"/>
@@ -13710,16 +13710,16 @@
       <c r="N24" s="111"/>
     </row>
     <row r="25" spans="1:14" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="678" t="s">
+      <c r="A25" s="649" t="s">
         <v>359</v>
       </c>
-      <c r="B25" s="679"/>
-      <c r="C25" s="722" t="s">
+      <c r="B25" s="650"/>
+      <c r="C25" s="640" t="s">
         <v>360</v>
       </c>
-      <c r="D25" s="722"/>
-      <c r="E25" s="722"/>
-      <c r="F25" s="723"/>
+      <c r="D25" s="640"/>
+      <c r="E25" s="640"/>
+      <c r="F25" s="639"/>
       <c r="G25" s="32"/>
       <c r="H25" s="255"/>
       <c r="I25" s="262" t="s">
@@ -13736,51 +13736,51 @@
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="39"/>
       <c r="B26" s="40"/>
-      <c r="C26" s="722"/>
-      <c r="D26" s="722"/>
-      <c r="E26" s="722"/>
-      <c r="F26" s="723"/>
-      <c r="G26" s="629" t="s">
+      <c r="C26" s="640"/>
+      <c r="D26" s="640"/>
+      <c r="E26" s="640"/>
+      <c r="F26" s="639"/>
+      <c r="G26" s="651" t="s">
         <v>355</v>
       </c>
-      <c r="H26" s="630"/>
-      <c r="I26" s="630"/>
-      <c r="J26" s="630"/>
-      <c r="K26" s="630"/>
-      <c r="L26" s="630"/>
-      <c r="M26" s="630"/>
+      <c r="H26" s="652"/>
+      <c r="I26" s="652"/>
+      <c r="J26" s="652"/>
+      <c r="K26" s="652"/>
+      <c r="L26" s="652"/>
+      <c r="M26" s="652"/>
       <c r="N26" s="111"/>
     </row>
     <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="39"/>
       <c r="B27" s="40"/>
-      <c r="C27" s="722"/>
-      <c r="D27" s="722"/>
-      <c r="E27" s="722"/>
-      <c r="F27" s="723"/>
-      <c r="G27" s="643"/>
-      <c r="H27" s="644"/>
-      <c r="I27" s="644"/>
-      <c r="J27" s="644"/>
-      <c r="K27" s="644"/>
-      <c r="L27" s="644"/>
-      <c r="M27" s="644"/>
+      <c r="C27" s="640"/>
+      <c r="D27" s="640"/>
+      <c r="E27" s="640"/>
+      <c r="F27" s="639"/>
+      <c r="G27" s="765"/>
+      <c r="H27" s="766"/>
+      <c r="I27" s="766"/>
+      <c r="J27" s="766"/>
+      <c r="K27" s="766"/>
+      <c r="L27" s="766"/>
+      <c r="M27" s="766"/>
       <c r="N27" s="111"/>
     </row>
     <row r="28" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="50"/>
       <c r="B28" s="51"/>
-      <c r="C28" s="724"/>
-      <c r="D28" s="724"/>
-      <c r="E28" s="724"/>
-      <c r="F28" s="725"/>
-      <c r="G28" s="645"/>
-      <c r="H28" s="646"/>
-      <c r="I28" s="646"/>
-      <c r="J28" s="646"/>
-      <c r="K28" s="646"/>
-      <c r="L28" s="646"/>
-      <c r="M28" s="646"/>
+      <c r="C28" s="647"/>
+      <c r="D28" s="647"/>
+      <c r="E28" s="647"/>
+      <c r="F28" s="648"/>
+      <c r="G28" s="767"/>
+      <c r="H28" s="768"/>
+      <c r="I28" s="768"/>
+      <c r="J28" s="768"/>
+      <c r="K28" s="768"/>
+      <c r="L28" s="768"/>
+      <c r="M28" s="768"/>
       <c r="N28" s="113"/>
     </row>
     <row r="29" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -13800,16 +13800,16 @@
       <c r="N29" s="111"/>
     </row>
     <row r="30" spans="1:14" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="678" t="s">
+      <c r="A30" s="649" t="s">
         <v>361</v>
       </c>
-      <c r="B30" s="679"/>
-      <c r="C30" s="722" t="s">
+      <c r="B30" s="650"/>
+      <c r="C30" s="640" t="s">
         <v>362</v>
       </c>
-      <c r="D30" s="722"/>
-      <c r="E30" s="722"/>
-      <c r="F30" s="723"/>
+      <c r="D30" s="640"/>
+      <c r="E30" s="640"/>
+      <c r="F30" s="639"/>
       <c r="G30" s="32"/>
       <c r="H30" s="255"/>
       <c r="I30" s="265" t="s">
@@ -13826,10 +13826,10 @@
     <row r="31" spans="1:14" ht="4.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="260"/>
       <c r="B31" s="261"/>
-      <c r="C31" s="722"/>
-      <c r="D31" s="722"/>
-      <c r="E31" s="722"/>
-      <c r="F31" s="723"/>
+      <c r="C31" s="640"/>
+      <c r="D31" s="640"/>
+      <c r="E31" s="640"/>
+      <c r="F31" s="639"/>
       <c r="G31" s="32"/>
       <c r="H31" s="205"/>
       <c r="I31" s="68"/>
@@ -13842,51 +13842,51 @@
     <row r="32" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="39"/>
       <c r="B32" s="40"/>
-      <c r="C32" s="722"/>
-      <c r="D32" s="722"/>
-      <c r="E32" s="722"/>
-      <c r="F32" s="723"/>
-      <c r="G32" s="688" t="s">
+      <c r="C32" s="640"/>
+      <c r="D32" s="640"/>
+      <c r="E32" s="640"/>
+      <c r="F32" s="639"/>
+      <c r="G32" s="750" t="s">
         <v>351</v>
       </c>
-      <c r="H32" s="689"/>
-      <c r="I32" s="689"/>
-      <c r="J32" s="689"/>
-      <c r="K32" s="689"/>
-      <c r="L32" s="689"/>
-      <c r="M32" s="689"/>
+      <c r="H32" s="751"/>
+      <c r="I32" s="751"/>
+      <c r="J32" s="751"/>
+      <c r="K32" s="751"/>
+      <c r="L32" s="751"/>
+      <c r="M32" s="751"/>
       <c r="N32" s="2"/>
     </row>
     <row r="33" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="39"/>
       <c r="B33" s="40"/>
-      <c r="C33" s="722"/>
-      <c r="D33" s="722"/>
-      <c r="E33" s="722"/>
-      <c r="F33" s="723"/>
-      <c r="G33" s="639"/>
-      <c r="H33" s="640"/>
-      <c r="I33" s="640"/>
-      <c r="J33" s="640"/>
-      <c r="K33" s="640"/>
-      <c r="L33" s="640"/>
-      <c r="M33" s="640"/>
+      <c r="C33" s="640"/>
+      <c r="D33" s="640"/>
+      <c r="E33" s="640"/>
+      <c r="F33" s="639"/>
+      <c r="G33" s="761"/>
+      <c r="H33" s="762"/>
+      <c r="I33" s="762"/>
+      <c r="J33" s="762"/>
+      <c r="K33" s="762"/>
+      <c r="L33" s="762"/>
+      <c r="M33" s="762"/>
       <c r="N33" s="111"/>
     </row>
     <row r="34" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="50"/>
       <c r="B34" s="51"/>
-      <c r="C34" s="724"/>
-      <c r="D34" s="724"/>
-      <c r="E34" s="724"/>
-      <c r="F34" s="725"/>
-      <c r="G34" s="641"/>
-      <c r="H34" s="642"/>
-      <c r="I34" s="642"/>
-      <c r="J34" s="642"/>
-      <c r="K34" s="642"/>
-      <c r="L34" s="642"/>
-      <c r="M34" s="642"/>
+      <c r="C34" s="647"/>
+      <c r="D34" s="647"/>
+      <c r="E34" s="647"/>
+      <c r="F34" s="648"/>
+      <c r="G34" s="763"/>
+      <c r="H34" s="764"/>
+      <c r="I34" s="764"/>
+      <c r="J34" s="764"/>
+      <c r="K34" s="764"/>
+      <c r="L34" s="764"/>
+      <c r="M34" s="764"/>
       <c r="N34" s="113"/>
     </row>
     <row r="35" spans="1:14" ht="3.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -13902,16 +13902,16 @@
       <c r="N35" s="111"/>
     </row>
     <row r="36" spans="1:14" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="678" t="s">
+      <c r="A36" s="649" t="s">
         <v>363</v>
       </c>
-      <c r="B36" s="679"/>
-      <c r="C36" s="722" t="s">
+      <c r="B36" s="650"/>
+      <c r="C36" s="640" t="s">
         <v>364</v>
       </c>
-      <c r="D36" s="722"/>
-      <c r="E36" s="722"/>
-      <c r="F36" s="723"/>
+      <c r="D36" s="640"/>
+      <c r="E36" s="640"/>
+      <c r="F36" s="639"/>
       <c r="G36" s="32"/>
       <c r="H36" s="255"/>
       <c r="I36" s="265" t="s">
@@ -13928,17 +13928,17 @@
     <row r="37" spans="1:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="39"/>
       <c r="B37" s="40"/>
-      <c r="C37" s="722"/>
-      <c r="D37" s="722"/>
-      <c r="E37" s="722"/>
-      <c r="F37" s="723"/>
-      <c r="G37" s="650" t="s">
+      <c r="C37" s="640"/>
+      <c r="D37" s="640"/>
+      <c r="E37" s="640"/>
+      <c r="F37" s="639"/>
+      <c r="G37" s="772" t="s">
         <v>365</v>
       </c>
-      <c r="H37" s="651"/>
-      <c r="I37" s="651"/>
-      <c r="J37" s="651"/>
-      <c r="K37" s="651"/>
+      <c r="H37" s="773"/>
+      <c r="I37" s="773"/>
+      <c r="J37" s="773"/>
+      <c r="K37" s="773"/>
       <c r="L37" s="691"/>
       <c r="M37" s="691"/>
       <c r="N37" s="111"/>
@@ -13962,12 +13962,12 @@
     <row r="39" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="39"/>
       <c r="B39" s="40"/>
-      <c r="C39" s="722" t="s">
+      <c r="C39" s="640" t="s">
         <v>366</v>
       </c>
-      <c r="D39" s="722"/>
-      <c r="E39" s="722"/>
-      <c r="F39" s="723"/>
+      <c r="D39" s="640"/>
+      <c r="E39" s="640"/>
+      <c r="F39" s="639"/>
       <c r="G39" s="110"/>
       <c r="H39" s="257"/>
       <c r="I39" s="262" t="s">
@@ -13984,17 +13984,17 @@
     <row r="40" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="39"/>
       <c r="B40" s="40"/>
-      <c r="C40" s="722"/>
-      <c r="D40" s="722"/>
-      <c r="E40" s="722"/>
-      <c r="F40" s="723"/>
-      <c r="G40" s="650" t="s">
+      <c r="C40" s="640"/>
+      <c r="D40" s="640"/>
+      <c r="E40" s="640"/>
+      <c r="F40" s="639"/>
+      <c r="G40" s="772" t="s">
         <v>365</v>
       </c>
-      <c r="H40" s="651"/>
-      <c r="I40" s="651"/>
-      <c r="J40" s="651"/>
-      <c r="K40" s="651"/>
+      <c r="H40" s="773"/>
+      <c r="I40" s="773"/>
+      <c r="J40" s="773"/>
+      <c r="K40" s="773"/>
       <c r="L40" s="691"/>
       <c r="M40" s="691"/>
       <c r="N40" s="111"/>
@@ -14002,10 +14002,10 @@
     <row r="41" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="50"/>
       <c r="B41" s="51"/>
-      <c r="C41" s="724"/>
-      <c r="D41" s="724"/>
-      <c r="E41" s="724"/>
-      <c r="F41" s="725"/>
+      <c r="C41" s="647"/>
+      <c r="D41" s="647"/>
+      <c r="E41" s="647"/>
+      <c r="F41" s="648"/>
       <c r="G41" s="114"/>
       <c r="H41" s="61"/>
       <c r="I41" s="61"/>
@@ -14031,16 +14031,16 @@
       <c r="N42" s="111"/>
     </row>
     <row r="43" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="678" t="s">
+      <c r="A43" s="649" t="s">
         <v>367</v>
       </c>
-      <c r="B43" s="679"/>
-      <c r="C43" s="774" t="s">
+      <c r="B43" s="650"/>
+      <c r="C43" s="643" t="s">
         <v>368</v>
       </c>
-      <c r="D43" s="774"/>
-      <c r="E43" s="774"/>
-      <c r="F43" s="775"/>
+      <c r="D43" s="643"/>
+      <c r="E43" s="643"/>
+      <c r="F43" s="644"/>
       <c r="G43" s="32"/>
       <c r="H43" s="255"/>
       <c r="I43" s="265" t="s">
@@ -14057,64 +14057,64 @@
     <row r="44" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="39"/>
       <c r="B44" s="40"/>
-      <c r="C44" s="774"/>
-      <c r="D44" s="774"/>
-      <c r="E44" s="774"/>
-      <c r="F44" s="775"/>
-      <c r="G44" s="629" t="s">
+      <c r="C44" s="643"/>
+      <c r="D44" s="643"/>
+      <c r="E44" s="643"/>
+      <c r="F44" s="644"/>
+      <c r="G44" s="651" t="s">
         <v>369</v>
       </c>
-      <c r="H44" s="630"/>
-      <c r="I44" s="630"/>
-      <c r="J44" s="630"/>
-      <c r="K44" s="630"/>
-      <c r="L44" s="630"/>
-      <c r="M44" s="630"/>
-      <c r="N44" s="682"/>
+      <c r="H44" s="652"/>
+      <c r="I44" s="652"/>
+      <c r="J44" s="652"/>
+      <c r="K44" s="652"/>
+      <c r="L44" s="652"/>
+      <c r="M44" s="652"/>
+      <c r="N44" s="744"/>
     </row>
     <row r="45" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="39"/>
       <c r="B45" s="40"/>
-      <c r="C45" s="774"/>
-      <c r="D45" s="774"/>
-      <c r="E45" s="774"/>
-      <c r="F45" s="775"/>
-      <c r="G45" s="643"/>
-      <c r="H45" s="644"/>
-      <c r="I45" s="644"/>
-      <c r="J45" s="644"/>
-      <c r="K45" s="644"/>
-      <c r="L45" s="644"/>
-      <c r="M45" s="644"/>
+      <c r="C45" s="643"/>
+      <c r="D45" s="643"/>
+      <c r="E45" s="643"/>
+      <c r="F45" s="644"/>
+      <c r="G45" s="765"/>
+      <c r="H45" s="766"/>
+      <c r="I45" s="766"/>
+      <c r="J45" s="766"/>
+      <c r="K45" s="766"/>
+      <c r="L45" s="766"/>
+      <c r="M45" s="766"/>
       <c r="N45" s="111"/>
     </row>
     <row r="46" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="50"/>
       <c r="B46" s="51"/>
-      <c r="C46" s="776"/>
-      <c r="D46" s="776"/>
-      <c r="E46" s="776"/>
-      <c r="F46" s="777"/>
-      <c r="G46" s="645"/>
-      <c r="H46" s="646"/>
-      <c r="I46" s="646"/>
-      <c r="J46" s="646"/>
-      <c r="K46" s="646"/>
-      <c r="L46" s="646"/>
-      <c r="M46" s="646"/>
+      <c r="C46" s="645"/>
+      <c r="D46" s="645"/>
+      <c r="E46" s="645"/>
+      <c r="F46" s="646"/>
+      <c r="G46" s="767"/>
+      <c r="H46" s="768"/>
+      <c r="I46" s="768"/>
+      <c r="J46" s="768"/>
+      <c r="K46" s="768"/>
+      <c r="L46" s="768"/>
+      <c r="M46" s="768"/>
       <c r="N46" s="113"/>
     </row>
     <row r="47" spans="1:14" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="772" t="s">
+      <c r="A47" s="641" t="s">
         <v>370</v>
       </c>
-      <c r="B47" s="773"/>
-      <c r="C47" s="722" t="s">
+      <c r="B47" s="642"/>
+      <c r="C47" s="640" t="s">
         <v>371</v>
       </c>
-      <c r="D47" s="722"/>
-      <c r="E47" s="722"/>
-      <c r="F47" s="723"/>
+      <c r="D47" s="640"/>
+      <c r="E47" s="640"/>
+      <c r="F47" s="639"/>
       <c r="G47" s="38"/>
       <c r="H47" s="38"/>
       <c r="I47" s="38"/>
@@ -14127,10 +14127,10 @@
     <row r="48" spans="1:14" ht="0.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="54"/>
       <c r="B48" s="55"/>
-      <c r="C48" s="722"/>
-      <c r="D48" s="722"/>
-      <c r="E48" s="722"/>
-      <c r="F48" s="723"/>
+      <c r="C48" s="640"/>
+      <c r="D48" s="640"/>
+      <c r="E48" s="640"/>
+      <c r="F48" s="639"/>
       <c r="G48" s="59"/>
       <c r="H48" s="59"/>
       <c r="I48" s="59"/>
@@ -14145,12 +14145,12 @@
         <v>372</v>
       </c>
       <c r="B49" s="55"/>
-      <c r="C49" s="722" t="s">
+      <c r="C49" s="640" t="s">
         <v>373</v>
       </c>
-      <c r="D49" s="722"/>
-      <c r="E49" s="722"/>
-      <c r="F49" s="723"/>
+      <c r="D49" s="640"/>
+      <c r="E49" s="640"/>
+      <c r="F49" s="639"/>
       <c r="H49" s="253"/>
       <c r="I49" s="263" t="s">
         <v>348</v>
@@ -14164,19 +14164,19 @@
     <row r="50" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="54"/>
       <c r="B50" s="55"/>
-      <c r="C50" s="722"/>
-      <c r="D50" s="722"/>
-      <c r="E50" s="722"/>
-      <c r="F50" s="723"/>
-      <c r="G50" s="652" t="s">
+      <c r="C50" s="640"/>
+      <c r="D50" s="640"/>
+      <c r="E50" s="640"/>
+      <c r="F50" s="639"/>
+      <c r="G50" s="774" t="s">
         <v>374</v>
       </c>
-      <c r="H50" s="653"/>
-      <c r="I50" s="653"/>
-      <c r="J50" s="653"/>
-      <c r="K50" s="628"/>
-      <c r="L50" s="628"/>
-      <c r="M50" s="628"/>
+      <c r="H50" s="775"/>
+      <c r="I50" s="775"/>
+      <c r="J50" s="775"/>
+      <c r="K50" s="690"/>
+      <c r="L50" s="690"/>
+      <c r="M50" s="690"/>
       <c r="N50" s="107"/>
       <c r="O50" s="61"/>
     </row>
@@ -14185,12 +14185,12 @@
         <v>375</v>
       </c>
       <c r="B51" s="55"/>
-      <c r="C51" s="723" t="s">
+      <c r="C51" s="639" t="s">
         <v>376</v>
       </c>
-      <c r="D51" s="723"/>
-      <c r="E51" s="723"/>
-      <c r="F51" s="723"/>
+      <c r="D51" s="639"/>
+      <c r="E51" s="639"/>
+      <c r="F51" s="639"/>
       <c r="H51" s="253"/>
       <c r="I51" s="263" t="s">
         <v>348</v>
@@ -14204,19 +14204,19 @@
     <row r="52" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="54"/>
       <c r="B52" s="55"/>
-      <c r="C52" s="723"/>
-      <c r="D52" s="723"/>
-      <c r="E52" s="723"/>
-      <c r="F52" s="723"/>
-      <c r="G52" s="654" t="s">
+      <c r="C52" s="639"/>
+      <c r="D52" s="639"/>
+      <c r="E52" s="639"/>
+      <c r="F52" s="639"/>
+      <c r="G52" s="776" t="s">
         <v>377</v>
       </c>
-      <c r="H52" s="655"/>
-      <c r="I52" s="655"/>
-      <c r="J52" s="655"/>
-      <c r="K52" s="655"/>
-      <c r="L52" s="628"/>
-      <c r="M52" s="628"/>
+      <c r="H52" s="777"/>
+      <c r="I52" s="777"/>
+      <c r="J52" s="777"/>
+      <c r="K52" s="777"/>
+      <c r="L52" s="690"/>
+      <c r="M52" s="690"/>
       <c r="N52" s="107"/>
       <c r="O52" s="61"/>
     </row>
@@ -14225,10 +14225,10 @@
         <v>378</v>
       </c>
       <c r="B53" s="55"/>
-      <c r="C53" s="722" t="s">
+      <c r="C53" s="640" t="s">
         <v>379</v>
       </c>
-      <c r="D53" s="722"/>
+      <c r="D53" s="640"/>
       <c r="E53" s="103"/>
       <c r="F53" s="104"/>
       <c r="H53" s="253"/>
@@ -14242,12 +14242,12 @@
       <c r="N53" s="2"/>
     </row>
     <row r="54" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="733"/>
-      <c r="B54" s="734"/>
-      <c r="C54" s="734"/>
-      <c r="D54" s="734"/>
-      <c r="E54" s="734"/>
-      <c r="F54" s="735"/>
+      <c r="A54" s="664"/>
+      <c r="B54" s="665"/>
+      <c r="C54" s="665"/>
+      <c r="D54" s="665"/>
+      <c r="E54" s="665"/>
+      <c r="F54" s="666"/>
       <c r="G54" s="172" t="s">
         <v>377</v>
       </c>
@@ -14255,18 +14255,18 @@
       <c r="I54" s="215"/>
       <c r="J54" s="108"/>
       <c r="K54" s="108"/>
-      <c r="L54" s="628"/>
-      <c r="M54" s="628"/>
+      <c r="L54" s="690"/>
+      <c r="M54" s="690"/>
       <c r="N54" s="109"/>
       <c r="O54" s="61"/>
     </row>
     <row r="55" spans="1:15" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="736"/>
-      <c r="B55" s="737"/>
-      <c r="C55" s="737"/>
-      <c r="D55" s="737"/>
-      <c r="E55" s="737"/>
-      <c r="F55" s="738"/>
+      <c r="A55" s="667"/>
+      <c r="B55" s="668"/>
+      <c r="C55" s="668"/>
+      <c r="D55" s="668"/>
+      <c r="E55" s="668"/>
+      <c r="F55" s="669"/>
       <c r="G55" s="105"/>
       <c r="H55" s="101"/>
       <c r="I55" s="101"/>
@@ -14278,10 +14278,10 @@
       <c r="O55" s="61"/>
     </row>
     <row r="56" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="680" t="s">
+      <c r="A56" s="742" t="s">
         <v>380</v>
       </c>
-      <c r="B56" s="681"/>
+      <c r="B56" s="743"/>
       <c r="C56" s="170" t="s">
         <v>381</v>
       </c>
@@ -14298,130 +14298,130 @@
       <c r="N56" s="230"/>
     </row>
     <row r="57" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="730" t="s">
+      <c r="A57" s="661" t="s">
         <v>382</v>
       </c>
-      <c r="B57" s="731"/>
-      <c r="C57" s="731"/>
-      <c r="D57" s="731"/>
-      <c r="E57" s="732"/>
+      <c r="B57" s="662"/>
+      <c r="C57" s="662"/>
+      <c r="D57" s="662"/>
+      <c r="E57" s="663"/>
       <c r="F57" s="225" t="s">
         <v>383</v>
       </c>
-      <c r="G57" s="367" t="s">
+      <c r="G57" s="418" t="s">
         <v>384</v>
       </c>
-      <c r="H57" s="561"/>
-      <c r="I57" s="561"/>
-      <c r="J57" s="368"/>
+      <c r="H57" s="625"/>
+      <c r="I57" s="625"/>
+      <c r="J57" s="419"/>
       <c r="K57" s="231"/>
-      <c r="L57" s="755" t="s">
+      <c r="L57" s="684" t="s">
         <v>385</v>
       </c>
-      <c r="M57" s="756"/>
+      <c r="M57" s="685"/>
       <c r="N57" s="233"/>
     </row>
     <row r="58" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="748"/>
-      <c r="B58" s="749"/>
-      <c r="C58" s="751"/>
-      <c r="D58" s="751"/>
-      <c r="E58" s="752"/>
+      <c r="A58" s="677"/>
+      <c r="B58" s="678"/>
+      <c r="C58" s="680"/>
+      <c r="D58" s="680"/>
+      <c r="E58" s="681"/>
       <c r="F58" s="62"/>
-      <c r="G58" s="741"/>
-      <c r="H58" s="742"/>
-      <c r="I58" s="742"/>
-      <c r="J58" s="743"/>
+      <c r="G58" s="670"/>
+      <c r="H58" s="671"/>
+      <c r="I58" s="671"/>
+      <c r="J58" s="672"/>
       <c r="K58" s="231"/>
-      <c r="L58" s="757"/>
-      <c r="M58" s="758"/>
+      <c r="L58" s="686"/>
+      <c r="M58" s="687"/>
       <c r="N58" s="233"/>
     </row>
     <row r="59" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="748"/>
-      <c r="B59" s="749"/>
-      <c r="C59" s="749"/>
-      <c r="D59" s="749"/>
-      <c r="E59" s="750"/>
+      <c r="A59" s="677"/>
+      <c r="B59" s="678"/>
+      <c r="C59" s="678"/>
+      <c r="D59" s="678"/>
+      <c r="E59" s="679"/>
       <c r="F59" s="62"/>
-      <c r="G59" s="741"/>
-      <c r="H59" s="742"/>
-      <c r="I59" s="742"/>
-      <c r="J59" s="743"/>
+      <c r="G59" s="670"/>
+      <c r="H59" s="671"/>
+      <c r="I59" s="671"/>
+      <c r="J59" s="672"/>
       <c r="K59" s="231"/>
-      <c r="L59" s="757"/>
-      <c r="M59" s="758"/>
+      <c r="L59" s="686"/>
+      <c r="M59" s="687"/>
       <c r="N59" s="233"/>
     </row>
     <row r="60" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="744"/>
-      <c r="B60" s="745"/>
-      <c r="C60" s="746"/>
-      <c r="D60" s="746"/>
-      <c r="E60" s="747"/>
+      <c r="A60" s="673"/>
+      <c r="B60" s="674"/>
+      <c r="C60" s="675"/>
+      <c r="D60" s="675"/>
+      <c r="E60" s="676"/>
       <c r="F60" s="177"/>
-      <c r="G60" s="727"/>
-      <c r="H60" s="728"/>
-      <c r="I60" s="728"/>
-      <c r="J60" s="729"/>
+      <c r="G60" s="658"/>
+      <c r="H60" s="659"/>
+      <c r="I60" s="659"/>
+      <c r="J60" s="660"/>
       <c r="K60" s="231"/>
-      <c r="L60" s="757"/>
-      <c r="M60" s="758"/>
+      <c r="L60" s="686"/>
+      <c r="M60" s="687"/>
       <c r="N60" s="233"/>
     </row>
     <row r="61" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="739" t="s">
+      <c r="A61" s="653" t="s">
         <v>386</v>
       </c>
-      <c r="B61" s="740"/>
-      <c r="C61" s="753" t="s">
+      <c r="B61" s="654"/>
+      <c r="C61" s="682" t="s">
         <v>387</v>
       </c>
-      <c r="D61" s="753"/>
-      <c r="E61" s="753"/>
-      <c r="F61" s="753"/>
-      <c r="G61" s="753"/>
-      <c r="H61" s="753"/>
-      <c r="I61" s="753"/>
+      <c r="D61" s="682"/>
+      <c r="E61" s="682"/>
+      <c r="F61" s="682"/>
+      <c r="G61" s="682"/>
+      <c r="H61" s="682"/>
+      <c r="I61" s="682"/>
       <c r="J61" s="216"/>
       <c r="K61" s="232"/>
-      <c r="L61" s="759"/>
-      <c r="M61" s="760"/>
+      <c r="L61" s="688"/>
+      <c r="M61" s="689"/>
       <c r="N61" s="233"/>
     </row>
     <row r="62" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="63"/>
       <c r="B62" s="64"/>
-      <c r="C62" s="754"/>
-      <c r="D62" s="754"/>
-      <c r="E62" s="754"/>
-      <c r="F62" s="754"/>
-      <c r="G62" s="754"/>
-      <c r="H62" s="754"/>
-      <c r="I62" s="754"/>
+      <c r="C62" s="683"/>
+      <c r="D62" s="683"/>
+      <c r="E62" s="683"/>
+      <c r="F62" s="683"/>
+      <c r="G62" s="683"/>
+      <c r="H62" s="683"/>
+      <c r="I62" s="683"/>
       <c r="J62" s="217"/>
       <c r="K62" s="176"/>
-      <c r="L62" s="726" t="s">
+      <c r="L62" s="635" t="s">
         <v>388</v>
       </c>
-      <c r="M62" s="726"/>
+      <c r="M62" s="635"/>
       <c r="N62" s="161"/>
     </row>
     <row r="63" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="63"/>
       <c r="B63" s="64"/>
-      <c r="C63" s="754"/>
-      <c r="D63" s="754"/>
-      <c r="E63" s="754"/>
-      <c r="F63" s="754"/>
-      <c r="G63" s="754"/>
-      <c r="H63" s="754"/>
-      <c r="I63" s="754"/>
+      <c r="C63" s="683"/>
+      <c r="D63" s="683"/>
+      <c r="E63" s="683"/>
+      <c r="F63" s="683"/>
+      <c r="G63" s="683"/>
+      <c r="H63" s="683"/>
+      <c r="I63" s="683"/>
       <c r="J63" s="217"/>
-      <c r="K63" s="726"/>
-      <c r="L63" s="726"/>
-      <c r="M63" s="726"/>
-      <c r="N63" s="771"/>
+      <c r="K63" s="635"/>
+      <c r="L63" s="635"/>
+      <c r="M63" s="635"/>
+      <c r="N63" s="636"/>
     </row>
     <row r="64" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="159"/>
@@ -14434,8 +14434,8 @@
       <c r="H64" s="218"/>
       <c r="I64" s="218"/>
       <c r="J64" s="219"/>
-      <c r="L64" s="712"/>
-      <c r="M64" s="713"/>
+      <c r="L64" s="713"/>
+      <c r="M64" s="714"/>
       <c r="N64" s="2"/>
     </row>
     <row r="65" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14448,40 +14448,40 @@
       <c r="H65" s="33"/>
       <c r="I65" s="33"/>
       <c r="J65" s="33"/>
-      <c r="L65" s="714"/>
-      <c r="M65" s="715"/>
+      <c r="L65" s="715"/>
+      <c r="M65" s="716"/>
       <c r="N65" s="2"/>
     </row>
     <row r="66" spans="1:14" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="65"/>
-      <c r="B66" s="670" t="s">
+      <c r="B66" s="735" t="s">
         <v>389</v>
       </c>
-      <c r="C66" s="671"/>
-      <c r="D66" s="672"/>
-      <c r="F66" s="661"/>
-      <c r="G66" s="662"/>
-      <c r="H66" s="662"/>
-      <c r="I66" s="662"/>
-      <c r="J66" s="663"/>
-      <c r="L66" s="714"/>
-      <c r="M66" s="715"/>
+      <c r="C66" s="736"/>
+      <c r="D66" s="737"/>
+      <c r="F66" s="726"/>
+      <c r="G66" s="727"/>
+      <c r="H66" s="727"/>
+      <c r="I66" s="727"/>
+      <c r="J66" s="728"/>
+      <c r="L66" s="715"/>
+      <c r="M66" s="716"/>
       <c r="N66" s="66"/>
     </row>
     <row r="67" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="65"/>
-      <c r="B67" s="718" t="s">
+      <c r="B67" s="719" t="s">
         <v>390</v>
       </c>
-      <c r="C67" s="719"/>
+      <c r="C67" s="720"/>
       <c r="D67" s="118"/>
-      <c r="F67" s="664"/>
-      <c r="G67" s="665"/>
-      <c r="H67" s="665"/>
-      <c r="I67" s="665"/>
-      <c r="J67" s="666"/>
-      <c r="L67" s="714"/>
-      <c r="M67" s="715"/>
+      <c r="F67" s="729"/>
+      <c r="G67" s="730"/>
+      <c r="H67" s="730"/>
+      <c r="I67" s="730"/>
+      <c r="J67" s="731"/>
+      <c r="L67" s="715"/>
+      <c r="M67" s="716"/>
       <c r="N67" s="66"/>
     </row>
     <row r="68" spans="1:14" ht="9" customHeight="1" x14ac:dyDescent="0.25">
@@ -14490,30 +14490,30 @@
         <v>391</v>
       </c>
       <c r="C68" s="708"/>
-      <c r="D68" s="673"/>
-      <c r="F68" s="667"/>
-      <c r="G68" s="668"/>
-      <c r="H68" s="668"/>
-      <c r="I68" s="668"/>
-      <c r="J68" s="669"/>
-      <c r="L68" s="714"/>
-      <c r="M68" s="715"/>
+      <c r="D68" s="711"/>
+      <c r="F68" s="732"/>
+      <c r="G68" s="733"/>
+      <c r="H68" s="733"/>
+      <c r="I68" s="733"/>
+      <c r="J68" s="734"/>
+      <c r="L68" s="715"/>
+      <c r="M68" s="716"/>
       <c r="N68" s="66"/>
     </row>
     <row r="69" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="65"/>
-      <c r="B69" s="720"/>
-      <c r="C69" s="721"/>
-      <c r="D69" s="674"/>
-      <c r="F69" s="675" t="s">
+      <c r="B69" s="721"/>
+      <c r="C69" s="722"/>
+      <c r="D69" s="738"/>
+      <c r="F69" s="739" t="s">
         <v>392</v>
       </c>
-      <c r="G69" s="676"/>
-      <c r="H69" s="676"/>
-      <c r="I69" s="676"/>
-      <c r="J69" s="677"/>
-      <c r="L69" s="714"/>
-      <c r="M69" s="715"/>
+      <c r="G69" s="740"/>
+      <c r="H69" s="740"/>
+      <c r="I69" s="740"/>
+      <c r="J69" s="741"/>
+      <c r="L69" s="715"/>
+      <c r="M69" s="716"/>
       <c r="N69" s="66"/>
     </row>
     <row r="70" spans="1:14" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14522,22 +14522,22 @@
         <v>393</v>
       </c>
       <c r="C70" s="708"/>
-      <c r="D70" s="673"/>
+      <c r="D70" s="711"/>
       <c r="F70" s="67"/>
       <c r="G70" s="162"/>
       <c r="H70" s="162"/>
       <c r="I70" s="162"/>
       <c r="J70" s="163"/>
       <c r="K70" s="68"/>
-      <c r="L70" s="716"/>
-      <c r="M70" s="717"/>
+      <c r="L70" s="717"/>
+      <c r="M70" s="718"/>
       <c r="N70" s="66"/>
     </row>
     <row r="71" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="65"/>
       <c r="B71" s="709"/>
       <c r="C71" s="710"/>
-      <c r="D71" s="711"/>
+      <c r="D71" s="712"/>
       <c r="F71" s="704" t="s">
         <v>394</v>
       </c>
@@ -14655,6 +14655,78 @@
     </row>
   </sheetData>
   <mergeCells count="88">
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G11:M12"/>
+    <mergeCell ref="G16:M17"/>
+    <mergeCell ref="G33:M34"/>
+    <mergeCell ref="G27:M28"/>
+    <mergeCell ref="G45:M46"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="G37:K37"/>
+    <mergeCell ref="G40:K40"/>
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="G52:K52"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="F66:J68"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="G44:N44"/>
+    <mergeCell ref="C19:F23"/>
+    <mergeCell ref="G32:M32"/>
+    <mergeCell ref="G26:M26"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A77:N77"/>
+    <mergeCell ref="E75:J75"/>
+    <mergeCell ref="E74:J74"/>
+    <mergeCell ref="A73:N73"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="B70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="L64:M70"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C69"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="C25:F28"/>
+    <mergeCell ref="C36:F37"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C39:F41"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="G60:J60"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A54:F55"/>
+    <mergeCell ref="G57:J57"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="G58:J58"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="G59:J59"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="C61:I63"/>
+    <mergeCell ref="L57:M61"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="G5:M5"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C8:F8"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="J3:K3"/>
@@ -14671,78 +14743,6 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:F17"/>
     <mergeCell ref="G15:M15"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="G5:M5"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C39:F41"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="G60:J60"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A54:F55"/>
-    <mergeCell ref="G57:J57"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="G58:J58"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="G59:J59"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="C61:I63"/>
-    <mergeCell ref="L57:M61"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="C25:F28"/>
-    <mergeCell ref="C36:F37"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A77:N77"/>
-    <mergeCell ref="E75:J75"/>
-    <mergeCell ref="E74:J74"/>
-    <mergeCell ref="A73:N73"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="B70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="L64:M70"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C69"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="F66:J68"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="G44:N44"/>
-    <mergeCell ref="C19:F23"/>
-    <mergeCell ref="G32:M32"/>
-    <mergeCell ref="G26:M26"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G11:M12"/>
-    <mergeCell ref="G16:M17"/>
-    <mergeCell ref="G33:M34"/>
-    <mergeCell ref="G27:M28"/>
-    <mergeCell ref="G45:M46"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="G37:K37"/>
-    <mergeCell ref="G40:K40"/>
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="G52:K52"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047" right="0" top="0.35433070866142002" bottom="0" header="0.15748031496063" footer="0"/>
